--- a/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63640ECE-2EDF-456D-B4AB-5A2A89F5E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5BF7DA-1787-4368-B0D0-F656E050ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4864" uniqueCount="3752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4864" uniqueCount="3754">
   <si>
     <t>id</t>
   </si>
@@ -9455,77 +9455,17 @@
     <t xml:space="preserve"> em #1</t>
   </si>
   <si>
-    <t>#1 foi morto por #3#2.</t>
-  </si>
-  <si>
-    <t>#1 morreu#2.</t>
-  </si>
-  <si>
     <t>#1 foi morto#2.</t>
-  </si>
-  <si>
-    <t>#1 foi reduzido a cinzas#2.</t>
-  </si>
-  <si>
-    <t>#1 foi congelado e transformado em uma escultura de gelo#2.</t>
-  </si>
-  <si>
-    <t>#1 foi atingido por um raio e morreu#2.</t>
-  </si>
-  <si>
-    <t>#1 foi consumido pela escuridão#2.</t>
-  </si>
-  <si>
-    <t>#1 foi para o céu#2.</t>
   </si>
   <si>
     <t>#1 perdeu a sanidade e cometeu suicídio#2._x000D_
 #1 perdeu a sanidade e se matou#2.</t>
   </si>
   <si>
-    <t>#1 foi envenenado até a morte#2.</t>
-  </si>
-  <si>
-    <t>#1 foi para o inferno#2.</t>
-  </si>
-  <si>
-    <t>#1 ressoou e se desfez#2.</t>
-  </si>
-  <si>
-    <t>#1 morreu de neurofibroma#2.</t>
-  </si>
-  <si>
-    <t>#1 foi sugado por um vórtice caótico#2.</t>
-  </si>
-  <si>
-    <t>#1 derreteu#2.</t>
-  </si>
-  <si>
-    <t>#1 foi cortado em tiras finas#2.</t>
-  </si>
-  <si>
-    <t>#1 foi arruinado#2.</t>
-  </si>
-  <si>
-    <t>#1 se afogou em éter#2.</t>
-  </si>
-  <si>
-    <t>#1 morreu de exaustão mágica#2.</t>
-  </si>
-  <si>
-    <t>#1 morreu de fome#2.</t>
-  </si>
-  <si>
-    <t>#1 morreu de excesso de trabalho#2.</t>
-  </si>
-  <si>
     <t>#1 se enforcou#2.</t>
   </si>
   <si>
     <t>#1 pereceu#2 após provocar a ira de #3.</t>
-  </si>
-  <si>
-    <t>#1 foi esmagado por sua bagagem#2.</t>
   </si>
   <si>
     <t>#1 caiu para a morte#2.</t>
@@ -11508,6 +11448,72 @@
   </si>
   <si>
     <t>#1 ressurg(e) das cinzas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karma (+#1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karma (#1) </t>
+  </si>
+  <si>
+    <t>#1 foi esmagado por sua bagagem #2.</t>
+  </si>
+  <si>
+    <t>#1 morreu de excesso de trabalho #2.</t>
+  </si>
+  <si>
+    <t>#1 morreu de fome #2.</t>
+  </si>
+  <si>
+    <t>#1 morreu de exaustão mágica #2.</t>
+  </si>
+  <si>
+    <t>#1 se afogou em éter #2.</t>
+  </si>
+  <si>
+    <t>#1 foi arruinado #2.</t>
+  </si>
+  <si>
+    <t>#1 foi cortado em tiras finas #2.</t>
+  </si>
+  <si>
+    <t>#1 derreteu #2.</t>
+  </si>
+  <si>
+    <t>#1 foi sugado por um vórtice caótico #2.</t>
+  </si>
+  <si>
+    <t>#1 morreu de neurofibroma #2.</t>
+  </si>
+  <si>
+    <t>#1 ressoou e se desfez #2.</t>
+  </si>
+  <si>
+    <t>#1 foi para o inferno #2.</t>
+  </si>
+  <si>
+    <t>#1 foi envenenado até a morte #2.</t>
+  </si>
+  <si>
+    <t>#1 foi para o céu #2.</t>
+  </si>
+  <si>
+    <t>#1 foi consumido pela escuridão #2.</t>
+  </si>
+  <si>
+    <t>#1 foi atingido por um raio e morreu #2.</t>
+  </si>
+  <si>
+    <t>#1 foi congelado e transformado em uma escultura de gelo #2.</t>
+  </si>
+  <si>
+    <t>#1 foi reduzido a cinzas #2.</t>
+  </si>
+  <si>
+    <t>#1 morreu #2.</t>
+  </si>
+  <si>
+    <t>#1 foi morto por #3 #2.</t>
   </si>
 </sst>
 </file>
@@ -11891,8 +11897,8 @@
   <dimension ref="A1:F931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D929" sqref="D929:D931"/>
+      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14557,7 +14563,7 @@
         <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>3087</v>
+        <v>3753</v>
       </c>
       <c r="E145" t="s">
         <v>722</v>
@@ -14577,7 +14583,7 @@
         <v>375</v>
       </c>
       <c r="D146" t="s">
-        <v>3088</v>
+        <v>3752</v>
       </c>
       <c r="E146" t="s">
         <v>725</v>
@@ -14597,7 +14603,7 @@
         <v>375</v>
       </c>
       <c r="D147" t="s">
-        <v>3090</v>
+        <v>3751</v>
       </c>
       <c r="E147" t="s">
         <v>731</v>
@@ -14617,7 +14623,7 @@
         <v>375</v>
       </c>
       <c r="D148" t="s">
-        <v>3091</v>
+        <v>3750</v>
       </c>
       <c r="E148" t="s">
         <v>734</v>
@@ -14637,7 +14643,7 @@
         <v>375</v>
       </c>
       <c r="D149" t="s">
-        <v>3092</v>
+        <v>3749</v>
       </c>
       <c r="E149" t="s">
         <v>737</v>
@@ -14657,7 +14663,7 @@
         <v>375</v>
       </c>
       <c r="D150" t="s">
-        <v>3093</v>
+        <v>3748</v>
       </c>
       <c r="E150" t="s">
         <v>740</v>
@@ -14677,7 +14683,7 @@
         <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>3094</v>
+        <v>3747</v>
       </c>
       <c r="E151" t="s">
         <v>743</v>
@@ -14697,7 +14703,7 @@
         <v>375</v>
       </c>
       <c r="D152" t="s">
-        <v>3096</v>
+        <v>3746</v>
       </c>
       <c r="E152" t="s">
         <v>749</v>
@@ -14717,7 +14723,7 @@
         <v>375</v>
       </c>
       <c r="D153" t="s">
-        <v>3097</v>
+        <v>3745</v>
       </c>
       <c r="E153" t="s">
         <v>752</v>
@@ -14737,7 +14743,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>3098</v>
+        <v>3744</v>
       </c>
       <c r="E154" t="s">
         <v>755</v>
@@ -14757,7 +14763,7 @@
         <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>3099</v>
+        <v>3743</v>
       </c>
       <c r="E155" t="s">
         <v>758</v>
@@ -14777,7 +14783,7 @@
         <v>375</v>
       </c>
       <c r="D156" t="s">
-        <v>3100</v>
+        <v>3742</v>
       </c>
       <c r="E156" t="s">
         <v>761</v>
@@ -14797,7 +14803,7 @@
         <v>375</v>
       </c>
       <c r="D157" t="s">
-        <v>3101</v>
+        <v>3741</v>
       </c>
       <c r="E157" t="s">
         <v>764</v>
@@ -14817,7 +14823,7 @@
         <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>3102</v>
+        <v>3740</v>
       </c>
       <c r="E158" t="s">
         <v>767</v>
@@ -14837,7 +14843,7 @@
         <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>3103</v>
+        <v>3739</v>
       </c>
       <c r="E159" t="s">
         <v>770</v>
@@ -14857,7 +14863,7 @@
         <v>375</v>
       </c>
       <c r="D160" t="s">
-        <v>3104</v>
+        <v>3738</v>
       </c>
       <c r="E160" t="s">
         <v>773</v>
@@ -14877,7 +14883,7 @@
         <v>375</v>
       </c>
       <c r="D161" t="s">
-        <v>3105</v>
+        <v>3737</v>
       </c>
       <c r="E161" t="s">
         <v>776</v>
@@ -14897,7 +14903,7 @@
         <v>375</v>
       </c>
       <c r="D162" t="s">
-        <v>3106</v>
+        <v>3736</v>
       </c>
       <c r="E162" t="s">
         <v>779</v>
@@ -14917,7 +14923,7 @@
         <v>375</v>
       </c>
       <c r="D163" t="s">
-        <v>3107</v>
+        <v>3735</v>
       </c>
       <c r="E163" t="s">
         <v>782</v>
@@ -14937,7 +14943,7 @@
         <v>375</v>
       </c>
       <c r="D164" t="s">
-        <v>3110</v>
+        <v>3734</v>
       </c>
       <c r="E164" t="s">
         <v>791</v>
@@ -14974,7 +14980,7 @@
         <v>2744</v>
       </c>
       <c r="D166" t="s">
-        <v>3114</v>
+        <v>3094</v>
       </c>
       <c r="E166" t="s">
         <v>806</v>
@@ -14991,7 +14997,7 @@
         <v>2744</v>
       </c>
       <c r="D167" t="s">
-        <v>3122</v>
+        <v>3102</v>
       </c>
       <c r="E167" t="s">
         <v>830</v>
@@ -15008,7 +15014,7 @@
         <v>2744</v>
       </c>
       <c r="D168" t="s">
-        <v>3126</v>
+        <v>3106</v>
       </c>
       <c r="E168" t="s">
         <v>842</v>
@@ -15025,7 +15031,7 @@
         <v>2744</v>
       </c>
       <c r="D169" t="s">
-        <v>3128</v>
+        <v>3108</v>
       </c>
       <c r="E169" t="s">
         <v>848</v>
@@ -15042,7 +15048,7 @@
         <v>2744</v>
       </c>
       <c r="D170" t="s">
-        <v>3129</v>
+        <v>3109</v>
       </c>
       <c r="E170" t="s">
         <v>851</v>
@@ -15062,7 +15068,7 @@
         <v>864</v>
       </c>
       <c r="D171" t="s">
-        <v>3133</v>
+        <v>3113</v>
       </c>
       <c r="E171" t="s">
         <v>865</v>
@@ -15079,7 +15085,7 @@
         <v>2744</v>
       </c>
       <c r="D172" t="s">
-        <v>3134</v>
+        <v>3114</v>
       </c>
       <c r="E172" t="s">
         <v>868</v>
@@ -15096,7 +15102,7 @@
         <v>2744</v>
       </c>
       <c r="D173" t="s">
-        <v>3135</v>
+        <v>3115</v>
       </c>
       <c r="E173" t="s">
         <v>871</v>
@@ -15113,7 +15119,7 @@
         <v>2744</v>
       </c>
       <c r="D174" t="s">
-        <v>3137</v>
+        <v>3117</v>
       </c>
       <c r="E174" t="s">
         <v>877</v>
@@ -15130,7 +15136,7 @@
         <v>2744</v>
       </c>
       <c r="D175" t="s">
-        <v>3138</v>
+        <v>3118</v>
       </c>
       <c r="E175" t="s">
         <v>880</v>
@@ -15147,7 +15153,7 @@
         <v>2744</v>
       </c>
       <c r="D176" t="s">
-        <v>3139</v>
+        <v>3119</v>
       </c>
       <c r="E176" t="s">
         <v>883</v>
@@ -15164,7 +15170,7 @@
         <v>2744</v>
       </c>
       <c r="D177" t="s">
-        <v>3140</v>
+        <v>3120</v>
       </c>
       <c r="E177" t="s">
         <v>886</v>
@@ -15181,7 +15187,7 @@
         <v>2744</v>
       </c>
       <c r="D178" t="s">
-        <v>3142</v>
+        <v>3122</v>
       </c>
       <c r="E178" t="s">
         <v>892</v>
@@ -15198,7 +15204,7 @@
         <v>2744</v>
       </c>
       <c r="D179" t="s">
-        <v>3143</v>
+        <v>3123</v>
       </c>
       <c r="E179" t="s">
         <v>895</v>
@@ -15215,7 +15221,7 @@
         <v>2744</v>
       </c>
       <c r="D180" t="s">
-        <v>3144</v>
+        <v>3124</v>
       </c>
       <c r="E180" t="s">
         <v>898</v>
@@ -15232,7 +15238,7 @@
         <v>2744</v>
       </c>
       <c r="D181" t="s">
-        <v>3145</v>
+        <v>3125</v>
       </c>
       <c r="E181" t="s">
         <v>901</v>
@@ -15249,7 +15255,7 @@
         <v>2744</v>
       </c>
       <c r="D182" t="s">
-        <v>3147</v>
+        <v>3127</v>
       </c>
       <c r="E182" t="s">
         <v>907</v>
@@ -15266,7 +15272,7 @@
         <v>2744</v>
       </c>
       <c r="D183" t="s">
-        <v>3148</v>
+        <v>3128</v>
       </c>
       <c r="E183" t="s">
         <v>910</v>
@@ -15283,7 +15289,7 @@
         <v>2744</v>
       </c>
       <c r="D184" t="s">
-        <v>3149</v>
+        <v>3129</v>
       </c>
       <c r="E184" t="s">
         <v>913</v>
@@ -15300,7 +15306,7 @@
         <v>2744</v>
       </c>
       <c r="D185" t="s">
-        <v>3150</v>
+        <v>3130</v>
       </c>
       <c r="E185" t="s">
         <v>916</v>
@@ -15317,7 +15323,7 @@
         <v>2744</v>
       </c>
       <c r="D186" t="s">
-        <v>3151</v>
+        <v>3131</v>
       </c>
       <c r="E186" t="s">
         <v>919</v>
@@ -15334,7 +15340,7 @@
         <v>2744</v>
       </c>
       <c r="D187" t="s">
-        <v>3152</v>
+        <v>3132</v>
       </c>
       <c r="E187" t="s">
         <v>922</v>
@@ -15351,7 +15357,7 @@
         <v>2744</v>
       </c>
       <c r="D188" t="s">
-        <v>3153</v>
+        <v>3133</v>
       </c>
       <c r="E188" t="s">
         <v>925</v>
@@ -15368,7 +15374,7 @@
         <v>2744</v>
       </c>
       <c r="D189" t="s">
-        <v>3154</v>
+        <v>3134</v>
       </c>
       <c r="E189" t="s">
         <v>928</v>
@@ -15385,7 +15391,7 @@
         <v>2744</v>
       </c>
       <c r="D190" t="s">
-        <v>3155</v>
+        <v>3135</v>
       </c>
       <c r="E190" t="s">
         <v>931</v>
@@ -15402,7 +15408,7 @@
         <v>2744</v>
       </c>
       <c r="D191" t="s">
-        <v>3161</v>
+        <v>3141</v>
       </c>
       <c r="E191" t="s">
         <v>949</v>
@@ -15419,7 +15425,7 @@
         <v>2744</v>
       </c>
       <c r="D192" t="s">
-        <v>3162</v>
+        <v>3142</v>
       </c>
       <c r="E192" t="s">
         <v>952</v>
@@ -15436,7 +15442,7 @@
         <v>2744</v>
       </c>
       <c r="D193" t="s">
-        <v>3163</v>
+        <v>3143</v>
       </c>
       <c r="E193" t="s">
         <v>955</v>
@@ -15453,7 +15459,7 @@
         <v>2744</v>
       </c>
       <c r="D194" t="s">
-        <v>3167</v>
+        <v>3147</v>
       </c>
       <c r="E194" t="s">
         <v>967</v>
@@ -15470,7 +15476,7 @@
         <v>2744</v>
       </c>
       <c r="D195" t="s">
-        <v>3168</v>
+        <v>3148</v>
       </c>
       <c r="E195" t="s">
         <v>970</v>
@@ -15487,7 +15493,7 @@
         <v>2744</v>
       </c>
       <c r="D196" t="s">
-        <v>3169</v>
+        <v>3149</v>
       </c>
       <c r="E196" t="s">
         <v>973</v>
@@ -15504,7 +15510,7 @@
         <v>2744</v>
       </c>
       <c r="D197" t="s">
-        <v>3170</v>
+        <v>3150</v>
       </c>
       <c r="E197" t="s">
         <v>976</v>
@@ -15521,7 +15527,7 @@
         <v>2744</v>
       </c>
       <c r="D198" t="s">
-        <v>3171</v>
+        <v>3151</v>
       </c>
       <c r="E198" t="s">
         <v>979</v>
@@ -15538,7 +15544,7 @@
         <v>2744</v>
       </c>
       <c r="D199" t="s">
-        <v>3172</v>
+        <v>3152</v>
       </c>
       <c r="E199" t="s">
         <v>982</v>
@@ -15555,7 +15561,7 @@
         <v>2744</v>
       </c>
       <c r="D200" t="s">
-        <v>3173</v>
+        <v>3153</v>
       </c>
       <c r="E200" t="s">
         <v>984</v>
@@ -15572,7 +15578,7 @@
         <v>2744</v>
       </c>
       <c r="D201" t="s">
-        <v>990</v>
+        <v>3732</v>
       </c>
       <c r="E201" t="s">
         <v>990</v>
@@ -15589,7 +15595,7 @@
         <v>2744</v>
       </c>
       <c r="D202" t="s">
-        <v>993</v>
+        <v>3733</v>
       </c>
       <c r="E202" t="s">
         <v>993</v>
@@ -15606,7 +15612,7 @@
         <v>2744</v>
       </c>
       <c r="D203" t="s">
-        <v>3175</v>
+        <v>3155</v>
       </c>
       <c r="E203" t="s">
         <v>996</v>
@@ -15623,7 +15629,7 @@
         <v>2744</v>
       </c>
       <c r="D204" t="s">
-        <v>3175</v>
+        <v>3155</v>
       </c>
       <c r="E204" t="s">
         <v>996</v>
@@ -15640,7 +15646,7 @@
         <v>2744</v>
       </c>
       <c r="D205" t="s">
-        <v>3176</v>
+        <v>3156</v>
       </c>
       <c r="E205" t="s">
         <v>1001</v>
@@ -15657,7 +15663,7 @@
         <v>2744</v>
       </c>
       <c r="D206" t="s">
-        <v>3177</v>
+        <v>3157</v>
       </c>
       <c r="E206" t="s">
         <v>1004</v>
@@ -15674,7 +15680,7 @@
         <v>2744</v>
       </c>
       <c r="D207" t="s">
-        <v>3178</v>
+        <v>3158</v>
       </c>
       <c r="E207" t="s">
         <v>1007</v>
@@ -15691,7 +15697,7 @@
         <v>2744</v>
       </c>
       <c r="D208" t="s">
-        <v>3179</v>
+        <v>3159</v>
       </c>
       <c r="E208" t="s">
         <v>1010</v>
@@ -15708,7 +15714,7 @@
         <v>2744</v>
       </c>
       <c r="D209" t="s">
-        <v>3180</v>
+        <v>3160</v>
       </c>
       <c r="E209" t="s">
         <v>1013</v>
@@ -15725,7 +15731,7 @@
         <v>2744</v>
       </c>
       <c r="D210" t="s">
-        <v>3181</v>
+        <v>3161</v>
       </c>
       <c r="E210" t="s">
         <v>1016</v>
@@ -15745,7 +15751,7 @@
         <v>1019</v>
       </c>
       <c r="D211" t="s">
-        <v>3182</v>
+        <v>3162</v>
       </c>
       <c r="E211" t="s">
         <v>1020</v>
@@ -15765,7 +15771,7 @@
         <v>1019</v>
       </c>
       <c r="D212" t="s">
-        <v>3183</v>
+        <v>3163</v>
       </c>
       <c r="E212" t="s">
         <v>1023</v>
@@ -15785,7 +15791,7 @@
         <v>1019</v>
       </c>
       <c r="D213" t="s">
-        <v>3186</v>
+        <v>3166</v>
       </c>
       <c r="E213" t="s">
         <v>1032</v>
@@ -15805,7 +15811,7 @@
         <v>1019</v>
       </c>
       <c r="D214" t="s">
-        <v>3187</v>
+        <v>3167</v>
       </c>
       <c r="E214" t="s">
         <v>1035</v>
@@ -15822,7 +15828,7 @@
         <v>2744</v>
       </c>
       <c r="D215" t="s">
-        <v>3195</v>
+        <v>3175</v>
       </c>
       <c r="E215" t="s">
         <v>1059</v>
@@ -15839,7 +15845,7 @@
         <v>2744</v>
       </c>
       <c r="D216" t="s">
-        <v>3196</v>
+        <v>3176</v>
       </c>
       <c r="E216" t="s">
         <v>1062</v>
@@ -15856,7 +15862,7 @@
         <v>2744</v>
       </c>
       <c r="D217" t="s">
-        <v>3197</v>
+        <v>3177</v>
       </c>
       <c r="E217" t="s">
         <v>1065</v>
@@ -15873,7 +15879,7 @@
         <v>2744</v>
       </c>
       <c r="D218" t="s">
-        <v>3198</v>
+        <v>3178</v>
       </c>
       <c r="E218" t="s">
         <v>1068</v>
@@ -15890,7 +15896,7 @@
         <v>2744</v>
       </c>
       <c r="D219" t="s">
-        <v>3156</v>
+        <v>3136</v>
       </c>
       <c r="E219" t="s">
         <v>1074</v>
@@ -15907,7 +15913,7 @@
         <v>2744</v>
       </c>
       <c r="D220" t="s">
-        <v>3200</v>
+        <v>3180</v>
       </c>
       <c r="E220" t="s">
         <v>1076</v>
@@ -15924,7 +15930,7 @@
         <v>2744</v>
       </c>
       <c r="D221" t="s">
-        <v>3201</v>
+        <v>3181</v>
       </c>
       <c r="E221" t="s">
         <v>1079</v>
@@ -15958,7 +15964,7 @@
         <v>2744</v>
       </c>
       <c r="D223" t="s">
-        <v>3202</v>
+        <v>3182</v>
       </c>
       <c r="E223" t="s">
         <v>1083</v>
@@ -15975,7 +15981,7 @@
         <v>2744</v>
       </c>
       <c r="D224" t="s">
-        <v>3203</v>
+        <v>3183</v>
       </c>
       <c r="E224" t="s">
         <v>1086</v>
@@ -15992,7 +15998,7 @@
         <v>2744</v>
       </c>
       <c r="D225" t="s">
-        <v>3205</v>
+        <v>3185</v>
       </c>
       <c r="E225" t="s">
         <v>1092</v>
@@ -16009,7 +16015,7 @@
         <v>2744</v>
       </c>
       <c r="D226" t="s">
-        <v>3206</v>
+        <v>3186</v>
       </c>
       <c r="E226" t="s">
         <v>1095</v>
@@ -16026,7 +16032,7 @@
         <v>2744</v>
       </c>
       <c r="D227" t="s">
-        <v>3208</v>
+        <v>3188</v>
       </c>
       <c r="E227" t="s">
         <v>1101</v>
@@ -16043,7 +16049,7 @@
         <v>2744</v>
       </c>
       <c r="D228" t="s">
-        <v>3210</v>
+        <v>3190</v>
       </c>
       <c r="E228" t="s">
         <v>1107</v>
@@ -16060,7 +16066,7 @@
         <v>2744</v>
       </c>
       <c r="D229" t="s">
-        <v>3211</v>
+        <v>3191</v>
       </c>
       <c r="E229" t="s">
         <v>1110</v>
@@ -16077,7 +16083,7 @@
         <v>2744</v>
       </c>
       <c r="D230" t="s">
-        <v>3212</v>
+        <v>3192</v>
       </c>
       <c r="E230" t="s">
         <v>1113</v>
@@ -16094,7 +16100,7 @@
         <v>2744</v>
       </c>
       <c r="D231" t="s">
-        <v>3215</v>
+        <v>3195</v>
       </c>
       <c r="E231" t="s">
         <v>1122</v>
@@ -16111,7 +16117,7 @@
         <v>2744</v>
       </c>
       <c r="D232" t="s">
-        <v>3216</v>
+        <v>3196</v>
       </c>
       <c r="E232" t="s">
         <v>1125</v>
@@ -16128,7 +16134,7 @@
         <v>2744</v>
       </c>
       <c r="D233" t="s">
-        <v>3230</v>
+        <v>3210</v>
       </c>
       <c r="E233" t="s">
         <v>1167</v>
@@ -16145,7 +16151,7 @@
         <v>2744</v>
       </c>
       <c r="D234" t="s">
-        <v>3231</v>
+        <v>3211</v>
       </c>
       <c r="E234" t="s">
         <v>1170</v>
@@ -16162,7 +16168,7 @@
         <v>2744</v>
       </c>
       <c r="D235" t="s">
-        <v>3234</v>
+        <v>3214</v>
       </c>
       <c r="E235" t="s">
         <v>1179</v>
@@ -16179,7 +16185,7 @@
         <v>2744</v>
       </c>
       <c r="D236" t="s">
-        <v>3235</v>
+        <v>3215</v>
       </c>
       <c r="E236" t="s">
         <v>1182</v>
@@ -16196,7 +16202,7 @@
         <v>2744</v>
       </c>
       <c r="D237" t="s">
-        <v>3236</v>
+        <v>3216</v>
       </c>
       <c r="E237" t="s">
         <v>1185</v>
@@ -16213,7 +16219,7 @@
         <v>2744</v>
       </c>
       <c r="D238" t="s">
-        <v>3237</v>
+        <v>3217</v>
       </c>
       <c r="E238" t="s">
         <v>1188</v>
@@ -16230,7 +16236,7 @@
         <v>2744</v>
       </c>
       <c r="D239" t="s">
-        <v>3238</v>
+        <v>3218</v>
       </c>
       <c r="E239" t="s">
         <v>1191</v>
@@ -16247,7 +16253,7 @@
         <v>2744</v>
       </c>
       <c r="D240" t="s">
-        <v>3239</v>
+        <v>3219</v>
       </c>
       <c r="E240" t="s">
         <v>1194</v>
@@ -16264,7 +16270,7 @@
         <v>2744</v>
       </c>
       <c r="D241" t="s">
-        <v>3240</v>
+        <v>3220</v>
       </c>
       <c r="E241" t="s">
         <v>1197</v>
@@ -16281,7 +16287,7 @@
         <v>2744</v>
       </c>
       <c r="D242" t="s">
-        <v>3242</v>
+        <v>3222</v>
       </c>
       <c r="E242" t="s">
         <v>1203</v>
@@ -16298,7 +16304,7 @@
         <v>2744</v>
       </c>
       <c r="D243" t="s">
-        <v>3246</v>
+        <v>3226</v>
       </c>
       <c r="E243" t="s">
         <v>1215</v>
@@ -16315,7 +16321,7 @@
         <v>2744</v>
       </c>
       <c r="D244" t="s">
-        <v>3247</v>
+        <v>3227</v>
       </c>
       <c r="E244" t="s">
         <v>1218</v>
@@ -16332,7 +16338,7 @@
         <v>2744</v>
       </c>
       <c r="D245" t="s">
-        <v>3248</v>
+        <v>3228</v>
       </c>
       <c r="E245" t="s">
         <v>1221</v>
@@ -16349,7 +16355,7 @@
         <v>2744</v>
       </c>
       <c r="D246" t="s">
-        <v>3249</v>
+        <v>3229</v>
       </c>
       <c r="E246" t="s">
         <v>1224</v>
@@ -16366,7 +16372,7 @@
         <v>2744</v>
       </c>
       <c r="D247" t="s">
-        <v>3253</v>
+        <v>3233</v>
       </c>
       <c r="E247" t="s">
         <v>1236</v>
@@ -16383,7 +16389,7 @@
         <v>2744</v>
       </c>
       <c r="D248" t="s">
-        <v>3254</v>
+        <v>3234</v>
       </c>
       <c r="E248" t="s">
         <v>1239</v>
@@ -16400,7 +16406,7 @@
         <v>2744</v>
       </c>
       <c r="D249" t="s">
-        <v>3255</v>
+        <v>3235</v>
       </c>
       <c r="E249" t="s">
         <v>1242</v>
@@ -16417,7 +16423,7 @@
         <v>2744</v>
       </c>
       <c r="D250" t="s">
-        <v>3257</v>
+        <v>3237</v>
       </c>
       <c r="E250" t="s">
         <v>1248</v>
@@ -16434,7 +16440,7 @@
         <v>2744</v>
       </c>
       <c r="D251" t="s">
-        <v>3258</v>
+        <v>3238</v>
       </c>
       <c r="E251" t="s">
         <v>1251</v>
@@ -16451,7 +16457,7 @@
         <v>2744</v>
       </c>
       <c r="D252" t="s">
-        <v>3263</v>
+        <v>3243</v>
       </c>
       <c r="E252" t="s">
         <v>1268</v>
@@ -16468,7 +16474,7 @@
         <v>2744</v>
       </c>
       <c r="D253" t="s">
-        <v>3264</v>
+        <v>3244</v>
       </c>
       <c r="E253" t="s">
         <v>1271</v>
@@ -16485,7 +16491,7 @@
         <v>2744</v>
       </c>
       <c r="D254" t="s">
-        <v>3265</v>
+        <v>3245</v>
       </c>
       <c r="E254" t="s">
         <v>1274</v>
@@ -16502,7 +16508,7 @@
         <v>2744</v>
       </c>
       <c r="D255" t="s">
-        <v>3267</v>
+        <v>3247</v>
       </c>
       <c r="E255" t="s">
         <v>1280</v>
@@ -16519,7 +16525,7 @@
         <v>2744</v>
       </c>
       <c r="D256" t="s">
-        <v>3268</v>
+        <v>3248</v>
       </c>
       <c r="E256" t="s">
         <v>1283</v>
@@ -16536,7 +16542,7 @@
         <v>2744</v>
       </c>
       <c r="D257" t="s">
-        <v>3278</v>
+        <v>3258</v>
       </c>
       <c r="E257" t="s">
         <v>1318</v>
@@ -16553,7 +16559,7 @@
         <v>2744</v>
       </c>
       <c r="D258" t="s">
-        <v>3279</v>
+        <v>3259</v>
       </c>
       <c r="E258" t="s">
         <v>1321</v>
@@ -16570,7 +16576,7 @@
         <v>2744</v>
       </c>
       <c r="D259" t="s">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="E259" t="s">
         <v>1327</v>
@@ -16587,7 +16593,7 @@
         <v>2744</v>
       </c>
       <c r="D260" t="s">
-        <v>3282</v>
+        <v>3262</v>
       </c>
       <c r="E260" t="s">
         <v>1332</v>
@@ -16604,7 +16610,7 @@
         <v>2744</v>
       </c>
       <c r="D261" t="s">
-        <v>3286</v>
+        <v>3266</v>
       </c>
       <c r="E261" t="s">
         <v>1344</v>
@@ -16621,7 +16627,7 @@
         <v>2744</v>
       </c>
       <c r="D262" t="s">
-        <v>3287</v>
+        <v>3267</v>
       </c>
       <c r="E262" t="s">
         <v>1347</v>
@@ -16638,7 +16644,7 @@
         <v>2744</v>
       </c>
       <c r="D263" t="s">
-        <v>3288</v>
+        <v>3268</v>
       </c>
       <c r="E263" t="s">
         <v>1350</v>
@@ -16655,7 +16661,7 @@
         <v>2744</v>
       </c>
       <c r="D264" t="s">
-        <v>3289</v>
+        <v>3269</v>
       </c>
       <c r="E264" t="s">
         <v>1353</v>
@@ -16672,7 +16678,7 @@
         <v>2744</v>
       </c>
       <c r="D265" t="s">
-        <v>3290</v>
+        <v>3270</v>
       </c>
       <c r="E265" t="s">
         <v>1356</v>
@@ -16689,7 +16695,7 @@
         <v>2744</v>
       </c>
       <c r="D266" t="s">
-        <v>3291</v>
+        <v>3271</v>
       </c>
       <c r="E266" t="s">
         <v>1359</v>
@@ -16706,7 +16712,7 @@
         <v>2744</v>
       </c>
       <c r="D267" t="s">
-        <v>3292</v>
+        <v>3272</v>
       </c>
       <c r="E267" t="s">
         <v>1362</v>
@@ -16723,7 +16729,7 @@
         <v>2744</v>
       </c>
       <c r="D268" t="s">
-        <v>3293</v>
+        <v>3273</v>
       </c>
       <c r="E268" t="s">
         <v>1365</v>
@@ -16740,7 +16746,7 @@
         <v>2744</v>
       </c>
       <c r="D269" t="s">
-        <v>3294</v>
+        <v>3274</v>
       </c>
       <c r="E269" t="s">
         <v>1368</v>
@@ -16757,7 +16763,7 @@
         <v>2744</v>
       </c>
       <c r="D270" t="s">
-        <v>3295</v>
+        <v>3275</v>
       </c>
       <c r="E270" t="s">
         <v>1371</v>
@@ -16774,7 +16780,7 @@
         <v>2744</v>
       </c>
       <c r="D271" t="s">
-        <v>3297</v>
+        <v>3277</v>
       </c>
       <c r="E271" t="s">
         <v>1377</v>
@@ -16791,7 +16797,7 @@
         <v>2744</v>
       </c>
       <c r="D272" t="s">
-        <v>3298</v>
+        <v>3278</v>
       </c>
       <c r="E272" t="s">
         <v>1380</v>
@@ -16808,7 +16814,7 @@
         <v>2744</v>
       </c>
       <c r="D273" t="s">
-        <v>3299</v>
+        <v>3279</v>
       </c>
       <c r="E273" t="s">
         <v>1383</v>
@@ -16825,7 +16831,7 @@
         <v>2744</v>
       </c>
       <c r="D274" t="s">
-        <v>3300</v>
+        <v>3280</v>
       </c>
       <c r="E274" t="s">
         <v>1386</v>
@@ -16842,7 +16848,7 @@
         <v>2744</v>
       </c>
       <c r="D275" t="s">
-        <v>3301</v>
+        <v>3281</v>
       </c>
       <c r="E275" t="s">
         <v>1389</v>
@@ -16859,7 +16865,7 @@
         <v>2744</v>
       </c>
       <c r="D276" t="s">
-        <v>3302</v>
+        <v>3282</v>
       </c>
       <c r="E276" t="s">
         <v>1392</v>
@@ -16876,7 +16882,7 @@
         <v>2744</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>3303</v>
+        <v>3283</v>
       </c>
       <c r="E277" t="s">
         <v>1395</v>
@@ -16893,7 +16899,7 @@
         <v>2744</v>
       </c>
       <c r="D278" t="s">
-        <v>3304</v>
+        <v>3284</v>
       </c>
       <c r="E278" t="s">
         <v>1398</v>
@@ -16910,7 +16916,7 @@
         <v>2744</v>
       </c>
       <c r="D279" t="s">
-        <v>3305</v>
+        <v>3285</v>
       </c>
       <c r="E279" t="s">
         <v>1401</v>
@@ -16927,7 +16933,7 @@
         <v>2744</v>
       </c>
       <c r="D280" t="s">
-        <v>3306</v>
+        <v>3286</v>
       </c>
       <c r="E280" t="s">
         <v>1404</v>
@@ -16944,7 +16950,7 @@
         <v>2744</v>
       </c>
       <c r="D281" t="s">
-        <v>3307</v>
+        <v>3287</v>
       </c>
       <c r="E281" t="s">
         <v>1407</v>
@@ -16961,7 +16967,7 @@
         <v>2744</v>
       </c>
       <c r="D282" t="s">
-        <v>3308</v>
+        <v>3288</v>
       </c>
       <c r="E282" t="s">
         <v>1410</v>
@@ -16978,7 +16984,7 @@
         <v>2744</v>
       </c>
       <c r="D283" t="s">
-        <v>3309</v>
+        <v>3289</v>
       </c>
       <c r="E283" t="s">
         <v>1413</v>
@@ -16995,7 +17001,7 @@
         <v>2744</v>
       </c>
       <c r="D284" t="s">
-        <v>3310</v>
+        <v>3290</v>
       </c>
       <c r="E284" t="s">
         <v>1416</v>
@@ -17012,7 +17018,7 @@
         <v>2744</v>
       </c>
       <c r="D285" t="s">
-        <v>3314</v>
+        <v>3294</v>
       </c>
       <c r="E285" t="s">
         <v>1428</v>
@@ -17029,7 +17035,7 @@
         <v>2744</v>
       </c>
       <c r="D286" t="s">
-        <v>3315</v>
+        <v>3295</v>
       </c>
       <c r="E286" t="s">
         <v>1431</v>
@@ -17046,7 +17052,7 @@
         <v>2744</v>
       </c>
       <c r="D287" t="s">
-        <v>3316</v>
+        <v>3296</v>
       </c>
       <c r="E287" t="s">
         <v>1434</v>
@@ -17063,7 +17069,7 @@
         <v>2744</v>
       </c>
       <c r="D288" t="s">
-        <v>3317</v>
+        <v>3297</v>
       </c>
       <c r="E288" t="s">
         <v>1437</v>
@@ -17080,7 +17086,7 @@
         <v>2744</v>
       </c>
       <c r="D289" t="s">
-        <v>3318</v>
+        <v>3298</v>
       </c>
       <c r="E289" t="s">
         <v>1440</v>
@@ -17097,7 +17103,7 @@
         <v>2744</v>
       </c>
       <c r="D290" t="s">
-        <v>3319</v>
+        <v>3299</v>
       </c>
       <c r="E290" t="s">
         <v>1443</v>
@@ -17114,7 +17120,7 @@
         <v>2744</v>
       </c>
       <c r="D291" t="s">
-        <v>3320</v>
+        <v>3300</v>
       </c>
       <c r="E291" t="s">
         <v>1446</v>
@@ -17131,7 +17137,7 @@
         <v>2744</v>
       </c>
       <c r="D292" t="s">
-        <v>3321</v>
+        <v>3301</v>
       </c>
       <c r="E292" t="s">
         <v>1449</v>
@@ -17148,7 +17154,7 @@
         <v>2744</v>
       </c>
       <c r="D293" t="s">
-        <v>3322</v>
+        <v>3302</v>
       </c>
       <c r="E293" t="s">
         <v>1452</v>
@@ -17165,7 +17171,7 @@
         <v>2744</v>
       </c>
       <c r="D294" t="s">
-        <v>3323</v>
+        <v>3303</v>
       </c>
       <c r="E294" t="s">
         <v>1455</v>
@@ -17182,7 +17188,7 @@
         <v>2744</v>
       </c>
       <c r="D295" t="s">
-        <v>3324</v>
+        <v>3304</v>
       </c>
       <c r="E295" t="s">
         <v>1458</v>
@@ -17202,7 +17208,7 @@
         <v>375</v>
       </c>
       <c r="D296" t="s">
-        <v>3326</v>
+        <v>3306</v>
       </c>
       <c r="E296" t="s">
         <v>1464</v>
@@ -17222,7 +17228,7 @@
         <v>375</v>
       </c>
       <c r="D297" t="s">
-        <v>3327</v>
+        <v>3307</v>
       </c>
       <c r="E297" t="s">
         <v>1467</v>
@@ -17239,7 +17245,7 @@
         <v>2744</v>
       </c>
       <c r="D298" t="s">
-        <v>3328</v>
+        <v>3308</v>
       </c>
       <c r="E298" t="s">
         <v>1470</v>
@@ -17256,7 +17262,7 @@
         <v>2744</v>
       </c>
       <c r="D299" t="s">
-        <v>3334</v>
+        <v>3314</v>
       </c>
       <c r="E299" t="s">
         <v>1488</v>
@@ -17273,7 +17279,7 @@
         <v>2744</v>
       </c>
       <c r="D300" t="s">
-        <v>3335</v>
+        <v>3315</v>
       </c>
       <c r="E300" t="s">
         <v>1491</v>
@@ -17310,7 +17316,7 @@
         <v>2744</v>
       </c>
       <c r="D302" t="s">
-        <v>3336</v>
+        <v>3316</v>
       </c>
       <c r="E302" t="s">
         <v>1498</v>
@@ -17327,7 +17333,7 @@
         <v>2744</v>
       </c>
       <c r="D303" t="s">
-        <v>3337</v>
+        <v>3317</v>
       </c>
       <c r="E303" t="s">
         <v>1501</v>
@@ -17361,7 +17367,7 @@
         <v>2744</v>
       </c>
       <c r="D305" t="s">
-        <v>3338</v>
+        <v>3318</v>
       </c>
       <c r="E305" t="s">
         <v>1505</v>
@@ -17378,7 +17384,7 @@
         <v>2744</v>
       </c>
       <c r="D306" t="s">
-        <v>3339</v>
+        <v>3319</v>
       </c>
       <c r="E306" t="s">
         <v>1508</v>
@@ -17395,7 +17401,7 @@
         <v>2744</v>
       </c>
       <c r="D307" t="s">
-        <v>3340</v>
+        <v>3320</v>
       </c>
       <c r="E307" t="s">
         <v>1511</v>
@@ -17412,7 +17418,7 @@
         <v>2744</v>
       </c>
       <c r="D308" t="s">
-        <v>3341</v>
+        <v>3321</v>
       </c>
       <c r="E308" t="s">
         <v>1514</v>
@@ -17429,7 +17435,7 @@
         <v>2744</v>
       </c>
       <c r="D309" t="s">
-        <v>3345</v>
+        <v>3325</v>
       </c>
       <c r="E309" t="s">
         <v>1526</v>
@@ -17446,7 +17452,7 @@
         <v>2744</v>
       </c>
       <c r="D310" t="s">
-        <v>3346</v>
+        <v>3326</v>
       </c>
       <c r="E310" t="s">
         <v>1529</v>
@@ -17463,7 +17469,7 @@
         <v>2744</v>
       </c>
       <c r="D311" t="s">
-        <v>3348</v>
+        <v>3328</v>
       </c>
       <c r="E311" t="s">
         <v>1535</v>
@@ -17480,7 +17486,7 @@
         <v>2744</v>
       </c>
       <c r="D312" t="s">
-        <v>3349</v>
+        <v>3329</v>
       </c>
       <c r="E312" t="s">
         <v>1538</v>
@@ -17497,7 +17503,7 @@
         <v>2744</v>
       </c>
       <c r="D313" t="s">
-        <v>3350</v>
+        <v>3330</v>
       </c>
       <c r="E313" t="s">
         <v>1541</v>
@@ -17514,7 +17520,7 @@
         <v>2744</v>
       </c>
       <c r="D314" t="s">
-        <v>3236</v>
+        <v>3216</v>
       </c>
       <c r="E314" t="s">
         <v>1185</v>
@@ -17531,7 +17537,7 @@
         <v>2744</v>
       </c>
       <c r="D315" t="s">
-        <v>3351</v>
+        <v>3331</v>
       </c>
       <c r="E315" t="s">
         <v>1546</v>
@@ -17548,7 +17554,7 @@
         <v>2744</v>
       </c>
       <c r="D316" t="s">
-        <v>3352</v>
+        <v>3332</v>
       </c>
       <c r="E316" t="s">
         <v>1549</v>
@@ -17565,7 +17571,7 @@
         <v>2744</v>
       </c>
       <c r="D317" t="s">
-        <v>3354</v>
+        <v>3334</v>
       </c>
       <c r="E317" t="s">
         <v>1555</v>
@@ -17582,7 +17588,7 @@
         <v>2744</v>
       </c>
       <c r="D318" t="s">
-        <v>3355</v>
+        <v>3335</v>
       </c>
       <c r="E318" t="s">
         <v>1558</v>
@@ -17599,7 +17605,7 @@
         <v>2744</v>
       </c>
       <c r="D319" t="s">
-        <v>3356</v>
+        <v>3336</v>
       </c>
       <c r="E319" t="s">
         <v>1561</v>
@@ -17616,7 +17622,7 @@
         <v>2744</v>
       </c>
       <c r="D320" t="s">
-        <v>3357</v>
+        <v>3337</v>
       </c>
       <c r="E320" t="s">
         <v>1564</v>
@@ -17633,7 +17639,7 @@
         <v>2744</v>
       </c>
       <c r="D321" t="s">
-        <v>3358</v>
+        <v>3338</v>
       </c>
       <c r="E321" t="s">
         <v>1567</v>
@@ -17650,7 +17656,7 @@
         <v>2744</v>
       </c>
       <c r="D322" t="s">
-        <v>3360</v>
+        <v>3340</v>
       </c>
       <c r="E322" t="s">
         <v>1573</v>
@@ -17667,7 +17673,7 @@
         <v>2744</v>
       </c>
       <c r="D323" t="s">
-        <v>3361</v>
+        <v>3341</v>
       </c>
       <c r="E323" t="s">
         <v>1576</v>
@@ -17687,7 +17693,7 @@
         <v>1582</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>3363</v>
+        <v>3343</v>
       </c>
       <c r="E324" t="s">
         <v>1583</v>
@@ -17707,7 +17713,7 @@
         <v>1582</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>3364</v>
+        <v>3344</v>
       </c>
       <c r="E325" t="s">
         <v>1586</v>
@@ -17727,7 +17733,7 @@
         <v>1582</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>3365</v>
+        <v>3345</v>
       </c>
       <c r="E326" t="s">
         <v>1589</v>
@@ -17747,7 +17753,7 @@
         <v>1582</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>3366</v>
+        <v>3346</v>
       </c>
       <c r="E327" t="s">
         <v>1592</v>
@@ -17767,7 +17773,7 @@
         <v>1582</v>
       </c>
       <c r="D328" t="s">
-        <v>3374</v>
+        <v>3354</v>
       </c>
       <c r="E328" t="s">
         <v>1616</v>
@@ -17787,7 +17793,7 @@
         <v>1582</v>
       </c>
       <c r="D329" t="s">
-        <v>3377</v>
+        <v>3357</v>
       </c>
       <c r="E329" t="s">
         <v>1625</v>
@@ -17807,7 +17813,7 @@
         <v>1582</v>
       </c>
       <c r="D330" t="s">
-        <v>3378</v>
+        <v>3358</v>
       </c>
       <c r="E330" t="s">
         <v>1628</v>
@@ -17827,7 +17833,7 @@
         <v>1582</v>
       </c>
       <c r="D331" t="s">
-        <v>3380</v>
+        <v>3360</v>
       </c>
       <c r="E331" t="s">
         <v>1635</v>
@@ -17847,7 +17853,7 @@
         <v>1582</v>
       </c>
       <c r="D332" t="s">
-        <v>3381</v>
+        <v>3361</v>
       </c>
       <c r="E332" t="s">
         <v>1638</v>
@@ -17867,7 +17873,7 @@
         <v>1582</v>
       </c>
       <c r="D333" t="s">
-        <v>3382</v>
+        <v>3362</v>
       </c>
       <c r="E333" t="s">
         <v>1641</v>
@@ -17884,7 +17890,7 @@
         <v>2744</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>3383</v>
+        <v>3363</v>
       </c>
       <c r="E334" t="s">
         <v>1644</v>
@@ -17901,7 +17907,7 @@
         <v>2744</v>
       </c>
       <c r="D335" t="s">
-        <v>3384</v>
+        <v>3364</v>
       </c>
       <c r="E335" t="s">
         <v>1647</v>
@@ -17918,7 +17924,7 @@
         <v>2744</v>
       </c>
       <c r="D336" t="s">
-        <v>3385</v>
+        <v>3365</v>
       </c>
       <c r="E336" t="s">
         <v>1650</v>
@@ -17935,7 +17941,7 @@
         <v>2744</v>
       </c>
       <c r="D337" t="s">
-        <v>3386</v>
+        <v>3366</v>
       </c>
       <c r="E337" t="s">
         <v>1653</v>
@@ -17952,7 +17958,7 @@
         <v>2744</v>
       </c>
       <c r="D338" t="s">
-        <v>3387</v>
+        <v>3367</v>
       </c>
       <c r="E338" t="s">
         <v>1656</v>
@@ -17969,7 +17975,7 @@
         <v>2744</v>
       </c>
       <c r="D339" t="s">
-        <v>3390</v>
+        <v>3370</v>
       </c>
       <c r="E339" t="s">
         <v>1665</v>
@@ -17986,7 +17992,7 @@
         <v>2744</v>
       </c>
       <c r="D340" t="s">
-        <v>3393</v>
+        <v>3373</v>
       </c>
       <c r="E340" t="s">
         <v>1674</v>
@@ -18003,7 +18009,7 @@
         <v>2744</v>
       </c>
       <c r="D341" t="s">
-        <v>3394</v>
+        <v>3374</v>
       </c>
       <c r="E341" t="s">
         <v>1677</v>
@@ -18020,7 +18026,7 @@
         <v>2744</v>
       </c>
       <c r="D342" t="s">
-        <v>3395</v>
+        <v>3375</v>
       </c>
       <c r="E342" t="s">
         <v>1680</v>
@@ -18037,7 +18043,7 @@
         <v>2744</v>
       </c>
       <c r="D343" t="s">
-        <v>3396</v>
+        <v>3376</v>
       </c>
       <c r="E343" t="s">
         <v>1683</v>
@@ -18125,7 +18131,7 @@
         <v>2755</v>
       </c>
       <c r="D348" t="s">
-        <v>3164</v>
+        <v>3144</v>
       </c>
       <c r="E348" t="s">
         <v>958</v>
@@ -18142,7 +18148,7 @@
         <v>2755</v>
       </c>
       <c r="D349" t="s">
-        <v>3174</v>
+        <v>3154</v>
       </c>
       <c r="E349" t="s">
         <v>987</v>
@@ -18159,7 +18165,7 @@
         <v>2755</v>
       </c>
       <c r="D350" t="s">
-        <v>3333</v>
+        <v>3313</v>
       </c>
       <c r="E350" t="s">
         <v>1485</v>
@@ -18176,7 +18182,7 @@
         <v>2755</v>
       </c>
       <c r="D351" t="s">
-        <v>3400</v>
+        <v>3380</v>
       </c>
       <c r="E351" t="s">
         <v>1698</v>
@@ -18193,7 +18199,7 @@
         <v>2755</v>
       </c>
       <c r="D352" t="s">
-        <v>3401</v>
+        <v>3381</v>
       </c>
       <c r="E352" t="s">
         <v>1701</v>
@@ -18210,7 +18216,7 @@
         <v>2755</v>
       </c>
       <c r="D353" t="s">
-        <v>3402</v>
+        <v>3382</v>
       </c>
       <c r="E353" t="s">
         <v>1704</v>
@@ -18227,7 +18233,7 @@
         <v>2755</v>
       </c>
       <c r="D354" t="s">
-        <v>3403</v>
+        <v>3383</v>
       </c>
       <c r="E354" t="s">
         <v>1706</v>
@@ -18244,7 +18250,7 @@
         <v>2755</v>
       </c>
       <c r="D355" t="s">
-        <v>3404</v>
+        <v>3384</v>
       </c>
       <c r="E355" t="s">
         <v>1709</v>
@@ -18261,7 +18267,7 @@
         <v>2755</v>
       </c>
       <c r="D356" t="s">
-        <v>3406</v>
+        <v>3386</v>
       </c>
       <c r="E356" t="s">
         <v>1715</v>
@@ -18278,7 +18284,7 @@
         <v>2755</v>
       </c>
       <c r="D357" t="s">
-        <v>3407</v>
+        <v>3387</v>
       </c>
       <c r="E357" t="s">
         <v>1718</v>
@@ -18295,7 +18301,7 @@
         <v>2755</v>
       </c>
       <c r="D358" t="s">
-        <v>3408</v>
+        <v>3388</v>
       </c>
       <c r="E358" t="s">
         <v>1721</v>
@@ -18312,7 +18318,7 @@
         <v>2755</v>
       </c>
       <c r="D359" t="s">
-        <v>3409</v>
+        <v>3389</v>
       </c>
       <c r="E359" t="s">
         <v>1724</v>
@@ -18329,7 +18335,7 @@
         <v>2755</v>
       </c>
       <c r="D360" t="s">
-        <v>3410</v>
+        <v>3390</v>
       </c>
       <c r="E360" t="s">
         <v>1727</v>
@@ -18346,7 +18352,7 @@
         <v>2755</v>
       </c>
       <c r="D361" t="s">
-        <v>3411</v>
+        <v>3391</v>
       </c>
       <c r="E361" t="s">
         <v>1730</v>
@@ -18363,7 +18369,7 @@
         <v>2755</v>
       </c>
       <c r="D362" t="s">
-        <v>3412</v>
+        <v>3392</v>
       </c>
       <c r="E362" t="s">
         <v>1733</v>
@@ -18397,7 +18403,7 @@
         <v>2755</v>
       </c>
       <c r="D364" t="s">
-        <v>3414</v>
+        <v>3394</v>
       </c>
       <c r="E364" t="s">
         <v>1742</v>
@@ -18417,7 +18423,7 @@
         <v>1745</v>
       </c>
       <c r="D365" t="s">
-        <v>3416</v>
+        <v>3396</v>
       </c>
       <c r="E365" t="s">
         <v>1752</v>
@@ -18457,7 +18463,7 @@
         <v>1745</v>
       </c>
       <c r="D367" t="s">
-        <v>3417</v>
+        <v>3397</v>
       </c>
       <c r="E367" t="s">
         <v>1756</v>
@@ -18494,7 +18500,7 @@
         <v>2755</v>
       </c>
       <c r="D369" t="s">
-        <v>3419</v>
+        <v>3399</v>
       </c>
       <c r="E369" t="s">
         <v>1763</v>
@@ -18511,7 +18517,7 @@
         <v>2755</v>
       </c>
       <c r="D370" t="s">
-        <v>3420</v>
+        <v>3400</v>
       </c>
       <c r="E370" t="s">
         <v>1766</v>
@@ -18528,7 +18534,7 @@
         <v>2755</v>
       </c>
       <c r="D371" t="s">
-        <v>3258</v>
+        <v>3238</v>
       </c>
       <c r="E371" t="s">
         <v>1769</v>
@@ -18545,7 +18551,7 @@
         <v>2755</v>
       </c>
       <c r="D372" t="s">
-        <v>3421</v>
+        <v>3401</v>
       </c>
       <c r="E372" t="s">
         <v>1772</v>
@@ -18562,7 +18568,7 @@
         <v>2755</v>
       </c>
       <c r="D373" t="s">
-        <v>3425</v>
+        <v>3405</v>
       </c>
       <c r="E373" t="s">
         <v>1784</v>
@@ -18579,7 +18585,7 @@
         <v>2795</v>
       </c>
       <c r="D374" t="s">
-        <v>3266</v>
+        <v>3246</v>
       </c>
       <c r="E374" t="s">
         <v>1277</v>
@@ -18599,7 +18605,7 @@
         <v>1745</v>
       </c>
       <c r="D375" t="s">
-        <v>3418</v>
+        <v>3398</v>
       </c>
       <c r="E375" t="s">
         <v>1760</v>
@@ -18616,7 +18622,7 @@
         <v>2795</v>
       </c>
       <c r="D376" t="s">
-        <v>3426</v>
+        <v>3406</v>
       </c>
       <c r="E376" t="s">
         <v>1787</v>
@@ -18633,7 +18639,7 @@
         <v>2795</v>
       </c>
       <c r="D377" t="s">
-        <v>3427</v>
+        <v>3407</v>
       </c>
       <c r="E377" t="s">
         <v>1790</v>
@@ -18670,7 +18676,7 @@
         <v>375</v>
       </c>
       <c r="D379" t="s">
-        <v>3111</v>
+        <v>3091</v>
       </c>
       <c r="E379" t="s">
         <v>794</v>
@@ -18687,7 +18693,7 @@
         <v>2775</v>
       </c>
       <c r="D380" t="s">
-        <v>3256</v>
+        <v>3236</v>
       </c>
       <c r="E380" t="s">
         <v>1245</v>
@@ -18704,7 +18710,7 @@
         <v>2775</v>
       </c>
       <c r="D381" t="s">
-        <v>3413</v>
+        <v>3393</v>
       </c>
       <c r="E381" t="s">
         <v>1739</v>
@@ -18724,7 +18730,7 @@
         <v>1745</v>
       </c>
       <c r="D382" t="s">
-        <v>3415</v>
+        <v>3395</v>
       </c>
       <c r="E382" t="s">
         <v>1746</v>
@@ -18761,7 +18767,7 @@
         <v>2775</v>
       </c>
       <c r="D384" t="s">
-        <v>3422</v>
+        <v>3402</v>
       </c>
       <c r="E384" t="s">
         <v>1775</v>
@@ -18778,7 +18784,7 @@
         <v>2775</v>
       </c>
       <c r="D385" t="s">
-        <v>3428</v>
+        <v>3408</v>
       </c>
       <c r="E385" t="s">
         <v>1793</v>
@@ -18795,7 +18801,7 @@
         <v>2775</v>
       </c>
       <c r="D386" t="s">
-        <v>3429</v>
+        <v>3409</v>
       </c>
       <c r="E386" t="s">
         <v>1796</v>
@@ -18812,7 +18818,7 @@
         <v>2775</v>
       </c>
       <c r="D387" t="s">
-        <v>3430</v>
+        <v>3410</v>
       </c>
       <c r="E387" t="s">
         <v>1799</v>
@@ -18829,7 +18835,7 @@
         <v>2775</v>
       </c>
       <c r="D388" t="s">
-        <v>3431</v>
+        <v>3411</v>
       </c>
       <c r="E388" t="s">
         <v>1802</v>
@@ -18846,7 +18852,7 @@
         <v>2775</v>
       </c>
       <c r="D389" t="s">
-        <v>3432</v>
+        <v>3412</v>
       </c>
       <c r="E389" t="s">
         <v>1805</v>
@@ -18863,7 +18869,7 @@
         <v>2775</v>
       </c>
       <c r="D390" t="s">
-        <v>3433</v>
+        <v>3413</v>
       </c>
       <c r="E390" t="s">
         <v>1808</v>
@@ -18931,7 +18937,7 @@
         <v>2773</v>
       </c>
       <c r="D394" t="s">
-        <v>3116</v>
+        <v>3096</v>
       </c>
       <c r="E394" t="s">
         <v>812</v>
@@ -18948,7 +18954,7 @@
         <v>2773</v>
       </c>
       <c r="D395" t="s">
-        <v>3117</v>
+        <v>3097</v>
       </c>
       <c r="E395" t="s">
         <v>815</v>
@@ -18965,7 +18971,7 @@
         <v>2773</v>
       </c>
       <c r="D396" t="s">
-        <v>3118</v>
+        <v>3098</v>
       </c>
       <c r="E396" t="s">
         <v>818</v>
@@ -18982,7 +18988,7 @@
         <v>2773</v>
       </c>
       <c r="D397" t="s">
-        <v>3120</v>
+        <v>3100</v>
       </c>
       <c r="E397" t="s">
         <v>824</v>
@@ -18999,7 +19005,7 @@
         <v>2773</v>
       </c>
       <c r="D398" t="s">
-        <v>3121</v>
+        <v>3101</v>
       </c>
       <c r="E398" t="s">
         <v>827</v>
@@ -19016,7 +19022,7 @@
         <v>2773</v>
       </c>
       <c r="D399" t="s">
-        <v>3123</v>
+        <v>3103</v>
       </c>
       <c r="E399" t="s">
         <v>833</v>
@@ -19033,7 +19039,7 @@
         <v>2773</v>
       </c>
       <c r="D400" t="s">
-        <v>3124</v>
+        <v>3104</v>
       </c>
       <c r="E400" t="s">
         <v>836</v>
@@ -19050,7 +19056,7 @@
         <v>2773</v>
       </c>
       <c r="D401" t="s">
-        <v>3125</v>
+        <v>3105</v>
       </c>
       <c r="E401" t="s">
         <v>839</v>
@@ -19067,7 +19073,7 @@
         <v>2773</v>
       </c>
       <c r="D402" t="s">
-        <v>3141</v>
+        <v>3121</v>
       </c>
       <c r="E402" t="s">
         <v>889</v>
@@ -19084,7 +19090,7 @@
         <v>2773</v>
       </c>
       <c r="D403" t="s">
-        <v>3243</v>
+        <v>3223</v>
       </c>
       <c r="E403" t="s">
         <v>1206</v>
@@ -19101,7 +19107,7 @@
         <v>2773</v>
       </c>
       <c r="D404" t="s">
-        <v>3244</v>
+        <v>3224</v>
       </c>
       <c r="E404" t="s">
         <v>1209</v>
@@ -19118,7 +19124,7 @@
         <v>2773</v>
       </c>
       <c r="D405" t="s">
-        <v>3245</v>
+        <v>3225</v>
       </c>
       <c r="E405" t="s">
         <v>1212</v>
@@ -19135,7 +19141,7 @@
         <v>2773</v>
       </c>
       <c r="D406" t="s">
-        <v>3311</v>
+        <v>3291</v>
       </c>
       <c r="E406" t="s">
         <v>1419</v>
@@ -19152,7 +19158,7 @@
         <v>2773</v>
       </c>
       <c r="D407" t="s">
-        <v>3312</v>
+        <v>3292</v>
       </c>
       <c r="E407" t="s">
         <v>1422</v>
@@ -19169,7 +19175,7 @@
         <v>2773</v>
       </c>
       <c r="D408" t="s">
-        <v>3329</v>
+        <v>3309</v>
       </c>
       <c r="E408" t="s">
         <v>1473</v>
@@ -19186,7 +19192,7 @@
         <v>2773</v>
       </c>
       <c r="D409" t="s">
-        <v>3330</v>
+        <v>3310</v>
       </c>
       <c r="E409" t="s">
         <v>1476</v>
@@ -19203,7 +19209,7 @@
         <v>2773</v>
       </c>
       <c r="D410" t="s">
-        <v>3347</v>
+        <v>3327</v>
       </c>
       <c r="E410" t="s">
         <v>1532</v>
@@ -19220,7 +19226,7 @@
         <v>2773</v>
       </c>
       <c r="D411" t="s">
-        <v>3434</v>
+        <v>3414</v>
       </c>
       <c r="E411" t="s">
         <v>1811</v>
@@ -19237,7 +19243,7 @@
         <v>2773</v>
       </c>
       <c r="D412" t="s">
-        <v>3436</v>
+        <v>3416</v>
       </c>
       <c r="E412" t="s">
         <v>1817</v>
@@ -19254,7 +19260,7 @@
         <v>2773</v>
       </c>
       <c r="D413" t="s">
-        <v>3437</v>
+        <v>3417</v>
       </c>
       <c r="E413" t="s">
         <v>1820</v>
@@ -19271,7 +19277,7 @@
         <v>2773</v>
       </c>
       <c r="D414" t="s">
-        <v>3438</v>
+        <v>3418</v>
       </c>
       <c r="E414" t="s">
         <v>1823</v>
@@ -19288,7 +19294,7 @@
         <v>2773</v>
       </c>
       <c r="D415" t="s">
-        <v>3439</v>
+        <v>3419</v>
       </c>
       <c r="E415" t="s">
         <v>1826</v>
@@ -19305,7 +19311,7 @@
         <v>2773</v>
       </c>
       <c r="D416" t="s">
-        <v>3440</v>
+        <v>3420</v>
       </c>
       <c r="E416" t="s">
         <v>1829</v>
@@ -19322,7 +19328,7 @@
         <v>2773</v>
       </c>
       <c r="D417" t="s">
-        <v>3441</v>
+        <v>3421</v>
       </c>
       <c r="E417" t="s">
         <v>1832</v>
@@ -19339,7 +19345,7 @@
         <v>2773</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>3442</v>
+        <v>3422</v>
       </c>
       <c r="E418" t="s">
         <v>1835</v>
@@ -19356,7 +19362,7 @@
         <v>2773</v>
       </c>
       <c r="D419" t="s">
-        <v>3448</v>
+        <v>3428</v>
       </c>
       <c r="E419" t="s">
         <v>1853</v>
@@ -19373,7 +19379,7 @@
         <v>2773</v>
       </c>
       <c r="D420" t="s">
-        <v>3449</v>
+        <v>3429</v>
       </c>
       <c r="E420" t="s">
         <v>1856</v>
@@ -19390,7 +19396,7 @@
         <v>2773</v>
       </c>
       <c r="D421" t="s">
-        <v>3451</v>
+        <v>3431</v>
       </c>
       <c r="E421" t="s">
         <v>1862</v>
@@ -19407,7 +19413,7 @@
         <v>2773</v>
       </c>
       <c r="D422" t="s">
-        <v>3452</v>
+        <v>3432</v>
       </c>
       <c r="E422" t="s">
         <v>1865</v>
@@ -19424,7 +19430,7 @@
         <v>2773</v>
       </c>
       <c r="D423" t="s">
-        <v>3453</v>
+        <v>3433</v>
       </c>
       <c r="E423" t="s">
         <v>1868</v>
@@ -19441,7 +19447,7 @@
         <v>2773</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>3454</v>
+        <v>3434</v>
       </c>
       <c r="E424" t="s">
         <v>1871</v>
@@ -19458,7 +19464,7 @@
         <v>2773</v>
       </c>
       <c r="D425" t="s">
-        <v>3455</v>
+        <v>3435</v>
       </c>
       <c r="E425" t="s">
         <v>1874</v>
@@ -19475,7 +19481,7 @@
         <v>2773</v>
       </c>
       <c r="D426" t="s">
-        <v>3456</v>
+        <v>3436</v>
       </c>
       <c r="E426" t="s">
         <v>1877</v>
@@ -19492,7 +19498,7 @@
         <v>2773</v>
       </c>
       <c r="D427" t="s">
-        <v>3457</v>
+        <v>3437</v>
       </c>
       <c r="E427" t="s">
         <v>1880</v>
@@ -19509,7 +19515,7 @@
         <v>2773</v>
       </c>
       <c r="D428" t="s">
-        <v>3459</v>
+        <v>3439</v>
       </c>
       <c r="E428" t="s">
         <v>1886</v>
@@ -19526,7 +19532,7 @@
         <v>2773</v>
       </c>
       <c r="D429" t="s">
-        <v>3460</v>
+        <v>3440</v>
       </c>
       <c r="E429" t="s">
         <v>1889</v>
@@ -19543,7 +19549,7 @@
         <v>2773</v>
       </c>
       <c r="D430" t="s">
-        <v>3461</v>
+        <v>3441</v>
       </c>
       <c r="E430" t="s">
         <v>1892</v>
@@ -19560,7 +19566,7 @@
         <v>2773</v>
       </c>
       <c r="D431" t="s">
-        <v>3462</v>
+        <v>3442</v>
       </c>
       <c r="E431" t="s">
         <v>1895</v>
@@ -19577,7 +19583,7 @@
         <v>2773</v>
       </c>
       <c r="D432" t="s">
-        <v>3463</v>
+        <v>3443</v>
       </c>
       <c r="E432" t="s">
         <v>1898</v>
@@ -19594,7 +19600,7 @@
         <v>2773</v>
       </c>
       <c r="D433" t="s">
-        <v>3464</v>
+        <v>3444</v>
       </c>
       <c r="E433" t="s">
         <v>1901</v>
@@ -19611,7 +19617,7 @@
         <v>2773</v>
       </c>
       <c r="D434" t="s">
-        <v>3465</v>
+        <v>3445</v>
       </c>
       <c r="E434" t="s">
         <v>1904</v>
@@ -19628,7 +19634,7 @@
         <v>2773</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>3466</v>
+        <v>3446</v>
       </c>
       <c r="E435" t="s">
         <v>1907</v>
@@ -19645,7 +19651,7 @@
         <v>2773</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>3467</v>
+        <v>3447</v>
       </c>
       <c r="E436" t="s">
         <v>1910</v>
@@ -19662,7 +19668,7 @@
         <v>2773</v>
       </c>
       <c r="D437" t="s">
-        <v>3469</v>
+        <v>3449</v>
       </c>
       <c r="E437" t="s">
         <v>1916</v>
@@ -19679,7 +19685,7 @@
         <v>2773</v>
       </c>
       <c r="D438" t="s">
-        <v>3471</v>
+        <v>3451</v>
       </c>
       <c r="E438" t="s">
         <v>1922</v>
@@ -19696,7 +19702,7 @@
         <v>2773</v>
       </c>
       <c r="D439" t="s">
-        <v>3472</v>
+        <v>3452</v>
       </c>
       <c r="E439" t="s">
         <v>1925</v>
@@ -19713,7 +19719,7 @@
         <v>2773</v>
       </c>
       <c r="D440" t="s">
-        <v>3473</v>
+        <v>3453</v>
       </c>
       <c r="E440" t="s">
         <v>1928</v>
@@ -19730,7 +19736,7 @@
         <v>2773</v>
       </c>
       <c r="D441" t="s">
-        <v>3474</v>
+        <v>3454</v>
       </c>
       <c r="E441" t="s">
         <v>1931</v>
@@ -20464,7 +20470,7 @@
         <v>2767</v>
       </c>
       <c r="D478" t="s">
-        <v>3258</v>
+        <v>3238</v>
       </c>
       <c r="E478" t="s">
         <v>1251</v>
@@ -20481,7 +20487,7 @@
         <v>2767</v>
       </c>
       <c r="D479" t="s">
-        <v>3259</v>
+        <v>3239</v>
       </c>
       <c r="E479" t="s">
         <v>1256</v>
@@ -20498,7 +20504,7 @@
         <v>2767</v>
       </c>
       <c r="D480" t="s">
-        <v>3260</v>
+        <v>3240</v>
       </c>
       <c r="E480" t="s">
         <v>1259</v>
@@ -20515,7 +20521,7 @@
         <v>2767</v>
       </c>
       <c r="D481" t="s">
-        <v>3261</v>
+        <v>3241</v>
       </c>
       <c r="E481" t="s">
         <v>1262</v>
@@ -20532,7 +20538,7 @@
         <v>2767</v>
       </c>
       <c r="D482" t="s">
-        <v>3262</v>
+        <v>3242</v>
       </c>
       <c r="E482" t="s">
         <v>1265</v>
@@ -20549,7 +20555,7 @@
         <v>2767</v>
       </c>
       <c r="D483" t="s">
-        <v>3281</v>
+        <v>3261</v>
       </c>
       <c r="E483" t="s">
         <v>1327</v>
@@ -20566,7 +20572,7 @@
         <v>2767</v>
       </c>
       <c r="D484" t="s">
-        <v>3296</v>
+        <v>3276</v>
       </c>
       <c r="E484" t="s">
         <v>1374</v>
@@ -20583,7 +20589,7 @@
         <v>2767</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>3475</v>
+        <v>3455</v>
       </c>
       <c r="E485" t="s">
         <v>1934</v>
@@ -20600,7 +20606,7 @@
         <v>2767</v>
       </c>
       <c r="D486" t="s">
-        <v>3479</v>
+        <v>3459</v>
       </c>
       <c r="E486" t="s">
         <v>1946</v>
@@ -20617,7 +20623,7 @@
         <v>2767</v>
       </c>
       <c r="D487" t="s">
-        <v>3481</v>
+        <v>3461</v>
       </c>
       <c r="E487" t="s">
         <v>1952</v>
@@ -20774,7 +20780,7 @@
         <v>375</v>
       </c>
       <c r="D495" t="s">
-        <v>3112</v>
+        <v>3092</v>
       </c>
       <c r="E495" t="s">
         <v>797</v>
@@ -20794,7 +20800,7 @@
         <v>375</v>
       </c>
       <c r="D496" t="s">
-        <v>3113</v>
+        <v>3093</v>
       </c>
       <c r="E496" t="s">
         <v>800</v>
@@ -20811,7 +20817,7 @@
         <v>2756</v>
       </c>
       <c r="D497" t="s">
-        <v>3156</v>
+        <v>3136</v>
       </c>
       <c r="E497" t="s">
         <v>934</v>
@@ -20828,7 +20834,7 @@
         <v>2756</v>
       </c>
       <c r="D498" t="s">
-        <v>3159</v>
+        <v>3139</v>
       </c>
       <c r="E498" t="s">
         <v>943</v>
@@ -20845,7 +20851,7 @@
         <v>2756</v>
       </c>
       <c r="D499" t="s">
-        <v>3160</v>
+        <v>3140</v>
       </c>
       <c r="E499" t="s">
         <v>946</v>
@@ -20862,7 +20868,7 @@
         <v>2756</v>
       </c>
       <c r="D500" t="s">
-        <v>3199</v>
+        <v>3179</v>
       </c>
       <c r="E500" t="s">
         <v>1071</v>
@@ -20879,7 +20885,7 @@
         <v>2756</v>
       </c>
       <c r="D501" t="s">
-        <v>3213</v>
+        <v>3193</v>
       </c>
       <c r="E501" t="s">
         <v>1116</v>
@@ -20896,7 +20902,7 @@
         <v>2756</v>
       </c>
       <c r="D502" t="s">
-        <v>3214</v>
+        <v>3194</v>
       </c>
       <c r="E502" t="s">
         <v>1119</v>
@@ -20913,7 +20919,7 @@
         <v>2756</v>
       </c>
       <c r="D503" t="s">
-        <v>3331</v>
+        <v>3311</v>
       </c>
       <c r="E503" t="s">
         <v>1479</v>
@@ -20933,7 +20939,7 @@
         <v>1582</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>3367</v>
+        <v>3347</v>
       </c>
       <c r="E504" t="s">
         <v>1595</v>
@@ -20953,7 +20959,7 @@
         <v>1582</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>3368</v>
+        <v>3348</v>
       </c>
       <c r="E505" t="s">
         <v>1598</v>
@@ -20973,7 +20979,7 @@
         <v>1582</v>
       </c>
       <c r="D506" t="s">
-        <v>3369</v>
+        <v>3349</v>
       </c>
       <c r="E506" t="s">
         <v>1601</v>
@@ -20993,7 +20999,7 @@
         <v>1582</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>3370</v>
+        <v>3350</v>
       </c>
       <c r="E507" t="s">
         <v>1604</v>
@@ -21013,7 +21019,7 @@
         <v>1582</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>3371</v>
+        <v>3351</v>
       </c>
       <c r="E508" t="s">
         <v>1607</v>
@@ -21033,7 +21039,7 @@
         <v>1582</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>3372</v>
+        <v>3352</v>
       </c>
       <c r="E509" t="s">
         <v>1610</v>
@@ -21053,7 +21059,7 @@
         <v>1582</v>
       </c>
       <c r="D510" t="s">
-        <v>3373</v>
+        <v>3353</v>
       </c>
       <c r="E510" t="s">
         <v>1613</v>
@@ -21073,7 +21079,7 @@
         <v>1631</v>
       </c>
       <c r="D511" t="s">
-        <v>3379</v>
+        <v>3359</v>
       </c>
       <c r="E511" t="s">
         <v>1632</v>
@@ -21090,7 +21096,7 @@
         <v>2756</v>
       </c>
       <c r="D512" t="s">
-        <v>3397</v>
+        <v>3377</v>
       </c>
       <c r="E512" t="s">
         <v>1689</v>
@@ -21107,7 +21113,7 @@
         <v>2756</v>
       </c>
       <c r="D513" t="s">
-        <v>3398</v>
+        <v>3378</v>
       </c>
       <c r="E513" t="s">
         <v>1692</v>
@@ -21124,7 +21130,7 @@
         <v>2756</v>
       </c>
       <c r="D514" t="s">
-        <v>3495</v>
+        <v>3475</v>
       </c>
       <c r="E514" t="s">
         <v>1994</v>
@@ -21141,7 +21147,7 @@
         <v>2756</v>
       </c>
       <c r="D515" t="s">
-        <v>3496</v>
+        <v>3476</v>
       </c>
       <c r="E515" t="s">
         <v>1997</v>
@@ -21158,7 +21164,7 @@
         <v>2756</v>
       </c>
       <c r="D516" t="s">
-        <v>3497</v>
+        <v>3477</v>
       </c>
       <c r="E516" t="s">
         <v>2000</v>
@@ -21175,7 +21181,7 @@
         <v>2756</v>
       </c>
       <c r="D517" t="s">
-        <v>3498</v>
+        <v>3478</v>
       </c>
       <c r="E517" t="s">
         <v>2003</v>
@@ -21192,7 +21198,7 @@
         <v>2756</v>
       </c>
       <c r="D518" t="s">
-        <v>3499</v>
+        <v>3479</v>
       </c>
       <c r="E518" t="s">
         <v>2006</v>
@@ -21209,7 +21215,7 @@
         <v>2756</v>
       </c>
       <c r="D519" t="s">
-        <v>3500</v>
+        <v>3480</v>
       </c>
       <c r="E519" t="s">
         <v>2009</v>
@@ -21226,7 +21232,7 @@
         <v>2756</v>
       </c>
       <c r="D520" t="s">
-        <v>3502</v>
+        <v>3482</v>
       </c>
       <c r="E520" t="s">
         <v>2016</v>
@@ -21243,7 +21249,7 @@
         <v>2756</v>
       </c>
       <c r="D521" t="s">
-        <v>3503</v>
+        <v>3483</v>
       </c>
       <c r="E521" t="s">
         <v>2019</v>
@@ -21260,7 +21266,7 @@
         <v>2756</v>
       </c>
       <c r="D522" t="s">
-        <v>3504</v>
+        <v>3484</v>
       </c>
       <c r="E522" t="s">
         <v>2022</v>
@@ -21277,7 +21283,7 @@
         <v>2756</v>
       </c>
       <c r="D523" t="s">
-        <v>3505</v>
+        <v>3485</v>
       </c>
       <c r="E523" t="s">
         <v>2025</v>
@@ -21294,7 +21300,7 @@
         <v>2756</v>
       </c>
       <c r="D524" t="s">
-        <v>3506</v>
+        <v>3486</v>
       </c>
       <c r="E524" t="s">
         <v>2028</v>
@@ -21311,7 +21317,7 @@
         <v>2756</v>
       </c>
       <c r="D525" t="s">
-        <v>3507</v>
+        <v>3487</v>
       </c>
       <c r="E525" t="s">
         <v>2031</v>
@@ -21328,7 +21334,7 @@
         <v>2756</v>
       </c>
       <c r="D526" t="s">
-        <v>3508</v>
+        <v>3488</v>
       </c>
       <c r="E526" t="s">
         <v>2034</v>
@@ -21345,7 +21351,7 @@
         <v>2756</v>
       </c>
       <c r="D527" t="s">
-        <v>3509</v>
+        <v>3489</v>
       </c>
       <c r="E527" t="s">
         <v>2037</v>
@@ -21362,7 +21368,7 @@
         <v>2756</v>
       </c>
       <c r="D528" t="s">
-        <v>3510</v>
+        <v>3490</v>
       </c>
       <c r="E528" t="s">
         <v>2040</v>
@@ -21379,7 +21385,7 @@
         <v>2756</v>
       </c>
       <c r="D529" t="s">
-        <v>3511</v>
+        <v>3491</v>
       </c>
       <c r="E529" t="s">
         <v>2043</v>
@@ -21396,7 +21402,7 @@
         <v>2756</v>
       </c>
       <c r="D530" t="s">
-        <v>3512</v>
+        <v>3492</v>
       </c>
       <c r="E530" t="s">
         <v>2046</v>
@@ -21413,7 +21419,7 @@
         <v>2756</v>
       </c>
       <c r="D531" t="s">
-        <v>3513</v>
+        <v>3493</v>
       </c>
       <c r="E531" t="s">
         <v>2049</v>
@@ -21430,7 +21436,7 @@
         <v>2756</v>
       </c>
       <c r="D532" t="s">
-        <v>3514</v>
+        <v>3494</v>
       </c>
       <c r="E532" t="s">
         <v>2052</v>
@@ -21447,7 +21453,7 @@
         <v>2756</v>
       </c>
       <c r="D533" t="s">
-        <v>3515</v>
+        <v>3495</v>
       </c>
       <c r="E533" t="s">
         <v>2055</v>
@@ -21464,7 +21470,7 @@
         <v>2756</v>
       </c>
       <c r="D534" t="s">
-        <v>3516</v>
+        <v>3496</v>
       </c>
       <c r="E534" t="s">
         <v>2058</v>
@@ -21481,7 +21487,7 @@
         <v>2756</v>
       </c>
       <c r="D535" t="s">
-        <v>3517</v>
+        <v>3497</v>
       </c>
       <c r="E535" t="s">
         <v>2061</v>
@@ -21498,7 +21504,7 @@
         <v>2756</v>
       </c>
       <c r="D536" t="s">
-        <v>3518</v>
+        <v>3498</v>
       </c>
       <c r="E536" t="s">
         <v>2064</v>
@@ -21515,7 +21521,7 @@
         <v>2756</v>
       </c>
       <c r="D537" t="s">
-        <v>3519</v>
+        <v>3499</v>
       </c>
       <c r="E537" t="s">
         <v>2067</v>
@@ -21532,7 +21538,7 @@
         <v>2756</v>
       </c>
       <c r="D538" t="s">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="E538" t="s">
         <v>2074</v>
@@ -21549,7 +21555,7 @@
         <v>2756</v>
       </c>
       <c r="D539" t="s">
-        <v>3524</v>
+        <v>3504</v>
       </c>
       <c r="E539" t="s">
         <v>2085</v>
@@ -21566,7 +21572,7 @@
         <v>2756</v>
       </c>
       <c r="D540" t="s">
-        <v>3525</v>
+        <v>3505</v>
       </c>
       <c r="E540" t="s">
         <v>2088</v>
@@ -21583,7 +21589,7 @@
         <v>2756</v>
       </c>
       <c r="D541" t="s">
-        <v>3526</v>
+        <v>3506</v>
       </c>
       <c r="E541" t="s">
         <v>2091</v>
@@ -21600,7 +21606,7 @@
         <v>2756</v>
       </c>
       <c r="D542" t="s">
-        <v>3527</v>
+        <v>3507</v>
       </c>
       <c r="E542" t="s">
         <v>2094</v>
@@ -21617,7 +21623,7 @@
         <v>2756</v>
       </c>
       <c r="D543" t="s">
-        <v>3529</v>
+        <v>3509</v>
       </c>
       <c r="E543" t="s">
         <v>2100</v>
@@ -21634,7 +21640,7 @@
         <v>2756</v>
       </c>
       <c r="D544" t="s">
-        <v>3530</v>
+        <v>3510</v>
       </c>
       <c r="E544" t="s">
         <v>2103</v>
@@ -21651,7 +21657,7 @@
         <v>2756</v>
       </c>
       <c r="D545" t="s">
-        <v>3532</v>
+        <v>3512</v>
       </c>
       <c r="E545" t="s">
         <v>2109</v>
@@ -21668,7 +21674,7 @@
         <v>2756</v>
       </c>
       <c r="D546" t="s">
-        <v>3533</v>
+        <v>3513</v>
       </c>
       <c r="E546" t="s">
         <v>2112</v>
@@ -21685,7 +21691,7 @@
         <v>2756</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>3534</v>
+        <v>3514</v>
       </c>
       <c r="E547" t="s">
         <v>2114</v>
@@ -21702,7 +21708,7 @@
         <v>2756</v>
       </c>
       <c r="D548" t="s">
-        <v>3537</v>
+        <v>3517</v>
       </c>
       <c r="E548" t="s">
         <v>2123</v>
@@ -21719,7 +21725,7 @@
         <v>2756</v>
       </c>
       <c r="D549" t="s">
-        <v>3538</v>
+        <v>3518</v>
       </c>
       <c r="E549" t="s">
         <v>2126</v>
@@ -21736,7 +21742,7 @@
         <v>2756</v>
       </c>
       <c r="D550" t="s">
-        <v>3539</v>
+        <v>3519</v>
       </c>
       <c r="E550" t="s">
         <v>2129</v>
@@ -21753,7 +21759,7 @@
         <v>2756</v>
       </c>
       <c r="D551" t="s">
-        <v>3540</v>
+        <v>3520</v>
       </c>
       <c r="E551" t="s">
         <v>2132</v>
@@ -21770,7 +21776,7 @@
         <v>2756</v>
       </c>
       <c r="D552" t="s">
-        <v>3541</v>
+        <v>3521</v>
       </c>
       <c r="E552" t="s">
         <v>2135</v>
@@ -21824,7 +21830,7 @@
         <v>2747</v>
       </c>
       <c r="D555" t="s">
-        <v>3250</v>
+        <v>3230</v>
       </c>
       <c r="E555" t="s">
         <v>1227</v>
@@ -21841,7 +21847,7 @@
         <v>2747</v>
       </c>
       <c r="D556" t="s">
-        <v>3251</v>
+        <v>3231</v>
       </c>
       <c r="E556" t="s">
         <v>1230</v>
@@ -21858,7 +21864,7 @@
         <v>2747</v>
       </c>
       <c r="D557" t="s">
-        <v>3252</v>
+        <v>3232</v>
       </c>
       <c r="E557" t="s">
         <v>1233</v>
@@ -21875,7 +21881,7 @@
         <v>2747</v>
       </c>
       <c r="D558" t="s">
-        <v>3542</v>
+        <v>3522</v>
       </c>
       <c r="E558" t="s">
         <v>2138</v>
@@ -21892,7 +21898,7 @@
         <v>2747</v>
       </c>
       <c r="D559" t="s">
-        <v>3543</v>
+        <v>3523</v>
       </c>
       <c r="E559" t="s">
         <v>2141</v>
@@ -21909,7 +21915,7 @@
         <v>2747</v>
       </c>
       <c r="D560" t="s">
-        <v>3544</v>
+        <v>3524</v>
       </c>
       <c r="E560" t="s">
         <v>2144</v>
@@ -21926,7 +21932,7 @@
         <v>2747</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>3545</v>
+        <v>3525</v>
       </c>
       <c r="E561" t="s">
         <v>2147</v>
@@ -21943,7 +21949,7 @@
         <v>2747</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>3546</v>
+        <v>3526</v>
       </c>
       <c r="E562" t="s">
         <v>2150</v>
@@ -21960,7 +21966,7 @@
         <v>2747</v>
       </c>
       <c r="D563" t="s">
-        <v>3547</v>
+        <v>3527</v>
       </c>
       <c r="E563" t="s">
         <v>2153</v>
@@ -21977,7 +21983,7 @@
         <v>2747</v>
       </c>
       <c r="D564" t="s">
-        <v>3549</v>
+        <v>3529</v>
       </c>
       <c r="E564" t="s">
         <v>2159</v>
@@ -21994,7 +22000,7 @@
         <v>2747</v>
       </c>
       <c r="D565" t="s">
-        <v>3550</v>
+        <v>3530</v>
       </c>
       <c r="E565" t="s">
         <v>2162</v>
@@ -22011,7 +22017,7 @@
         <v>2747</v>
       </c>
       <c r="D566" t="s">
-        <v>3551</v>
+        <v>3531</v>
       </c>
       <c r="E566" t="s">
         <v>2165</v>
@@ -22028,7 +22034,7 @@
         <v>2747</v>
       </c>
       <c r="D567" t="s">
-        <v>3552</v>
+        <v>3532</v>
       </c>
       <c r="E567" t="s">
         <v>2168</v>
@@ -22045,7 +22051,7 @@
         <v>2747</v>
       </c>
       <c r="D568" t="s">
-        <v>3553</v>
+        <v>3533</v>
       </c>
       <c r="E568" t="s">
         <v>2171</v>
@@ -22062,7 +22068,7 @@
         <v>2747</v>
       </c>
       <c r="D569" t="s">
-        <v>3555</v>
+        <v>3535</v>
       </c>
       <c r="E569" t="s">
         <v>2177</v>
@@ -22079,7 +22085,7 @@
         <v>2747</v>
       </c>
       <c r="D570" t="s">
-        <v>3556</v>
+        <v>3536</v>
       </c>
       <c r="E570" t="s">
         <v>2180</v>
@@ -22096,7 +22102,7 @@
         <v>2747</v>
       </c>
       <c r="D571" t="s">
-        <v>3557</v>
+        <v>3537</v>
       </c>
       <c r="E571" t="s">
         <v>2183</v>
@@ -22113,7 +22119,7 @@
         <v>2747</v>
       </c>
       <c r="D572" t="s">
-        <v>3558</v>
+        <v>3538</v>
       </c>
       <c r="E572" t="s">
         <v>2186</v>
@@ -22130,7 +22136,7 @@
         <v>2747</v>
       </c>
       <c r="D573" t="s">
-        <v>3559</v>
+        <v>3539</v>
       </c>
       <c r="E573" t="s">
         <v>2189</v>
@@ -22147,7 +22153,7 @@
         <v>2747</v>
       </c>
       <c r="D574" t="s">
-        <v>3560</v>
+        <v>3540</v>
       </c>
       <c r="E574" t="s">
         <v>2192</v>
@@ -22164,7 +22170,7 @@
         <v>2747</v>
       </c>
       <c r="D575" t="s">
-        <v>3561</v>
+        <v>3541</v>
       </c>
       <c r="E575" t="s">
         <v>2195</v>
@@ -22181,7 +22187,7 @@
         <v>2747</v>
       </c>
       <c r="D576" t="s">
-        <v>3562</v>
+        <v>3542</v>
       </c>
       <c r="E576" t="s">
         <v>2198</v>
@@ -22198,7 +22204,7 @@
         <v>2747</v>
       </c>
       <c r="D577" t="s">
-        <v>3563</v>
+        <v>3543</v>
       </c>
       <c r="E577" t="s">
         <v>2201</v>
@@ -22215,7 +22221,7 @@
         <v>2747</v>
       </c>
       <c r="D578" t="s">
-        <v>3564</v>
+        <v>3544</v>
       </c>
       <c r="E578" t="s">
         <v>2204</v>
@@ -22252,7 +22258,7 @@
         <v>375</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>3095</v>
+        <v>3088</v>
       </c>
       <c r="E580" t="s">
         <v>746</v>
@@ -22269,7 +22275,7 @@
         <v>2757</v>
       </c>
       <c r="D581" t="s">
-        <v>3119</v>
+        <v>3099</v>
       </c>
       <c r="E581" t="s">
         <v>821</v>
@@ -22286,7 +22292,7 @@
         <v>2757</v>
       </c>
       <c r="D582" t="s">
-        <v>3217</v>
+        <v>3197</v>
       </c>
       <c r="E582" t="s">
         <v>1128</v>
@@ -22303,7 +22309,7 @@
         <v>2757</v>
       </c>
       <c r="D583" t="s">
-        <v>3228</v>
+        <v>3208</v>
       </c>
       <c r="E583" t="s">
         <v>1161</v>
@@ -22320,7 +22326,7 @@
         <v>2757</v>
       </c>
       <c r="D584" t="s">
-        <v>3229</v>
+        <v>3209</v>
       </c>
       <c r="E584" t="s">
         <v>1164</v>
@@ -22337,7 +22343,7 @@
         <v>2757</v>
       </c>
       <c r="D585" t="s">
-        <v>3233</v>
+        <v>3213</v>
       </c>
       <c r="E585" t="s">
         <v>1176</v>
@@ -22354,7 +22360,7 @@
         <v>2757</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>3353</v>
+        <v>3333</v>
       </c>
       <c r="E586" t="s">
         <v>1552</v>
@@ -22371,7 +22377,7 @@
         <v>2757</v>
       </c>
       <c r="D587" t="s">
-        <v>3359</v>
+        <v>3339</v>
       </c>
       <c r="E587" t="s">
         <v>1570</v>
@@ -22388,7 +22394,7 @@
         <v>2757</v>
       </c>
       <c r="D588" t="s">
-        <v>3423</v>
+        <v>3403</v>
       </c>
       <c r="E588" t="s">
         <v>1778</v>
@@ -22405,7 +22411,7 @@
         <v>2757</v>
       </c>
       <c r="D589" t="s">
-        <v>3424</v>
+        <v>3404</v>
       </c>
       <c r="E589" t="s">
         <v>1781</v>
@@ -22422,7 +22428,7 @@
         <v>2757</v>
       </c>
       <c r="D590" t="s">
-        <v>3482</v>
+        <v>3462</v>
       </c>
       <c r="E590" t="s">
         <v>1955</v>
@@ -22439,7 +22445,7 @@
         <v>2757</v>
       </c>
       <c r="D591" t="s">
-        <v>3483</v>
+        <v>3463</v>
       </c>
       <c r="E591" t="s">
         <v>1958</v>
@@ -22456,7 +22462,7 @@
         <v>2757</v>
       </c>
       <c r="D592" t="s">
-        <v>3484</v>
+        <v>3464</v>
       </c>
       <c r="E592" t="s">
         <v>1961</v>
@@ -22473,7 +22479,7 @@
         <v>2757</v>
       </c>
       <c r="D593" t="s">
-        <v>3485</v>
+        <v>3465</v>
       </c>
       <c r="E593" t="s">
         <v>1964</v>
@@ -22490,7 +22496,7 @@
         <v>2757</v>
       </c>
       <c r="D594" t="s">
-        <v>3486</v>
+        <v>3466</v>
       </c>
       <c r="E594" t="s">
         <v>1967</v>
@@ -22507,7 +22513,7 @@
         <v>2757</v>
       </c>
       <c r="D595" t="s">
-        <v>3487</v>
+        <v>3467</v>
       </c>
       <c r="E595" t="s">
         <v>1970</v>
@@ -22524,7 +22530,7 @@
         <v>2757</v>
       </c>
       <c r="D596" t="s">
-        <v>3488</v>
+        <v>3468</v>
       </c>
       <c r="E596" t="s">
         <v>1973</v>
@@ -22541,7 +22547,7 @@
         <v>2757</v>
       </c>
       <c r="D597" t="s">
-        <v>3489</v>
+        <v>3469</v>
       </c>
       <c r="E597" t="s">
         <v>1976</v>
@@ -22558,7 +22564,7 @@
         <v>2757</v>
       </c>
       <c r="D598" t="s">
-        <v>3528</v>
+        <v>3508</v>
       </c>
       <c r="E598" t="s">
         <v>2097</v>
@@ -22575,7 +22581,7 @@
         <v>2757</v>
       </c>
       <c r="D599" t="s">
-        <v>3531</v>
+        <v>3511</v>
       </c>
       <c r="E599" t="s">
         <v>2106</v>
@@ -22592,7 +22598,7 @@
         <v>2757</v>
       </c>
       <c r="D600" t="s">
-        <v>3565</v>
+        <v>3545</v>
       </c>
       <c r="E600" t="s">
         <v>2207</v>
@@ -22609,7 +22615,7 @@
         <v>2757</v>
       </c>
       <c r="D601" t="s">
-        <v>3566</v>
+        <v>3546</v>
       </c>
       <c r="E601" t="s">
         <v>2210</v>
@@ -22626,7 +22632,7 @@
         <v>2757</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>3567</v>
+        <v>3547</v>
       </c>
       <c r="E602" t="s">
         <v>2213</v>
@@ -22643,7 +22649,7 @@
         <v>2757</v>
       </c>
       <c r="D603" t="s">
-        <v>3569</v>
+        <v>3549</v>
       </c>
       <c r="E603" t="s">
         <v>2219</v>
@@ -22660,7 +22666,7 @@
         <v>2757</v>
       </c>
       <c r="D604" t="s">
-        <v>3571</v>
+        <v>3551</v>
       </c>
       <c r="E604" t="s">
         <v>2225</v>
@@ -22677,7 +22683,7 @@
         <v>2757</v>
       </c>
       <c r="D605" t="s">
-        <v>3572</v>
+        <v>3552</v>
       </c>
       <c r="E605" t="s">
         <v>2228</v>
@@ -22694,7 +22700,7 @@
         <v>2757</v>
       </c>
       <c r="D606" t="s">
-        <v>3573</v>
+        <v>3553</v>
       </c>
       <c r="E606" t="s">
         <v>2231</v>
@@ -22711,7 +22717,7 @@
         <v>2757</v>
       </c>
       <c r="D607" t="s">
-        <v>3574</v>
+        <v>3554</v>
       </c>
       <c r="E607" t="s">
         <v>2234</v>
@@ -22728,7 +22734,7 @@
         <v>2757</v>
       </c>
       <c r="D608" t="s">
-        <v>3575</v>
+        <v>3555</v>
       </c>
       <c r="E608" t="s">
         <v>2237</v>
@@ -22745,7 +22751,7 @@
         <v>2757</v>
       </c>
       <c r="D609" t="s">
-        <v>3576</v>
+        <v>3556</v>
       </c>
       <c r="E609" t="s">
         <v>2240</v>
@@ -22762,7 +22768,7 @@
         <v>2757</v>
       </c>
       <c r="D610" t="s">
-        <v>3577</v>
+        <v>3557</v>
       </c>
       <c r="E610" t="s">
         <v>2243</v>
@@ -22779,7 +22785,7 @@
         <v>2757</v>
       </c>
       <c r="D611" t="s">
-        <v>3578</v>
+        <v>3558</v>
       </c>
       <c r="E611" t="s">
         <v>2246</v>
@@ -22796,7 +22802,7 @@
         <v>2757</v>
       </c>
       <c r="D612" t="s">
-        <v>3579</v>
+        <v>3559</v>
       </c>
       <c r="E612" t="s">
         <v>2249</v>
@@ -22813,7 +22819,7 @@
         <v>2757</v>
       </c>
       <c r="D613" t="s">
-        <v>3580</v>
+        <v>3560</v>
       </c>
       <c r="E613" t="s">
         <v>2252</v>
@@ -22830,7 +22836,7 @@
         <v>2757</v>
       </c>
       <c r="D614" t="s">
-        <v>3581</v>
+        <v>3561</v>
       </c>
       <c r="E614" t="s">
         <v>2255</v>
@@ -22847,7 +22853,7 @@
         <v>2757</v>
       </c>
       <c r="D615" t="s">
-        <v>3582</v>
+        <v>3562</v>
       </c>
       <c r="E615" t="s">
         <v>2258</v>
@@ -22864,7 +22870,7 @@
         <v>2757</v>
       </c>
       <c r="D616" t="s">
-        <v>3583</v>
+        <v>3563</v>
       </c>
       <c r="E616" t="s">
         <v>2261</v>
@@ -22881,7 +22887,7 @@
         <v>2757</v>
       </c>
       <c r="D617" t="s">
-        <v>3584</v>
+        <v>3564</v>
       </c>
       <c r="E617" t="s">
         <v>2264</v>
@@ -22898,7 +22904,7 @@
         <v>2757</v>
       </c>
       <c r="D618" t="s">
-        <v>3585</v>
+        <v>3565</v>
       </c>
       <c r="E618" t="s">
         <v>2267</v>
@@ -22915,7 +22921,7 @@
         <v>2757</v>
       </c>
       <c r="D619" t="s">
-        <v>3586</v>
+        <v>3566</v>
       </c>
       <c r="E619" t="s">
         <v>2279</v>
@@ -22932,7 +22938,7 @@
         <v>2757</v>
       </c>
       <c r="D620" t="s">
-        <v>3571</v>
+        <v>3551</v>
       </c>
       <c r="E620" t="s">
         <v>2225</v>
@@ -22952,7 +22958,7 @@
         <v>1019</v>
       </c>
       <c r="D621" t="s">
-        <v>3184</v>
+        <v>3164</v>
       </c>
       <c r="E621" t="s">
         <v>1026</v>
@@ -22969,7 +22975,7 @@
         <v>2787</v>
       </c>
       <c r="D622" t="s">
-        <v>3204</v>
+        <v>3184</v>
       </c>
       <c r="E622" t="s">
         <v>1089</v>
@@ -22986,7 +22992,7 @@
         <v>2780</v>
       </c>
       <c r="D623" t="s">
-        <v>3127</v>
+        <v>3107</v>
       </c>
       <c r="E623" t="s">
         <v>845</v>
@@ -23043,7 +23049,7 @@
         <v>2753</v>
       </c>
       <c r="D626" t="s">
-        <v>3598</v>
+        <v>3578</v>
       </c>
       <c r="E626" t="s">
         <v>2310</v>
@@ -23060,7 +23066,7 @@
         <v>2753</v>
       </c>
       <c r="D627" t="s">
-        <v>3599</v>
+        <v>3579</v>
       </c>
       <c r="E627" t="s">
         <v>2313</v>
@@ -23077,7 +23083,7 @@
         <v>2813</v>
       </c>
       <c r="D628" t="s">
-        <v>3600</v>
+        <v>3580</v>
       </c>
       <c r="E628" t="s">
         <v>2316</v>
@@ -23097,7 +23103,7 @@
         <v>375</v>
       </c>
       <c r="D629" t="s">
-        <v>3601</v>
+        <v>3581</v>
       </c>
       <c r="E629" t="s">
         <v>2319</v>
@@ -23131,7 +23137,7 @@
         <v>2792</v>
       </c>
       <c r="D631" t="s">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="E631" t="s">
         <v>1137</v>
@@ -23148,7 +23154,7 @@
         <v>2782</v>
       </c>
       <c r="D632" t="s">
-        <v>3132</v>
+        <v>3112</v>
       </c>
       <c r="E632" t="s">
         <v>861</v>
@@ -23168,7 +23174,7 @@
         <v>375</v>
       </c>
       <c r="D633" t="s">
-        <v>3602</v>
+        <v>3582</v>
       </c>
       <c r="E633" t="s">
         <v>2322</v>
@@ -23185,7 +23191,7 @@
         <v>2810</v>
       </c>
       <c r="D634" t="s">
-        <v>3554</v>
+        <v>3534</v>
       </c>
       <c r="E634" t="s">
         <v>2174</v>
@@ -23202,7 +23208,7 @@
         <v>2810</v>
       </c>
       <c r="D635" t="s">
-        <v>3603</v>
+        <v>3583</v>
       </c>
       <c r="E635" t="s">
         <v>2325</v>
@@ -23219,7 +23225,7 @@
         <v>2810</v>
       </c>
       <c r="D636" t="s">
-        <v>3604</v>
+        <v>3584</v>
       </c>
       <c r="E636" t="s">
         <v>2328</v>
@@ -23273,7 +23279,7 @@
         <v>2760</v>
       </c>
       <c r="D639" t="s">
-        <v>3191</v>
+        <v>3171</v>
       </c>
       <c r="E639" t="s">
         <v>1047</v>
@@ -23290,7 +23296,7 @@
         <v>2760</v>
       </c>
       <c r="D640" t="s">
-        <v>3209</v>
+        <v>3189</v>
       </c>
       <c r="E640" t="s">
         <v>1104</v>
@@ -23307,7 +23313,7 @@
         <v>2760</v>
       </c>
       <c r="D641" t="s">
-        <v>3241</v>
+        <v>3221</v>
       </c>
       <c r="E641" t="s">
         <v>1200</v>
@@ -23324,7 +23330,7 @@
         <v>2760</v>
       </c>
       <c r="D642" t="s">
-        <v>3277</v>
+        <v>3257</v>
       </c>
       <c r="E642" t="s">
         <v>1315</v>
@@ -23341,7 +23347,7 @@
         <v>2760</v>
       </c>
       <c r="D643" t="s">
-        <v>3498</v>
+        <v>3478</v>
       </c>
       <c r="E643" t="s">
         <v>2003</v>
@@ -23358,7 +23364,7 @@
         <v>2760</v>
       </c>
       <c r="D644" t="s">
-        <v>3568</v>
+        <v>3548</v>
       </c>
       <c r="E644" t="s">
         <v>2216</v>
@@ -23375,7 +23381,7 @@
         <v>2760</v>
       </c>
       <c r="D645" t="s">
-        <v>3570</v>
+        <v>3550</v>
       </c>
       <c r="E645" t="s">
         <v>2222</v>
@@ -23392,7 +23398,7 @@
         <v>2760</v>
       </c>
       <c r="D646" t="s">
-        <v>3385</v>
+        <v>3365</v>
       </c>
       <c r="E646" t="s">
         <v>1650</v>
@@ -23409,7 +23415,7 @@
         <v>2760</v>
       </c>
       <c r="D647" t="s">
-        <v>3605</v>
+        <v>3585</v>
       </c>
       <c r="E647" t="s">
         <v>2333</v>
@@ -23426,7 +23432,7 @@
         <v>2815</v>
       </c>
       <c r="D648" t="s">
-        <v>3606</v>
+        <v>3586</v>
       </c>
       <c r="E648" t="s">
         <v>2336</v>
@@ -23586,7 +23592,7 @@
         <v>375</v>
       </c>
       <c r="D656" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="E656" t="s">
         <v>728</v>
@@ -23603,7 +23609,7 @@
         <v>2776</v>
       </c>
       <c r="D657" t="s">
-        <v>3607</v>
+        <v>3587</v>
       </c>
       <c r="E657" t="s">
         <v>2339</v>
@@ -23620,7 +23626,7 @@
         <v>2776</v>
       </c>
       <c r="D658" t="s">
-        <v>3608</v>
+        <v>3588</v>
       </c>
       <c r="E658" t="s">
         <v>2342</v>
@@ -23640,7 +23646,7 @@
         <v>854</v>
       </c>
       <c r="D659" t="s">
-        <v>3130</v>
+        <v>3110</v>
       </c>
       <c r="E659" t="s">
         <v>855</v>
@@ -23660,7 +23666,7 @@
         <v>854</v>
       </c>
       <c r="D660" t="s">
-        <v>3131</v>
+        <v>3111</v>
       </c>
       <c r="E660" t="s">
         <v>858</v>
@@ -23677,7 +23683,7 @@
         <v>2781</v>
       </c>
       <c r="D661" t="s">
-        <v>3280</v>
+        <v>3260</v>
       </c>
       <c r="E661" t="s">
         <v>1324</v>
@@ -23694,7 +23700,7 @@
         <v>2781</v>
       </c>
       <c r="D662" t="s">
-        <v>3391</v>
+        <v>3371</v>
       </c>
       <c r="E662" t="s">
         <v>1668</v>
@@ -23711,7 +23717,7 @@
         <v>2781</v>
       </c>
       <c r="D663" t="s">
-        <v>3392</v>
+        <v>3372</v>
       </c>
       <c r="E663" t="s">
         <v>1671</v>
@@ -23728,7 +23734,7 @@
         <v>2781</v>
       </c>
       <c r="D664" t="s">
-        <v>3609</v>
+        <v>3589</v>
       </c>
       <c r="E664" t="s">
         <v>2345</v>
@@ -23776,7 +23782,7 @@
         <v>2774</v>
       </c>
       <c r="D667" t="s">
-        <v>3480</v>
+        <v>3460</v>
       </c>
       <c r="E667" t="s">
         <v>1949</v>
@@ -23813,7 +23819,7 @@
         <v>2768</v>
       </c>
       <c r="D669" t="s">
-        <v>3610</v>
+        <v>3590</v>
       </c>
       <c r="E669" t="s">
         <v>2348</v>
@@ -23830,7 +23836,7 @@
         <v>2768</v>
       </c>
       <c r="D670" t="s">
-        <v>3611</v>
+        <v>3591</v>
       </c>
       <c r="E670" t="s">
         <v>2351</v>
@@ -23847,7 +23853,7 @@
         <v>2816</v>
       </c>
       <c r="D671" t="s">
-        <v>3612</v>
+        <v>3592</v>
       </c>
       <c r="E671" t="s">
         <v>2354</v>
@@ -23864,7 +23870,7 @@
         <v>2807</v>
       </c>
       <c r="D672" t="s">
-        <v>3477</v>
+        <v>3457</v>
       </c>
       <c r="E672" t="s">
         <v>1940</v>
@@ -23881,7 +23887,7 @@
         <v>2806</v>
       </c>
       <c r="D673" t="s">
-        <v>3476</v>
+        <v>3456</v>
       </c>
       <c r="E673" t="s">
         <v>1937</v>
@@ -23898,7 +23904,7 @@
         <v>2806</v>
       </c>
       <c r="D674" t="s">
-        <v>3614</v>
+        <v>3594</v>
       </c>
       <c r="E674" t="s">
         <v>2360</v>
@@ -23915,7 +23921,7 @@
         <v>2806</v>
       </c>
       <c r="D675" t="s">
-        <v>3615</v>
+        <v>3595</v>
       </c>
       <c r="E675" t="s">
         <v>2363</v>
@@ -23932,7 +23938,7 @@
         <v>2806</v>
       </c>
       <c r="D676" t="s">
-        <v>3616</v>
+        <v>3596</v>
       </c>
       <c r="E676" t="s">
         <v>2366</v>
@@ -23989,7 +23995,7 @@
         <v>2769</v>
       </c>
       <c r="D679" t="s">
-        <v>3450</v>
+        <v>3430</v>
       </c>
       <c r="E679" t="s">
         <v>1859</v>
@@ -24006,7 +24012,7 @@
         <v>2769</v>
       </c>
       <c r="D680" t="s">
-        <v>3470</v>
+        <v>3450</v>
       </c>
       <c r="E680" t="s">
         <v>1919</v>
@@ -24023,7 +24029,7 @@
         <v>2769</v>
       </c>
       <c r="D681" t="s">
-        <v>3588</v>
+        <v>3568</v>
       </c>
       <c r="E681" t="s">
         <v>2276</v>
@@ -24040,7 +24046,7 @@
         <v>2769</v>
       </c>
       <c r="D682" t="s">
-        <v>3590</v>
+        <v>3570</v>
       </c>
       <c r="E682" t="s">
         <v>2286</v>
@@ -24057,7 +24063,7 @@
         <v>2769</v>
       </c>
       <c r="D683" t="s">
-        <v>3617</v>
+        <v>3597</v>
       </c>
       <c r="E683" t="s">
         <v>2369</v>
@@ -24074,7 +24080,7 @@
         <v>2769</v>
       </c>
       <c r="D684" t="s">
-        <v>3618</v>
+        <v>3598</v>
       </c>
       <c r="E684" t="s">
         <v>2372</v>
@@ -24091,7 +24097,7 @@
         <v>2769</v>
       </c>
       <c r="D685" t="s">
-        <v>3619</v>
+        <v>3599</v>
       </c>
       <c r="E685" t="s">
         <v>2375</v>
@@ -24108,7 +24114,7 @@
         <v>2769</v>
       </c>
       <c r="D686" t="s">
-        <v>3620</v>
+        <v>3600</v>
       </c>
       <c r="E686" t="s">
         <v>2378</v>
@@ -24125,7 +24131,7 @@
         <v>2769</v>
       </c>
       <c r="D687" t="s">
-        <v>3621</v>
+        <v>3601</v>
       </c>
       <c r="E687" t="s">
         <v>2381</v>
@@ -24142,7 +24148,7 @@
         <v>2769</v>
       </c>
       <c r="D688" t="s">
-        <v>3622</v>
+        <v>3602</v>
       </c>
       <c r="E688" t="s">
         <v>2384</v>
@@ -24159,7 +24165,7 @@
         <v>2769</v>
       </c>
       <c r="D689" t="s">
-        <v>3623</v>
+        <v>3603</v>
       </c>
       <c r="E689" t="s">
         <v>2387</v>
@@ -24176,7 +24182,7 @@
         <v>2769</v>
       </c>
       <c r="D690" t="s">
-        <v>3624</v>
+        <v>3604</v>
       </c>
       <c r="E690" t="s">
         <v>2390</v>
@@ -24193,7 +24199,7 @@
         <v>2769</v>
       </c>
       <c r="D691" t="s">
-        <v>3625</v>
+        <v>3605</v>
       </c>
       <c r="E691" t="s">
         <v>2393</v>
@@ -24210,7 +24216,7 @@
         <v>2769</v>
       </c>
       <c r="D692" t="s">
-        <v>3626</v>
+        <v>3606</v>
       </c>
       <c r="E692" t="s">
         <v>2396</v>
@@ -24227,7 +24233,7 @@
         <v>2769</v>
       </c>
       <c r="D693" t="s">
-        <v>3627</v>
+        <v>3607</v>
       </c>
       <c r="E693" t="s">
         <v>2399</v>
@@ -24244,7 +24250,7 @@
         <v>2769</v>
       </c>
       <c r="D694" t="s">
-        <v>3628</v>
+        <v>3608</v>
       </c>
       <c r="E694" t="s">
         <v>2402</v>
@@ -24261,7 +24267,7 @@
         <v>2769</v>
       </c>
       <c r="D695" t="s">
-        <v>3630</v>
+        <v>3610</v>
       </c>
       <c r="E695" t="s">
         <v>2408</v>
@@ -24278,7 +24284,7 @@
         <v>2769</v>
       </c>
       <c r="D696" t="s">
-        <v>3631</v>
+        <v>3611</v>
       </c>
       <c r="E696" t="s">
         <v>2411</v>
@@ -24295,7 +24301,7 @@
         <v>2769</v>
       </c>
       <c r="D697" t="s">
-        <v>3632</v>
+        <v>3612</v>
       </c>
       <c r="E697" t="s">
         <v>2414</v>
@@ -24312,7 +24318,7 @@
         <v>2769</v>
       </c>
       <c r="D698" t="s">
-        <v>3633</v>
+        <v>3613</v>
       </c>
       <c r="E698" t="s">
         <v>2417</v>
@@ -24329,7 +24335,7 @@
         <v>2769</v>
       </c>
       <c r="D699" t="s">
-        <v>3634</v>
+        <v>3614</v>
       </c>
       <c r="E699" t="s">
         <v>2420</v>
@@ -24346,7 +24352,7 @@
         <v>2769</v>
       </c>
       <c r="D700" t="s">
-        <v>3635</v>
+        <v>3615</v>
       </c>
       <c r="E700" t="s">
         <v>2423</v>
@@ -24363,7 +24369,7 @@
         <v>2819</v>
       </c>
       <c r="D701" t="s">
-        <v>3636</v>
+        <v>3616</v>
       </c>
       <c r="E701" t="s">
         <v>2426</v>
@@ -24380,7 +24386,7 @@
         <v>2819</v>
       </c>
       <c r="D702" t="s">
-        <v>3637</v>
+        <v>3617</v>
       </c>
       <c r="E702" t="s">
         <v>2429</v>
@@ -24397,7 +24403,7 @@
         <v>2819</v>
       </c>
       <c r="D703" t="s">
-        <v>3638</v>
+        <v>3618</v>
       </c>
       <c r="E703" t="s">
         <v>2432</v>
@@ -24414,7 +24420,7 @@
         <v>2797</v>
       </c>
       <c r="D704" t="s">
-        <v>3285</v>
+        <v>3265</v>
       </c>
       <c r="E704" t="s">
         <v>1341</v>
@@ -24431,7 +24437,7 @@
         <v>2797</v>
       </c>
       <c r="D705" t="s">
-        <v>3591</v>
+        <v>3571</v>
       </c>
       <c r="E705" t="s">
         <v>2289</v>
@@ -24448,7 +24454,7 @@
         <v>2797</v>
       </c>
       <c r="D706" t="s">
-        <v>3640</v>
+        <v>3620</v>
       </c>
       <c r="E706" t="s">
         <v>2438</v>
@@ -24465,7 +24471,7 @@
         <v>2797</v>
       </c>
       <c r="D707" t="s">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="E707" t="s">
         <v>2441</v>
@@ -24482,7 +24488,7 @@
         <v>2797</v>
       </c>
       <c r="D708" t="s">
-        <v>3642</v>
+        <v>3622</v>
       </c>
       <c r="E708" t="s">
         <v>2444</v>
@@ -24499,7 +24505,7 @@
         <v>2796</v>
       </c>
       <c r="D709" t="s">
-        <v>3283</v>
+        <v>3263</v>
       </c>
       <c r="E709" t="s">
         <v>1335</v>
@@ -24516,7 +24522,7 @@
         <v>2796</v>
       </c>
       <c r="D710" t="s">
-        <v>3284</v>
+        <v>3264</v>
       </c>
       <c r="E710" t="s">
         <v>1338</v>
@@ -24533,7 +24539,7 @@
         <v>2796</v>
       </c>
       <c r="D711" t="s">
-        <v>3478</v>
+        <v>3458</v>
       </c>
       <c r="E711" t="s">
         <v>1943</v>
@@ -24550,7 +24556,7 @@
         <v>2796</v>
       </c>
       <c r="D712" t="s">
-        <v>3643</v>
+        <v>3623</v>
       </c>
       <c r="E712" t="s">
         <v>2447</v>
@@ -24567,7 +24573,7 @@
         <v>2796</v>
       </c>
       <c r="D713" t="s">
-        <v>3644</v>
+        <v>3624</v>
       </c>
       <c r="E713" t="s">
         <v>2450</v>
@@ -24678,7 +24684,7 @@
         <v>1019</v>
       </c>
       <c r="D719" t="s">
-        <v>3185</v>
+        <v>3165</v>
       </c>
       <c r="E719" t="s">
         <v>1029</v>
@@ -24698,7 +24704,7 @@
         <v>1019</v>
       </c>
       <c r="D720" t="s">
-        <v>3188</v>
+        <v>3168</v>
       </c>
       <c r="E720" t="s">
         <v>1038</v>
@@ -24718,7 +24724,7 @@
         <v>1019</v>
       </c>
       <c r="D721" t="s">
-        <v>3189</v>
+        <v>3169</v>
       </c>
       <c r="E721" t="s">
         <v>1041</v>
@@ -24735,7 +24741,7 @@
         <v>2752</v>
       </c>
       <c r="D722" t="s">
-        <v>3192</v>
+        <v>3172</v>
       </c>
       <c r="E722" t="s">
         <v>1050</v>
@@ -24752,7 +24758,7 @@
         <v>2752</v>
       </c>
       <c r="D723" t="s">
-        <v>3193</v>
+        <v>3173</v>
       </c>
       <c r="E723" t="s">
         <v>1053</v>
@@ -24769,7 +24775,7 @@
         <v>2752</v>
       </c>
       <c r="D724" t="s">
-        <v>3194</v>
+        <v>3174</v>
       </c>
       <c r="E724" t="s">
         <v>1056</v>
@@ -24786,7 +24792,7 @@
         <v>2752</v>
       </c>
       <c r="D725" t="s">
-        <v>3232</v>
+        <v>3212</v>
       </c>
       <c r="E725" t="s">
         <v>1173</v>
@@ -24806,7 +24812,7 @@
         <v>1582</v>
       </c>
       <c r="D726" t="s">
-        <v>3375</v>
+        <v>3355</v>
       </c>
       <c r="E726" t="s">
         <v>1619</v>
@@ -24826,7 +24832,7 @@
         <v>1582</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>3376</v>
+        <v>3356</v>
       </c>
       <c r="E727" t="s">
         <v>1622</v>
@@ -24860,7 +24866,7 @@
         <v>2752</v>
       </c>
       <c r="D729" t="s">
-        <v>3535</v>
+        <v>3515</v>
       </c>
       <c r="E729" t="s">
         <v>2117</v>
@@ -24877,7 +24883,7 @@
         <v>2752</v>
       </c>
       <c r="D730" t="s">
-        <v>3536</v>
+        <v>3516</v>
       </c>
       <c r="E730" t="s">
         <v>2120</v>
@@ -24894,7 +24900,7 @@
         <v>2752</v>
       </c>
       <c r="D731" t="s">
-        <v>3592</v>
+        <v>3572</v>
       </c>
       <c r="E731" t="s">
         <v>2292</v>
@@ -24911,7 +24917,7 @@
         <v>2752</v>
       </c>
       <c r="D732" t="s">
-        <v>3593</v>
+        <v>3573</v>
       </c>
       <c r="E732" t="s">
         <v>2295</v>
@@ -24928,7 +24934,7 @@
         <v>2752</v>
       </c>
       <c r="D733" t="s">
-        <v>3594</v>
+        <v>3574</v>
       </c>
       <c r="E733" t="s">
         <v>2298</v>
@@ -24945,7 +24951,7 @@
         <v>2752</v>
       </c>
       <c r="D734" t="s">
-        <v>3595</v>
+        <v>3575</v>
       </c>
       <c r="E734" t="s">
         <v>2301</v>
@@ -24962,7 +24968,7 @@
         <v>2752</v>
       </c>
       <c r="D735" t="s">
-        <v>3596</v>
+        <v>3576</v>
       </c>
       <c r="E735" t="s">
         <v>2304</v>
@@ -24979,7 +24985,7 @@
         <v>2802</v>
       </c>
       <c r="D736" t="s">
-        <v>3435</v>
+        <v>3415</v>
       </c>
       <c r="E736" t="s">
         <v>1814</v>
@@ -24996,7 +25002,7 @@
         <v>2812</v>
       </c>
       <c r="D737" t="s">
-        <v>3597</v>
+        <v>3577</v>
       </c>
       <c r="E737" t="s">
         <v>2307</v>
@@ -25013,7 +25019,7 @@
         <v>2804</v>
       </c>
       <c r="D738" t="s">
-        <v>3444</v>
+        <v>3424</v>
       </c>
       <c r="E738" t="s">
         <v>1841</v>
@@ -25030,7 +25036,7 @@
         <v>2804</v>
       </c>
       <c r="D739" t="s">
-        <v>3445</v>
+        <v>3425</v>
       </c>
       <c r="E739" t="s">
         <v>1844</v>
@@ -25047,7 +25053,7 @@
         <v>2804</v>
       </c>
       <c r="D740" t="s">
-        <v>3446</v>
+        <v>3426</v>
       </c>
       <c r="E740" t="s">
         <v>1847</v>
@@ -25064,7 +25070,7 @@
         <v>2804</v>
       </c>
       <c r="D741" t="s">
-        <v>3447</v>
+        <v>3427</v>
       </c>
       <c r="E741" t="s">
         <v>1850</v>
@@ -25081,7 +25087,7 @@
         <v>2804</v>
       </c>
       <c r="D742" t="s">
-        <v>3586</v>
+        <v>3566</v>
       </c>
       <c r="E742" t="s">
         <v>2270</v>
@@ -25098,7 +25104,7 @@
         <v>2804</v>
       </c>
       <c r="D743" t="s">
-        <v>3587</v>
+        <v>3567</v>
       </c>
       <c r="E743" t="s">
         <v>2273</v>
@@ -25115,7 +25121,7 @@
         <v>2820</v>
       </c>
       <c r="D744" t="s">
-        <v>3645</v>
+        <v>3625</v>
       </c>
       <c r="E744" t="s">
         <v>2453</v>
@@ -25132,7 +25138,7 @@
         <v>2820</v>
       </c>
       <c r="D745" t="s">
-        <v>3646</v>
+        <v>3626</v>
       </c>
       <c r="E745" t="s">
         <v>2456</v>
@@ -25149,7 +25155,7 @@
         <v>2820</v>
       </c>
       <c r="D746" t="s">
-        <v>3647</v>
+        <v>3627</v>
       </c>
       <c r="E746" t="s">
         <v>2459</v>
@@ -25166,7 +25172,7 @@
         <v>2794</v>
       </c>
       <c r="D747" t="s">
-        <v>3222</v>
+        <v>3202</v>
       </c>
       <c r="E747" t="s">
         <v>1143</v>
@@ -25183,7 +25189,7 @@
         <v>2794</v>
       </c>
       <c r="D748" t="s">
-        <v>3223</v>
+        <v>3203</v>
       </c>
       <c r="E748" t="s">
         <v>1146</v>
@@ -25200,7 +25206,7 @@
         <v>2794</v>
       </c>
       <c r="D749" t="s">
-        <v>3224</v>
+        <v>3204</v>
       </c>
       <c r="E749" t="s">
         <v>1149</v>
@@ -25217,7 +25223,7 @@
         <v>2794</v>
       </c>
       <c r="D750" t="s">
-        <v>3225</v>
+        <v>3205</v>
       </c>
       <c r="E750" t="s">
         <v>1152</v>
@@ -25234,7 +25240,7 @@
         <v>2794</v>
       </c>
       <c r="D751" t="s">
-        <v>3226</v>
+        <v>3206</v>
       </c>
       <c r="E751" t="s">
         <v>1155</v>
@@ -25251,7 +25257,7 @@
         <v>2794</v>
       </c>
       <c r="D752" t="s">
-        <v>3227</v>
+        <v>3207</v>
       </c>
       <c r="E752" t="s">
         <v>1158</v>
@@ -25268,7 +25274,7 @@
         <v>2794</v>
       </c>
       <c r="D753" t="s">
-        <v>3660</v>
+        <v>3640</v>
       </c>
       <c r="E753" t="s">
         <v>2498</v>
@@ -25285,7 +25291,7 @@
         <v>2794</v>
       </c>
       <c r="D754" t="s">
-        <v>3661</v>
+        <v>3641</v>
       </c>
       <c r="E754" t="s">
         <v>2501</v>
@@ -25302,7 +25308,7 @@
         <v>2794</v>
       </c>
       <c r="D755" t="s">
-        <v>3662</v>
+        <v>3642</v>
       </c>
       <c r="E755" t="s">
         <v>2504</v>
@@ -25339,7 +25345,7 @@
         <v>2799</v>
       </c>
       <c r="D757" t="s">
-        <v>3362</v>
+        <v>3342</v>
       </c>
       <c r="E757" t="s">
         <v>1579</v>
@@ -25356,7 +25362,7 @@
         <v>2799</v>
       </c>
       <c r="D758" t="s">
-        <v>3648</v>
+        <v>3628</v>
       </c>
       <c r="E758" t="s">
         <v>2462</v>
@@ -25373,7 +25379,7 @@
         <v>2799</v>
       </c>
       <c r="D759" t="s">
-        <v>3649</v>
+        <v>3629</v>
       </c>
       <c r="E759" t="s">
         <v>2465</v>
@@ -25390,7 +25396,7 @@
         <v>2799</v>
       </c>
       <c r="D760" t="s">
-        <v>3650</v>
+        <v>3630</v>
       </c>
       <c r="E760" t="s">
         <v>2468</v>
@@ -25407,7 +25413,7 @@
         <v>2799</v>
       </c>
       <c r="D761" t="s">
-        <v>3651</v>
+        <v>3631</v>
       </c>
       <c r="E761" t="s">
         <v>2471</v>
@@ -25424,7 +25430,7 @@
         <v>2799</v>
       </c>
       <c r="D762" t="s">
-        <v>3652</v>
+        <v>3632</v>
       </c>
       <c r="E762" t="s">
         <v>2474</v>
@@ -25441,7 +25447,7 @@
         <v>2799</v>
       </c>
       <c r="D763" t="s">
-        <v>3655</v>
+        <v>3635</v>
       </c>
       <c r="E763" t="s">
         <v>2483</v>
@@ -25458,7 +25464,7 @@
         <v>2799</v>
       </c>
       <c r="D764" t="s">
-        <v>3656</v>
+        <v>3636</v>
       </c>
       <c r="E764" t="s">
         <v>2486</v>
@@ -25475,7 +25481,7 @@
         <v>2799</v>
       </c>
       <c r="D765" t="s">
-        <v>3657</v>
+        <v>3637</v>
       </c>
       <c r="E765" t="s">
         <v>2489</v>
@@ -25492,7 +25498,7 @@
         <v>2799</v>
       </c>
       <c r="D766" t="s">
-        <v>3658</v>
+        <v>3638</v>
       </c>
       <c r="E766" t="s">
         <v>2492</v>
@@ -25509,7 +25515,7 @@
         <v>2799</v>
       </c>
       <c r="D767" t="s">
-        <v>3659</v>
+        <v>3639</v>
       </c>
       <c r="E767" t="s">
         <v>2495</v>
@@ -25526,7 +25532,7 @@
         <v>2824</v>
       </c>
       <c r="D768" t="s">
-        <v>3664</v>
+        <v>3644</v>
       </c>
       <c r="E768" t="s">
         <v>2510</v>
@@ -25543,7 +25549,7 @@
         <v>2790</v>
       </c>
       <c r="D769" t="s">
-        <v>3218</v>
+        <v>3198</v>
       </c>
       <c r="E769" t="s">
         <v>1131</v>
@@ -25577,7 +25583,7 @@
         <v>2748</v>
       </c>
       <c r="D771" t="s">
-        <v>3665</v>
+        <v>3645</v>
       </c>
       <c r="E771" t="s">
         <v>2513</v>
@@ -25594,7 +25600,7 @@
         <v>2825</v>
       </c>
       <c r="D772" t="s">
-        <v>3667</v>
+        <v>3647</v>
       </c>
       <c r="E772" t="s">
         <v>2519</v>
@@ -25611,7 +25617,7 @@
         <v>2826</v>
       </c>
       <c r="D773" t="s">
-        <v>3668</v>
+        <v>3648</v>
       </c>
       <c r="E773" t="s">
         <v>2522</v>
@@ -25628,7 +25634,7 @@
         <v>2827</v>
       </c>
       <c r="D774" t="s">
-        <v>3669</v>
+        <v>3649</v>
       </c>
       <c r="E774" t="s">
         <v>2525</v>
@@ -25645,7 +25651,7 @@
         <v>2793</v>
       </c>
       <c r="D775" t="s">
-        <v>3221</v>
+        <v>3201</v>
       </c>
       <c r="E775" t="s">
         <v>1140</v>
@@ -25662,7 +25668,7 @@
         <v>2793</v>
       </c>
       <c r="D776" t="s">
-        <v>3672</v>
+        <v>3652</v>
       </c>
       <c r="E776" t="s">
         <v>2534</v>
@@ -25679,7 +25685,7 @@
         <v>2793</v>
       </c>
       <c r="D777" t="s">
-        <v>3673</v>
+        <v>3653</v>
       </c>
       <c r="E777" t="s">
         <v>2537</v>
@@ -25696,7 +25702,7 @@
         <v>2830</v>
       </c>
       <c r="D778" t="s">
-        <v>3674</v>
+        <v>3654</v>
       </c>
       <c r="E778" t="s">
         <v>2540</v>
@@ -25713,7 +25719,7 @@
         <v>2830</v>
       </c>
       <c r="D779" t="s">
-        <v>3675</v>
+        <v>3655</v>
       </c>
       <c r="E779" t="s">
         <v>2543</v>
@@ -25730,7 +25736,7 @@
         <v>2789</v>
       </c>
       <c r="D780" t="s">
-        <v>3207</v>
+        <v>3187</v>
       </c>
       <c r="E780" t="s">
         <v>1098</v>
@@ -25747,7 +25753,7 @@
         <v>2831</v>
       </c>
       <c r="D781" t="s">
-        <v>3676</v>
+        <v>3656</v>
       </c>
       <c r="E781" t="s">
         <v>2546</v>
@@ -25764,7 +25770,7 @@
         <v>2832</v>
       </c>
       <c r="D782" t="s">
-        <v>3678</v>
+        <v>3658</v>
       </c>
       <c r="E782" t="s">
         <v>2552</v>
@@ -25781,7 +25787,7 @@
         <v>2832</v>
       </c>
       <c r="D783" t="s">
-        <v>3679</v>
+        <v>3659</v>
       </c>
       <c r="E783" t="s">
         <v>2555</v>
@@ -25798,7 +25804,7 @@
         <v>2832</v>
       </c>
       <c r="D784" t="s">
-        <v>3680</v>
+        <v>3660</v>
       </c>
       <c r="E784" t="s">
         <v>2558</v>
@@ -25815,7 +25821,7 @@
         <v>2832</v>
       </c>
       <c r="D785" t="s">
-        <v>3681</v>
+        <v>3661</v>
       </c>
       <c r="E785" t="s">
         <v>2561</v>
@@ -25832,7 +25838,7 @@
         <v>2832</v>
       </c>
       <c r="D786" t="s">
-        <v>3682</v>
+        <v>3662</v>
       </c>
       <c r="E786" t="s">
         <v>2564</v>
@@ -25849,7 +25855,7 @@
         <v>2800</v>
       </c>
       <c r="D787" t="s">
-        <v>3388</v>
+        <v>3368</v>
       </c>
       <c r="E787" t="s">
         <v>1659</v>
@@ -25866,7 +25872,7 @@
         <v>2800</v>
       </c>
       <c r="D788" t="s">
-        <v>3389</v>
+        <v>3369</v>
       </c>
       <c r="E788" t="s">
         <v>1662</v>
@@ -25883,7 +25889,7 @@
         <v>2788</v>
       </c>
       <c r="D789" t="s">
-        <v>3190</v>
+        <v>3170</v>
       </c>
       <c r="E789" t="s">
         <v>1044</v>
@@ -25900,7 +25906,7 @@
         <v>2811</v>
       </c>
       <c r="D790" t="s">
-        <v>3589</v>
+        <v>3569</v>
       </c>
       <c r="E790" t="s">
         <v>2283</v>
@@ -25917,7 +25923,7 @@
         <v>2811</v>
       </c>
       <c r="D791" t="s">
-        <v>3684</v>
+        <v>3664</v>
       </c>
       <c r="E791" t="s">
         <v>2570</v>
@@ -25934,7 +25940,7 @@
         <v>2811</v>
       </c>
       <c r="D792" t="s">
-        <v>3684</v>
+        <v>3664</v>
       </c>
       <c r="E792" t="s">
         <v>2570</v>
@@ -25951,7 +25957,7 @@
         <v>2834</v>
       </c>
       <c r="D793" t="s">
-        <v>3685</v>
+        <v>3665</v>
       </c>
       <c r="E793" t="s">
         <v>2575</v>
@@ -25988,7 +25994,7 @@
         <v>2766</v>
       </c>
       <c r="D795" t="s">
-        <v>3677</v>
+        <v>3657</v>
       </c>
       <c r="E795" t="s">
         <v>2549</v>
@@ -26005,7 +26011,7 @@
         <v>2805</v>
       </c>
       <c r="D796" t="s">
-        <v>3468</v>
+        <v>3448</v>
       </c>
       <c r="E796" t="s">
         <v>1913</v>
@@ -26022,7 +26028,7 @@
         <v>2805</v>
       </c>
       <c r="D797" t="s">
-        <v>3686</v>
+        <v>3666</v>
       </c>
       <c r="E797" t="s">
         <v>2578</v>
@@ -26073,7 +26079,7 @@
         <v>2765</v>
       </c>
       <c r="D800" t="s">
-        <v>3332</v>
+        <v>3312</v>
       </c>
       <c r="E800" t="s">
         <v>1482</v>
@@ -26090,7 +26096,7 @@
         <v>2801</v>
       </c>
       <c r="D801" t="s">
-        <v>3399</v>
+        <v>3379</v>
       </c>
       <c r="E801" t="s">
         <v>1695</v>
@@ -26107,7 +26113,7 @@
         <v>2801</v>
       </c>
       <c r="D802" t="s">
-        <v>3405</v>
+        <v>3385</v>
       </c>
       <c r="E802" t="s">
         <v>1712</v>
@@ -26124,7 +26130,7 @@
         <v>2821</v>
       </c>
       <c r="D803" t="s">
-        <v>3653</v>
+        <v>3633</v>
       </c>
       <c r="E803" t="s">
         <v>2477</v>
@@ -26181,7 +26187,7 @@
         <v>2772</v>
       </c>
       <c r="D806" t="s">
-        <v>3548</v>
+        <v>3528</v>
       </c>
       <c r="E806" t="s">
         <v>2156</v>
@@ -26198,7 +26204,7 @@
         <v>2772</v>
       </c>
       <c r="D807" t="s">
-        <v>3639</v>
+        <v>3619</v>
       </c>
       <c r="E807" t="s">
         <v>2435</v>
@@ -26215,7 +26221,7 @@
         <v>2772</v>
       </c>
       <c r="D808" t="s">
-        <v>3687</v>
+        <v>3667</v>
       </c>
       <c r="E808" t="s">
         <v>2581</v>
@@ -26232,7 +26238,7 @@
         <v>2772</v>
       </c>
       <c r="D809" t="s">
-        <v>3688</v>
+        <v>3668</v>
       </c>
       <c r="E809" t="s">
         <v>2584</v>
@@ -26249,7 +26255,7 @@
         <v>2822</v>
       </c>
       <c r="D810" t="s">
-        <v>3654</v>
+        <v>3634</v>
       </c>
       <c r="E810" t="s">
         <v>2480</v>
@@ -26306,7 +26312,7 @@
         <v>2833</v>
       </c>
       <c r="D813" t="s">
-        <v>3683</v>
+        <v>3663</v>
       </c>
       <c r="E813" t="s">
         <v>2567</v>
@@ -26323,7 +26329,7 @@
         <v>2823</v>
       </c>
       <c r="D814" t="s">
-        <v>3663</v>
+        <v>3643</v>
       </c>
       <c r="E814" t="s">
         <v>2507</v>
@@ -26340,7 +26346,7 @@
         <v>2818</v>
       </c>
       <c r="D815" t="s">
-        <v>3629</v>
+        <v>3609</v>
       </c>
       <c r="E815" t="s">
         <v>2405</v>
@@ -26357,7 +26363,7 @@
         <v>2828</v>
       </c>
       <c r="D816" t="s">
-        <v>3670</v>
+        <v>3650</v>
       </c>
       <c r="E816" t="s">
         <v>2528</v>
@@ -26374,7 +26380,7 @@
         <v>2829</v>
       </c>
       <c r="D817" t="s">
-        <v>3671</v>
+        <v>3651</v>
       </c>
       <c r="E817" t="s">
         <v>2531</v>
@@ -26391,7 +26397,7 @@
         <v>2779</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>3115</v>
+        <v>3095</v>
       </c>
       <c r="E818" t="s">
         <v>809</v>
@@ -26408,7 +26414,7 @@
         <v>2779</v>
       </c>
       <c r="D819" t="s">
-        <v>3268</v>
+        <v>3248</v>
       </c>
       <c r="E819" t="s">
         <v>1283</v>
@@ -26425,7 +26431,7 @@
         <v>2779</v>
       </c>
       <c r="D820" t="s">
-        <v>3268</v>
+        <v>3248</v>
       </c>
       <c r="E820" t="s">
         <v>1283</v>
@@ -26442,7 +26448,7 @@
         <v>2779</v>
       </c>
       <c r="D821" t="s">
-        <v>3269</v>
+        <v>3249</v>
       </c>
       <c r="E821" t="s">
         <v>1289</v>
@@ -26459,7 +26465,7 @@
         <v>2779</v>
       </c>
       <c r="D822" t="s">
-        <v>3270</v>
+        <v>3250</v>
       </c>
       <c r="E822" t="s">
         <v>1292</v>
@@ -26476,7 +26482,7 @@
         <v>2779</v>
       </c>
       <c r="D823" t="s">
-        <v>3271</v>
+        <v>3251</v>
       </c>
       <c r="E823" t="s">
         <v>1295</v>
@@ -26493,7 +26499,7 @@
         <v>2779</v>
       </c>
       <c r="D824" t="s">
-        <v>3272</v>
+        <v>3252</v>
       </c>
       <c r="E824" t="s">
         <v>1298</v>
@@ -26510,7 +26516,7 @@
         <v>2779</v>
       </c>
       <c r="D825" t="s">
-        <v>3273</v>
+        <v>3253</v>
       </c>
       <c r="E825" t="s">
         <v>1301</v>
@@ -26527,7 +26533,7 @@
         <v>2779</v>
       </c>
       <c r="D826" t="s">
-        <v>3274</v>
+        <v>3254</v>
       </c>
       <c r="E826" t="s">
         <v>1304</v>
@@ -26544,7 +26550,7 @@
         <v>2779</v>
       </c>
       <c r="D827" t="s">
-        <v>3269</v>
+        <v>3249</v>
       </c>
       <c r="E827" t="s">
         <v>1289</v>
@@ -26578,7 +26584,7 @@
         <v>2745</v>
       </c>
       <c r="D829" t="s">
-        <v>3689</v>
+        <v>3669</v>
       </c>
       <c r="E829" t="s">
         <v>2587</v>
@@ -26595,7 +26601,7 @@
         <v>2745</v>
       </c>
       <c r="D830" t="s">
-        <v>3690</v>
+        <v>3670</v>
       </c>
       <c r="E830" t="s">
         <v>2590</v>
@@ -26612,7 +26618,7 @@
         <v>2745</v>
       </c>
       <c r="D831" t="s">
-        <v>3691</v>
+        <v>3671</v>
       </c>
       <c r="E831" t="s">
         <v>2593</v>
@@ -26629,7 +26635,7 @@
         <v>2835</v>
       </c>
       <c r="D832" t="s">
-        <v>3692</v>
+        <v>3672</v>
       </c>
       <c r="E832" t="s">
         <v>2596</v>
@@ -26663,7 +26669,7 @@
         <v>2764</v>
       </c>
       <c r="D834" t="s">
-        <v>3693</v>
+        <v>3673</v>
       </c>
       <c r="E834" t="s">
         <v>2599</v>
@@ -26680,7 +26686,7 @@
         <v>2784</v>
       </c>
       <c r="D835" t="s">
-        <v>3146</v>
+        <v>3126</v>
       </c>
       <c r="E835" t="s">
         <v>904</v>
@@ -26697,7 +26703,7 @@
         <v>2836</v>
       </c>
       <c r="D836" t="s">
-        <v>3694</v>
+        <v>3674</v>
       </c>
       <c r="E836" t="s">
         <v>2602</v>
@@ -26714,7 +26720,7 @@
         <v>2836</v>
       </c>
       <c r="D837" t="s">
-        <v>3695</v>
+        <v>3675</v>
       </c>
       <c r="E837" t="s">
         <v>2605</v>
@@ -26731,7 +26737,7 @@
         <v>2836</v>
       </c>
       <c r="D838" t="s">
-        <v>3268</v>
+        <v>3248</v>
       </c>
       <c r="E838" t="s">
         <v>2608</v>
@@ -26816,7 +26822,7 @@
         <v>2750</v>
       </c>
       <c r="D843" t="s">
-        <v>3696</v>
+        <v>3676</v>
       </c>
       <c r="E843" t="s">
         <v>2610</v>
@@ -26833,7 +26839,7 @@
         <v>2750</v>
       </c>
       <c r="D844" t="s">
-        <v>3697</v>
+        <v>3677</v>
       </c>
       <c r="E844" t="s">
         <v>2613</v>
@@ -26850,7 +26856,7 @@
         <v>2783</v>
       </c>
       <c r="D845" t="s">
-        <v>3136</v>
+        <v>3116</v>
       </c>
       <c r="E845" t="s">
         <v>874</v>
@@ -26867,7 +26873,7 @@
         <v>2783</v>
       </c>
       <c r="D846" t="s">
-        <v>3165</v>
+        <v>3145</v>
       </c>
       <c r="E846" t="s">
         <v>961</v>
@@ -26884,7 +26890,7 @@
         <v>2783</v>
       </c>
       <c r="D847" t="s">
-        <v>3166</v>
+        <v>3146</v>
       </c>
       <c r="E847" t="s">
         <v>964</v>
@@ -26901,7 +26907,7 @@
         <v>2783</v>
       </c>
       <c r="D848" t="s">
-        <v>3698</v>
+        <v>3678</v>
       </c>
       <c r="E848" t="s">
         <v>2616</v>
@@ -26918,7 +26924,7 @@
         <v>2783</v>
       </c>
       <c r="D849" t="s">
-        <v>3699</v>
+        <v>3679</v>
       </c>
       <c r="E849" t="s">
         <v>2619</v>
@@ -26935,7 +26941,7 @@
         <v>2837</v>
       </c>
       <c r="D850" t="s">
-        <v>3700</v>
+        <v>3680</v>
       </c>
       <c r="E850" t="s">
         <v>2622</v>
@@ -26952,7 +26958,7 @@
         <v>2837</v>
       </c>
       <c r="D851" t="s">
-        <v>3701</v>
+        <v>3681</v>
       </c>
       <c r="E851" t="s">
         <v>2625</v>
@@ -26969,7 +26975,7 @@
         <v>2838</v>
       </c>
       <c r="D852" t="s">
-        <v>3292</v>
+        <v>3272</v>
       </c>
       <c r="E852" t="s">
         <v>2628</v>
@@ -26986,7 +26992,7 @@
         <v>2838</v>
       </c>
       <c r="D853" t="s">
-        <v>3702</v>
+        <v>3682</v>
       </c>
       <c r="E853" t="s">
         <v>2631</v>
@@ -27003,7 +27009,7 @@
         <v>2838</v>
       </c>
       <c r="D854" t="s">
-        <v>3703</v>
+        <v>3683</v>
       </c>
       <c r="E854" t="s">
         <v>2634</v>
@@ -27020,7 +27026,7 @@
         <v>2838</v>
       </c>
       <c r="D855" t="s">
-        <v>3704</v>
+        <v>3684</v>
       </c>
       <c r="E855" t="s">
         <v>2637</v>
@@ -27037,7 +27043,7 @@
         <v>2838</v>
       </c>
       <c r="D856" t="s">
-        <v>3705</v>
+        <v>3685</v>
       </c>
       <c r="E856" t="s">
         <v>2640</v>
@@ -27054,7 +27060,7 @@
         <v>2838</v>
       </c>
       <c r="D857" t="s">
-        <v>3706</v>
+        <v>3686</v>
       </c>
       <c r="E857" t="s">
         <v>2643</v>
@@ -27071,7 +27077,7 @@
         <v>2838</v>
       </c>
       <c r="D858" t="s">
-        <v>3707</v>
+        <v>3687</v>
       </c>
       <c r="E858" t="s">
         <v>2646</v>
@@ -27088,7 +27094,7 @@
         <v>2798</v>
       </c>
       <c r="D859" t="s">
-        <v>3313</v>
+        <v>3293</v>
       </c>
       <c r="E859" t="s">
         <v>1425</v>
@@ -27105,7 +27111,7 @@
         <v>2798</v>
       </c>
       <c r="D860" t="s">
-        <v>3342</v>
+        <v>3322</v>
       </c>
       <c r="E860" t="s">
         <v>1517</v>
@@ -27122,7 +27128,7 @@
         <v>2798</v>
       </c>
       <c r="D861" t="s">
-        <v>3343</v>
+        <v>3323</v>
       </c>
       <c r="E861" t="s">
         <v>1520</v>
@@ -27139,7 +27145,7 @@
         <v>2798</v>
       </c>
       <c r="D862" t="s">
-        <v>3344</v>
+        <v>3324</v>
       </c>
       <c r="E862" t="s">
         <v>1523</v>
@@ -27176,7 +27182,7 @@
         <v>2771</v>
       </c>
       <c r="D864" t="s">
-        <v>3708</v>
+        <v>3688</v>
       </c>
       <c r="E864" t="s">
         <v>2649</v>
@@ -27193,7 +27199,7 @@
         <v>2853</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>3734</v>
+        <v>3714</v>
       </c>
       <c r="E865" t="s">
         <v>2733</v>
@@ -27210,7 +27216,7 @@
         <v>2854</v>
       </c>
       <c r="D866" t="s">
-        <v>3735</v>
+        <v>3715</v>
       </c>
       <c r="E866" t="s">
         <v>2736</v>
@@ -27227,7 +27233,7 @@
         <v>2854</v>
       </c>
       <c r="D867" t="s">
-        <v>3736</v>
+        <v>3716</v>
       </c>
       <c r="E867" t="s">
         <v>2739</v>
@@ -27244,7 +27250,7 @@
         <v>2854</v>
       </c>
       <c r="D868" t="s">
-        <v>3737</v>
+        <v>3717</v>
       </c>
       <c r="E868" t="s">
         <v>2742</v>
@@ -27261,7 +27267,7 @@
         <v>2817</v>
       </c>
       <c r="D869" t="s">
-        <v>3613</v>
+        <v>3593</v>
       </c>
       <c r="E869" t="s">
         <v>2357</v>
@@ -27272,39 +27278,39 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>3745</v>
+        <v>3725</v>
       </c>
       <c r="B870" t="s">
-        <v>3746</v>
+        <v>3726</v>
       </c>
       <c r="D870" t="s">
-        <v>3751</v>
+        <v>3731</v>
       </c>
       <c r="E870" t="s">
-        <v>3747</v>
+        <v>3727</v>
       </c>
       <c r="F870" t="s">
-        <v>3748</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>3738</v>
+        <v>3718</v>
       </c>
       <c r="B871" t="s">
-        <v>3739</v>
+        <v>3719</v>
       </c>
       <c r="C871" t="s">
         <v>375</v>
       </c>
       <c r="D871" t="s">
-        <v>3749</v>
+        <v>3729</v>
       </c>
       <c r="E871" t="s">
-        <v>3740</v>
+        <v>3720</v>
       </c>
       <c r="F871" t="s">
-        <v>3741</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
@@ -27312,16 +27318,16 @@
         <v>2140</v>
       </c>
       <c r="B872" t="s">
-        <v>3742</v>
+        <v>3722</v>
       </c>
       <c r="D872" t="s">
-        <v>3750</v>
+        <v>3730</v>
       </c>
       <c r="E872" t="s">
-        <v>3743</v>
+        <v>3723</v>
       </c>
       <c r="F872" t="s">
-        <v>3744</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -27332,7 +27338,7 @@
         <v>2786</v>
       </c>
       <c r="D873" t="s">
-        <v>3158</v>
+        <v>3138</v>
       </c>
       <c r="E873" t="s">
         <v>940</v>
@@ -27349,7 +27355,7 @@
         <v>2786</v>
       </c>
       <c r="D874" t="s">
-        <v>3325</v>
+        <v>3305</v>
       </c>
       <c r="E874" t="s">
         <v>1461</v>
@@ -27366,7 +27372,7 @@
         <v>2786</v>
       </c>
       <c r="D875" t="s">
-        <v>3711</v>
+        <v>3691</v>
       </c>
       <c r="E875" t="s">
         <v>2658</v>
@@ -27383,7 +27389,7 @@
         <v>2839</v>
       </c>
       <c r="D876" t="s">
-        <v>3712</v>
+        <v>3692</v>
       </c>
       <c r="E876" t="s">
         <v>2661</v>
@@ -27400,7 +27406,7 @@
         <v>2840</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>3713</v>
+        <v>3693</v>
       </c>
       <c r="E877" t="s">
         <v>2664</v>
@@ -27417,7 +27423,7 @@
         <v>2840</v>
       </c>
       <c r="D878" t="s">
-        <v>3714</v>
+        <v>3694</v>
       </c>
       <c r="E878" t="s">
         <v>2667</v>
@@ -27437,7 +27443,7 @@
         <v>375</v>
       </c>
       <c r="D879" t="s">
-        <v>3108</v>
+        <v>3089</v>
       </c>
       <c r="E879" t="s">
         <v>785</v>
@@ -27457,7 +27463,7 @@
         <v>375</v>
       </c>
       <c r="D880" t="s">
-        <v>3109</v>
+        <v>3090</v>
       </c>
       <c r="E880" t="s">
         <v>788</v>
@@ -27474,7 +27480,7 @@
         <v>2791</v>
       </c>
       <c r="D881" t="s">
-        <v>3219</v>
+        <v>3199</v>
       </c>
       <c r="E881" t="s">
         <v>1134</v>
@@ -27491,7 +27497,7 @@
         <v>2791</v>
       </c>
       <c r="D882" t="s">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="E882" t="s">
         <v>2012</v>
@@ -27508,7 +27514,7 @@
         <v>2841</v>
       </c>
       <c r="D883" t="s">
-        <v>3715</v>
+        <v>3695</v>
       </c>
       <c r="E883" t="s">
         <v>2670</v>
@@ -27525,7 +27531,7 @@
         <v>2842</v>
       </c>
       <c r="D884" t="s">
-        <v>3716</v>
+        <v>3696</v>
       </c>
       <c r="E884" t="s">
         <v>2673</v>
@@ -27542,7 +27548,7 @@
         <v>2803</v>
       </c>
       <c r="D885" t="s">
-        <v>3443</v>
+        <v>3423</v>
       </c>
       <c r="E885" t="s">
         <v>1838</v>
@@ -27559,7 +27565,7 @@
         <v>2803</v>
       </c>
       <c r="D886" t="s">
-        <v>3717</v>
+        <v>3697</v>
       </c>
       <c r="E886" t="s">
         <v>2676</v>
@@ -27576,7 +27582,7 @@
         <v>2843</v>
       </c>
       <c r="D887" t="s">
-        <v>3718</v>
+        <v>3698</v>
       </c>
       <c r="E887" t="s">
         <v>2679</v>
@@ -27593,7 +27599,7 @@
         <v>2843</v>
       </c>
       <c r="D888" t="s">
-        <v>3719</v>
+        <v>3699</v>
       </c>
       <c r="E888" t="s">
         <v>2682</v>
@@ -27610,7 +27616,7 @@
         <v>2844</v>
       </c>
       <c r="D889" t="s">
-        <v>3720</v>
+        <v>3700</v>
       </c>
       <c r="E889" t="s">
         <v>2685</v>
@@ -27627,7 +27633,7 @@
         <v>2845</v>
       </c>
       <c r="D890" t="s">
-        <v>3721</v>
+        <v>3701</v>
       </c>
       <c r="E890" t="s">
         <v>2688</v>
@@ -27661,7 +27667,7 @@
         <v>2846</v>
       </c>
       <c r="D892" t="s">
-        <v>3722</v>
+        <v>3702</v>
       </c>
       <c r="E892" t="s">
         <v>2691</v>
@@ -27678,7 +27684,7 @@
         <v>2847</v>
       </c>
       <c r="D893" t="s">
-        <v>3723</v>
+        <v>3703</v>
       </c>
       <c r="E893" t="s">
         <v>2694</v>
@@ -27695,7 +27701,7 @@
         <v>2848</v>
       </c>
       <c r="D894" t="s">
-        <v>3724</v>
+        <v>3704</v>
       </c>
       <c r="E894" t="s">
         <v>2697</v>
@@ -27732,7 +27738,7 @@
         <v>2754</v>
       </c>
       <c r="D896" t="s">
-        <v>3725</v>
+        <v>3705</v>
       </c>
       <c r="E896" t="s">
         <v>2700</v>
@@ -27749,7 +27755,7 @@
         <v>2754</v>
       </c>
       <c r="D897" t="s">
-        <v>3726</v>
+        <v>3706</v>
       </c>
       <c r="E897" t="s">
         <v>2703</v>
@@ -27766,7 +27772,7 @@
         <v>2849</v>
       </c>
       <c r="D898" t="s">
-        <v>3727</v>
+        <v>3707</v>
       </c>
       <c r="E898" t="s">
         <v>2706</v>
@@ -27783,7 +27789,7 @@
         <v>2849</v>
       </c>
       <c r="D899" t="s">
-        <v>3728</v>
+        <v>3708</v>
       </c>
       <c r="E899" t="s">
         <v>2709</v>
@@ -27877,7 +27883,7 @@
         <v>2759</v>
       </c>
       <c r="D904" t="s">
-        <v>3730</v>
+        <v>3710</v>
       </c>
       <c r="E904" t="s">
         <v>2715</v>
@@ -27894,7 +27900,7 @@
         <v>2850</v>
       </c>
       <c r="D905" t="s">
-        <v>3729</v>
+        <v>3709</v>
       </c>
       <c r="E905" t="s">
         <v>2712</v>
@@ -27965,7 +27971,7 @@
         <v>2751</v>
       </c>
       <c r="D909" t="s">
-        <v>3458</v>
+        <v>3438</v>
       </c>
       <c r="E909" t="s">
         <v>1883</v>
@@ -27982,7 +27988,7 @@
         <v>2751</v>
       </c>
       <c r="D910" t="s">
-        <v>3666</v>
+        <v>3646</v>
       </c>
       <c r="E910" t="s">
         <v>2516</v>
@@ -27999,7 +28005,7 @@
         <v>2751</v>
       </c>
       <c r="D911" t="s">
-        <v>3731</v>
+        <v>3711</v>
       </c>
       <c r="E911" t="s">
         <v>2724</v>
@@ -28016,7 +28022,7 @@
         <v>2809</v>
       </c>
       <c r="D912" t="s">
-        <v>3522</v>
+        <v>3502</v>
       </c>
       <c r="E912" t="s">
         <v>2079</v>
@@ -28033,7 +28039,7 @@
         <v>2808</v>
       </c>
       <c r="D913" t="s">
-        <v>3520</v>
+        <v>3500</v>
       </c>
       <c r="E913" t="s">
         <v>2070</v>
@@ -28050,7 +28056,7 @@
         <v>2808</v>
       </c>
       <c r="D914" t="s">
-        <v>3520</v>
+        <v>3500</v>
       </c>
       <c r="E914" t="s">
         <v>2070</v>
@@ -28067,7 +28073,7 @@
         <v>2808</v>
       </c>
       <c r="D915" t="s">
-        <v>3521</v>
+        <v>3501</v>
       </c>
       <c r="E915" t="s">
         <v>2074</v>
@@ -28084,7 +28090,7 @@
         <v>2808</v>
       </c>
       <c r="D916" t="s">
-        <v>3523</v>
+        <v>3503</v>
       </c>
       <c r="E916" t="s">
         <v>2082</v>
@@ -28101,7 +28107,7 @@
         <v>2785</v>
       </c>
       <c r="D917" t="s">
-        <v>3157</v>
+        <v>3137</v>
       </c>
       <c r="E917" t="s">
         <v>937</v>
@@ -28118,7 +28124,7 @@
         <v>2785</v>
       </c>
       <c r="D918" t="s">
-        <v>3275</v>
+        <v>3255</v>
       </c>
       <c r="E918" t="s">
         <v>1309</v>
@@ -28135,7 +28141,7 @@
         <v>2785</v>
       </c>
       <c r="D919" t="s">
-        <v>3276</v>
+        <v>3256</v>
       </c>
       <c r="E919" t="s">
         <v>1312</v>
@@ -28152,7 +28158,7 @@
         <v>2785</v>
       </c>
       <c r="D920" t="s">
-        <v>3490</v>
+        <v>3470</v>
       </c>
       <c r="E920" t="s">
         <v>1979</v>
@@ -28169,7 +28175,7 @@
         <v>2785</v>
       </c>
       <c r="D921" t="s">
-        <v>3491</v>
+        <v>3471</v>
       </c>
       <c r="E921" t="s">
         <v>1982</v>
@@ -28186,7 +28192,7 @@
         <v>2785</v>
       </c>
       <c r="D922" t="s">
-        <v>3492</v>
+        <v>3472</v>
       </c>
       <c r="E922" t="s">
         <v>1985</v>
@@ -28203,7 +28209,7 @@
         <v>2785</v>
       </c>
       <c r="D923" t="s">
-        <v>3493</v>
+        <v>3473</v>
       </c>
       <c r="E923" t="s">
         <v>1988</v>
@@ -28220,7 +28226,7 @@
         <v>2785</v>
       </c>
       <c r="D924" t="s">
-        <v>3494</v>
+        <v>3474</v>
       </c>
       <c r="E924" t="s">
         <v>1991</v>
@@ -28237,7 +28243,7 @@
         <v>2785</v>
       </c>
       <c r="D925" t="s">
-        <v>3709</v>
+        <v>3689</v>
       </c>
       <c r="E925" t="s">
         <v>2652</v>
@@ -28254,7 +28260,7 @@
         <v>2785</v>
       </c>
       <c r="D926" t="s">
-        <v>3710</v>
+        <v>3690</v>
       </c>
       <c r="E926" t="s">
         <v>2655</v>
@@ -28271,7 +28277,7 @@
         <v>2851</v>
       </c>
       <c r="D927" t="s">
-        <v>3732</v>
+        <v>3712</v>
       </c>
       <c r="E927" t="s">
         <v>2727</v>
@@ -28345,7 +28351,7 @@
         <v>2852</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>3733</v>
+        <v>3713</v>
       </c>
       <c r="E931" t="s">
         <v>2730</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5BF7DA-1787-4368-B0D0-F656E050ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5BA5E-0896-4407-A5E7-BBFAF05FF1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9382,9 +9382,6 @@
     <t>Uma explosão sônica estrondosa atinge #1.</t>
   </si>
   <si>
-    <t>#seus nervos estão corroídos.</t>
-  </si>
-  <si>
     <t>O caos choca #1.</t>
   </si>
   <si>
@@ -10517,12 +10514,6 @@
     <t>#1 se acalma.</t>
   </si>
   <si>
-    <t>#1 calça #seus sapatos.</t>
-  </si>
-  <si>
-    <t>#1 tira #seus sapatos.</t>
-  </si>
-  <si>
     <t>*swoosh*_x000D_
 *shoosh*_x000D_
 *whoosh*</t>
@@ -10565,11 +10556,6 @@
 #1 escuta #sua música com alegria._x000D_
 #1 está animado!_x000D_
 #1 elogia #sua apresentação.</t>
-  </si>
-  <si>
-    <t>#1 amaldiçoa._x000D_
-#1 cobre #seus ouvidos._x000D_
-#1 critica #sua apresentação.</t>
   </si>
   <si>
     <t>#1 monta em #2.</t>
@@ -10605,9 +10591,6 @@
     <t>#1 investe contra #2!</t>
   </si>
   <si>
-    <t>#seus feitiços se desfazem.</t>
-  </si>
-  <si>
     <t>#1 desenha #2.</t>
   </si>
   <si>
@@ -11019,9 +11002,6 @@
   </si>
   <si>
     <t>#1 treme intensamente.</t>
-  </si>
-  <si>
-    <t>#1 envolve #seus braços firmemente ao redor de #2.</t>
   </si>
   <si>
     <t>Uma irmãzinha silenciosamente segura sua mão.</t>
@@ -11514,6 +11494,26 @@
   </si>
   <si>
     <t>#1 foi morto por #3 #2.</t>
+  </si>
+  <si>
+    <t>#1 calça #his sapatos.</t>
+  </si>
+  <si>
+    <t>#1 tira #his sapatos.</t>
+  </si>
+  <si>
+    <t>#1 amaldiçoa.
+#1 cobre #his ouvidos.
+#1 critica #your2 apresentação.</t>
+  </si>
+  <si>
+    <t>#your nervos estão corroídos.</t>
+  </si>
+  <si>
+    <t>#1 envolve #his braços firmemente ao redor de #2.</t>
+  </si>
+  <si>
+    <t>#your feitiços se desfazem.</t>
   </si>
 </sst>
 </file>
@@ -11896,9 +11896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A636" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D672" sqref="D672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14223,7 +14223,7 @@
         <v>375</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="E128" t="s">
         <v>671</v>
@@ -14243,7 +14243,7 @@
         <v>375</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E129" t="s">
         <v>674</v>
@@ -14263,7 +14263,7 @@
         <v>375</v>
       </c>
       <c r="D130" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="E130" t="s">
         <v>677</v>
@@ -14283,7 +14283,7 @@
         <v>375</v>
       </c>
       <c r="D131" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="E131" t="s">
         <v>680</v>
@@ -14303,7 +14303,7 @@
         <v>375</v>
       </c>
       <c r="D132" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="E132" t="s">
         <v>683</v>
@@ -14323,7 +14323,7 @@
         <v>375</v>
       </c>
       <c r="D133" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="E133" t="s">
         <v>686</v>
@@ -14343,7 +14343,7 @@
         <v>375</v>
       </c>
       <c r="D134" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="E134" t="s">
         <v>689</v>
@@ -14363,7 +14363,7 @@
         <v>375</v>
       </c>
       <c r="D135" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="E135" t="s">
         <v>692</v>
@@ -14383,7 +14383,7 @@
         <v>375</v>
       </c>
       <c r="D136" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="E136" t="s">
         <v>695</v>
@@ -14403,7 +14403,7 @@
         <v>375</v>
       </c>
       <c r="D137" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="E137" t="s">
         <v>698</v>
@@ -14423,7 +14423,7 @@
         <v>375</v>
       </c>
       <c r="D138" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="E138" t="s">
         <v>701</v>
@@ -14443,7 +14443,7 @@
         <v>375</v>
       </c>
       <c r="D139" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E139" t="s">
         <v>704</v>
@@ -14463,7 +14463,7 @@
         <v>375</v>
       </c>
       <c r="D140" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="E140" t="s">
         <v>707</v>
@@ -14483,7 +14483,7 @@
         <v>375</v>
       </c>
       <c r="D141" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="E141" t="s">
         <v>710</v>
@@ -14503,7 +14503,7 @@
         <v>375</v>
       </c>
       <c r="D142" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="E142" t="s">
         <v>713</v>
@@ -14523,7 +14523,7 @@
         <v>375</v>
       </c>
       <c r="D143" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="E143" t="s">
         <v>716</v>
@@ -14543,7 +14543,7 @@
         <v>375</v>
       </c>
       <c r="D144" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="E144" t="s">
         <v>719</v>
@@ -14563,7 +14563,7 @@
         <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>3753</v>
+        <v>3747</v>
       </c>
       <c r="E145" t="s">
         <v>722</v>
@@ -14583,7 +14583,7 @@
         <v>375</v>
       </c>
       <c r="D146" t="s">
-        <v>3752</v>
+        <v>3746</v>
       </c>
       <c r="E146" t="s">
         <v>725</v>
@@ -14603,7 +14603,7 @@
         <v>375</v>
       </c>
       <c r="D147" t="s">
-        <v>3751</v>
+        <v>3745</v>
       </c>
       <c r="E147" t="s">
         <v>731</v>
@@ -14623,7 +14623,7 @@
         <v>375</v>
       </c>
       <c r="D148" t="s">
-        <v>3750</v>
+        <v>3744</v>
       </c>
       <c r="E148" t="s">
         <v>734</v>
@@ -14643,7 +14643,7 @@
         <v>375</v>
       </c>
       <c r="D149" t="s">
-        <v>3749</v>
+        <v>3743</v>
       </c>
       <c r="E149" t="s">
         <v>737</v>
@@ -14663,7 +14663,7 @@
         <v>375</v>
       </c>
       <c r="D150" t="s">
-        <v>3748</v>
+        <v>3742</v>
       </c>
       <c r="E150" t="s">
         <v>740</v>
@@ -14683,7 +14683,7 @@
         <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>3747</v>
+        <v>3741</v>
       </c>
       <c r="E151" t="s">
         <v>743</v>
@@ -14703,7 +14703,7 @@
         <v>375</v>
       </c>
       <c r="D152" t="s">
-        <v>3746</v>
+        <v>3740</v>
       </c>
       <c r="E152" t="s">
         <v>749</v>
@@ -14723,7 +14723,7 @@
         <v>375</v>
       </c>
       <c r="D153" t="s">
-        <v>3745</v>
+        <v>3739</v>
       </c>
       <c r="E153" t="s">
         <v>752</v>
@@ -14743,7 +14743,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>3744</v>
+        <v>3738</v>
       </c>
       <c r="E154" t="s">
         <v>755</v>
@@ -14763,7 +14763,7 @@
         <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>3743</v>
+        <v>3737</v>
       </c>
       <c r="E155" t="s">
         <v>758</v>
@@ -14783,7 +14783,7 @@
         <v>375</v>
       </c>
       <c r="D156" t="s">
-        <v>3742</v>
+        <v>3736</v>
       </c>
       <c r="E156" t="s">
         <v>761</v>
@@ -14803,7 +14803,7 @@
         <v>375</v>
       </c>
       <c r="D157" t="s">
-        <v>3741</v>
+        <v>3735</v>
       </c>
       <c r="E157" t="s">
         <v>764</v>
@@ -14823,7 +14823,7 @@
         <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>3740</v>
+        <v>3734</v>
       </c>
       <c r="E158" t="s">
         <v>767</v>
@@ -14843,7 +14843,7 @@
         <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>3739</v>
+        <v>3733</v>
       </c>
       <c r="E159" t="s">
         <v>770</v>
@@ -14863,7 +14863,7 @@
         <v>375</v>
       </c>
       <c r="D160" t="s">
-        <v>3738</v>
+        <v>3732</v>
       </c>
       <c r="E160" t="s">
         <v>773</v>
@@ -14883,7 +14883,7 @@
         <v>375</v>
       </c>
       <c r="D161" t="s">
-        <v>3737</v>
+        <v>3731</v>
       </c>
       <c r="E161" t="s">
         <v>776</v>
@@ -14903,7 +14903,7 @@
         <v>375</v>
       </c>
       <c r="D162" t="s">
-        <v>3736</v>
+        <v>3730</v>
       </c>
       <c r="E162" t="s">
         <v>779</v>
@@ -14923,7 +14923,7 @@
         <v>375</v>
       </c>
       <c r="D163" t="s">
-        <v>3735</v>
+        <v>3729</v>
       </c>
       <c r="E163" t="s">
         <v>782</v>
@@ -14943,7 +14943,7 @@
         <v>375</v>
       </c>
       <c r="D164" t="s">
-        <v>3734</v>
+        <v>3728</v>
       </c>
       <c r="E164" t="s">
         <v>791</v>
@@ -14980,7 +14980,7 @@
         <v>2744</v>
       </c>
       <c r="D166" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="E166" t="s">
         <v>806</v>
@@ -14997,7 +14997,7 @@
         <v>2744</v>
       </c>
       <c r="D167" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="E167" t="s">
         <v>830</v>
@@ -15014,7 +15014,7 @@
         <v>2744</v>
       </c>
       <c r="D168" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="E168" t="s">
         <v>842</v>
@@ -15031,7 +15031,7 @@
         <v>2744</v>
       </c>
       <c r="D169" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="E169" t="s">
         <v>848</v>
@@ -15048,7 +15048,7 @@
         <v>2744</v>
       </c>
       <c r="D170" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="E170" t="s">
         <v>851</v>
@@ -15068,7 +15068,7 @@
         <v>864</v>
       </c>
       <c r="D171" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="E171" t="s">
         <v>865</v>
@@ -15085,7 +15085,7 @@
         <v>2744</v>
       </c>
       <c r="D172" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="E172" t="s">
         <v>868</v>
@@ -15102,7 +15102,7 @@
         <v>2744</v>
       </c>
       <c r="D173" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="E173" t="s">
         <v>871</v>
@@ -15119,7 +15119,7 @@
         <v>2744</v>
       </c>
       <c r="D174" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="E174" t="s">
         <v>877</v>
@@ -15136,7 +15136,7 @@
         <v>2744</v>
       </c>
       <c r="D175" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="E175" t="s">
         <v>880</v>
@@ -15153,7 +15153,7 @@
         <v>2744</v>
       </c>
       <c r="D176" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="E176" t="s">
         <v>883</v>
@@ -15170,7 +15170,7 @@
         <v>2744</v>
       </c>
       <c r="D177" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="E177" t="s">
         <v>886</v>
@@ -15187,7 +15187,7 @@
         <v>2744</v>
       </c>
       <c r="D178" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="E178" t="s">
         <v>892</v>
@@ -15204,7 +15204,7 @@
         <v>2744</v>
       </c>
       <c r="D179" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="E179" t="s">
         <v>895</v>
@@ -15221,7 +15221,7 @@
         <v>2744</v>
       </c>
       <c r="D180" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="E180" t="s">
         <v>898</v>
@@ -15238,7 +15238,7 @@
         <v>2744</v>
       </c>
       <c r="D181" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="E181" t="s">
         <v>901</v>
@@ -15255,7 +15255,7 @@
         <v>2744</v>
       </c>
       <c r="D182" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="E182" t="s">
         <v>907</v>
@@ -15272,7 +15272,7 @@
         <v>2744</v>
       </c>
       <c r="D183" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="E183" t="s">
         <v>910</v>
@@ -15289,7 +15289,7 @@
         <v>2744</v>
       </c>
       <c r="D184" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="E184" t="s">
         <v>913</v>
@@ -15306,7 +15306,7 @@
         <v>2744</v>
       </c>
       <c r="D185" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="E185" t="s">
         <v>916</v>
@@ -15323,7 +15323,7 @@
         <v>2744</v>
       </c>
       <c r="D186" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="E186" t="s">
         <v>919</v>
@@ -15340,7 +15340,7 @@
         <v>2744</v>
       </c>
       <c r="D187" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="E187" t="s">
         <v>922</v>
@@ -15357,7 +15357,7 @@
         <v>2744</v>
       </c>
       <c r="D188" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="E188" t="s">
         <v>925</v>
@@ -15374,7 +15374,7 @@
         <v>2744</v>
       </c>
       <c r="D189" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="E189" t="s">
         <v>928</v>
@@ -15391,7 +15391,7 @@
         <v>2744</v>
       </c>
       <c r="D190" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="E190" t="s">
         <v>931</v>
@@ -15408,7 +15408,7 @@
         <v>2744</v>
       </c>
       <c r="D191" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="E191" t="s">
         <v>949</v>
@@ -15425,7 +15425,7 @@
         <v>2744</v>
       </c>
       <c r="D192" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="E192" t="s">
         <v>952</v>
@@ -15442,7 +15442,7 @@
         <v>2744</v>
       </c>
       <c r="D193" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="E193" t="s">
         <v>955</v>
@@ -15459,7 +15459,7 @@
         <v>2744</v>
       </c>
       <c r="D194" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="E194" t="s">
         <v>967</v>
@@ -15476,7 +15476,7 @@
         <v>2744</v>
       </c>
       <c r="D195" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="E195" t="s">
         <v>970</v>
@@ -15493,7 +15493,7 @@
         <v>2744</v>
       </c>
       <c r="D196" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="E196" t="s">
         <v>973</v>
@@ -15510,7 +15510,7 @@
         <v>2744</v>
       </c>
       <c r="D197" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="E197" t="s">
         <v>976</v>
@@ -15527,7 +15527,7 @@
         <v>2744</v>
       </c>
       <c r="D198" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="E198" t="s">
         <v>979</v>
@@ -15544,7 +15544,7 @@
         <v>2744</v>
       </c>
       <c r="D199" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="E199" t="s">
         <v>982</v>
@@ -15561,7 +15561,7 @@
         <v>2744</v>
       </c>
       <c r="D200" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="E200" t="s">
         <v>984</v>
@@ -15578,7 +15578,7 @@
         <v>2744</v>
       </c>
       <c r="D201" t="s">
-        <v>3732</v>
+        <v>3726</v>
       </c>
       <c r="E201" t="s">
         <v>990</v>
@@ -15595,7 +15595,7 @@
         <v>2744</v>
       </c>
       <c r="D202" t="s">
-        <v>3733</v>
+        <v>3727</v>
       </c>
       <c r="E202" t="s">
         <v>993</v>
@@ -15612,7 +15612,7 @@
         <v>2744</v>
       </c>
       <c r="D203" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="E203" t="s">
         <v>996</v>
@@ -15629,7 +15629,7 @@
         <v>2744</v>
       </c>
       <c r="D204" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="E204" t="s">
         <v>996</v>
@@ -15646,7 +15646,7 @@
         <v>2744</v>
       </c>
       <c r="D205" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="E205" t="s">
         <v>1001</v>
@@ -15663,7 +15663,7 @@
         <v>2744</v>
       </c>
       <c r="D206" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="E206" t="s">
         <v>1004</v>
@@ -15680,7 +15680,7 @@
         <v>2744</v>
       </c>
       <c r="D207" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="E207" t="s">
         <v>1007</v>
@@ -15697,7 +15697,7 @@
         <v>2744</v>
       </c>
       <c r="D208" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="E208" t="s">
         <v>1010</v>
@@ -15714,7 +15714,7 @@
         <v>2744</v>
       </c>
       <c r="D209" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="E209" t="s">
         <v>1013</v>
@@ -15731,7 +15731,7 @@
         <v>2744</v>
       </c>
       <c r="D210" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="E210" t="s">
         <v>1016</v>
@@ -15751,7 +15751,7 @@
         <v>1019</v>
       </c>
       <c r="D211" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="E211" t="s">
         <v>1020</v>
@@ -15771,7 +15771,7 @@
         <v>1019</v>
       </c>
       <c r="D212" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="E212" t="s">
         <v>1023</v>
@@ -15791,7 +15791,7 @@
         <v>1019</v>
       </c>
       <c r="D213" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="E213" t="s">
         <v>1032</v>
@@ -15811,7 +15811,7 @@
         <v>1019</v>
       </c>
       <c r="D214" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="E214" t="s">
         <v>1035</v>
@@ -15828,7 +15828,7 @@
         <v>2744</v>
       </c>
       <c r="D215" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="E215" t="s">
         <v>1059</v>
@@ -15845,7 +15845,7 @@
         <v>2744</v>
       </c>
       <c r="D216" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="E216" t="s">
         <v>1062</v>
@@ -15862,7 +15862,7 @@
         <v>2744</v>
       </c>
       <c r="D217" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E217" t="s">
         <v>1065</v>
@@ -15879,7 +15879,7 @@
         <v>2744</v>
       </c>
       <c r="D218" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="E218" t="s">
         <v>1068</v>
@@ -15896,7 +15896,7 @@
         <v>2744</v>
       </c>
       <c r="D219" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="E219" t="s">
         <v>1074</v>
@@ -15913,7 +15913,7 @@
         <v>2744</v>
       </c>
       <c r="D220" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="E220" t="s">
         <v>1076</v>
@@ -15930,7 +15930,7 @@
         <v>2744</v>
       </c>
       <c r="D221" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="E221" t="s">
         <v>1079</v>
@@ -15964,7 +15964,7 @@
         <v>2744</v>
       </c>
       <c r="D223" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="E223" t="s">
         <v>1083</v>
@@ -15981,7 +15981,7 @@
         <v>2744</v>
       </c>
       <c r="D224" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="E224" t="s">
         <v>1086</v>
@@ -15998,7 +15998,7 @@
         <v>2744</v>
       </c>
       <c r="D225" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="E225" t="s">
         <v>1092</v>
@@ -16015,7 +16015,7 @@
         <v>2744</v>
       </c>
       <c r="D226" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="E226" t="s">
         <v>1095</v>
@@ -16032,7 +16032,7 @@
         <v>2744</v>
       </c>
       <c r="D227" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="E227" t="s">
         <v>1101</v>
@@ -16049,7 +16049,7 @@
         <v>2744</v>
       </c>
       <c r="D228" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="E228" t="s">
         <v>1107</v>
@@ -16066,7 +16066,7 @@
         <v>2744</v>
       </c>
       <c r="D229" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="E229" t="s">
         <v>1110</v>
@@ -16083,7 +16083,7 @@
         <v>2744</v>
       </c>
       <c r="D230" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="E230" t="s">
         <v>1113</v>
@@ -16100,7 +16100,7 @@
         <v>2744</v>
       </c>
       <c r="D231" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="E231" t="s">
         <v>1122</v>
@@ -16117,7 +16117,7 @@
         <v>2744</v>
       </c>
       <c r="D232" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="E232" t="s">
         <v>1125</v>
@@ -16134,7 +16134,7 @@
         <v>2744</v>
       </c>
       <c r="D233" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="E233" t="s">
         <v>1167</v>
@@ -16151,7 +16151,7 @@
         <v>2744</v>
       </c>
       <c r="D234" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="E234" t="s">
         <v>1170</v>
@@ -16168,7 +16168,7 @@
         <v>2744</v>
       </c>
       <c r="D235" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="E235" t="s">
         <v>1179</v>
@@ -16185,7 +16185,7 @@
         <v>2744</v>
       </c>
       <c r="D236" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="E236" t="s">
         <v>1182</v>
@@ -16202,7 +16202,7 @@
         <v>2744</v>
       </c>
       <c r="D237" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="E237" t="s">
         <v>1185</v>
@@ -16219,7 +16219,7 @@
         <v>2744</v>
       </c>
       <c r="D238" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="E238" t="s">
         <v>1188</v>
@@ -16236,7 +16236,7 @@
         <v>2744</v>
       </c>
       <c r="D239" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="E239" t="s">
         <v>1191</v>
@@ -16253,7 +16253,7 @@
         <v>2744</v>
       </c>
       <c r="D240" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="E240" t="s">
         <v>1194</v>
@@ -16270,7 +16270,7 @@
         <v>2744</v>
       </c>
       <c r="D241" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="E241" t="s">
         <v>1197</v>
@@ -16287,7 +16287,7 @@
         <v>2744</v>
       </c>
       <c r="D242" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="E242" t="s">
         <v>1203</v>
@@ -16304,7 +16304,7 @@
         <v>2744</v>
       </c>
       <c r="D243" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="E243" t="s">
         <v>1215</v>
@@ -16321,7 +16321,7 @@
         <v>2744</v>
       </c>
       <c r="D244" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="E244" t="s">
         <v>1218</v>
@@ -16338,7 +16338,7 @@
         <v>2744</v>
       </c>
       <c r="D245" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="E245" t="s">
         <v>1221</v>
@@ -16355,7 +16355,7 @@
         <v>2744</v>
       </c>
       <c r="D246" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="E246" t="s">
         <v>1224</v>
@@ -16372,7 +16372,7 @@
         <v>2744</v>
       </c>
       <c r="D247" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="E247" t="s">
         <v>1236</v>
@@ -16389,7 +16389,7 @@
         <v>2744</v>
       </c>
       <c r="D248" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="E248" t="s">
         <v>1239</v>
@@ -16406,7 +16406,7 @@
         <v>2744</v>
       </c>
       <c r="D249" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="E249" t="s">
         <v>1242</v>
@@ -16423,7 +16423,7 @@
         <v>2744</v>
       </c>
       <c r="D250" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
       <c r="E250" t="s">
         <v>1248</v>
@@ -16440,7 +16440,7 @@
         <v>2744</v>
       </c>
       <c r="D251" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E251" t="s">
         <v>1251</v>
@@ -16457,7 +16457,7 @@
         <v>2744</v>
       </c>
       <c r="D252" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="E252" t="s">
         <v>1268</v>
@@ -16474,7 +16474,7 @@
         <v>2744</v>
       </c>
       <c r="D253" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="E253" t="s">
         <v>1271</v>
@@ -16491,7 +16491,7 @@
         <v>2744</v>
       </c>
       <c r="D254" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="E254" t="s">
         <v>1274</v>
@@ -16508,7 +16508,7 @@
         <v>2744</v>
       </c>
       <c r="D255" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="E255" t="s">
         <v>1280</v>
@@ -16525,7 +16525,7 @@
         <v>2744</v>
       </c>
       <c r="D256" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E256" t="s">
         <v>1283</v>
@@ -16542,7 +16542,7 @@
         <v>2744</v>
       </c>
       <c r="D257" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E257" t="s">
         <v>1318</v>
@@ -16559,7 +16559,7 @@
         <v>2744</v>
       </c>
       <c r="D258" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E258" t="s">
         <v>1321</v>
@@ -16576,7 +16576,7 @@
         <v>2744</v>
       </c>
       <c r="D259" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E259" t="s">
         <v>1327</v>
@@ -16593,7 +16593,7 @@
         <v>2744</v>
       </c>
       <c r="D260" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="E260" t="s">
         <v>1332</v>
@@ -16610,7 +16610,7 @@
         <v>2744</v>
       </c>
       <c r="D261" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E261" t="s">
         <v>1344</v>
@@ -16627,7 +16627,7 @@
         <v>2744</v>
       </c>
       <c r="D262" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="E262" t="s">
         <v>1347</v>
@@ -16644,7 +16644,7 @@
         <v>2744</v>
       </c>
       <c r="D263" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="E263" t="s">
         <v>1350</v>
@@ -16661,7 +16661,7 @@
         <v>2744</v>
       </c>
       <c r="D264" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="E264" t="s">
         <v>1353</v>
@@ -16678,7 +16678,7 @@
         <v>2744</v>
       </c>
       <c r="D265" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="E265" t="s">
         <v>1356</v>
@@ -16695,7 +16695,7 @@
         <v>2744</v>
       </c>
       <c r="D266" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="E266" t="s">
         <v>1359</v>
@@ -16712,7 +16712,7 @@
         <v>2744</v>
       </c>
       <c r="D267" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E267" t="s">
         <v>1362</v>
@@ -16729,7 +16729,7 @@
         <v>2744</v>
       </c>
       <c r="D268" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="E268" t="s">
         <v>1365</v>
@@ -16746,7 +16746,7 @@
         <v>2744</v>
       </c>
       <c r="D269" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="E269" t="s">
         <v>1368</v>
@@ -16763,7 +16763,7 @@
         <v>2744</v>
       </c>
       <c r="D270" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="E270" t="s">
         <v>1371</v>
@@ -16780,7 +16780,7 @@
         <v>2744</v>
       </c>
       <c r="D271" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="E271" t="s">
         <v>1377</v>
@@ -16797,7 +16797,7 @@
         <v>2744</v>
       </c>
       <c r="D272" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="E272" t="s">
         <v>1380</v>
@@ -16814,7 +16814,7 @@
         <v>2744</v>
       </c>
       <c r="D273" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E273" t="s">
         <v>1383</v>
@@ -16831,7 +16831,7 @@
         <v>2744</v>
       </c>
       <c r="D274" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="E274" t="s">
         <v>1386</v>
@@ -16848,7 +16848,7 @@
         <v>2744</v>
       </c>
       <c r="D275" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E275" t="s">
         <v>1389</v>
@@ -16865,7 +16865,7 @@
         <v>2744</v>
       </c>
       <c r="D276" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="E276" t="s">
         <v>1392</v>
@@ -16882,7 +16882,7 @@
         <v>2744</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="E277" t="s">
         <v>1395</v>
@@ -16899,7 +16899,7 @@
         <v>2744</v>
       </c>
       <c r="D278" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="E278" t="s">
         <v>1398</v>
@@ -16916,7 +16916,7 @@
         <v>2744</v>
       </c>
       <c r="D279" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="E279" t="s">
         <v>1401</v>
@@ -16933,7 +16933,7 @@
         <v>2744</v>
       </c>
       <c r="D280" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E280" t="s">
         <v>1404</v>
@@ -16950,7 +16950,7 @@
         <v>2744</v>
       </c>
       <c r="D281" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="E281" t="s">
         <v>1407</v>
@@ -16967,7 +16967,7 @@
         <v>2744</v>
       </c>
       <c r="D282" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="E282" t="s">
         <v>1410</v>
@@ -16984,7 +16984,7 @@
         <v>2744</v>
       </c>
       <c r="D283" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="E283" t="s">
         <v>1413</v>
@@ -17001,7 +17001,7 @@
         <v>2744</v>
       </c>
       <c r="D284" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E284" t="s">
         <v>1416</v>
@@ -17018,7 +17018,7 @@
         <v>2744</v>
       </c>
       <c r="D285" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E285" t="s">
         <v>1428</v>
@@ -17035,7 +17035,7 @@
         <v>2744</v>
       </c>
       <c r="D286" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="E286" t="s">
         <v>1431</v>
@@ -17052,7 +17052,7 @@
         <v>2744</v>
       </c>
       <c r="D287" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="E287" t="s">
         <v>1434</v>
@@ -17069,7 +17069,7 @@
         <v>2744</v>
       </c>
       <c r="D288" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="E288" t="s">
         <v>1437</v>
@@ -17086,7 +17086,7 @@
         <v>2744</v>
       </c>
       <c r="D289" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="E289" t="s">
         <v>1440</v>
@@ -17103,7 +17103,7 @@
         <v>2744</v>
       </c>
       <c r="D290" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E290" t="s">
         <v>1443</v>
@@ -17120,7 +17120,7 @@
         <v>2744</v>
       </c>
       <c r="D291" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="E291" t="s">
         <v>1446</v>
@@ -17137,7 +17137,7 @@
         <v>2744</v>
       </c>
       <c r="D292" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E292" t="s">
         <v>1449</v>
@@ -17154,7 +17154,7 @@
         <v>2744</v>
       </c>
       <c r="D293" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="E293" t="s">
         <v>1452</v>
@@ -17171,7 +17171,7 @@
         <v>2744</v>
       </c>
       <c r="D294" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="E294" t="s">
         <v>1455</v>
@@ -17188,7 +17188,7 @@
         <v>2744</v>
       </c>
       <c r="D295" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="E295" t="s">
         <v>1458</v>
@@ -17208,7 +17208,7 @@
         <v>375</v>
       </c>
       <c r="D296" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E296" t="s">
         <v>1464</v>
@@ -17228,7 +17228,7 @@
         <v>375</v>
       </c>
       <c r="D297" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="E297" t="s">
         <v>1467</v>
@@ -17245,7 +17245,7 @@
         <v>2744</v>
       </c>
       <c r="D298" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="E298" t="s">
         <v>1470</v>
@@ -17262,7 +17262,7 @@
         <v>2744</v>
       </c>
       <c r="D299" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="E299" t="s">
         <v>1488</v>
@@ -17279,7 +17279,7 @@
         <v>2744</v>
       </c>
       <c r="D300" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E300" t="s">
         <v>1491</v>
@@ -17316,7 +17316,7 @@
         <v>2744</v>
       </c>
       <c r="D302" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="E302" t="s">
         <v>1498</v>
@@ -17333,7 +17333,7 @@
         <v>2744</v>
       </c>
       <c r="D303" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="E303" t="s">
         <v>1501</v>
@@ -17367,7 +17367,7 @@
         <v>2744</v>
       </c>
       <c r="D305" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="E305" t="s">
         <v>1505</v>
@@ -17384,7 +17384,7 @@
         <v>2744</v>
       </c>
       <c r="D306" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="E306" t="s">
         <v>1508</v>
@@ -17401,7 +17401,7 @@
         <v>2744</v>
       </c>
       <c r="D307" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="E307" t="s">
         <v>1511</v>
@@ -17418,7 +17418,7 @@
         <v>2744</v>
       </c>
       <c r="D308" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="E308" t="s">
         <v>1514</v>
@@ -17435,7 +17435,7 @@
         <v>2744</v>
       </c>
       <c r="D309" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="E309" t="s">
         <v>1526</v>
@@ -17452,7 +17452,7 @@
         <v>2744</v>
       </c>
       <c r="D310" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="E310" t="s">
         <v>1529</v>
@@ -17469,7 +17469,7 @@
         <v>2744</v>
       </c>
       <c r="D311" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="E311" t="s">
         <v>1535</v>
@@ -17486,7 +17486,7 @@
         <v>2744</v>
       </c>
       <c r="D312" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E312" t="s">
         <v>1538</v>
@@ -17503,7 +17503,7 @@
         <v>2744</v>
       </c>
       <c r="D313" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="E313" t="s">
         <v>1541</v>
@@ -17520,7 +17520,7 @@
         <v>2744</v>
       </c>
       <c r="D314" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="E314" t="s">
         <v>1185</v>
@@ -17537,7 +17537,7 @@
         <v>2744</v>
       </c>
       <c r="D315" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="E315" t="s">
         <v>1546</v>
@@ -17554,7 +17554,7 @@
         <v>2744</v>
       </c>
       <c r="D316" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="E316" t="s">
         <v>1549</v>
@@ -17571,7 +17571,7 @@
         <v>2744</v>
       </c>
       <c r="D317" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="E317" t="s">
         <v>1555</v>
@@ -17588,7 +17588,7 @@
         <v>2744</v>
       </c>
       <c r="D318" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="E318" t="s">
         <v>1558</v>
@@ -17605,7 +17605,7 @@
         <v>2744</v>
       </c>
       <c r="D319" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="E319" t="s">
         <v>1561</v>
@@ -17622,7 +17622,7 @@
         <v>2744</v>
       </c>
       <c r="D320" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="E320" t="s">
         <v>1564</v>
@@ -17639,7 +17639,7 @@
         <v>2744</v>
       </c>
       <c r="D321" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="E321" t="s">
         <v>1567</v>
@@ -17656,7 +17656,7 @@
         <v>2744</v>
       </c>
       <c r="D322" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="E322" t="s">
         <v>1573</v>
@@ -17673,7 +17673,7 @@
         <v>2744</v>
       </c>
       <c r="D323" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="E323" t="s">
         <v>1576</v>
@@ -17693,7 +17693,7 @@
         <v>1582</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="E324" t="s">
         <v>1583</v>
@@ -17713,7 +17713,7 @@
         <v>1582</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="E325" t="s">
         <v>1586</v>
@@ -17733,7 +17733,7 @@
         <v>1582</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E326" t="s">
         <v>1589</v>
@@ -17753,7 +17753,7 @@
         <v>1582</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E327" t="s">
         <v>1592</v>
@@ -17773,7 +17773,7 @@
         <v>1582</v>
       </c>
       <c r="D328" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="E328" t="s">
         <v>1616</v>
@@ -17793,7 +17793,7 @@
         <v>1582</v>
       </c>
       <c r="D329" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="E329" t="s">
         <v>1625</v>
@@ -17813,7 +17813,7 @@
         <v>1582</v>
       </c>
       <c r="D330" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="E330" t="s">
         <v>1628</v>
@@ -17833,7 +17833,7 @@
         <v>1582</v>
       </c>
       <c r="D331" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="E331" t="s">
         <v>1635</v>
@@ -17853,7 +17853,7 @@
         <v>1582</v>
       </c>
       <c r="D332" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="E332" t="s">
         <v>1638</v>
@@ -17873,7 +17873,7 @@
         <v>1582</v>
       </c>
       <c r="D333" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="E333" t="s">
         <v>1641</v>
@@ -17890,7 +17890,7 @@
         <v>2744</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E334" t="s">
         <v>1644</v>
@@ -17907,7 +17907,7 @@
         <v>2744</v>
       </c>
       <c r="D335" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="E335" t="s">
         <v>1647</v>
@@ -17924,7 +17924,7 @@
         <v>2744</v>
       </c>
       <c r="D336" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="E336" t="s">
         <v>1650</v>
@@ -17941,7 +17941,7 @@
         <v>2744</v>
       </c>
       <c r="D337" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="E337" t="s">
         <v>1653</v>
@@ -17958,7 +17958,7 @@
         <v>2744</v>
       </c>
       <c r="D338" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="E338" t="s">
         <v>1656</v>
@@ -17975,7 +17975,7 @@
         <v>2744</v>
       </c>
       <c r="D339" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="E339" t="s">
         <v>1665</v>
@@ -17992,7 +17992,7 @@
         <v>2744</v>
       </c>
       <c r="D340" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="E340" t="s">
         <v>1674</v>
@@ -18009,7 +18009,7 @@
         <v>2744</v>
       </c>
       <c r="D341" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="E341" t="s">
         <v>1677</v>
@@ -18026,7 +18026,7 @@
         <v>2744</v>
       </c>
       <c r="D342" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="E342" t="s">
         <v>1680</v>
@@ -18043,7 +18043,7 @@
         <v>2744</v>
       </c>
       <c r="D343" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="E343" t="s">
         <v>1683</v>
@@ -18131,7 +18131,7 @@
         <v>2755</v>
       </c>
       <c r="D348" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="E348" t="s">
         <v>958</v>
@@ -18148,7 +18148,7 @@
         <v>2755</v>
       </c>
       <c r="D349" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="E349" t="s">
         <v>987</v>
@@ -18165,7 +18165,7 @@
         <v>2755</v>
       </c>
       <c r="D350" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E350" t="s">
         <v>1485</v>
@@ -18182,7 +18182,7 @@
         <v>2755</v>
       </c>
       <c r="D351" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="E351" t="s">
         <v>1698</v>
@@ -18199,7 +18199,7 @@
         <v>2755</v>
       </c>
       <c r="D352" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="E352" t="s">
         <v>1701</v>
@@ -18216,7 +18216,7 @@
         <v>2755</v>
       </c>
       <c r="D353" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E353" t="s">
         <v>1704</v>
@@ -18233,7 +18233,7 @@
         <v>2755</v>
       </c>
       <c r="D354" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="E354" t="s">
         <v>1706</v>
@@ -18250,7 +18250,7 @@
         <v>2755</v>
       </c>
       <c r="D355" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="E355" t="s">
         <v>1709</v>
@@ -18267,7 +18267,7 @@
         <v>2755</v>
       </c>
       <c r="D356" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="E356" t="s">
         <v>1715</v>
@@ -18284,7 +18284,7 @@
         <v>2755</v>
       </c>
       <c r="D357" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="E357" t="s">
         <v>1718</v>
@@ -18301,7 +18301,7 @@
         <v>2755</v>
       </c>
       <c r="D358" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="E358" t="s">
         <v>1721</v>
@@ -18318,7 +18318,7 @@
         <v>2755</v>
       </c>
       <c r="D359" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E359" t="s">
         <v>1724</v>
@@ -18335,7 +18335,7 @@
         <v>2755</v>
       </c>
       <c r="D360" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="E360" t="s">
         <v>1727</v>
@@ -18352,7 +18352,7 @@
         <v>2755</v>
       </c>
       <c r="D361" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="E361" t="s">
         <v>1730</v>
@@ -18369,7 +18369,7 @@
         <v>2755</v>
       </c>
       <c r="D362" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="E362" t="s">
         <v>1733</v>
@@ -18403,7 +18403,7 @@
         <v>2755</v>
       </c>
       <c r="D364" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="E364" t="s">
         <v>1742</v>
@@ -18423,7 +18423,7 @@
         <v>1745</v>
       </c>
       <c r="D365" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="E365" t="s">
         <v>1752</v>
@@ -18463,7 +18463,7 @@
         <v>1745</v>
       </c>
       <c r="D367" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="E367" t="s">
         <v>1756</v>
@@ -18500,7 +18500,7 @@
         <v>2755</v>
       </c>
       <c r="D369" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="E369" t="s">
         <v>1763</v>
@@ -18517,7 +18517,7 @@
         <v>2755</v>
       </c>
       <c r="D370" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="E370" t="s">
         <v>1766</v>
@@ -18534,7 +18534,7 @@
         <v>2755</v>
       </c>
       <c r="D371" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E371" t="s">
         <v>1769</v>
@@ -18551,7 +18551,7 @@
         <v>2755</v>
       </c>
       <c r="D372" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="E372" t="s">
         <v>1772</v>
@@ -18568,7 +18568,7 @@
         <v>2755</v>
       </c>
       <c r="D373" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="E373" t="s">
         <v>1784</v>
@@ -18585,7 +18585,7 @@
         <v>2795</v>
       </c>
       <c r="D374" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="E374" t="s">
         <v>1277</v>
@@ -18605,7 +18605,7 @@
         <v>1745</v>
       </c>
       <c r="D375" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E375" t="s">
         <v>1760</v>
@@ -18622,7 +18622,7 @@
         <v>2795</v>
       </c>
       <c r="D376" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="E376" t="s">
         <v>1787</v>
@@ -18639,7 +18639,7 @@
         <v>2795</v>
       </c>
       <c r="D377" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="E377" t="s">
         <v>1790</v>
@@ -18676,7 +18676,7 @@
         <v>375</v>
       </c>
       <c r="D379" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="E379" t="s">
         <v>794</v>
@@ -18693,7 +18693,7 @@
         <v>2775</v>
       </c>
       <c r="D380" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="E380" t="s">
         <v>1245</v>
@@ -18710,7 +18710,7 @@
         <v>2775</v>
       </c>
       <c r="D381" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="E381" t="s">
         <v>1739</v>
@@ -18730,7 +18730,7 @@
         <v>1745</v>
       </c>
       <c r="D382" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="E382" t="s">
         <v>1746</v>
@@ -18767,7 +18767,7 @@
         <v>2775</v>
       </c>
       <c r="D384" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E384" t="s">
         <v>1775</v>
@@ -18784,7 +18784,7 @@
         <v>2775</v>
       </c>
       <c r="D385" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="E385" t="s">
         <v>1793</v>
@@ -18801,7 +18801,7 @@
         <v>2775</v>
       </c>
       <c r="D386" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="E386" t="s">
         <v>1796</v>
@@ -18818,7 +18818,7 @@
         <v>2775</v>
       </c>
       <c r="D387" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="E387" t="s">
         <v>1799</v>
@@ -18835,7 +18835,7 @@
         <v>2775</v>
       </c>
       <c r="D388" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="E388" t="s">
         <v>1802</v>
@@ -18852,7 +18852,7 @@
         <v>2775</v>
       </c>
       <c r="D389" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="E389" t="s">
         <v>1805</v>
@@ -18869,7 +18869,7 @@
         <v>2775</v>
       </c>
       <c r="D390" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="E390" t="s">
         <v>1808</v>
@@ -18937,7 +18937,7 @@
         <v>2773</v>
       </c>
       <c r="D394" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="E394" t="s">
         <v>812</v>
@@ -18954,7 +18954,7 @@
         <v>2773</v>
       </c>
       <c r="D395" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E395" t="s">
         <v>815</v>
@@ -18971,7 +18971,7 @@
         <v>2773</v>
       </c>
       <c r="D396" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="E396" t="s">
         <v>818</v>
@@ -18988,7 +18988,7 @@
         <v>2773</v>
       </c>
       <c r="D397" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="E397" t="s">
         <v>824</v>
@@ -19005,7 +19005,7 @@
         <v>2773</v>
       </c>
       <c r="D398" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="E398" t="s">
         <v>827</v>
@@ -19022,7 +19022,7 @@
         <v>2773</v>
       </c>
       <c r="D399" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="E399" t="s">
         <v>833</v>
@@ -19039,7 +19039,7 @@
         <v>2773</v>
       </c>
       <c r="D400" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="E400" t="s">
         <v>836</v>
@@ -19056,7 +19056,7 @@
         <v>2773</v>
       </c>
       <c r="D401" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="E401" t="s">
         <v>839</v>
@@ -19073,7 +19073,7 @@
         <v>2773</v>
       </c>
       <c r="D402" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="E402" t="s">
         <v>889</v>
@@ -19090,7 +19090,7 @@
         <v>2773</v>
       </c>
       <c r="D403" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="E403" t="s">
         <v>1206</v>
@@ -19107,7 +19107,7 @@
         <v>2773</v>
       </c>
       <c r="D404" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="E404" t="s">
         <v>1209</v>
@@ -19124,7 +19124,7 @@
         <v>2773</v>
       </c>
       <c r="D405" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="E405" t="s">
         <v>1212</v>
@@ -19141,7 +19141,7 @@
         <v>2773</v>
       </c>
       <c r="D406" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="E406" t="s">
         <v>1419</v>
@@ -19158,7 +19158,7 @@
         <v>2773</v>
       </c>
       <c r="D407" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="E407" t="s">
         <v>1422</v>
@@ -19175,7 +19175,7 @@
         <v>2773</v>
       </c>
       <c r="D408" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="E408" t="s">
         <v>1473</v>
@@ -19192,7 +19192,7 @@
         <v>2773</v>
       </c>
       <c r="D409" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="E409" t="s">
         <v>1476</v>
@@ -19209,7 +19209,7 @@
         <v>2773</v>
       </c>
       <c r="D410" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="E410" t="s">
         <v>1532</v>
@@ -19226,7 +19226,7 @@
         <v>2773</v>
       </c>
       <c r="D411" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="E411" t="s">
         <v>1811</v>
@@ -19243,7 +19243,7 @@
         <v>2773</v>
       </c>
       <c r="D412" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="E412" t="s">
         <v>1817</v>
@@ -19260,7 +19260,7 @@
         <v>2773</v>
       </c>
       <c r="D413" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="E413" t="s">
         <v>1820</v>
@@ -19277,7 +19277,7 @@
         <v>2773</v>
       </c>
       <c r="D414" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="E414" t="s">
         <v>1823</v>
@@ -19294,7 +19294,7 @@
         <v>2773</v>
       </c>
       <c r="D415" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="E415" t="s">
         <v>1826</v>
@@ -19311,7 +19311,7 @@
         <v>2773</v>
       </c>
       <c r="D416" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="E416" t="s">
         <v>1829</v>
@@ -19328,7 +19328,7 @@
         <v>2773</v>
       </c>
       <c r="D417" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="E417" t="s">
         <v>1832</v>
@@ -19345,7 +19345,7 @@
         <v>2773</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="E418" t="s">
         <v>1835</v>
@@ -19362,7 +19362,7 @@
         <v>2773</v>
       </c>
       <c r="D419" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="E419" t="s">
         <v>1853</v>
@@ -19379,7 +19379,7 @@
         <v>2773</v>
       </c>
       <c r="D420" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="E420" t="s">
         <v>1856</v>
@@ -19396,7 +19396,7 @@
         <v>2773</v>
       </c>
       <c r="D421" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="E421" t="s">
         <v>1862</v>
@@ -19413,7 +19413,7 @@
         <v>2773</v>
       </c>
       <c r="D422" t="s">
-        <v>3432</v>
+        <v>3748</v>
       </c>
       <c r="E422" t="s">
         <v>1865</v>
@@ -19430,7 +19430,7 @@
         <v>2773</v>
       </c>
       <c r="D423" t="s">
-        <v>3433</v>
+        <v>3749</v>
       </c>
       <c r="E423" t="s">
         <v>1868</v>
@@ -19447,7 +19447,7 @@
         <v>2773</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="E424" t="s">
         <v>1871</v>
@@ -19464,7 +19464,7 @@
         <v>2773</v>
       </c>
       <c r="D425" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="E425" t="s">
         <v>1874</v>
@@ -19481,7 +19481,7 @@
         <v>2773</v>
       </c>
       <c r="D426" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="E426" t="s">
         <v>1877</v>
@@ -19498,7 +19498,7 @@
         <v>2773</v>
       </c>
       <c r="D427" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="E427" t="s">
         <v>1880</v>
@@ -19515,7 +19515,7 @@
         <v>2773</v>
       </c>
       <c r="D428" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="E428" t="s">
         <v>1886</v>
@@ -19532,7 +19532,7 @@
         <v>2773</v>
       </c>
       <c r="D429" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="E429" t="s">
         <v>1889</v>
@@ -19549,7 +19549,7 @@
         <v>2773</v>
       </c>
       <c r="D430" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="E430" t="s">
         <v>1892</v>
@@ -19566,7 +19566,7 @@
         <v>2773</v>
       </c>
       <c r="D431" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="E431" t="s">
         <v>1895</v>
@@ -19583,7 +19583,7 @@
         <v>2773</v>
       </c>
       <c r="D432" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="E432" t="s">
         <v>1898</v>
@@ -19600,7 +19600,7 @@
         <v>2773</v>
       </c>
       <c r="D433" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="E433" t="s">
         <v>1901</v>
@@ -19617,7 +19617,7 @@
         <v>2773</v>
       </c>
       <c r="D434" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="E434" t="s">
         <v>1904</v>
@@ -19634,7 +19634,7 @@
         <v>2773</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="E435" t="s">
         <v>1907</v>
@@ -19651,9 +19651,9 @@
         <v>2773</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>3447</v>
-      </c>
-      <c r="E436" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E436" s="2" t="s">
         <v>1910</v>
       </c>
       <c r="F436" t="s">
@@ -19668,7 +19668,7 @@
         <v>2773</v>
       </c>
       <c r="D437" t="s">
-        <v>3449</v>
+        <v>3445</v>
       </c>
       <c r="E437" t="s">
         <v>1916</v>
@@ -19685,7 +19685,7 @@
         <v>2773</v>
       </c>
       <c r="D438" t="s">
-        <v>3451</v>
+        <v>3447</v>
       </c>
       <c r="E438" t="s">
         <v>1922</v>
@@ -19702,7 +19702,7 @@
         <v>2773</v>
       </c>
       <c r="D439" t="s">
-        <v>3452</v>
+        <v>3448</v>
       </c>
       <c r="E439" t="s">
         <v>1925</v>
@@ -19719,7 +19719,7 @@
         <v>2773</v>
       </c>
       <c r="D440" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
       <c r="E440" t="s">
         <v>1928</v>
@@ -19736,7 +19736,7 @@
         <v>2773</v>
       </c>
       <c r="D441" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="E441" t="s">
         <v>1931</v>
@@ -20353,7 +20353,7 @@
         <v>375</v>
       </c>
       <c r="D472" t="s">
-        <v>3064</v>
+        <v>3751</v>
       </c>
       <c r="E472" t="s">
         <v>652</v>
@@ -20373,7 +20373,7 @@
         <v>375</v>
       </c>
       <c r="D473" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="E473" t="s">
         <v>655</v>
@@ -20393,7 +20393,7 @@
         <v>375</v>
       </c>
       <c r="D474" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="E474" t="s">
         <v>658</v>
@@ -20413,7 +20413,7 @@
         <v>375</v>
       </c>
       <c r="D475" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="E475" t="s">
         <v>661</v>
@@ -20433,7 +20433,7 @@
         <v>375</v>
       </c>
       <c r="D476" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="E476" t="s">
         <v>664</v>
@@ -20453,7 +20453,7 @@
         <v>375</v>
       </c>
       <c r="D477" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="E477" t="s">
         <v>667</v>
@@ -20470,7 +20470,7 @@
         <v>2767</v>
       </c>
       <c r="D478" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E478" t="s">
         <v>1251</v>
@@ -20487,7 +20487,7 @@
         <v>2767</v>
       </c>
       <c r="D479" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="E479" t="s">
         <v>1256</v>
@@ -20504,7 +20504,7 @@
         <v>2767</v>
       </c>
       <c r="D480" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="E480" t="s">
         <v>1259</v>
@@ -20521,7 +20521,7 @@
         <v>2767</v>
       </c>
       <c r="D481" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="E481" t="s">
         <v>1262</v>
@@ -20538,7 +20538,7 @@
         <v>2767</v>
       </c>
       <c r="D482" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="E482" t="s">
         <v>1265</v>
@@ -20555,7 +20555,7 @@
         <v>2767</v>
       </c>
       <c r="D483" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="E483" t="s">
         <v>1327</v>
@@ -20572,7 +20572,7 @@
         <v>2767</v>
       </c>
       <c r="D484" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="E484" t="s">
         <v>1374</v>
@@ -20589,7 +20589,7 @@
         <v>2767</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>3455</v>
+        <v>3451</v>
       </c>
       <c r="E485" t="s">
         <v>1934</v>
@@ -20606,7 +20606,7 @@
         <v>2767</v>
       </c>
       <c r="D486" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
       <c r="E486" t="s">
         <v>1946</v>
@@ -20623,7 +20623,7 @@
         <v>2767</v>
       </c>
       <c r="D487" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
       <c r="E487" t="s">
         <v>1952</v>
@@ -20780,7 +20780,7 @@
         <v>375</v>
       </c>
       <c r="D495" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E495" t="s">
         <v>797</v>
@@ -20800,7 +20800,7 @@
         <v>375</v>
       </c>
       <c r="D496" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="E496" t="s">
         <v>800</v>
@@ -20817,7 +20817,7 @@
         <v>2756</v>
       </c>
       <c r="D497" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="E497" t="s">
         <v>934</v>
@@ -20834,7 +20834,7 @@
         <v>2756</v>
       </c>
       <c r="D498" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="E498" t="s">
         <v>943</v>
@@ -20851,7 +20851,7 @@
         <v>2756</v>
       </c>
       <c r="D499" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="E499" t="s">
         <v>946</v>
@@ -20868,7 +20868,7 @@
         <v>2756</v>
       </c>
       <c r="D500" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="E500" t="s">
         <v>1071</v>
@@ -20885,7 +20885,7 @@
         <v>2756</v>
       </c>
       <c r="D501" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="E501" t="s">
         <v>1116</v>
@@ -20902,7 +20902,7 @@
         <v>2756</v>
       </c>
       <c r="D502" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="E502" t="s">
         <v>1119</v>
@@ -20919,7 +20919,7 @@
         <v>2756</v>
       </c>
       <c r="D503" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="E503" t="s">
         <v>1479</v>
@@ -20939,7 +20939,7 @@
         <v>1582</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="E504" t="s">
         <v>1595</v>
@@ -20959,7 +20959,7 @@
         <v>1582</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="E505" t="s">
         <v>1598</v>
@@ -20979,7 +20979,7 @@
         <v>1582</v>
       </c>
       <c r="D506" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E506" t="s">
         <v>1601</v>
@@ -20999,7 +20999,7 @@
         <v>1582</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="E507" t="s">
         <v>1604</v>
@@ -21019,7 +21019,7 @@
         <v>1582</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="E508" t="s">
         <v>1607</v>
@@ -21039,7 +21039,7 @@
         <v>1582</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E509" t="s">
         <v>1610</v>
@@ -21059,7 +21059,7 @@
         <v>1582</v>
       </c>
       <c r="D510" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="E510" t="s">
         <v>1613</v>
@@ -21079,7 +21079,7 @@
         <v>1631</v>
       </c>
       <c r="D511" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="E511" t="s">
         <v>1632</v>
@@ -21096,7 +21096,7 @@
         <v>2756</v>
       </c>
       <c r="D512" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="E512" t="s">
         <v>1689</v>
@@ -21113,7 +21113,7 @@
         <v>2756</v>
       </c>
       <c r="D513" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="E513" t="s">
         <v>1692</v>
@@ -21130,7 +21130,7 @@
         <v>2756</v>
       </c>
       <c r="D514" t="s">
-        <v>3475</v>
+        <v>3470</v>
       </c>
       <c r="E514" t="s">
         <v>1994</v>
@@ -21147,7 +21147,7 @@
         <v>2756</v>
       </c>
       <c r="D515" t="s">
-        <v>3476</v>
+        <v>3471</v>
       </c>
       <c r="E515" t="s">
         <v>1997</v>
@@ -21164,7 +21164,7 @@
         <v>2756</v>
       </c>
       <c r="D516" t="s">
-        <v>3477</v>
+        <v>3472</v>
       </c>
       <c r="E516" t="s">
         <v>2000</v>
@@ -21181,7 +21181,7 @@
         <v>2756</v>
       </c>
       <c r="D517" t="s">
-        <v>3478</v>
+        <v>3473</v>
       </c>
       <c r="E517" t="s">
         <v>2003</v>
@@ -21198,7 +21198,7 @@
         <v>2756</v>
       </c>
       <c r="D518" t="s">
-        <v>3479</v>
+        <v>3474</v>
       </c>
       <c r="E518" t="s">
         <v>2006</v>
@@ -21215,7 +21215,7 @@
         <v>2756</v>
       </c>
       <c r="D519" t="s">
-        <v>3480</v>
+        <v>3475</v>
       </c>
       <c r="E519" t="s">
         <v>2009</v>
@@ -21232,7 +21232,7 @@
         <v>2756</v>
       </c>
       <c r="D520" t="s">
-        <v>3482</v>
+        <v>3477</v>
       </c>
       <c r="E520" t="s">
         <v>2016</v>
@@ -21249,7 +21249,7 @@
         <v>2756</v>
       </c>
       <c r="D521" t="s">
-        <v>3483</v>
+        <v>3478</v>
       </c>
       <c r="E521" t="s">
         <v>2019</v>
@@ -21266,7 +21266,7 @@
         <v>2756</v>
       </c>
       <c r="D522" t="s">
-        <v>3484</v>
+        <v>3479</v>
       </c>
       <c r="E522" t="s">
         <v>2022</v>
@@ -21283,7 +21283,7 @@
         <v>2756</v>
       </c>
       <c r="D523" t="s">
-        <v>3485</v>
+        <v>3480</v>
       </c>
       <c r="E523" t="s">
         <v>2025</v>
@@ -21300,7 +21300,7 @@
         <v>2756</v>
       </c>
       <c r="D524" t="s">
-        <v>3486</v>
+        <v>3481</v>
       </c>
       <c r="E524" t="s">
         <v>2028</v>
@@ -21317,7 +21317,7 @@
         <v>2756</v>
       </c>
       <c r="D525" t="s">
-        <v>3487</v>
+        <v>3482</v>
       </c>
       <c r="E525" t="s">
         <v>2031</v>
@@ -21334,7 +21334,7 @@
         <v>2756</v>
       </c>
       <c r="D526" t="s">
-        <v>3488</v>
+        <v>3483</v>
       </c>
       <c r="E526" t="s">
         <v>2034</v>
@@ -21351,7 +21351,7 @@
         <v>2756</v>
       </c>
       <c r="D527" t="s">
-        <v>3489</v>
+        <v>3484</v>
       </c>
       <c r="E527" t="s">
         <v>2037</v>
@@ -21368,7 +21368,7 @@
         <v>2756</v>
       </c>
       <c r="D528" t="s">
-        <v>3490</v>
+        <v>3485</v>
       </c>
       <c r="E528" t="s">
         <v>2040</v>
@@ -21385,7 +21385,7 @@
         <v>2756</v>
       </c>
       <c r="D529" t="s">
-        <v>3491</v>
+        <v>3486</v>
       </c>
       <c r="E529" t="s">
         <v>2043</v>
@@ -21402,7 +21402,7 @@
         <v>2756</v>
       </c>
       <c r="D530" t="s">
-        <v>3492</v>
+        <v>3487</v>
       </c>
       <c r="E530" t="s">
         <v>2046</v>
@@ -21419,7 +21419,7 @@
         <v>2756</v>
       </c>
       <c r="D531" t="s">
-        <v>3493</v>
+        <v>3488</v>
       </c>
       <c r="E531" t="s">
         <v>2049</v>
@@ -21436,7 +21436,7 @@
         <v>2756</v>
       </c>
       <c r="D532" t="s">
-        <v>3494</v>
+        <v>3489</v>
       </c>
       <c r="E532" t="s">
         <v>2052</v>
@@ -21453,7 +21453,7 @@
         <v>2756</v>
       </c>
       <c r="D533" t="s">
-        <v>3495</v>
+        <v>3490</v>
       </c>
       <c r="E533" t="s">
         <v>2055</v>
@@ -21470,7 +21470,7 @@
         <v>2756</v>
       </c>
       <c r="D534" t="s">
-        <v>3496</v>
+        <v>3491</v>
       </c>
       <c r="E534" t="s">
         <v>2058</v>
@@ -21487,7 +21487,7 @@
         <v>2756</v>
       </c>
       <c r="D535" t="s">
-        <v>3497</v>
+        <v>3492</v>
       </c>
       <c r="E535" t="s">
         <v>2061</v>
@@ -21504,7 +21504,7 @@
         <v>2756</v>
       </c>
       <c r="D536" t="s">
-        <v>3498</v>
+        <v>3493</v>
       </c>
       <c r="E536" t="s">
         <v>2064</v>
@@ -21521,7 +21521,7 @@
         <v>2756</v>
       </c>
       <c r="D537" t="s">
-        <v>3499</v>
+        <v>3494</v>
       </c>
       <c r="E537" t="s">
         <v>2067</v>
@@ -21538,7 +21538,7 @@
         <v>2756</v>
       </c>
       <c r="D538" t="s">
-        <v>3501</v>
+        <v>3496</v>
       </c>
       <c r="E538" t="s">
         <v>2074</v>
@@ -21555,7 +21555,7 @@
         <v>2756</v>
       </c>
       <c r="D539" t="s">
-        <v>3504</v>
+        <v>3499</v>
       </c>
       <c r="E539" t="s">
         <v>2085</v>
@@ -21572,7 +21572,7 @@
         <v>2756</v>
       </c>
       <c r="D540" t="s">
-        <v>3505</v>
+        <v>3500</v>
       </c>
       <c r="E540" t="s">
         <v>2088</v>
@@ -21589,7 +21589,7 @@
         <v>2756</v>
       </c>
       <c r="D541" t="s">
-        <v>3506</v>
+        <v>3501</v>
       </c>
       <c r="E541" t="s">
         <v>2091</v>
@@ -21606,7 +21606,7 @@
         <v>2756</v>
       </c>
       <c r="D542" t="s">
-        <v>3507</v>
+        <v>3502</v>
       </c>
       <c r="E542" t="s">
         <v>2094</v>
@@ -21623,7 +21623,7 @@
         <v>2756</v>
       </c>
       <c r="D543" t="s">
-        <v>3509</v>
+        <v>3504</v>
       </c>
       <c r="E543" t="s">
         <v>2100</v>
@@ -21640,7 +21640,7 @@
         <v>2756</v>
       </c>
       <c r="D544" t="s">
-        <v>3510</v>
+        <v>3505</v>
       </c>
       <c r="E544" t="s">
         <v>2103</v>
@@ -21657,7 +21657,7 @@
         <v>2756</v>
       </c>
       <c r="D545" t="s">
-        <v>3512</v>
+        <v>3507</v>
       </c>
       <c r="E545" t="s">
         <v>2109</v>
@@ -21674,7 +21674,7 @@
         <v>2756</v>
       </c>
       <c r="D546" t="s">
-        <v>3513</v>
+        <v>3508</v>
       </c>
       <c r="E546" t="s">
         <v>2112</v>
@@ -21691,7 +21691,7 @@
         <v>2756</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>3514</v>
+        <v>3509</v>
       </c>
       <c r="E547" t="s">
         <v>2114</v>
@@ -21708,7 +21708,7 @@
         <v>2756</v>
       </c>
       <c r="D548" t="s">
-        <v>3517</v>
+        <v>3512</v>
       </c>
       <c r="E548" t="s">
         <v>2123</v>
@@ -21725,7 +21725,7 @@
         <v>2756</v>
       </c>
       <c r="D549" t="s">
-        <v>3518</v>
+        <v>3513</v>
       </c>
       <c r="E549" t="s">
         <v>2126</v>
@@ -21742,7 +21742,7 @@
         <v>2756</v>
       </c>
       <c r="D550" t="s">
-        <v>3519</v>
+        <v>3514</v>
       </c>
       <c r="E550" t="s">
         <v>2129</v>
@@ -21759,7 +21759,7 @@
         <v>2756</v>
       </c>
       <c r="D551" t="s">
-        <v>3520</v>
+        <v>3515</v>
       </c>
       <c r="E551" t="s">
         <v>2132</v>
@@ -21776,7 +21776,7 @@
         <v>2756</v>
       </c>
       <c r="D552" t="s">
-        <v>3521</v>
+        <v>3516</v>
       </c>
       <c r="E552" t="s">
         <v>2135</v>
@@ -21830,7 +21830,7 @@
         <v>2747</v>
       </c>
       <c r="D555" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="E555" t="s">
         <v>1227</v>
@@ -21847,7 +21847,7 @@
         <v>2747</v>
       </c>
       <c r="D556" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="E556" t="s">
         <v>1230</v>
@@ -21864,7 +21864,7 @@
         <v>2747</v>
       </c>
       <c r="D557" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="E557" t="s">
         <v>1233</v>
@@ -21881,7 +21881,7 @@
         <v>2747</v>
       </c>
       <c r="D558" t="s">
-        <v>3522</v>
+        <v>3517</v>
       </c>
       <c r="E558" t="s">
         <v>2138</v>
@@ -21898,7 +21898,7 @@
         <v>2747</v>
       </c>
       <c r="D559" t="s">
-        <v>3523</v>
+        <v>3518</v>
       </c>
       <c r="E559" t="s">
         <v>2141</v>
@@ -21915,7 +21915,7 @@
         <v>2747</v>
       </c>
       <c r="D560" t="s">
-        <v>3524</v>
+        <v>3519</v>
       </c>
       <c r="E560" t="s">
         <v>2144</v>
@@ -21932,7 +21932,7 @@
         <v>2747</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>3525</v>
+        <v>3520</v>
       </c>
       <c r="E561" t="s">
         <v>2147</v>
@@ -21949,7 +21949,7 @@
         <v>2747</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>3526</v>
+        <v>3521</v>
       </c>
       <c r="E562" t="s">
         <v>2150</v>
@@ -21966,7 +21966,7 @@
         <v>2747</v>
       </c>
       <c r="D563" t="s">
-        <v>3527</v>
+        <v>3522</v>
       </c>
       <c r="E563" t="s">
         <v>2153</v>
@@ -21983,7 +21983,7 @@
         <v>2747</v>
       </c>
       <c r="D564" t="s">
-        <v>3529</v>
+        <v>3524</v>
       </c>
       <c r="E564" t="s">
         <v>2159</v>
@@ -22000,7 +22000,7 @@
         <v>2747</v>
       </c>
       <c r="D565" t="s">
-        <v>3530</v>
+        <v>3525</v>
       </c>
       <c r="E565" t="s">
         <v>2162</v>
@@ -22017,7 +22017,7 @@
         <v>2747</v>
       </c>
       <c r="D566" t="s">
-        <v>3531</v>
+        <v>3526</v>
       </c>
       <c r="E566" t="s">
         <v>2165</v>
@@ -22034,7 +22034,7 @@
         <v>2747</v>
       </c>
       <c r="D567" t="s">
-        <v>3532</v>
+        <v>3527</v>
       </c>
       <c r="E567" t="s">
         <v>2168</v>
@@ -22051,7 +22051,7 @@
         <v>2747</v>
       </c>
       <c r="D568" t="s">
-        <v>3533</v>
+        <v>3528</v>
       </c>
       <c r="E568" t="s">
         <v>2171</v>
@@ -22068,7 +22068,7 @@
         <v>2747</v>
       </c>
       <c r="D569" t="s">
-        <v>3535</v>
+        <v>3530</v>
       </c>
       <c r="E569" t="s">
         <v>2177</v>
@@ -22085,7 +22085,7 @@
         <v>2747</v>
       </c>
       <c r="D570" t="s">
-        <v>3536</v>
+        <v>3531</v>
       </c>
       <c r="E570" t="s">
         <v>2180</v>
@@ -22102,7 +22102,7 @@
         <v>2747</v>
       </c>
       <c r="D571" t="s">
-        <v>3537</v>
+        <v>3532</v>
       </c>
       <c r="E571" t="s">
         <v>2183</v>
@@ -22119,7 +22119,7 @@
         <v>2747</v>
       </c>
       <c r="D572" t="s">
-        <v>3538</v>
+        <v>3533</v>
       </c>
       <c r="E572" t="s">
         <v>2186</v>
@@ -22136,7 +22136,7 @@
         <v>2747</v>
       </c>
       <c r="D573" t="s">
-        <v>3539</v>
+        <v>3534</v>
       </c>
       <c r="E573" t="s">
         <v>2189</v>
@@ -22153,7 +22153,7 @@
         <v>2747</v>
       </c>
       <c r="D574" t="s">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="E574" t="s">
         <v>2192</v>
@@ -22170,7 +22170,7 @@
         <v>2747</v>
       </c>
       <c r="D575" t="s">
-        <v>3541</v>
+        <v>3536</v>
       </c>
       <c r="E575" t="s">
         <v>2195</v>
@@ -22187,7 +22187,7 @@
         <v>2747</v>
       </c>
       <c r="D576" t="s">
-        <v>3542</v>
+        <v>3537</v>
       </c>
       <c r="E576" t="s">
         <v>2198</v>
@@ -22204,7 +22204,7 @@
         <v>2747</v>
       </c>
       <c r="D577" t="s">
-        <v>3543</v>
+        <v>3538</v>
       </c>
       <c r="E577" t="s">
         <v>2201</v>
@@ -22221,7 +22221,7 @@
         <v>2747</v>
       </c>
       <c r="D578" t="s">
-        <v>3544</v>
+        <v>3539</v>
       </c>
       <c r="E578" t="s">
         <v>2204</v>
@@ -22258,7 +22258,7 @@
         <v>375</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E580" t="s">
         <v>746</v>
@@ -22275,7 +22275,7 @@
         <v>2757</v>
       </c>
       <c r="D581" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="E581" t="s">
         <v>821</v>
@@ -22292,7 +22292,7 @@
         <v>2757</v>
       </c>
       <c r="D582" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="E582" t="s">
         <v>1128</v>
@@ -22309,7 +22309,7 @@
         <v>2757</v>
       </c>
       <c r="D583" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="E583" t="s">
         <v>1161</v>
@@ -22326,7 +22326,7 @@
         <v>2757</v>
       </c>
       <c r="D584" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="E584" t="s">
         <v>1164</v>
@@ -22343,7 +22343,7 @@
         <v>2757</v>
       </c>
       <c r="D585" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="E585" t="s">
         <v>1176</v>
@@ -22360,7 +22360,7 @@
         <v>2757</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E586" t="s">
         <v>1552</v>
@@ -22377,7 +22377,7 @@
         <v>2757</v>
       </c>
       <c r="D587" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E587" t="s">
         <v>1570</v>
@@ -22394,7 +22394,7 @@
         <v>2757</v>
       </c>
       <c r="D588" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="E588" t="s">
         <v>1778</v>
@@ -22411,7 +22411,7 @@
         <v>2757</v>
       </c>
       <c r="D589" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E589" t="s">
         <v>1781</v>
@@ -22428,7 +22428,7 @@
         <v>2757</v>
       </c>
       <c r="D590" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
       <c r="E590" t="s">
         <v>1955</v>
@@ -22445,7 +22445,7 @@
         <v>2757</v>
       </c>
       <c r="D591" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
       <c r="E591" t="s">
         <v>1958</v>
@@ -22462,7 +22462,7 @@
         <v>2757</v>
       </c>
       <c r="D592" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
       <c r="E592" t="s">
         <v>1961</v>
@@ -22479,7 +22479,7 @@
         <v>2757</v>
       </c>
       <c r="D593" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="E593" t="s">
         <v>1964</v>
@@ -22496,7 +22496,7 @@
         <v>2757</v>
       </c>
       <c r="D594" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
       <c r="E594" t="s">
         <v>1967</v>
@@ -22513,7 +22513,7 @@
         <v>2757</v>
       </c>
       <c r="D595" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
       <c r="E595" t="s">
         <v>1970</v>
@@ -22530,7 +22530,7 @@
         <v>2757</v>
       </c>
       <c r="D596" t="s">
-        <v>3468</v>
+        <v>3463</v>
       </c>
       <c r="E596" t="s">
         <v>1973</v>
@@ -22547,7 +22547,7 @@
         <v>2757</v>
       </c>
       <c r="D597" t="s">
-        <v>3469</v>
+        <v>3464</v>
       </c>
       <c r="E597" t="s">
         <v>1976</v>
@@ -22564,7 +22564,7 @@
         <v>2757</v>
       </c>
       <c r="D598" t="s">
-        <v>3508</v>
+        <v>3503</v>
       </c>
       <c r="E598" t="s">
         <v>2097</v>
@@ -22581,7 +22581,7 @@
         <v>2757</v>
       </c>
       <c r="D599" t="s">
-        <v>3511</v>
+        <v>3506</v>
       </c>
       <c r="E599" t="s">
         <v>2106</v>
@@ -22598,7 +22598,7 @@
         <v>2757</v>
       </c>
       <c r="D600" t="s">
-        <v>3545</v>
+        <v>3540</v>
       </c>
       <c r="E600" t="s">
         <v>2207</v>
@@ -22615,7 +22615,7 @@
         <v>2757</v>
       </c>
       <c r="D601" t="s">
-        <v>3546</v>
+        <v>3541</v>
       </c>
       <c r="E601" t="s">
         <v>2210</v>
@@ -22632,7 +22632,7 @@
         <v>2757</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>3547</v>
+        <v>3542</v>
       </c>
       <c r="E602" t="s">
         <v>2213</v>
@@ -22649,7 +22649,7 @@
         <v>2757</v>
       </c>
       <c r="D603" t="s">
-        <v>3549</v>
+        <v>3544</v>
       </c>
       <c r="E603" t="s">
         <v>2219</v>
@@ -22666,7 +22666,7 @@
         <v>2757</v>
       </c>
       <c r="D604" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
       <c r="E604" t="s">
         <v>2225</v>
@@ -22683,7 +22683,7 @@
         <v>2757</v>
       </c>
       <c r="D605" t="s">
-        <v>3552</v>
+        <v>3547</v>
       </c>
       <c r="E605" t="s">
         <v>2228</v>
@@ -22700,7 +22700,7 @@
         <v>2757</v>
       </c>
       <c r="D606" t="s">
-        <v>3553</v>
+        <v>3548</v>
       </c>
       <c r="E606" t="s">
         <v>2231</v>
@@ -22717,7 +22717,7 @@
         <v>2757</v>
       </c>
       <c r="D607" t="s">
-        <v>3554</v>
+        <v>3549</v>
       </c>
       <c r="E607" t="s">
         <v>2234</v>
@@ -22734,7 +22734,7 @@
         <v>2757</v>
       </c>
       <c r="D608" t="s">
-        <v>3555</v>
+        <v>3550</v>
       </c>
       <c r="E608" t="s">
         <v>2237</v>
@@ -22751,7 +22751,7 @@
         <v>2757</v>
       </c>
       <c r="D609" t="s">
-        <v>3556</v>
+        <v>3551</v>
       </c>
       <c r="E609" t="s">
         <v>2240</v>
@@ -22768,7 +22768,7 @@
         <v>2757</v>
       </c>
       <c r="D610" t="s">
-        <v>3557</v>
+        <v>3552</v>
       </c>
       <c r="E610" t="s">
         <v>2243</v>
@@ -22785,7 +22785,7 @@
         <v>2757</v>
       </c>
       <c r="D611" t="s">
-        <v>3558</v>
+        <v>3553</v>
       </c>
       <c r="E611" t="s">
         <v>2246</v>
@@ -22802,7 +22802,7 @@
         <v>2757</v>
       </c>
       <c r="D612" t="s">
-        <v>3559</v>
+        <v>3554</v>
       </c>
       <c r="E612" t="s">
         <v>2249</v>
@@ -22819,7 +22819,7 @@
         <v>2757</v>
       </c>
       <c r="D613" t="s">
-        <v>3560</v>
+        <v>3555</v>
       </c>
       <c r="E613" t="s">
         <v>2252</v>
@@ -22836,7 +22836,7 @@
         <v>2757</v>
       </c>
       <c r="D614" t="s">
-        <v>3561</v>
+        <v>3556</v>
       </c>
       <c r="E614" t="s">
         <v>2255</v>
@@ -22853,7 +22853,7 @@
         <v>2757</v>
       </c>
       <c r="D615" t="s">
-        <v>3562</v>
+        <v>3557</v>
       </c>
       <c r="E615" t="s">
         <v>2258</v>
@@ -22870,7 +22870,7 @@
         <v>2757</v>
       </c>
       <c r="D616" t="s">
-        <v>3563</v>
+        <v>3558</v>
       </c>
       <c r="E616" t="s">
         <v>2261</v>
@@ -22887,7 +22887,7 @@
         <v>2757</v>
       </c>
       <c r="D617" t="s">
-        <v>3564</v>
+        <v>3559</v>
       </c>
       <c r="E617" t="s">
         <v>2264</v>
@@ -22904,7 +22904,7 @@
         <v>2757</v>
       </c>
       <c r="D618" t="s">
-        <v>3565</v>
+        <v>3560</v>
       </c>
       <c r="E618" t="s">
         <v>2267</v>
@@ -22921,7 +22921,7 @@
         <v>2757</v>
       </c>
       <c r="D619" t="s">
-        <v>3566</v>
+        <v>3561</v>
       </c>
       <c r="E619" t="s">
         <v>2279</v>
@@ -22938,7 +22938,7 @@
         <v>2757</v>
       </c>
       <c r="D620" t="s">
-        <v>3551</v>
+        <v>3546</v>
       </c>
       <c r="E620" t="s">
         <v>2225</v>
@@ -22958,7 +22958,7 @@
         <v>1019</v>
       </c>
       <c r="D621" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="E621" t="s">
         <v>1026</v>
@@ -22975,7 +22975,7 @@
         <v>2787</v>
       </c>
       <c r="D622" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="E622" t="s">
         <v>1089</v>
@@ -22992,7 +22992,7 @@
         <v>2780</v>
       </c>
       <c r="D623" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="E623" t="s">
         <v>845</v>
@@ -23049,7 +23049,7 @@
         <v>2753</v>
       </c>
       <c r="D626" t="s">
-        <v>3578</v>
+        <v>3573</v>
       </c>
       <c r="E626" t="s">
         <v>2310</v>
@@ -23066,7 +23066,7 @@
         <v>2753</v>
       </c>
       <c r="D627" t="s">
-        <v>3579</v>
+        <v>3574</v>
       </c>
       <c r="E627" t="s">
         <v>2313</v>
@@ -23083,7 +23083,7 @@
         <v>2813</v>
       </c>
       <c r="D628" t="s">
-        <v>3580</v>
+        <v>3575</v>
       </c>
       <c r="E628" t="s">
         <v>2316</v>
@@ -23103,7 +23103,7 @@
         <v>375</v>
       </c>
       <c r="D629" t="s">
-        <v>3581</v>
+        <v>3576</v>
       </c>
       <c r="E629" t="s">
         <v>2319</v>
@@ -23137,7 +23137,7 @@
         <v>2792</v>
       </c>
       <c r="D631" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="E631" t="s">
         <v>1137</v>
@@ -23154,7 +23154,7 @@
         <v>2782</v>
       </c>
       <c r="D632" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="E632" t="s">
         <v>861</v>
@@ -23174,7 +23174,7 @@
         <v>375</v>
       </c>
       <c r="D633" t="s">
-        <v>3582</v>
+        <v>3577</v>
       </c>
       <c r="E633" t="s">
         <v>2322</v>
@@ -23191,7 +23191,7 @@
         <v>2810</v>
       </c>
       <c r="D634" t="s">
-        <v>3534</v>
+        <v>3529</v>
       </c>
       <c r="E634" t="s">
         <v>2174</v>
@@ -23208,7 +23208,7 @@
         <v>2810</v>
       </c>
       <c r="D635" t="s">
-        <v>3583</v>
+        <v>3578</v>
       </c>
       <c r="E635" t="s">
         <v>2325</v>
@@ -23225,7 +23225,7 @@
         <v>2810</v>
       </c>
       <c r="D636" t="s">
-        <v>3584</v>
+        <v>3579</v>
       </c>
       <c r="E636" t="s">
         <v>2328</v>
@@ -23279,7 +23279,7 @@
         <v>2760</v>
       </c>
       <c r="D639" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="E639" t="s">
         <v>1047</v>
@@ -23296,7 +23296,7 @@
         <v>2760</v>
       </c>
       <c r="D640" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="E640" t="s">
         <v>1104</v>
@@ -23313,7 +23313,7 @@
         <v>2760</v>
       </c>
       <c r="D641" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="E641" t="s">
         <v>1200</v>
@@ -23330,7 +23330,7 @@
         <v>2760</v>
       </c>
       <c r="D642" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E642" t="s">
         <v>1315</v>
@@ -23347,7 +23347,7 @@
         <v>2760</v>
       </c>
       <c r="D643" t="s">
-        <v>3478</v>
+        <v>3473</v>
       </c>
       <c r="E643" t="s">
         <v>2003</v>
@@ -23364,7 +23364,7 @@
         <v>2760</v>
       </c>
       <c r="D644" t="s">
-        <v>3548</v>
+        <v>3543</v>
       </c>
       <c r="E644" t="s">
         <v>2216</v>
@@ -23381,7 +23381,7 @@
         <v>2760</v>
       </c>
       <c r="D645" t="s">
-        <v>3550</v>
+        <v>3545</v>
       </c>
       <c r="E645" t="s">
         <v>2222</v>
@@ -23398,7 +23398,7 @@
         <v>2760</v>
       </c>
       <c r="D646" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="E646" t="s">
         <v>1650</v>
@@ -23415,7 +23415,7 @@
         <v>2760</v>
       </c>
       <c r="D647" t="s">
-        <v>3585</v>
+        <v>3580</v>
       </c>
       <c r="E647" t="s">
         <v>2333</v>
@@ -23432,7 +23432,7 @@
         <v>2815</v>
       </c>
       <c r="D648" t="s">
-        <v>3586</v>
+        <v>3581</v>
       </c>
       <c r="E648" t="s">
         <v>2336</v>
@@ -23592,7 +23592,7 @@
         <v>375</v>
       </c>
       <c r="D656" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="E656" t="s">
         <v>728</v>
@@ -23609,7 +23609,7 @@
         <v>2776</v>
       </c>
       <c r="D657" t="s">
-        <v>3587</v>
+        <v>3582</v>
       </c>
       <c r="E657" t="s">
         <v>2339</v>
@@ -23626,7 +23626,7 @@
         <v>2776</v>
       </c>
       <c r="D658" t="s">
-        <v>3588</v>
+        <v>3583</v>
       </c>
       <c r="E658" t="s">
         <v>2342</v>
@@ -23646,7 +23646,7 @@
         <v>854</v>
       </c>
       <c r="D659" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="E659" t="s">
         <v>855</v>
@@ -23666,7 +23666,7 @@
         <v>854</v>
       </c>
       <c r="D660" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="E660" t="s">
         <v>858</v>
@@ -23683,7 +23683,7 @@
         <v>2781</v>
       </c>
       <c r="D661" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="E661" t="s">
         <v>1324</v>
@@ -23700,7 +23700,7 @@
         <v>2781</v>
       </c>
       <c r="D662" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="E662" t="s">
         <v>1668</v>
@@ -23717,7 +23717,7 @@
         <v>2781</v>
       </c>
       <c r="D663" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="E663" t="s">
         <v>1671</v>
@@ -23734,7 +23734,7 @@
         <v>2781</v>
       </c>
       <c r="D664" t="s">
-        <v>3589</v>
+        <v>3584</v>
       </c>
       <c r="E664" t="s">
         <v>2345</v>
@@ -23782,7 +23782,7 @@
         <v>2774</v>
       </c>
       <c r="D667" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="E667" t="s">
         <v>1949</v>
@@ -23819,7 +23819,7 @@
         <v>2768</v>
       </c>
       <c r="D669" t="s">
-        <v>3590</v>
+        <v>3585</v>
       </c>
       <c r="E669" t="s">
         <v>2348</v>
@@ -23836,7 +23836,7 @@
         <v>2768</v>
       </c>
       <c r="D670" t="s">
-        <v>3591</v>
+        <v>3586</v>
       </c>
       <c r="E670" t="s">
         <v>2351</v>
@@ -23853,7 +23853,7 @@
         <v>2816</v>
       </c>
       <c r="D671" t="s">
-        <v>3592</v>
+        <v>3752</v>
       </c>
       <c r="E671" t="s">
         <v>2354</v>
@@ -23870,7 +23870,7 @@
         <v>2807</v>
       </c>
       <c r="D672" t="s">
-        <v>3457</v>
+        <v>3753</v>
       </c>
       <c r="E672" t="s">
         <v>1940</v>
@@ -23887,7 +23887,7 @@
         <v>2806</v>
       </c>
       <c r="D673" t="s">
-        <v>3456</v>
+        <v>3452</v>
       </c>
       <c r="E673" t="s">
         <v>1937</v>
@@ -23904,7 +23904,7 @@
         <v>2806</v>
       </c>
       <c r="D674" t="s">
-        <v>3594</v>
+        <v>3588</v>
       </c>
       <c r="E674" t="s">
         <v>2360</v>
@@ -23921,7 +23921,7 @@
         <v>2806</v>
       </c>
       <c r="D675" t="s">
-        <v>3595</v>
+        <v>3589</v>
       </c>
       <c r="E675" t="s">
         <v>2363</v>
@@ -23938,7 +23938,7 @@
         <v>2806</v>
       </c>
       <c r="D676" t="s">
-        <v>3596</v>
+        <v>3590</v>
       </c>
       <c r="E676" t="s">
         <v>2366</v>
@@ -23995,7 +23995,7 @@
         <v>2769</v>
       </c>
       <c r="D679" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="E679" t="s">
         <v>1859</v>
@@ -24012,7 +24012,7 @@
         <v>2769</v>
       </c>
       <c r="D680" t="s">
-        <v>3450</v>
+        <v>3446</v>
       </c>
       <c r="E680" t="s">
         <v>1919</v>
@@ -24029,7 +24029,7 @@
         <v>2769</v>
       </c>
       <c r="D681" t="s">
-        <v>3568</v>
+        <v>3563</v>
       </c>
       <c r="E681" t="s">
         <v>2276</v>
@@ -24046,7 +24046,7 @@
         <v>2769</v>
       </c>
       <c r="D682" t="s">
-        <v>3570</v>
+        <v>3565</v>
       </c>
       <c r="E682" t="s">
         <v>2286</v>
@@ -24063,7 +24063,7 @@
         <v>2769</v>
       </c>
       <c r="D683" t="s">
-        <v>3597</v>
+        <v>3591</v>
       </c>
       <c r="E683" t="s">
         <v>2369</v>
@@ -24080,7 +24080,7 @@
         <v>2769</v>
       </c>
       <c r="D684" t="s">
-        <v>3598</v>
+        <v>3592</v>
       </c>
       <c r="E684" t="s">
         <v>2372</v>
@@ -24097,7 +24097,7 @@
         <v>2769</v>
       </c>
       <c r="D685" t="s">
-        <v>3599</v>
+        <v>3593</v>
       </c>
       <c r="E685" t="s">
         <v>2375</v>
@@ -24114,7 +24114,7 @@
         <v>2769</v>
       </c>
       <c r="D686" t="s">
-        <v>3600</v>
+        <v>3594</v>
       </c>
       <c r="E686" t="s">
         <v>2378</v>
@@ -24131,7 +24131,7 @@
         <v>2769</v>
       </c>
       <c r="D687" t="s">
-        <v>3601</v>
+        <v>3595</v>
       </c>
       <c r="E687" t="s">
         <v>2381</v>
@@ -24148,7 +24148,7 @@
         <v>2769</v>
       </c>
       <c r="D688" t="s">
-        <v>3602</v>
+        <v>3596</v>
       </c>
       <c r="E688" t="s">
         <v>2384</v>
@@ -24165,7 +24165,7 @@
         <v>2769</v>
       </c>
       <c r="D689" t="s">
-        <v>3603</v>
+        <v>3597</v>
       </c>
       <c r="E689" t="s">
         <v>2387</v>
@@ -24182,7 +24182,7 @@
         <v>2769</v>
       </c>
       <c r="D690" t="s">
-        <v>3604</v>
+        <v>3598</v>
       </c>
       <c r="E690" t="s">
         <v>2390</v>
@@ -24199,7 +24199,7 @@
         <v>2769</v>
       </c>
       <c r="D691" t="s">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="E691" t="s">
         <v>2393</v>
@@ -24216,7 +24216,7 @@
         <v>2769</v>
       </c>
       <c r="D692" t="s">
-        <v>3606</v>
+        <v>3600</v>
       </c>
       <c r="E692" t="s">
         <v>2396</v>
@@ -24233,7 +24233,7 @@
         <v>2769</v>
       </c>
       <c r="D693" t="s">
-        <v>3607</v>
+        <v>3601</v>
       </c>
       <c r="E693" t="s">
         <v>2399</v>
@@ -24250,7 +24250,7 @@
         <v>2769</v>
       </c>
       <c r="D694" t="s">
-        <v>3608</v>
+        <v>3602</v>
       </c>
       <c r="E694" t="s">
         <v>2402</v>
@@ -24267,7 +24267,7 @@
         <v>2769</v>
       </c>
       <c r="D695" t="s">
-        <v>3610</v>
+        <v>3604</v>
       </c>
       <c r="E695" t="s">
         <v>2408</v>
@@ -24284,7 +24284,7 @@
         <v>2769</v>
       </c>
       <c r="D696" t="s">
-        <v>3611</v>
+        <v>3605</v>
       </c>
       <c r="E696" t="s">
         <v>2411</v>
@@ -24301,7 +24301,7 @@
         <v>2769</v>
       </c>
       <c r="D697" t="s">
-        <v>3612</v>
+        <v>3606</v>
       </c>
       <c r="E697" t="s">
         <v>2414</v>
@@ -24318,7 +24318,7 @@
         <v>2769</v>
       </c>
       <c r="D698" t="s">
-        <v>3613</v>
+        <v>3607</v>
       </c>
       <c r="E698" t="s">
         <v>2417</v>
@@ -24335,7 +24335,7 @@
         <v>2769</v>
       </c>
       <c r="D699" t="s">
-        <v>3614</v>
+        <v>3608</v>
       </c>
       <c r="E699" t="s">
         <v>2420</v>
@@ -24352,7 +24352,7 @@
         <v>2769</v>
       </c>
       <c r="D700" t="s">
-        <v>3615</v>
+        <v>3609</v>
       </c>
       <c r="E700" t="s">
         <v>2423</v>
@@ -24369,7 +24369,7 @@
         <v>2819</v>
       </c>
       <c r="D701" t="s">
-        <v>3616</v>
+        <v>3610</v>
       </c>
       <c r="E701" t="s">
         <v>2426</v>
@@ -24386,7 +24386,7 @@
         <v>2819</v>
       </c>
       <c r="D702" t="s">
-        <v>3617</v>
+        <v>3611</v>
       </c>
       <c r="E702" t="s">
         <v>2429</v>
@@ -24403,7 +24403,7 @@
         <v>2819</v>
       </c>
       <c r="D703" t="s">
-        <v>3618</v>
+        <v>3612</v>
       </c>
       <c r="E703" t="s">
         <v>2432</v>
@@ -24420,7 +24420,7 @@
         <v>2797</v>
       </c>
       <c r="D704" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="E704" t="s">
         <v>1341</v>
@@ -24437,7 +24437,7 @@
         <v>2797</v>
       </c>
       <c r="D705" t="s">
-        <v>3571</v>
+        <v>3566</v>
       </c>
       <c r="E705" t="s">
         <v>2289</v>
@@ -24454,7 +24454,7 @@
         <v>2797</v>
       </c>
       <c r="D706" t="s">
-        <v>3620</v>
+        <v>3614</v>
       </c>
       <c r="E706" t="s">
         <v>2438</v>
@@ -24471,7 +24471,7 @@
         <v>2797</v>
       </c>
       <c r="D707" t="s">
-        <v>3621</v>
+        <v>3615</v>
       </c>
       <c r="E707" t="s">
         <v>2441</v>
@@ -24488,7 +24488,7 @@
         <v>2797</v>
       </c>
       <c r="D708" t="s">
-        <v>3622</v>
+        <v>3616</v>
       </c>
       <c r="E708" t="s">
         <v>2444</v>
@@ -24505,7 +24505,7 @@
         <v>2796</v>
       </c>
       <c r="D709" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="E709" t="s">
         <v>1335</v>
@@ -24522,7 +24522,7 @@
         <v>2796</v>
       </c>
       <c r="D710" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="E710" t="s">
         <v>1338</v>
@@ -24539,7 +24539,7 @@
         <v>2796</v>
       </c>
       <c r="D711" t="s">
-        <v>3458</v>
+        <v>3453</v>
       </c>
       <c r="E711" t="s">
         <v>1943</v>
@@ -24556,7 +24556,7 @@
         <v>2796</v>
       </c>
       <c r="D712" t="s">
-        <v>3623</v>
+        <v>3617</v>
       </c>
       <c r="E712" t="s">
         <v>2447</v>
@@ -24573,7 +24573,7 @@
         <v>2796</v>
       </c>
       <c r="D713" t="s">
-        <v>3624</v>
+        <v>3618</v>
       </c>
       <c r="E713" t="s">
         <v>2450</v>
@@ -24684,7 +24684,7 @@
         <v>1019</v>
       </c>
       <c r="D719" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="E719" t="s">
         <v>1029</v>
@@ -24704,7 +24704,7 @@
         <v>1019</v>
       </c>
       <c r="D720" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="E720" t="s">
         <v>1038</v>
@@ -24724,7 +24724,7 @@
         <v>1019</v>
       </c>
       <c r="D721" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="E721" t="s">
         <v>1041</v>
@@ -24741,7 +24741,7 @@
         <v>2752</v>
       </c>
       <c r="D722" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="E722" t="s">
         <v>1050</v>
@@ -24758,7 +24758,7 @@
         <v>2752</v>
       </c>
       <c r="D723" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="E723" t="s">
         <v>1053</v>
@@ -24775,7 +24775,7 @@
         <v>2752</v>
       </c>
       <c r="D724" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="E724" t="s">
         <v>1056</v>
@@ -24792,7 +24792,7 @@
         <v>2752</v>
       </c>
       <c r="D725" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="E725" t="s">
         <v>1173</v>
@@ -24812,7 +24812,7 @@
         <v>1582</v>
       </c>
       <c r="D726" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="E726" t="s">
         <v>1619</v>
@@ -24832,7 +24832,7 @@
         <v>1582</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E727" t="s">
         <v>1622</v>
@@ -24866,7 +24866,7 @@
         <v>2752</v>
       </c>
       <c r="D729" t="s">
-        <v>3515</v>
+        <v>3510</v>
       </c>
       <c r="E729" t="s">
         <v>2117</v>
@@ -24883,7 +24883,7 @@
         <v>2752</v>
       </c>
       <c r="D730" t="s">
-        <v>3516</v>
+        <v>3511</v>
       </c>
       <c r="E730" t="s">
         <v>2120</v>
@@ -24900,7 +24900,7 @@
         <v>2752</v>
       </c>
       <c r="D731" t="s">
-        <v>3572</v>
+        <v>3567</v>
       </c>
       <c r="E731" t="s">
         <v>2292</v>
@@ -24917,7 +24917,7 @@
         <v>2752</v>
       </c>
       <c r="D732" t="s">
-        <v>3573</v>
+        <v>3568</v>
       </c>
       <c r="E732" t="s">
         <v>2295</v>
@@ -24934,7 +24934,7 @@
         <v>2752</v>
       </c>
       <c r="D733" t="s">
-        <v>3574</v>
+        <v>3569</v>
       </c>
       <c r="E733" t="s">
         <v>2298</v>
@@ -24951,7 +24951,7 @@
         <v>2752</v>
       </c>
       <c r="D734" t="s">
-        <v>3575</v>
+        <v>3570</v>
       </c>
       <c r="E734" t="s">
         <v>2301</v>
@@ -24968,7 +24968,7 @@
         <v>2752</v>
       </c>
       <c r="D735" t="s">
-        <v>3576</v>
+        <v>3571</v>
       </c>
       <c r="E735" t="s">
         <v>2304</v>
@@ -24985,7 +24985,7 @@
         <v>2802</v>
       </c>
       <c r="D736" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E736" t="s">
         <v>1814</v>
@@ -25002,7 +25002,7 @@
         <v>2812</v>
       </c>
       <c r="D737" t="s">
-        <v>3577</v>
+        <v>3572</v>
       </c>
       <c r="E737" t="s">
         <v>2307</v>
@@ -25019,7 +25019,7 @@
         <v>2804</v>
       </c>
       <c r="D738" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="E738" t="s">
         <v>1841</v>
@@ -25036,7 +25036,7 @@
         <v>2804</v>
       </c>
       <c r="D739" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="E739" t="s">
         <v>1844</v>
@@ -25053,7 +25053,7 @@
         <v>2804</v>
       </c>
       <c r="D740" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="E740" t="s">
         <v>1847</v>
@@ -25070,7 +25070,7 @@
         <v>2804</v>
       </c>
       <c r="D741" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="E741" t="s">
         <v>1850</v>
@@ -25087,7 +25087,7 @@
         <v>2804</v>
       </c>
       <c r="D742" t="s">
-        <v>3566</v>
+        <v>3561</v>
       </c>
       <c r="E742" t="s">
         <v>2270</v>
@@ -25104,7 +25104,7 @@
         <v>2804</v>
       </c>
       <c r="D743" t="s">
-        <v>3567</v>
+        <v>3562</v>
       </c>
       <c r="E743" t="s">
         <v>2273</v>
@@ -25121,7 +25121,7 @@
         <v>2820</v>
       </c>
       <c r="D744" t="s">
-        <v>3625</v>
+        <v>3619</v>
       </c>
       <c r="E744" t="s">
         <v>2453</v>
@@ -25138,7 +25138,7 @@
         <v>2820</v>
       </c>
       <c r="D745" t="s">
-        <v>3626</v>
+        <v>3620</v>
       </c>
       <c r="E745" t="s">
         <v>2456</v>
@@ -25155,7 +25155,7 @@
         <v>2820</v>
       </c>
       <c r="D746" t="s">
-        <v>3627</v>
+        <v>3621</v>
       </c>
       <c r="E746" t="s">
         <v>2459</v>
@@ -25172,7 +25172,7 @@
         <v>2794</v>
       </c>
       <c r="D747" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="E747" t="s">
         <v>1143</v>
@@ -25189,7 +25189,7 @@
         <v>2794</v>
       </c>
       <c r="D748" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="E748" t="s">
         <v>1146</v>
@@ -25206,7 +25206,7 @@
         <v>2794</v>
       </c>
       <c r="D749" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="E749" t="s">
         <v>1149</v>
@@ -25223,7 +25223,7 @@
         <v>2794</v>
       </c>
       <c r="D750" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="E750" t="s">
         <v>1152</v>
@@ -25240,7 +25240,7 @@
         <v>2794</v>
       </c>
       <c r="D751" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="E751" t="s">
         <v>1155</v>
@@ -25257,7 +25257,7 @@
         <v>2794</v>
       </c>
       <c r="D752" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="E752" t="s">
         <v>1158</v>
@@ -25274,7 +25274,7 @@
         <v>2794</v>
       </c>
       <c r="D753" t="s">
-        <v>3640</v>
+        <v>3634</v>
       </c>
       <c r="E753" t="s">
         <v>2498</v>
@@ -25291,7 +25291,7 @@
         <v>2794</v>
       </c>
       <c r="D754" t="s">
-        <v>3641</v>
+        <v>3635</v>
       </c>
       <c r="E754" t="s">
         <v>2501</v>
@@ -25308,7 +25308,7 @@
         <v>2794</v>
       </c>
       <c r="D755" t="s">
-        <v>3642</v>
+        <v>3636</v>
       </c>
       <c r="E755" t="s">
         <v>2504</v>
@@ -25345,7 +25345,7 @@
         <v>2799</v>
       </c>
       <c r="D757" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E757" t="s">
         <v>1579</v>
@@ -25362,7 +25362,7 @@
         <v>2799</v>
       </c>
       <c r="D758" t="s">
-        <v>3628</v>
+        <v>3622</v>
       </c>
       <c r="E758" t="s">
         <v>2462</v>
@@ -25379,7 +25379,7 @@
         <v>2799</v>
       </c>
       <c r="D759" t="s">
-        <v>3629</v>
+        <v>3623</v>
       </c>
       <c r="E759" t="s">
         <v>2465</v>
@@ -25396,7 +25396,7 @@
         <v>2799</v>
       </c>
       <c r="D760" t="s">
-        <v>3630</v>
+        <v>3624</v>
       </c>
       <c r="E760" t="s">
         <v>2468</v>
@@ -25413,7 +25413,7 @@
         <v>2799</v>
       </c>
       <c r="D761" t="s">
-        <v>3631</v>
+        <v>3625</v>
       </c>
       <c r="E761" t="s">
         <v>2471</v>
@@ -25430,7 +25430,7 @@
         <v>2799</v>
       </c>
       <c r="D762" t="s">
-        <v>3632</v>
+        <v>3626</v>
       </c>
       <c r="E762" t="s">
         <v>2474</v>
@@ -25447,7 +25447,7 @@
         <v>2799</v>
       </c>
       <c r="D763" t="s">
-        <v>3635</v>
+        <v>3629</v>
       </c>
       <c r="E763" t="s">
         <v>2483</v>
@@ -25464,7 +25464,7 @@
         <v>2799</v>
       </c>
       <c r="D764" t="s">
-        <v>3636</v>
+        <v>3630</v>
       </c>
       <c r="E764" t="s">
         <v>2486</v>
@@ -25481,7 +25481,7 @@
         <v>2799</v>
       </c>
       <c r="D765" t="s">
-        <v>3637</v>
+        <v>3631</v>
       </c>
       <c r="E765" t="s">
         <v>2489</v>
@@ -25498,7 +25498,7 @@
         <v>2799</v>
       </c>
       <c r="D766" t="s">
-        <v>3638</v>
+        <v>3632</v>
       </c>
       <c r="E766" t="s">
         <v>2492</v>
@@ -25515,7 +25515,7 @@
         <v>2799</v>
       </c>
       <c r="D767" t="s">
-        <v>3639</v>
+        <v>3633</v>
       </c>
       <c r="E767" t="s">
         <v>2495</v>
@@ -25532,7 +25532,7 @@
         <v>2824</v>
       </c>
       <c r="D768" t="s">
-        <v>3644</v>
+        <v>3638</v>
       </c>
       <c r="E768" t="s">
         <v>2510</v>
@@ -25549,7 +25549,7 @@
         <v>2790</v>
       </c>
       <c r="D769" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="E769" t="s">
         <v>1131</v>
@@ -25583,7 +25583,7 @@
         <v>2748</v>
       </c>
       <c r="D771" t="s">
-        <v>3645</v>
+        <v>3639</v>
       </c>
       <c r="E771" t="s">
         <v>2513</v>
@@ -25600,7 +25600,7 @@
         <v>2825</v>
       </c>
       <c r="D772" t="s">
-        <v>3647</v>
+        <v>3641</v>
       </c>
       <c r="E772" t="s">
         <v>2519</v>
@@ -25617,7 +25617,7 @@
         <v>2826</v>
       </c>
       <c r="D773" t="s">
-        <v>3648</v>
+        <v>3642</v>
       </c>
       <c r="E773" t="s">
         <v>2522</v>
@@ -25634,7 +25634,7 @@
         <v>2827</v>
       </c>
       <c r="D774" t="s">
-        <v>3649</v>
+        <v>3643</v>
       </c>
       <c r="E774" t="s">
         <v>2525</v>
@@ -25651,7 +25651,7 @@
         <v>2793</v>
       </c>
       <c r="D775" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="E775" t="s">
         <v>1140</v>
@@ -25668,7 +25668,7 @@
         <v>2793</v>
       </c>
       <c r="D776" t="s">
-        <v>3652</v>
+        <v>3646</v>
       </c>
       <c r="E776" t="s">
         <v>2534</v>
@@ -25685,7 +25685,7 @@
         <v>2793</v>
       </c>
       <c r="D777" t="s">
-        <v>3653</v>
+        <v>3647</v>
       </c>
       <c r="E777" t="s">
         <v>2537</v>
@@ -25702,7 +25702,7 @@
         <v>2830</v>
       </c>
       <c r="D778" t="s">
-        <v>3654</v>
+        <v>3648</v>
       </c>
       <c r="E778" t="s">
         <v>2540</v>
@@ -25719,7 +25719,7 @@
         <v>2830</v>
       </c>
       <c r="D779" t="s">
-        <v>3655</v>
+        <v>3649</v>
       </c>
       <c r="E779" t="s">
         <v>2543</v>
@@ -25736,7 +25736,7 @@
         <v>2789</v>
       </c>
       <c r="D780" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="E780" t="s">
         <v>1098</v>
@@ -25753,7 +25753,7 @@
         <v>2831</v>
       </c>
       <c r="D781" t="s">
-        <v>3656</v>
+        <v>3650</v>
       </c>
       <c r="E781" t="s">
         <v>2546</v>
@@ -25770,7 +25770,7 @@
         <v>2832</v>
       </c>
       <c r="D782" t="s">
-        <v>3658</v>
+        <v>3652</v>
       </c>
       <c r="E782" t="s">
         <v>2552</v>
@@ -25787,7 +25787,7 @@
         <v>2832</v>
       </c>
       <c r="D783" t="s">
-        <v>3659</v>
+        <v>3653</v>
       </c>
       <c r="E783" t="s">
         <v>2555</v>
@@ -25804,7 +25804,7 @@
         <v>2832</v>
       </c>
       <c r="D784" t="s">
-        <v>3660</v>
+        <v>3654</v>
       </c>
       <c r="E784" t="s">
         <v>2558</v>
@@ -25821,7 +25821,7 @@
         <v>2832</v>
       </c>
       <c r="D785" t="s">
-        <v>3661</v>
+        <v>3655</v>
       </c>
       <c r="E785" t="s">
         <v>2561</v>
@@ -25838,7 +25838,7 @@
         <v>2832</v>
       </c>
       <c r="D786" t="s">
-        <v>3662</v>
+        <v>3656</v>
       </c>
       <c r="E786" t="s">
         <v>2564</v>
@@ -25855,7 +25855,7 @@
         <v>2800</v>
       </c>
       <c r="D787" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="E787" t="s">
         <v>1659</v>
@@ -25872,7 +25872,7 @@
         <v>2800</v>
       </c>
       <c r="D788" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E788" t="s">
         <v>1662</v>
@@ -25889,7 +25889,7 @@
         <v>2788</v>
       </c>
       <c r="D789" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="E789" t="s">
         <v>1044</v>
@@ -25906,7 +25906,7 @@
         <v>2811</v>
       </c>
       <c r="D790" t="s">
-        <v>3569</v>
+        <v>3564</v>
       </c>
       <c r="E790" t="s">
         <v>2283</v>
@@ -25923,7 +25923,7 @@
         <v>2811</v>
       </c>
       <c r="D791" t="s">
-        <v>3664</v>
+        <v>3658</v>
       </c>
       <c r="E791" t="s">
         <v>2570</v>
@@ -25940,7 +25940,7 @@
         <v>2811</v>
       </c>
       <c r="D792" t="s">
-        <v>3664</v>
+        <v>3658</v>
       </c>
       <c r="E792" t="s">
         <v>2570</v>
@@ -25957,7 +25957,7 @@
         <v>2834</v>
       </c>
       <c r="D793" t="s">
-        <v>3665</v>
+        <v>3659</v>
       </c>
       <c r="E793" t="s">
         <v>2575</v>
@@ -25994,7 +25994,7 @@
         <v>2766</v>
       </c>
       <c r="D795" t="s">
-        <v>3657</v>
+        <v>3651</v>
       </c>
       <c r="E795" t="s">
         <v>2549</v>
@@ -26011,7 +26011,7 @@
         <v>2805</v>
       </c>
       <c r="D796" t="s">
-        <v>3448</v>
+        <v>3444</v>
       </c>
       <c r="E796" t="s">
         <v>1913</v>
@@ -26028,7 +26028,7 @@
         <v>2805</v>
       </c>
       <c r="D797" t="s">
-        <v>3666</v>
+        <v>3660</v>
       </c>
       <c r="E797" t="s">
         <v>2578</v>
@@ -26079,7 +26079,7 @@
         <v>2765</v>
       </c>
       <c r="D800" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E800" t="s">
         <v>1482</v>
@@ -26096,7 +26096,7 @@
         <v>2801</v>
       </c>
       <c r="D801" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="E801" t="s">
         <v>1695</v>
@@ -26113,7 +26113,7 @@
         <v>2801</v>
       </c>
       <c r="D802" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="E802" t="s">
         <v>1712</v>
@@ -26130,7 +26130,7 @@
         <v>2821</v>
       </c>
       <c r="D803" t="s">
-        <v>3633</v>
+        <v>3627</v>
       </c>
       <c r="E803" t="s">
         <v>2477</v>
@@ -26187,7 +26187,7 @@
         <v>2772</v>
       </c>
       <c r="D806" t="s">
-        <v>3528</v>
+        <v>3523</v>
       </c>
       <c r="E806" t="s">
         <v>2156</v>
@@ -26204,7 +26204,7 @@
         <v>2772</v>
       </c>
       <c r="D807" t="s">
-        <v>3619</v>
+        <v>3613</v>
       </c>
       <c r="E807" t="s">
         <v>2435</v>
@@ -26221,7 +26221,7 @@
         <v>2772</v>
       </c>
       <c r="D808" t="s">
-        <v>3667</v>
+        <v>3661</v>
       </c>
       <c r="E808" t="s">
         <v>2581</v>
@@ -26238,7 +26238,7 @@
         <v>2772</v>
       </c>
       <c r="D809" t="s">
-        <v>3668</v>
+        <v>3662</v>
       </c>
       <c r="E809" t="s">
         <v>2584</v>
@@ -26255,7 +26255,7 @@
         <v>2822</v>
       </c>
       <c r="D810" t="s">
-        <v>3634</v>
+        <v>3628</v>
       </c>
       <c r="E810" t="s">
         <v>2480</v>
@@ -26312,7 +26312,7 @@
         <v>2833</v>
       </c>
       <c r="D813" t="s">
-        <v>3663</v>
+        <v>3657</v>
       </c>
       <c r="E813" t="s">
         <v>2567</v>
@@ -26329,7 +26329,7 @@
         <v>2823</v>
       </c>
       <c r="D814" t="s">
-        <v>3643</v>
+        <v>3637</v>
       </c>
       <c r="E814" t="s">
         <v>2507</v>
@@ -26346,7 +26346,7 @@
         <v>2818</v>
       </c>
       <c r="D815" t="s">
-        <v>3609</v>
+        <v>3603</v>
       </c>
       <c r="E815" t="s">
         <v>2405</v>
@@ -26363,7 +26363,7 @@
         <v>2828</v>
       </c>
       <c r="D816" t="s">
-        <v>3650</v>
+        <v>3644</v>
       </c>
       <c r="E816" t="s">
         <v>2528</v>
@@ -26380,7 +26380,7 @@
         <v>2829</v>
       </c>
       <c r="D817" t="s">
-        <v>3651</v>
+        <v>3645</v>
       </c>
       <c r="E817" t="s">
         <v>2531</v>
@@ -26397,7 +26397,7 @@
         <v>2779</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="E818" t="s">
         <v>809</v>
@@ -26414,7 +26414,7 @@
         <v>2779</v>
       </c>
       <c r="D819" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E819" t="s">
         <v>1283</v>
@@ -26431,7 +26431,7 @@
         <v>2779</v>
       </c>
       <c r="D820" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E820" t="s">
         <v>1283</v>
@@ -26448,7 +26448,7 @@
         <v>2779</v>
       </c>
       <c r="D821" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E821" t="s">
         <v>1289</v>
@@ -26465,7 +26465,7 @@
         <v>2779</v>
       </c>
       <c r="D822" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E822" t="s">
         <v>1292</v>
@@ -26482,7 +26482,7 @@
         <v>2779</v>
       </c>
       <c r="D823" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="E823" t="s">
         <v>1295</v>
@@ -26499,7 +26499,7 @@
         <v>2779</v>
       </c>
       <c r="D824" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="E824" t="s">
         <v>1298</v>
@@ -26516,7 +26516,7 @@
         <v>2779</v>
       </c>
       <c r="D825" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="E825" t="s">
         <v>1301</v>
@@ -26533,7 +26533,7 @@
         <v>2779</v>
       </c>
       <c r="D826" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="E826" t="s">
         <v>1304</v>
@@ -26550,7 +26550,7 @@
         <v>2779</v>
       </c>
       <c r="D827" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="E827" t="s">
         <v>1289</v>
@@ -26584,7 +26584,7 @@
         <v>2745</v>
       </c>
       <c r="D829" t="s">
-        <v>3669</v>
+        <v>3663</v>
       </c>
       <c r="E829" t="s">
         <v>2587</v>
@@ -26601,7 +26601,7 @@
         <v>2745</v>
       </c>
       <c r="D830" t="s">
-        <v>3670</v>
+        <v>3664</v>
       </c>
       <c r="E830" t="s">
         <v>2590</v>
@@ -26618,7 +26618,7 @@
         <v>2745</v>
       </c>
       <c r="D831" t="s">
-        <v>3671</v>
+        <v>3665</v>
       </c>
       <c r="E831" t="s">
         <v>2593</v>
@@ -26635,7 +26635,7 @@
         <v>2835</v>
       </c>
       <c r="D832" t="s">
-        <v>3672</v>
+        <v>3666</v>
       </c>
       <c r="E832" t="s">
         <v>2596</v>
@@ -26669,7 +26669,7 @@
         <v>2764</v>
       </c>
       <c r="D834" t="s">
-        <v>3673</v>
+        <v>3667</v>
       </c>
       <c r="E834" t="s">
         <v>2599</v>
@@ -26686,7 +26686,7 @@
         <v>2784</v>
       </c>
       <c r="D835" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="E835" t="s">
         <v>904</v>
@@ -26703,7 +26703,7 @@
         <v>2836</v>
       </c>
       <c r="D836" t="s">
-        <v>3674</v>
+        <v>3668</v>
       </c>
       <c r="E836" t="s">
         <v>2602</v>
@@ -26720,7 +26720,7 @@
         <v>2836</v>
       </c>
       <c r="D837" t="s">
-        <v>3675</v>
+        <v>3669</v>
       </c>
       <c r="E837" t="s">
         <v>2605</v>
@@ -26737,7 +26737,7 @@
         <v>2836</v>
       </c>
       <c r="D838" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="E838" t="s">
         <v>2608</v>
@@ -26822,7 +26822,7 @@
         <v>2750</v>
       </c>
       <c r="D843" t="s">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="E843" t="s">
         <v>2610</v>
@@ -26839,7 +26839,7 @@
         <v>2750</v>
       </c>
       <c r="D844" t="s">
-        <v>3677</v>
+        <v>3671</v>
       </c>
       <c r="E844" t="s">
         <v>2613</v>
@@ -26856,7 +26856,7 @@
         <v>2783</v>
       </c>
       <c r="D845" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="E845" t="s">
         <v>874</v>
@@ -26873,7 +26873,7 @@
         <v>2783</v>
       </c>
       <c r="D846" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="E846" t="s">
         <v>961</v>
@@ -26890,7 +26890,7 @@
         <v>2783</v>
       </c>
       <c r="D847" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="E847" t="s">
         <v>964</v>
@@ -26907,7 +26907,7 @@
         <v>2783</v>
       </c>
       <c r="D848" t="s">
-        <v>3678</v>
+        <v>3672</v>
       </c>
       <c r="E848" t="s">
         <v>2616</v>
@@ -26924,7 +26924,7 @@
         <v>2783</v>
       </c>
       <c r="D849" t="s">
-        <v>3679</v>
+        <v>3673</v>
       </c>
       <c r="E849" t="s">
         <v>2619</v>
@@ -26941,7 +26941,7 @@
         <v>2837</v>
       </c>
       <c r="D850" t="s">
-        <v>3680</v>
+        <v>3674</v>
       </c>
       <c r="E850" t="s">
         <v>2622</v>
@@ -26958,7 +26958,7 @@
         <v>2837</v>
       </c>
       <c r="D851" t="s">
-        <v>3681</v>
+        <v>3675</v>
       </c>
       <c r="E851" t="s">
         <v>2625</v>
@@ -26975,7 +26975,7 @@
         <v>2838</v>
       </c>
       <c r="D852" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E852" t="s">
         <v>2628</v>
@@ -26992,7 +26992,7 @@
         <v>2838</v>
       </c>
       <c r="D853" t="s">
-        <v>3682</v>
+        <v>3676</v>
       </c>
       <c r="E853" t="s">
         <v>2631</v>
@@ -27009,7 +27009,7 @@
         <v>2838</v>
       </c>
       <c r="D854" t="s">
-        <v>3683</v>
+        <v>3677</v>
       </c>
       <c r="E854" t="s">
         <v>2634</v>
@@ -27026,7 +27026,7 @@
         <v>2838</v>
       </c>
       <c r="D855" t="s">
-        <v>3684</v>
+        <v>3678</v>
       </c>
       <c r="E855" t="s">
         <v>2637</v>
@@ -27043,7 +27043,7 @@
         <v>2838</v>
       </c>
       <c r="D856" t="s">
-        <v>3685</v>
+        <v>3679</v>
       </c>
       <c r="E856" t="s">
         <v>2640</v>
@@ -27060,7 +27060,7 @@
         <v>2838</v>
       </c>
       <c r="D857" t="s">
-        <v>3686</v>
+        <v>3680</v>
       </c>
       <c r="E857" t="s">
         <v>2643</v>
@@ -27077,7 +27077,7 @@
         <v>2838</v>
       </c>
       <c r="D858" t="s">
-        <v>3687</v>
+        <v>3681</v>
       </c>
       <c r="E858" t="s">
         <v>2646</v>
@@ -27094,7 +27094,7 @@
         <v>2798</v>
       </c>
       <c r="D859" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="E859" t="s">
         <v>1425</v>
@@ -27111,7 +27111,7 @@
         <v>2798</v>
       </c>
       <c r="D860" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="E860" t="s">
         <v>1517</v>
@@ -27128,7 +27128,7 @@
         <v>2798</v>
       </c>
       <c r="D861" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="E861" t="s">
         <v>1520</v>
@@ -27145,7 +27145,7 @@
         <v>2798</v>
       </c>
       <c r="D862" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E862" t="s">
         <v>1523</v>
@@ -27182,7 +27182,7 @@
         <v>2771</v>
       </c>
       <c r="D864" t="s">
-        <v>3688</v>
+        <v>3682</v>
       </c>
       <c r="E864" t="s">
         <v>2649</v>
@@ -27199,7 +27199,7 @@
         <v>2853</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>3714</v>
+        <v>3708</v>
       </c>
       <c r="E865" t="s">
         <v>2733</v>
@@ -27216,7 +27216,7 @@
         <v>2854</v>
       </c>
       <c r="D866" t="s">
-        <v>3715</v>
+        <v>3709</v>
       </c>
       <c r="E866" t="s">
         <v>2736</v>
@@ -27233,7 +27233,7 @@
         <v>2854</v>
       </c>
       <c r="D867" t="s">
-        <v>3716</v>
+        <v>3710</v>
       </c>
       <c r="E867" t="s">
         <v>2739</v>
@@ -27250,7 +27250,7 @@
         <v>2854</v>
       </c>
       <c r="D868" t="s">
-        <v>3717</v>
+        <v>3711</v>
       </c>
       <c r="E868" t="s">
         <v>2742</v>
@@ -27267,7 +27267,7 @@
         <v>2817</v>
       </c>
       <c r="D869" t="s">
-        <v>3593</v>
+        <v>3587</v>
       </c>
       <c r="E869" t="s">
         <v>2357</v>
@@ -27278,39 +27278,39 @@
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B870" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D870" t="s">
         <v>3725</v>
       </c>
-      <c r="B870" t="s">
-        <v>3726</v>
-      </c>
-      <c r="D870" t="s">
-        <v>3731</v>
-      </c>
       <c r="E870" t="s">
-        <v>3727</v>
+        <v>3721</v>
       </c>
       <c r="F870" t="s">
-        <v>3728</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>3718</v>
+        <v>3712</v>
       </c>
       <c r="B871" t="s">
-        <v>3719</v>
+        <v>3713</v>
       </c>
       <c r="C871" t="s">
         <v>375</v>
       </c>
       <c r="D871" t="s">
-        <v>3729</v>
+        <v>3723</v>
       </c>
       <c r="E871" t="s">
-        <v>3720</v>
+        <v>3714</v>
       </c>
       <c r="F871" t="s">
-        <v>3721</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
@@ -27318,16 +27318,16 @@
         <v>2140</v>
       </c>
       <c r="B872" t="s">
-        <v>3722</v>
+        <v>3716</v>
       </c>
       <c r="D872" t="s">
-        <v>3730</v>
+        <v>3724</v>
       </c>
       <c r="E872" t="s">
-        <v>3723</v>
+        <v>3717</v>
       </c>
       <c r="F872" t="s">
-        <v>3724</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -27338,7 +27338,7 @@
         <v>2786</v>
       </c>
       <c r="D873" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="E873" t="s">
         <v>940</v>
@@ -27355,7 +27355,7 @@
         <v>2786</v>
       </c>
       <c r="D874" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="E874" t="s">
         <v>1461</v>
@@ -27372,7 +27372,7 @@
         <v>2786</v>
       </c>
       <c r="D875" t="s">
-        <v>3691</v>
+        <v>3685</v>
       </c>
       <c r="E875" t="s">
         <v>2658</v>
@@ -27389,7 +27389,7 @@
         <v>2839</v>
       </c>
       <c r="D876" t="s">
-        <v>3692</v>
+        <v>3686</v>
       </c>
       <c r="E876" t="s">
         <v>2661</v>
@@ -27406,7 +27406,7 @@
         <v>2840</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>3693</v>
+        <v>3687</v>
       </c>
       <c r="E877" t="s">
         <v>2664</v>
@@ -27423,7 +27423,7 @@
         <v>2840</v>
       </c>
       <c r="D878" t="s">
-        <v>3694</v>
+        <v>3688</v>
       </c>
       <c r="E878" t="s">
         <v>2667</v>
@@ -27443,7 +27443,7 @@
         <v>375</v>
       </c>
       <c r="D879" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="E879" t="s">
         <v>785</v>
@@ -27463,7 +27463,7 @@
         <v>375</v>
       </c>
       <c r="D880" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="E880" t="s">
         <v>788</v>
@@ -27480,7 +27480,7 @@
         <v>2791</v>
       </c>
       <c r="D881" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="E881" t="s">
         <v>1134</v>
@@ -27497,7 +27497,7 @@
         <v>2791</v>
       </c>
       <c r="D882" t="s">
-        <v>3481</v>
+        <v>3476</v>
       </c>
       <c r="E882" t="s">
         <v>2012</v>
@@ -27514,7 +27514,7 @@
         <v>2841</v>
       </c>
       <c r="D883" t="s">
-        <v>3695</v>
+        <v>3689</v>
       </c>
       <c r="E883" t="s">
         <v>2670</v>
@@ -27531,7 +27531,7 @@
         <v>2842</v>
       </c>
       <c r="D884" t="s">
-        <v>3696</v>
+        <v>3690</v>
       </c>
       <c r="E884" t="s">
         <v>2673</v>
@@ -27548,7 +27548,7 @@
         <v>2803</v>
       </c>
       <c r="D885" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="E885" t="s">
         <v>1838</v>
@@ -27565,7 +27565,7 @@
         <v>2803</v>
       </c>
       <c r="D886" t="s">
-        <v>3697</v>
+        <v>3691</v>
       </c>
       <c r="E886" t="s">
         <v>2676</v>
@@ -27582,7 +27582,7 @@
         <v>2843</v>
       </c>
       <c r="D887" t="s">
-        <v>3698</v>
+        <v>3692</v>
       </c>
       <c r="E887" t="s">
         <v>2679</v>
@@ -27599,7 +27599,7 @@
         <v>2843</v>
       </c>
       <c r="D888" t="s">
-        <v>3699</v>
+        <v>3693</v>
       </c>
       <c r="E888" t="s">
         <v>2682</v>
@@ -27616,7 +27616,7 @@
         <v>2844</v>
       </c>
       <c r="D889" t="s">
-        <v>3700</v>
+        <v>3694</v>
       </c>
       <c r="E889" t="s">
         <v>2685</v>
@@ -27633,7 +27633,7 @@
         <v>2845</v>
       </c>
       <c r="D890" t="s">
-        <v>3701</v>
+        <v>3695</v>
       </c>
       <c r="E890" t="s">
         <v>2688</v>
@@ -27667,7 +27667,7 @@
         <v>2846</v>
       </c>
       <c r="D892" t="s">
-        <v>3702</v>
+        <v>3696</v>
       </c>
       <c r="E892" t="s">
         <v>2691</v>
@@ -27684,7 +27684,7 @@
         <v>2847</v>
       </c>
       <c r="D893" t="s">
-        <v>3703</v>
+        <v>3697</v>
       </c>
       <c r="E893" t="s">
         <v>2694</v>
@@ -27701,7 +27701,7 @@
         <v>2848</v>
       </c>
       <c r="D894" t="s">
-        <v>3704</v>
+        <v>3698</v>
       </c>
       <c r="E894" t="s">
         <v>2697</v>
@@ -27738,7 +27738,7 @@
         <v>2754</v>
       </c>
       <c r="D896" t="s">
-        <v>3705</v>
+        <v>3699</v>
       </c>
       <c r="E896" t="s">
         <v>2700</v>
@@ -27755,7 +27755,7 @@
         <v>2754</v>
       </c>
       <c r="D897" t="s">
-        <v>3706</v>
+        <v>3700</v>
       </c>
       <c r="E897" t="s">
         <v>2703</v>
@@ -27772,7 +27772,7 @@
         <v>2849</v>
       </c>
       <c r="D898" t="s">
-        <v>3707</v>
+        <v>3701</v>
       </c>
       <c r="E898" t="s">
         <v>2706</v>
@@ -27789,7 +27789,7 @@
         <v>2849</v>
       </c>
       <c r="D899" t="s">
-        <v>3708</v>
+        <v>3702</v>
       </c>
       <c r="E899" t="s">
         <v>2709</v>
@@ -27883,7 +27883,7 @@
         <v>2759</v>
       </c>
       <c r="D904" t="s">
-        <v>3710</v>
+        <v>3704</v>
       </c>
       <c r="E904" t="s">
         <v>2715</v>
@@ -27900,7 +27900,7 @@
         <v>2850</v>
       </c>
       <c r="D905" t="s">
-        <v>3709</v>
+        <v>3703</v>
       </c>
       <c r="E905" t="s">
         <v>2712</v>
@@ -27971,7 +27971,7 @@
         <v>2751</v>
       </c>
       <c r="D909" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="E909" t="s">
         <v>1883</v>
@@ -27988,7 +27988,7 @@
         <v>2751</v>
       </c>
       <c r="D910" t="s">
-        <v>3646</v>
+        <v>3640</v>
       </c>
       <c r="E910" t="s">
         <v>2516</v>
@@ -28005,7 +28005,7 @@
         <v>2751</v>
       </c>
       <c r="D911" t="s">
-        <v>3711</v>
+        <v>3705</v>
       </c>
       <c r="E911" t="s">
         <v>2724</v>
@@ -28022,7 +28022,7 @@
         <v>2809</v>
       </c>
       <c r="D912" t="s">
-        <v>3502</v>
+        <v>3497</v>
       </c>
       <c r="E912" t="s">
         <v>2079</v>
@@ -28039,7 +28039,7 @@
         <v>2808</v>
       </c>
       <c r="D913" t="s">
-        <v>3500</v>
+        <v>3495</v>
       </c>
       <c r="E913" t="s">
         <v>2070</v>
@@ -28056,7 +28056,7 @@
         <v>2808</v>
       </c>
       <c r="D914" t="s">
-        <v>3500</v>
+        <v>3495</v>
       </c>
       <c r="E914" t="s">
         <v>2070</v>
@@ -28073,7 +28073,7 @@
         <v>2808</v>
       </c>
       <c r="D915" t="s">
-        <v>3501</v>
+        <v>3496</v>
       </c>
       <c r="E915" t="s">
         <v>2074</v>
@@ -28090,7 +28090,7 @@
         <v>2808</v>
       </c>
       <c r="D916" t="s">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="E916" t="s">
         <v>2082</v>
@@ -28107,7 +28107,7 @@
         <v>2785</v>
       </c>
       <c r="D917" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="E917" t="s">
         <v>937</v>
@@ -28124,7 +28124,7 @@
         <v>2785</v>
       </c>
       <c r="D918" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="E918" t="s">
         <v>1309</v>
@@ -28141,7 +28141,7 @@
         <v>2785</v>
       </c>
       <c r="D919" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="E919" t="s">
         <v>1312</v>
@@ -28158,7 +28158,7 @@
         <v>2785</v>
       </c>
       <c r="D920" t="s">
-        <v>3470</v>
+        <v>3465</v>
       </c>
       <c r="E920" t="s">
         <v>1979</v>
@@ -28175,7 +28175,7 @@
         <v>2785</v>
       </c>
       <c r="D921" t="s">
-        <v>3471</v>
+        <v>3466</v>
       </c>
       <c r="E921" t="s">
         <v>1982</v>
@@ -28192,7 +28192,7 @@
         <v>2785</v>
       </c>
       <c r="D922" t="s">
-        <v>3472</v>
+        <v>3467</v>
       </c>
       <c r="E922" t="s">
         <v>1985</v>
@@ -28209,7 +28209,7 @@
         <v>2785</v>
       </c>
       <c r="D923" t="s">
-        <v>3473</v>
+        <v>3468</v>
       </c>
       <c r="E923" t="s">
         <v>1988</v>
@@ -28226,7 +28226,7 @@
         <v>2785</v>
       </c>
       <c r="D924" t="s">
-        <v>3474</v>
+        <v>3469</v>
       </c>
       <c r="E924" t="s">
         <v>1991</v>
@@ -28243,7 +28243,7 @@
         <v>2785</v>
       </c>
       <c r="D925" t="s">
-        <v>3689</v>
+        <v>3683</v>
       </c>
       <c r="E925" t="s">
         <v>2652</v>
@@ -28260,7 +28260,7 @@
         <v>2785</v>
       </c>
       <c r="D926" t="s">
-        <v>3690</v>
+        <v>3684</v>
       </c>
       <c r="E926" t="s">
         <v>2655</v>
@@ -28277,7 +28277,7 @@
         <v>2851</v>
       </c>
       <c r="D927" t="s">
-        <v>3712</v>
+        <v>3706</v>
       </c>
       <c r="E927" t="s">
         <v>2727</v>
@@ -28351,7 +28351,7 @@
         <v>2852</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>3713</v>
+        <v>3707</v>
       </c>
       <c r="E931" t="s">
         <v>2730</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Game.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB53DF2-C1A3-4761-B65B-F1A366D5D0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644201B4-E53F-4EEB-B6FF-79C8689382DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9050,9 +9050,6 @@
     <t xml:space="preserve"> ◦ 「Você vê #1.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「Você vê #1 (Nível de Perigo #2).」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「#1 toca o ar.」 ◦ </t>
   </si>
   <si>
@@ -9110,10 +9107,6 @@
     <t xml:space="preserve"> ◦ 「Esta terra agora é sua zona doméstica.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「Você não pode fazer isso aqui.」
-「Impossível!」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「Você foi interrompido.」 ◦ </t>
   </si>
   <si>
@@ -9156,16 +9149,6 @@
     <t xml:space="preserve"> ◦ 「#1 está queimado.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「Transforma #him2 em vários pedaços de carne.」
-「Mata #him2.」
-「Destrói #him2.」
-「Esmigalha #him2.」 ◦ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ◦ 「Queima #him2 até a morte.」
-「Reduz #him2 a cinzas.」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「transforma #him2 em uma escultura de gelo.」 ◦ </t>
   </si>
   <si>
@@ -9322,9 +9305,6 @@
     <t xml:space="preserve"> ◦ 「Você coloca #1 em #2.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「#2 andou cerca de #1 milhas e ganhou experiência.」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「Você sente perigo e interrompe seu movimento.」 ◦ </t>
   </si>
   <si>
@@ -9349,9 +9329,6 @@
     <t xml:space="preserve"> ◦ 「Você pega #1 de #2 e equipa.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「Algo ri com desdém.」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「(#1 foi concedido.)」 ◦ </t>
   </si>
   <si>
@@ -9379,12 +9356,6 @@
     <t xml:space="preserve"> ◦ 「#2 é muito difícil de colher.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「Carma (+#1)」 ◦ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ◦ 「Carma (#1)」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「Você precisa de uma ferramenta melhor.」 ◦ </t>
   </si>
   <si>
@@ -9604,12 +9575,6 @@
     <t xml:space="preserve"> ◦ 「Você puxa a alavanca.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「*BANG*」
-「*ESTRONDO*」
-「*BUM*」
-「*TUM*」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「Você ganhou #1.」 ◦ </t>
   </si>
   <si>
@@ -9617,9 +9582,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ◦ 「Você começa a jogar no caça-níquel.」 ◦ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ◦ 「Sua influência sobre #1 aumenta.」 ◦ </t>
   </si>
   <si>
     <t xml:space="preserve"> ◦ 「O nível de desenvolvimento de #1 aumenta.」 ◦ </t>
@@ -11401,9 +11363,6 @@
     <t xml:space="preserve"> ◦ 「#1 se enforcou#2.」 ◦ </t>
   </si>
   <si>
-    <t xml:space="preserve"> ◦ 「#1 pereceu#2 após provocar a ira de #3.」 ◦ </t>
-  </si>
-  <si>
     <t xml:space="preserve"> ◦ 「Sua conta bancária recebe um depósito de #1.」 ◦ </t>
   </si>
   <si>
@@ -11554,6 +11513,47 @@
 「#1 ofega intensamente.」
 「Seus tentáculos grotescos acariciam o corpo dele.」
 「#1 estremece de prazer.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「#2 andou cerca de #1 km/s e ganhou experiência.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Alguém ri com desdém.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Carma (-#1 ↓ )」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Carma (+#1 ↑)」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Sua influência em  #1 aumenta.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「#1 pereceu #2 após provocar a ira de #3.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Você vê #1 (Nível de Perigo: #2).」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Você não pode fazer isso aqui.」 ◦ 
+◦ 「Impossível!」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Transforma #him2 em vários pedaços de carne.」 ◦ 
+◦ 「Mata #him2.」 ◦ 
+◦ 「Destrói #him2.」 ◦ 
+◦ 「Esmigalha #him2.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「Queima #him2 até a morte.」 ◦ 
+ ◦ 「Reduz #him2 a cinzas.」 ◦ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ◦ 「*BANG*」 ◦ 
+ ◦ 「*ESTRONDO*」 ◦ 
+ ◦ 「*BUM*」 ◦ 
+ ◦ 「*TUM*」 ◦ </t>
   </si>
 </sst>
 </file>
@@ -11936,9 +11936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13574,7 +13574,7 @@
         <v>2741</v>
       </c>
       <c r="D91" t="s">
-        <v>2953</v>
+        <v>3758</v>
       </c>
       <c r="E91" t="s">
         <v>369</v>
@@ -13594,7 +13594,7 @@
         <v>375</v>
       </c>
       <c r="D92" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="E92" t="s">
         <v>423</v>
@@ -13614,7 +13614,7 @@
         <v>375</v>
       </c>
       <c r="D93" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="E93" t="s">
         <v>426</v>
@@ -13634,7 +13634,7 @@
         <v>375</v>
       </c>
       <c r="D94" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="E94" t="s">
         <v>429</v>
@@ -13654,7 +13654,7 @@
         <v>375</v>
       </c>
       <c r="D95" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="E95" t="s">
         <v>432</v>
@@ -13674,7 +13674,7 @@
         <v>375</v>
       </c>
       <c r="D96" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="E96" t="s">
         <v>435</v>
@@ -13694,7 +13694,7 @@
         <v>375</v>
       </c>
       <c r="D97" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="E97" t="s">
         <v>438</v>
@@ -13714,7 +13714,7 @@
         <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="E98" t="s">
         <v>441</v>
@@ -13734,7 +13734,7 @@
         <v>375</v>
       </c>
       <c r="D99" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="E99" t="s">
         <v>444</v>
@@ -13754,7 +13754,7 @@
         <v>375</v>
       </c>
       <c r="D100" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="E100" t="s">
         <v>447</v>
@@ -13774,7 +13774,7 @@
         <v>375</v>
       </c>
       <c r="D101" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="E101" t="s">
         <v>450</v>
@@ -13791,7 +13791,7 @@
         <v>2741</v>
       </c>
       <c r="D102" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="E102" t="s">
         <v>468</v>
@@ -13808,7 +13808,7 @@
         <v>2741</v>
       </c>
       <c r="D103" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="E103" t="s">
         <v>471</v>
@@ -13825,7 +13825,7 @@
         <v>2741</v>
       </c>
       <c r="D104" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="E104" t="s">
         <v>474</v>
@@ -13842,7 +13842,7 @@
         <v>2741</v>
       </c>
       <c r="D105" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="E105" t="s">
         <v>477</v>
@@ -13859,7 +13859,7 @@
         <v>2741</v>
       </c>
       <c r="D106" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="E106" t="s">
         <v>489</v>
@@ -13876,7 +13876,7 @@
         <v>2741</v>
       </c>
       <c r="D107" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="E107" t="s">
         <v>492</v>
@@ -13893,7 +13893,7 @@
         <v>2741</v>
       </c>
       <c r="D108" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="E108" t="s">
         <v>495</v>
@@ -13910,7 +13910,7 @@
         <v>2741</v>
       </c>
       <c r="D109" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="E109" t="s">
         <v>501</v>
@@ -13927,7 +13927,7 @@
         <v>2741</v>
       </c>
       <c r="D110" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="E110" t="s">
         <v>504</v>
@@ -13944,7 +13944,7 @@
         <v>2741</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>2973</v>
+        <v>3759</v>
       </c>
       <c r="E111" t="s">
         <v>513</v>
@@ -13961,7 +13961,7 @@
         <v>2741</v>
       </c>
       <c r="D112" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="E112" t="s">
         <v>516</v>
@@ -13978,7 +13978,7 @@
         <v>2741</v>
       </c>
       <c r="D113" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E113" t="s">
         <v>519</v>
@@ -13995,7 +13995,7 @@
         <v>2741</v>
       </c>
       <c r="D114" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="E114" t="s">
         <v>521</v>
@@ -14012,7 +14012,7 @@
         <v>2741</v>
       </c>
       <c r="D115" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="E115" t="s">
         <v>524</v>
@@ -14029,7 +14029,7 @@
         <v>2741</v>
       </c>
       <c r="D116" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="E116" t="s">
         <v>527</v>
@@ -14046,7 +14046,7 @@
         <v>2741</v>
       </c>
       <c r="D117" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="E117" t="s">
         <v>539</v>
@@ -14063,7 +14063,7 @@
         <v>2741</v>
       </c>
       <c r="D118" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="E118" t="s">
         <v>542</v>
@@ -14083,7 +14083,7 @@
         <v>375</v>
       </c>
       <c r="D119" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="E119" t="s">
         <v>545</v>
@@ -14103,7 +14103,7 @@
         <v>375</v>
       </c>
       <c r="D120" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="E120" t="s">
         <v>548</v>
@@ -14123,7 +14123,7 @@
         <v>375</v>
       </c>
       <c r="D121" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="E121" t="s">
         <v>557</v>
@@ -14143,7 +14143,7 @@
         <v>375</v>
       </c>
       <c r="D122" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="E122" t="s">
         <v>557</v>
@@ -14163,7 +14163,7 @@
         <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="E123" t="s">
         <v>567</v>
@@ -14183,7 +14183,7 @@
         <v>375</v>
       </c>
       <c r="D124" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="E124" t="s">
         <v>567</v>
@@ -14203,7 +14203,7 @@
         <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="E125" t="s">
         <v>574</v>
@@ -14223,7 +14223,7 @@
         <v>375</v>
       </c>
       <c r="D126" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="E126" t="s">
         <v>577</v>
@@ -14243,7 +14243,7 @@
         <v>375</v>
       </c>
       <c r="D127" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="E127" t="s">
         <v>625</v>
@@ -14263,7 +14263,7 @@
         <v>375</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>2988</v>
+        <v>3760</v>
       </c>
       <c r="E128" t="s">
         <v>671</v>
@@ -14283,7 +14283,7 @@
         <v>375</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>2989</v>
+        <v>3761</v>
       </c>
       <c r="E129" t="s">
         <v>674</v>
@@ -14303,7 +14303,7 @@
         <v>375</v>
       </c>
       <c r="D130" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="E130" t="s">
         <v>677</v>
@@ -14323,7 +14323,7 @@
         <v>375</v>
       </c>
       <c r="D131" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="E131" t="s">
         <v>680</v>
@@ -14343,7 +14343,7 @@
         <v>375</v>
       </c>
       <c r="D132" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="E132" t="s">
         <v>683</v>
@@ -14363,7 +14363,7 @@
         <v>375</v>
       </c>
       <c r="D133" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="E133" t="s">
         <v>686</v>
@@ -14383,7 +14383,7 @@
         <v>375</v>
       </c>
       <c r="D134" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="E134" t="s">
         <v>689</v>
@@ -14403,7 +14403,7 @@
         <v>375</v>
       </c>
       <c r="D135" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="E135" t="s">
         <v>692</v>
@@ -14423,7 +14423,7 @@
         <v>375</v>
       </c>
       <c r="D136" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="E136" t="s">
         <v>695</v>
@@ -14443,7 +14443,7 @@
         <v>375</v>
       </c>
       <c r="D137" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="E137" t="s">
         <v>698</v>
@@ -14463,7 +14463,7 @@
         <v>375</v>
       </c>
       <c r="D138" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="E138" t="s">
         <v>701</v>
@@ -14483,7 +14483,7 @@
         <v>375</v>
       </c>
       <c r="D139" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="E139" t="s">
         <v>704</v>
@@ -14503,7 +14503,7 @@
         <v>375</v>
       </c>
       <c r="D140" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="E140" t="s">
         <v>707</v>
@@ -14523,7 +14523,7 @@
         <v>375</v>
       </c>
       <c r="D141" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="E141" t="s">
         <v>710</v>
@@ -14543,7 +14543,7 @@
         <v>375</v>
       </c>
       <c r="D142" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="E142" t="s">
         <v>713</v>
@@ -14563,7 +14563,7 @@
         <v>375</v>
       </c>
       <c r="D143" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="E143" t="s">
         <v>716</v>
@@ -14583,7 +14583,7 @@
         <v>375</v>
       </c>
       <c r="D144" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="E144" t="s">
         <v>719</v>
@@ -14603,7 +14603,7 @@
         <v>375</v>
       </c>
       <c r="D145" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="E145" t="s">
         <v>722</v>
@@ -14623,7 +14623,7 @@
         <v>375</v>
       </c>
       <c r="D146" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="E146" t="s">
         <v>725</v>
@@ -14643,7 +14643,7 @@
         <v>375</v>
       </c>
       <c r="D147" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="E147" t="s">
         <v>731</v>
@@ -14663,7 +14663,7 @@
         <v>375</v>
       </c>
       <c r="D148" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="E148" t="s">
         <v>734</v>
@@ -14683,7 +14683,7 @@
         <v>375</v>
       </c>
       <c r="D149" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="E149" t="s">
         <v>737</v>
@@ -14703,7 +14703,7 @@
         <v>375</v>
       </c>
       <c r="D150" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="E150" t="s">
         <v>740</v>
@@ -14723,7 +14723,7 @@
         <v>375</v>
       </c>
       <c r="D151" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="E151" t="s">
         <v>743</v>
@@ -14743,7 +14743,7 @@
         <v>375</v>
       </c>
       <c r="D152" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="E152" t="s">
         <v>749</v>
@@ -14763,7 +14763,7 @@
         <v>375</v>
       </c>
       <c r="D153" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="E153" t="s">
         <v>752</v>
@@ -14783,7 +14783,7 @@
         <v>375</v>
       </c>
       <c r="D154" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="E154" t="s">
         <v>755</v>
@@ -14803,7 +14803,7 @@
         <v>375</v>
       </c>
       <c r="D155" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="E155" t="s">
         <v>758</v>
@@ -14823,7 +14823,7 @@
         <v>375</v>
       </c>
       <c r="D156" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="E156" t="s">
         <v>761</v>
@@ -14843,7 +14843,7 @@
         <v>375</v>
       </c>
       <c r="D157" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="E157" t="s">
         <v>764</v>
@@ -14863,7 +14863,7 @@
         <v>375</v>
       </c>
       <c r="D158" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="E158" t="s">
         <v>767</v>
@@ -14883,7 +14883,7 @@
         <v>375</v>
       </c>
       <c r="D159" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="E159" t="s">
         <v>770</v>
@@ -14903,7 +14903,7 @@
         <v>375</v>
       </c>
       <c r="D160" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="E160" t="s">
         <v>773</v>
@@ -14923,7 +14923,7 @@
         <v>375</v>
       </c>
       <c r="D161" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="E161" t="s">
         <v>776</v>
@@ -14943,7 +14943,7 @@
         <v>375</v>
       </c>
       <c r="D162" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="E162" t="s">
         <v>779</v>
@@ -14963,7 +14963,7 @@
         <v>375</v>
       </c>
       <c r="D163" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="E163" t="s">
         <v>782</v>
@@ -14983,7 +14983,7 @@
         <v>375</v>
       </c>
       <c r="D164" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="E164" t="s">
         <v>791</v>
@@ -15003,7 +15003,7 @@
         <v>375</v>
       </c>
       <c r="D165" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="E165" t="s">
         <v>803</v>
@@ -15020,7 +15020,7 @@
         <v>2741</v>
       </c>
       <c r="D166" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="E166" t="s">
         <v>806</v>
@@ -15037,7 +15037,7 @@
         <v>2741</v>
       </c>
       <c r="D167" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="E167" t="s">
         <v>830</v>
@@ -15054,7 +15054,7 @@
         <v>2741</v>
       </c>
       <c r="D168" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="E168" t="s">
         <v>842</v>
@@ -15071,7 +15071,7 @@
         <v>2741</v>
       </c>
       <c r="D169" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="E169" t="s">
         <v>848</v>
@@ -15088,7 +15088,7 @@
         <v>2741</v>
       </c>
       <c r="D170" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="E170" t="s">
         <v>851</v>
@@ -15108,7 +15108,7 @@
         <v>864</v>
       </c>
       <c r="D171" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="E171" t="s">
         <v>865</v>
@@ -15125,7 +15125,7 @@
         <v>2741</v>
       </c>
       <c r="D172" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="E172" t="s">
         <v>868</v>
@@ -15142,7 +15142,7 @@
         <v>2741</v>
       </c>
       <c r="D173" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="E173" t="s">
         <v>871</v>
@@ -15159,7 +15159,7 @@
         <v>2741</v>
       </c>
       <c r="D174" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="E174" t="s">
         <v>877</v>
@@ -15176,7 +15176,7 @@
         <v>2741</v>
       </c>
       <c r="D175" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="E175" t="s">
         <v>880</v>
@@ -15193,7 +15193,7 @@
         <v>2741</v>
       </c>
       <c r="D176" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="E176" t="s">
         <v>883</v>
@@ -15210,7 +15210,7 @@
         <v>2741</v>
       </c>
       <c r="D177" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="E177" t="s">
         <v>886</v>
@@ -15227,7 +15227,7 @@
         <v>2741</v>
       </c>
       <c r="D178" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="E178" t="s">
         <v>892</v>
@@ -15244,7 +15244,7 @@
         <v>2741</v>
       </c>
       <c r="D179" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="E179" t="s">
         <v>895</v>
@@ -15261,7 +15261,7 @@
         <v>2741</v>
       </c>
       <c r="D180" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="E180" t="s">
         <v>898</v>
@@ -15278,7 +15278,7 @@
         <v>2741</v>
       </c>
       <c r="D181" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="E181" t="s">
         <v>901</v>
@@ -15295,7 +15295,7 @@
         <v>2741</v>
       </c>
       <c r="D182" t="s">
-        <v>3042</v>
+        <v>3752</v>
       </c>
       <c r="E182" t="s">
         <v>907</v>
@@ -15312,7 +15312,7 @@
         <v>2741</v>
       </c>
       <c r="D183" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="E183" t="s">
         <v>910</v>
@@ -15329,7 +15329,7 @@
         <v>2741</v>
       </c>
       <c r="D184" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="E184" t="s">
         <v>913</v>
@@ -15346,7 +15346,7 @@
         <v>2741</v>
       </c>
       <c r="D185" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
       <c r="E185" t="s">
         <v>916</v>
@@ -15363,7 +15363,7 @@
         <v>2741</v>
       </c>
       <c r="D186" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="E186" t="s">
         <v>919</v>
@@ -15380,7 +15380,7 @@
         <v>2741</v>
       </c>
       <c r="D187" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="E187" t="s">
         <v>922</v>
@@ -15397,7 +15397,7 @@
         <v>2741</v>
       </c>
       <c r="D188" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="E188" t="s">
         <v>925</v>
@@ -15414,7 +15414,7 @@
         <v>2741</v>
       </c>
       <c r="D189" t="s">
-        <v>3049</v>
+        <v>3044</v>
       </c>
       <c r="E189" t="s">
         <v>928</v>
@@ -15431,7 +15431,7 @@
         <v>2741</v>
       </c>
       <c r="D190" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="E190" t="s">
         <v>931</v>
@@ -15448,7 +15448,7 @@
         <v>2741</v>
       </c>
       <c r="D191" t="s">
-        <v>3051</v>
+        <v>3753</v>
       </c>
       <c r="E191" t="s">
         <v>949</v>
@@ -15465,7 +15465,7 @@
         <v>2741</v>
       </c>
       <c r="D192" t="s">
-        <v>3052</v>
+        <v>3046</v>
       </c>
       <c r="E192" t="s">
         <v>952</v>
@@ -15482,7 +15482,7 @@
         <v>2741</v>
       </c>
       <c r="D193" t="s">
-        <v>3053</v>
+        <v>3047</v>
       </c>
       <c r="E193" t="s">
         <v>955</v>
@@ -15499,7 +15499,7 @@
         <v>2741</v>
       </c>
       <c r="D194" t="s">
-        <v>3054</v>
+        <v>3048</v>
       </c>
       <c r="E194" t="s">
         <v>967</v>
@@ -15516,7 +15516,7 @@
         <v>2741</v>
       </c>
       <c r="D195" t="s">
-        <v>3055</v>
+        <v>3049</v>
       </c>
       <c r="E195" t="s">
         <v>970</v>
@@ -15533,7 +15533,7 @@
         <v>2741</v>
       </c>
       <c r="D196" t="s">
-        <v>3056</v>
+        <v>3050</v>
       </c>
       <c r="E196" t="s">
         <v>973</v>
@@ -15550,7 +15550,7 @@
         <v>2741</v>
       </c>
       <c r="D197" t="s">
-        <v>3057</v>
+        <v>3051</v>
       </c>
       <c r="E197" t="s">
         <v>976</v>
@@ -15567,7 +15567,7 @@
         <v>2741</v>
       </c>
       <c r="D198" t="s">
-        <v>3058</v>
+        <v>3052</v>
       </c>
       <c r="E198" t="s">
         <v>979</v>
@@ -15584,7 +15584,7 @@
         <v>2741</v>
       </c>
       <c r="D199" t="s">
-        <v>3059</v>
+        <v>3053</v>
       </c>
       <c r="E199" t="s">
         <v>982</v>
@@ -15601,7 +15601,7 @@
         <v>2741</v>
       </c>
       <c r="D200" t="s">
-        <v>3060</v>
+        <v>3054</v>
       </c>
       <c r="E200" t="s">
         <v>984</v>
@@ -15618,7 +15618,7 @@
         <v>2741</v>
       </c>
       <c r="D201" t="s">
-        <v>3061</v>
+        <v>3755</v>
       </c>
       <c r="E201" t="s">
         <v>2864</v>
@@ -15635,7 +15635,7 @@
         <v>2741</v>
       </c>
       <c r="D202" t="s">
-        <v>3062</v>
+        <v>3754</v>
       </c>
       <c r="E202" t="s">
         <v>2865</v>
@@ -15652,7 +15652,7 @@
         <v>2741</v>
       </c>
       <c r="D203" t="s">
-        <v>3063</v>
+        <v>3055</v>
       </c>
       <c r="E203" t="s">
         <v>994</v>
@@ -15669,7 +15669,7 @@
         <v>2741</v>
       </c>
       <c r="D204" t="s">
-        <v>3063</v>
+        <v>3055</v>
       </c>
       <c r="E204" t="s">
         <v>994</v>
@@ -15686,7 +15686,7 @@
         <v>2741</v>
       </c>
       <c r="D205" t="s">
-        <v>3064</v>
+        <v>3056</v>
       </c>
       <c r="E205" t="s">
         <v>999</v>
@@ -15703,7 +15703,7 @@
         <v>2741</v>
       </c>
       <c r="D206" t="s">
-        <v>3065</v>
+        <v>3057</v>
       </c>
       <c r="E206" t="s">
         <v>1002</v>
@@ -15720,7 +15720,7 @@
         <v>2741</v>
       </c>
       <c r="D207" t="s">
-        <v>3066</v>
+        <v>3058</v>
       </c>
       <c r="E207" t="s">
         <v>1005</v>
@@ -15737,7 +15737,7 @@
         <v>2741</v>
       </c>
       <c r="D208" t="s">
-        <v>3067</v>
+        <v>3059</v>
       </c>
       <c r="E208" t="s">
         <v>1008</v>
@@ -15754,7 +15754,7 @@
         <v>2741</v>
       </c>
       <c r="D209" t="s">
-        <v>3068</v>
+        <v>3060</v>
       </c>
       <c r="E209" t="s">
         <v>1011</v>
@@ -15771,7 +15771,7 @@
         <v>2741</v>
       </c>
       <c r="D210" t="s">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="E210" t="s">
         <v>1014</v>
@@ -15791,7 +15791,7 @@
         <v>1017</v>
       </c>
       <c r="D211" t="s">
-        <v>3070</v>
+        <v>3062</v>
       </c>
       <c r="E211" t="s">
         <v>1018</v>
@@ -15811,7 +15811,7 @@
         <v>1017</v>
       </c>
       <c r="D212" t="s">
-        <v>3071</v>
+        <v>3063</v>
       </c>
       <c r="E212" t="s">
         <v>1021</v>
@@ -15831,7 +15831,7 @@
         <v>1017</v>
       </c>
       <c r="D213" t="s">
-        <v>3072</v>
+        <v>3064</v>
       </c>
       <c r="E213" t="s">
         <v>1030</v>
@@ -15851,7 +15851,7 @@
         <v>1017</v>
       </c>
       <c r="D214" t="s">
-        <v>3073</v>
+        <v>3065</v>
       </c>
       <c r="E214" t="s">
         <v>1033</v>
@@ -15868,7 +15868,7 @@
         <v>2741</v>
       </c>
       <c r="D215" t="s">
-        <v>3074</v>
+        <v>3066</v>
       </c>
       <c r="E215" t="s">
         <v>1057</v>
@@ -15885,7 +15885,7 @@
         <v>2741</v>
       </c>
       <c r="D216" t="s">
-        <v>3075</v>
+        <v>3067</v>
       </c>
       <c r="E216" t="s">
         <v>1060</v>
@@ -15902,7 +15902,7 @@
         <v>2741</v>
       </c>
       <c r="D217" t="s">
-        <v>3076</v>
+        <v>3068</v>
       </c>
       <c r="E217" t="s">
         <v>1063</v>
@@ -15919,7 +15919,7 @@
         <v>2741</v>
       </c>
       <c r="D218" t="s">
-        <v>3077</v>
+        <v>3069</v>
       </c>
       <c r="E218" t="s">
         <v>1066</v>
@@ -15936,7 +15936,7 @@
         <v>2741</v>
       </c>
       <c r="D219" t="s">
-        <v>3078</v>
+        <v>3070</v>
       </c>
       <c r="E219" t="s">
         <v>1072</v>
@@ -15953,7 +15953,7 @@
         <v>2741</v>
       </c>
       <c r="D220" t="s">
-        <v>3079</v>
+        <v>3071</v>
       </c>
       <c r="E220" t="s">
         <v>1074</v>
@@ -15970,7 +15970,7 @@
         <v>2741</v>
       </c>
       <c r="D221" t="s">
-        <v>3080</v>
+        <v>3072</v>
       </c>
       <c r="E221" t="s">
         <v>1077</v>
@@ -15987,7 +15987,7 @@
         <v>2741</v>
       </c>
       <c r="D222" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="E222" t="s">
         <v>372</v>
@@ -16004,7 +16004,7 @@
         <v>2741</v>
       </c>
       <c r="D223" t="s">
-        <v>3082</v>
+        <v>3074</v>
       </c>
       <c r="E223" t="s">
         <v>1081</v>
@@ -16021,7 +16021,7 @@
         <v>2741</v>
       </c>
       <c r="D224" t="s">
-        <v>3083</v>
+        <v>3075</v>
       </c>
       <c r="E224" t="s">
         <v>1084</v>
@@ -16038,7 +16038,7 @@
         <v>2741</v>
       </c>
       <c r="D225" t="s">
-        <v>3084</v>
+        <v>3076</v>
       </c>
       <c r="E225" t="s">
         <v>1090</v>
@@ -16055,7 +16055,7 @@
         <v>2741</v>
       </c>
       <c r="D226" t="s">
-        <v>3085</v>
+        <v>3077</v>
       </c>
       <c r="E226" t="s">
         <v>1093</v>
@@ -16072,7 +16072,7 @@
         <v>2741</v>
       </c>
       <c r="D227" t="s">
-        <v>3086</v>
+        <v>3078</v>
       </c>
       <c r="E227" t="s">
         <v>1099</v>
@@ -16089,7 +16089,7 @@
         <v>2741</v>
       </c>
       <c r="D228" t="s">
-        <v>3087</v>
+        <v>3079</v>
       </c>
       <c r="E228" t="s">
         <v>1105</v>
@@ -16106,7 +16106,7 @@
         <v>2741</v>
       </c>
       <c r="D229" t="s">
-        <v>3088</v>
+        <v>3080</v>
       </c>
       <c r="E229" t="s">
         <v>1108</v>
@@ -16123,7 +16123,7 @@
         <v>2741</v>
       </c>
       <c r="D230" t="s">
-        <v>3089</v>
+        <v>3081</v>
       </c>
       <c r="E230" t="s">
         <v>1111</v>
@@ -16140,7 +16140,7 @@
         <v>2741</v>
       </c>
       <c r="D231" t="s">
-        <v>3090</v>
+        <v>3082</v>
       </c>
       <c r="E231" t="s">
         <v>1120</v>
@@ -16157,7 +16157,7 @@
         <v>2741</v>
       </c>
       <c r="D232" t="s">
-        <v>3091</v>
+        <v>3083</v>
       </c>
       <c r="E232" t="s">
         <v>1123</v>
@@ -16174,7 +16174,7 @@
         <v>2741</v>
       </c>
       <c r="D233" t="s">
-        <v>3092</v>
+        <v>3084</v>
       </c>
       <c r="E233" t="s">
         <v>1165</v>
@@ -16191,7 +16191,7 @@
         <v>2741</v>
       </c>
       <c r="D234" t="s">
-        <v>3093</v>
+        <v>3085</v>
       </c>
       <c r="E234" t="s">
         <v>1168</v>
@@ -16208,7 +16208,7 @@
         <v>2741</v>
       </c>
       <c r="D235" t="s">
-        <v>3094</v>
+        <v>3086</v>
       </c>
       <c r="E235" t="s">
         <v>1177</v>
@@ -16225,7 +16225,7 @@
         <v>2741</v>
       </c>
       <c r="D236" t="s">
-        <v>3095</v>
+        <v>3087</v>
       </c>
       <c r="E236" t="s">
         <v>1180</v>
@@ -16242,7 +16242,7 @@
         <v>2741</v>
       </c>
       <c r="D237" t="s">
-        <v>3096</v>
+        <v>3088</v>
       </c>
       <c r="E237" t="s">
         <v>1183</v>
@@ -16259,7 +16259,7 @@
         <v>2741</v>
       </c>
       <c r="D238" t="s">
-        <v>3097</v>
+        <v>3089</v>
       </c>
       <c r="E238" t="s">
         <v>1186</v>
@@ -16276,7 +16276,7 @@
         <v>2741</v>
       </c>
       <c r="D239" t="s">
-        <v>3098</v>
+        <v>3090</v>
       </c>
       <c r="E239" t="s">
         <v>1189</v>
@@ -16293,7 +16293,7 @@
         <v>2741</v>
       </c>
       <c r="D240" t="s">
-        <v>3099</v>
+        <v>3091</v>
       </c>
       <c r="E240" t="s">
         <v>1192</v>
@@ -16310,7 +16310,7 @@
         <v>2741</v>
       </c>
       <c r="D241" t="s">
-        <v>3100</v>
+        <v>3092</v>
       </c>
       <c r="E241" t="s">
         <v>1195</v>
@@ -16327,7 +16327,7 @@
         <v>2741</v>
       </c>
       <c r="D242" t="s">
-        <v>3101</v>
+        <v>3093</v>
       </c>
       <c r="E242" t="s">
         <v>1201</v>
@@ -16344,7 +16344,7 @@
         <v>2741</v>
       </c>
       <c r="D243" t="s">
-        <v>3102</v>
+        <v>3094</v>
       </c>
       <c r="E243" t="s">
         <v>1213</v>
@@ -16361,7 +16361,7 @@
         <v>2741</v>
       </c>
       <c r="D244" t="s">
-        <v>3103</v>
+        <v>3095</v>
       </c>
       <c r="E244" t="s">
         <v>1216</v>
@@ -16378,7 +16378,7 @@
         <v>2741</v>
       </c>
       <c r="D245" t="s">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="E245" t="s">
         <v>1219</v>
@@ -16395,7 +16395,7 @@
         <v>2741</v>
       </c>
       <c r="D246" t="s">
-        <v>3105</v>
+        <v>3097</v>
       </c>
       <c r="E246" t="s">
         <v>1222</v>
@@ -16412,7 +16412,7 @@
         <v>2741</v>
       </c>
       <c r="D247" t="s">
-        <v>3106</v>
+        <v>3098</v>
       </c>
       <c r="E247" t="s">
         <v>1234</v>
@@ -16429,7 +16429,7 @@
         <v>2741</v>
       </c>
       <c r="D248" t="s">
-        <v>3107</v>
+        <v>3099</v>
       </c>
       <c r="E248" t="s">
         <v>1237</v>
@@ -16446,7 +16446,7 @@
         <v>2741</v>
       </c>
       <c r="D249" t="s">
-        <v>3108</v>
+        <v>3100</v>
       </c>
       <c r="E249" t="s">
         <v>1240</v>
@@ -16463,7 +16463,7 @@
         <v>2741</v>
       </c>
       <c r="D250" t="s">
-        <v>3109</v>
+        <v>3101</v>
       </c>
       <c r="E250" t="s">
         <v>1246</v>
@@ -16480,7 +16480,7 @@
         <v>2741</v>
       </c>
       <c r="D251" t="s">
-        <v>3110</v>
+        <v>3102</v>
       </c>
       <c r="E251" t="s">
         <v>1249</v>
@@ -16497,7 +16497,7 @@
         <v>2741</v>
       </c>
       <c r="D252" t="s">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="E252" t="s">
         <v>1266</v>
@@ -16514,7 +16514,7 @@
         <v>2741</v>
       </c>
       <c r="D253" t="s">
-        <v>3112</v>
+        <v>3104</v>
       </c>
       <c r="E253" t="s">
         <v>1269</v>
@@ -16531,7 +16531,7 @@
         <v>2741</v>
       </c>
       <c r="D254" t="s">
-        <v>3113</v>
+        <v>3105</v>
       </c>
       <c r="E254" t="s">
         <v>1272</v>
@@ -16548,7 +16548,7 @@
         <v>2741</v>
       </c>
       <c r="D255" t="s">
-        <v>3114</v>
+        <v>3106</v>
       </c>
       <c r="E255" t="s">
         <v>1278</v>
@@ -16565,7 +16565,7 @@
         <v>2741</v>
       </c>
       <c r="D256" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="E256" t="s">
         <v>1281</v>
@@ -16582,7 +16582,7 @@
         <v>2741</v>
       </c>
       <c r="D257" t="s">
-        <v>3116</v>
+        <v>3108</v>
       </c>
       <c r="E257" t="s">
         <v>1316</v>
@@ -16599,7 +16599,7 @@
         <v>2741</v>
       </c>
       <c r="D258" t="s">
-        <v>3117</v>
+        <v>3109</v>
       </c>
       <c r="E258" t="s">
         <v>1319</v>
@@ -16616,7 +16616,7 @@
         <v>2741</v>
       </c>
       <c r="D259" t="s">
-        <v>3118</v>
+        <v>3110</v>
       </c>
       <c r="E259" t="s">
         <v>1325</v>
@@ -16633,7 +16633,7 @@
         <v>2741</v>
       </c>
       <c r="D260" t="s">
-        <v>3119</v>
+        <v>3111</v>
       </c>
       <c r="E260" t="s">
         <v>1330</v>
@@ -16650,7 +16650,7 @@
         <v>2741</v>
       </c>
       <c r="D261" t="s">
-        <v>3120</v>
+        <v>3112</v>
       </c>
       <c r="E261" t="s">
         <v>1342</v>
@@ -16667,7 +16667,7 @@
         <v>2741</v>
       </c>
       <c r="D262" t="s">
-        <v>3121</v>
+        <v>3113</v>
       </c>
       <c r="E262" t="s">
         <v>1345</v>
@@ -16684,7 +16684,7 @@
         <v>2741</v>
       </c>
       <c r="D263" t="s">
-        <v>3122</v>
+        <v>3114</v>
       </c>
       <c r="E263" t="s">
         <v>1348</v>
@@ -16701,7 +16701,7 @@
         <v>2741</v>
       </c>
       <c r="D264" t="s">
-        <v>3123</v>
+        <v>3115</v>
       </c>
       <c r="E264" t="s">
         <v>1351</v>
@@ -16718,7 +16718,7 @@
         <v>2741</v>
       </c>
       <c r="D265" t="s">
-        <v>3124</v>
+        <v>3116</v>
       </c>
       <c r="E265" t="s">
         <v>1354</v>
@@ -16735,7 +16735,7 @@
         <v>2741</v>
       </c>
       <c r="D266" t="s">
-        <v>3125</v>
+        <v>3117</v>
       </c>
       <c r="E266" t="s">
         <v>1357</v>
@@ -16752,7 +16752,7 @@
         <v>2741</v>
       </c>
       <c r="D267" t="s">
-        <v>3126</v>
+        <v>3118</v>
       </c>
       <c r="E267" t="s">
         <v>1360</v>
@@ -16769,7 +16769,7 @@
         <v>2741</v>
       </c>
       <c r="D268" t="s">
-        <v>3127</v>
+        <v>3119</v>
       </c>
       <c r="E268" t="s">
         <v>1363</v>
@@ -16786,7 +16786,7 @@
         <v>2741</v>
       </c>
       <c r="D269" t="s">
-        <v>3128</v>
+        <v>3120</v>
       </c>
       <c r="E269" t="s">
         <v>1366</v>
@@ -16803,7 +16803,7 @@
         <v>2741</v>
       </c>
       <c r="D270" t="s">
-        <v>3129</v>
+        <v>3121</v>
       </c>
       <c r="E270" t="s">
         <v>1369</v>
@@ -16820,7 +16820,7 @@
         <v>2741</v>
       </c>
       <c r="D271" t="s">
-        <v>3130</v>
+        <v>3122</v>
       </c>
       <c r="E271" t="s">
         <v>1375</v>
@@ -16837,7 +16837,7 @@
         <v>2741</v>
       </c>
       <c r="D272" t="s">
-        <v>3131</v>
+        <v>3123</v>
       </c>
       <c r="E272" t="s">
         <v>1378</v>
@@ -16854,7 +16854,7 @@
         <v>2741</v>
       </c>
       <c r="D273" t="s">
-        <v>3132</v>
+        <v>3124</v>
       </c>
       <c r="E273" t="s">
         <v>1381</v>
@@ -16871,7 +16871,7 @@
         <v>2741</v>
       </c>
       <c r="D274" t="s">
-        <v>3133</v>
+        <v>3125</v>
       </c>
       <c r="E274" t="s">
         <v>1384</v>
@@ -16888,7 +16888,7 @@
         <v>2741</v>
       </c>
       <c r="D275" t="s">
-        <v>3134</v>
+        <v>3126</v>
       </c>
       <c r="E275" t="s">
         <v>1387</v>
@@ -16905,7 +16905,7 @@
         <v>2741</v>
       </c>
       <c r="D276" t="s">
-        <v>3135</v>
+        <v>3127</v>
       </c>
       <c r="E276" t="s">
         <v>1390</v>
@@ -16922,7 +16922,7 @@
         <v>2741</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>3136</v>
+        <v>3762</v>
       </c>
       <c r="E277" t="s">
         <v>1393</v>
@@ -16939,7 +16939,7 @@
         <v>2741</v>
       </c>
       <c r="D278" t="s">
-        <v>3137</v>
+        <v>3128</v>
       </c>
       <c r="E278" t="s">
         <v>1396</v>
@@ -16956,7 +16956,7 @@
         <v>2741</v>
       </c>
       <c r="D279" t="s">
-        <v>3138</v>
+        <v>3129</v>
       </c>
       <c r="E279" t="s">
         <v>1399</v>
@@ -16973,7 +16973,7 @@
         <v>2741</v>
       </c>
       <c r="D280" t="s">
-        <v>3139</v>
+        <v>3130</v>
       </c>
       <c r="E280" t="s">
         <v>1402</v>
@@ -16990,7 +16990,7 @@
         <v>2741</v>
       </c>
       <c r="D281" t="s">
-        <v>3140</v>
+        <v>3756</v>
       </c>
       <c r="E281" t="s">
         <v>1405</v>
@@ -17007,7 +17007,7 @@
         <v>2741</v>
       </c>
       <c r="D282" t="s">
-        <v>3141</v>
+        <v>3131</v>
       </c>
       <c r="E282" t="s">
         <v>1408</v>
@@ -17024,7 +17024,7 @@
         <v>2741</v>
       </c>
       <c r="D283" t="s">
-        <v>3142</v>
+        <v>3132</v>
       </c>
       <c r="E283" t="s">
         <v>1411</v>
@@ -17041,7 +17041,7 @@
         <v>2741</v>
       </c>
       <c r="D284" t="s">
-        <v>3143</v>
+        <v>3133</v>
       </c>
       <c r="E284" t="s">
         <v>1414</v>
@@ -17058,7 +17058,7 @@
         <v>2741</v>
       </c>
       <c r="D285" t="s">
-        <v>3144</v>
+        <v>3134</v>
       </c>
       <c r="E285" t="s">
         <v>1426</v>
@@ -17075,7 +17075,7 @@
         <v>2741</v>
       </c>
       <c r="D286" t="s">
-        <v>3145</v>
+        <v>3135</v>
       </c>
       <c r="E286" t="s">
         <v>1429</v>
@@ -17092,7 +17092,7 @@
         <v>2741</v>
       </c>
       <c r="D287" t="s">
-        <v>3146</v>
+        <v>3136</v>
       </c>
       <c r="E287" t="s">
         <v>1432</v>
@@ -17109,7 +17109,7 @@
         <v>2741</v>
       </c>
       <c r="D288" t="s">
-        <v>3147</v>
+        <v>3137</v>
       </c>
       <c r="E288" t="s">
         <v>1435</v>
@@ -17126,7 +17126,7 @@
         <v>2741</v>
       </c>
       <c r="D289" t="s">
-        <v>3148</v>
+        <v>3138</v>
       </c>
       <c r="E289" t="s">
         <v>1438</v>
@@ -17143,7 +17143,7 @@
         <v>2741</v>
       </c>
       <c r="D290" t="s">
-        <v>3149</v>
+        <v>3139</v>
       </c>
       <c r="E290" t="s">
         <v>1441</v>
@@ -17160,7 +17160,7 @@
         <v>2741</v>
       </c>
       <c r="D291" t="s">
-        <v>3150</v>
+        <v>3140</v>
       </c>
       <c r="E291" t="s">
         <v>1444</v>
@@ -17177,7 +17177,7 @@
         <v>2741</v>
       </c>
       <c r="D292" t="s">
-        <v>3151</v>
+        <v>3141</v>
       </c>
       <c r="E292" t="s">
         <v>1447</v>
@@ -17194,7 +17194,7 @@
         <v>2741</v>
       </c>
       <c r="D293" t="s">
-        <v>3152</v>
+        <v>3142</v>
       </c>
       <c r="E293" t="s">
         <v>1450</v>
@@ -17211,7 +17211,7 @@
         <v>2741</v>
       </c>
       <c r="D294" t="s">
-        <v>3153</v>
+        <v>3143</v>
       </c>
       <c r="E294" t="s">
         <v>1453</v>
@@ -17228,7 +17228,7 @@
         <v>2741</v>
       </c>
       <c r="D295" t="s">
-        <v>3154</v>
+        <v>3144</v>
       </c>
       <c r="E295" t="s">
         <v>1456</v>
@@ -17248,7 +17248,7 @@
         <v>375</v>
       </c>
       <c r="D296" t="s">
-        <v>3155</v>
+        <v>3145</v>
       </c>
       <c r="E296" t="s">
         <v>1462</v>
@@ -17268,7 +17268,7 @@
         <v>375</v>
       </c>
       <c r="D297" t="s">
-        <v>3156</v>
+        <v>3146</v>
       </c>
       <c r="E297" t="s">
         <v>1465</v>
@@ -17285,7 +17285,7 @@
         <v>2741</v>
       </c>
       <c r="D298" t="s">
-        <v>3157</v>
+        <v>3147</v>
       </c>
       <c r="E298" t="s">
         <v>1468</v>
@@ -17302,7 +17302,7 @@
         <v>2741</v>
       </c>
       <c r="D299" t="s">
-        <v>3158</v>
+        <v>3148</v>
       </c>
       <c r="E299" t="s">
         <v>1486</v>
@@ -17319,7 +17319,7 @@
         <v>2741</v>
       </c>
       <c r="D300" t="s">
-        <v>3159</v>
+        <v>3149</v>
       </c>
       <c r="E300" t="s">
         <v>1489</v>
@@ -17339,7 +17339,7 @@
         <v>1492</v>
       </c>
       <c r="D301" t="s">
-        <v>3160</v>
+        <v>3150</v>
       </c>
       <c r="E301" t="s">
         <v>1493</v>
@@ -17356,7 +17356,7 @@
         <v>2741</v>
       </c>
       <c r="D302" t="s">
-        <v>3161</v>
+        <v>3151</v>
       </c>
       <c r="E302" t="s">
         <v>1496</v>
@@ -17373,7 +17373,7 @@
         <v>2741</v>
       </c>
       <c r="D303" t="s">
-        <v>3162</v>
+        <v>3152</v>
       </c>
       <c r="E303" t="s">
         <v>1499</v>
@@ -17390,7 +17390,7 @@
         <v>2741</v>
       </c>
       <c r="D304" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="E304" t="s">
         <v>372</v>
@@ -17407,7 +17407,7 @@
         <v>2741</v>
       </c>
       <c r="D305" t="s">
-        <v>3163</v>
+        <v>3153</v>
       </c>
       <c r="E305" t="s">
         <v>1503</v>
@@ -17424,7 +17424,7 @@
         <v>2741</v>
       </c>
       <c r="D306" t="s">
-        <v>3164</v>
+        <v>3154</v>
       </c>
       <c r="E306" t="s">
         <v>1506</v>
@@ -17441,7 +17441,7 @@
         <v>2741</v>
       </c>
       <c r="D307" t="s">
-        <v>3165</v>
+        <v>3155</v>
       </c>
       <c r="E307" t="s">
         <v>1509</v>
@@ -17458,7 +17458,7 @@
         <v>2741</v>
       </c>
       <c r="D308" t="s">
-        <v>3166</v>
+        <v>3156</v>
       </c>
       <c r="E308" t="s">
         <v>1512</v>
@@ -17475,7 +17475,7 @@
         <v>2741</v>
       </c>
       <c r="D309" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="E309" t="s">
         <v>1524</v>
@@ -17492,7 +17492,7 @@
         <v>2741</v>
       </c>
       <c r="D310" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="E310" t="s">
         <v>1527</v>
@@ -17509,7 +17509,7 @@
         <v>2741</v>
       </c>
       <c r="D311" t="s">
-        <v>3169</v>
+        <v>3159</v>
       </c>
       <c r="E311" t="s">
         <v>1533</v>
@@ -17526,7 +17526,7 @@
         <v>2741</v>
       </c>
       <c r="D312" t="s">
-        <v>3170</v>
+        <v>3160</v>
       </c>
       <c r="E312" t="s">
         <v>1536</v>
@@ -17543,7 +17543,7 @@
         <v>2741</v>
       </c>
       <c r="D313" t="s">
-        <v>3171</v>
+        <v>3161</v>
       </c>
       <c r="E313" t="s">
         <v>1539</v>
@@ -17560,7 +17560,7 @@
         <v>2741</v>
       </c>
       <c r="D314" t="s">
-        <v>3096</v>
+        <v>3088</v>
       </c>
       <c r="E314" t="s">
         <v>1183</v>
@@ -17577,7 +17577,7 @@
         <v>2741</v>
       </c>
       <c r="D315" t="s">
-        <v>3172</v>
+        <v>3162</v>
       </c>
       <c r="E315" t="s">
         <v>1544</v>
@@ -17594,7 +17594,7 @@
         <v>2741</v>
       </c>
       <c r="D316" t="s">
-        <v>3173</v>
+        <v>3163</v>
       </c>
       <c r="E316" t="s">
         <v>1547</v>
@@ -17611,7 +17611,7 @@
         <v>2741</v>
       </c>
       <c r="D317" t="s">
-        <v>3174</v>
+        <v>3164</v>
       </c>
       <c r="E317" t="s">
         <v>1553</v>
@@ -17628,7 +17628,7 @@
         <v>2741</v>
       </c>
       <c r="D318" t="s">
-        <v>3175</v>
+        <v>3165</v>
       </c>
       <c r="E318" t="s">
         <v>1556</v>
@@ -17645,7 +17645,7 @@
         <v>2741</v>
       </c>
       <c r="D319" t="s">
-        <v>3176</v>
+        <v>3166</v>
       </c>
       <c r="E319" t="s">
         <v>1559</v>
@@ -17662,7 +17662,7 @@
         <v>2741</v>
       </c>
       <c r="D320" t="s">
-        <v>3177</v>
+        <v>3167</v>
       </c>
       <c r="E320" t="s">
         <v>1562</v>
@@ -17679,7 +17679,7 @@
         <v>2741</v>
       </c>
       <c r="D321" t="s">
-        <v>3178</v>
+        <v>3168</v>
       </c>
       <c r="E321" t="s">
         <v>1565</v>
@@ -17696,7 +17696,7 @@
         <v>2741</v>
       </c>
       <c r="D322" t="s">
-        <v>3179</v>
+        <v>3169</v>
       </c>
       <c r="E322" t="s">
         <v>1571</v>
@@ -17713,7 +17713,7 @@
         <v>2741</v>
       </c>
       <c r="D323" t="s">
-        <v>3180</v>
+        <v>3170</v>
       </c>
       <c r="E323" t="s">
         <v>1574</v>
@@ -17733,7 +17733,7 @@
         <v>1580</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>3181</v>
+        <v>3171</v>
       </c>
       <c r="E324" t="s">
         <v>1581</v>
@@ -17753,7 +17753,7 @@
         <v>1580</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>3182</v>
+        <v>3172</v>
       </c>
       <c r="E325" t="s">
         <v>1584</v>
@@ -17773,7 +17773,7 @@
         <v>1580</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>3183</v>
+        <v>3173</v>
       </c>
       <c r="E326" t="s">
         <v>1587</v>
@@ -17793,7 +17793,7 @@
         <v>1580</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>3184</v>
+        <v>3174</v>
       </c>
       <c r="E327" t="s">
         <v>1590</v>
@@ -17813,7 +17813,7 @@
         <v>1580</v>
       </c>
       <c r="D328" t="s">
-        <v>3185</v>
+        <v>3175</v>
       </c>
       <c r="E328" t="s">
         <v>1614</v>
@@ -17833,7 +17833,7 @@
         <v>1580</v>
       </c>
       <c r="D329" t="s">
-        <v>3186</v>
+        <v>3176</v>
       </c>
       <c r="E329" t="s">
         <v>1623</v>
@@ -17853,7 +17853,7 @@
         <v>1580</v>
       </c>
       <c r="D330" t="s">
-        <v>3187</v>
+        <v>3177</v>
       </c>
       <c r="E330" t="s">
         <v>1626</v>
@@ -17873,7 +17873,7 @@
         <v>1580</v>
       </c>
       <c r="D331" t="s">
-        <v>3188</v>
+        <v>3178</v>
       </c>
       <c r="E331" t="s">
         <v>1633</v>
@@ -17893,7 +17893,7 @@
         <v>1580</v>
       </c>
       <c r="D332" t="s">
-        <v>3189</v>
+        <v>3179</v>
       </c>
       <c r="E332" t="s">
         <v>1636</v>
@@ -17913,7 +17913,7 @@
         <v>1580</v>
       </c>
       <c r="D333" t="s">
-        <v>3190</v>
+        <v>3180</v>
       </c>
       <c r="E333" t="s">
         <v>1639</v>
@@ -17930,7 +17930,7 @@
         <v>2741</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>3191</v>
+        <v>3181</v>
       </c>
       <c r="E334" t="s">
         <v>1642</v>
@@ -17947,7 +17947,7 @@
         <v>2741</v>
       </c>
       <c r="D335" t="s">
-        <v>3192</v>
+        <v>3182</v>
       </c>
       <c r="E335" t="s">
         <v>1645</v>
@@ -17964,7 +17964,7 @@
         <v>2741</v>
       </c>
       <c r="D336" t="s">
-        <v>3193</v>
+        <v>3183</v>
       </c>
       <c r="E336" t="s">
         <v>1648</v>
@@ -17981,7 +17981,7 @@
         <v>2741</v>
       </c>
       <c r="D337" t="s">
-        <v>3194</v>
+        <v>3184</v>
       </c>
       <c r="E337" t="s">
         <v>1651</v>
@@ -17998,7 +17998,7 @@
         <v>2741</v>
       </c>
       <c r="D338" t="s">
-        <v>3195</v>
+        <v>3185</v>
       </c>
       <c r="E338" t="s">
         <v>1654</v>
@@ -18015,7 +18015,7 @@
         <v>2741</v>
       </c>
       <c r="D339" t="s">
-        <v>3196</v>
+        <v>3186</v>
       </c>
       <c r="E339" t="s">
         <v>1663</v>
@@ -18032,7 +18032,7 @@
         <v>2741</v>
       </c>
       <c r="D340" t="s">
-        <v>3197</v>
+        <v>3187</v>
       </c>
       <c r="E340" t="s">
         <v>1672</v>
@@ -18049,7 +18049,7 @@
         <v>2741</v>
       </c>
       <c r="D341" t="s">
-        <v>3198</v>
+        <v>3188</v>
       </c>
       <c r="E341" t="s">
         <v>1675</v>
@@ -18066,7 +18066,7 @@
         <v>2741</v>
       </c>
       <c r="D342" t="s">
-        <v>3199</v>
+        <v>3189</v>
       </c>
       <c r="E342" t="s">
         <v>1678</v>
@@ -18083,7 +18083,7 @@
         <v>2741</v>
       </c>
       <c r="D343" t="s">
-        <v>3200</v>
+        <v>3190</v>
       </c>
       <c r="E343" t="s">
         <v>1681</v>
@@ -18103,7 +18103,7 @@
         <v>110</v>
       </c>
       <c r="D344" t="s">
-        <v>3201</v>
+        <v>3191</v>
       </c>
       <c r="E344" t="s">
         <v>162</v>
@@ -18120,7 +18120,7 @@
         <v>2752</v>
       </c>
       <c r="D345" t="s">
-        <v>3202</v>
+        <v>3192</v>
       </c>
       <c r="E345" t="s">
         <v>530</v>
@@ -18137,7 +18137,7 @@
         <v>2752</v>
       </c>
       <c r="D346" t="s">
-        <v>3203</v>
+        <v>3193</v>
       </c>
       <c r="E346" t="s">
         <v>533</v>
@@ -18154,7 +18154,7 @@
         <v>2752</v>
       </c>
       <c r="D347" t="s">
-        <v>3204</v>
+        <v>3194</v>
       </c>
       <c r="E347" t="s">
         <v>536</v>
@@ -18171,7 +18171,7 @@
         <v>2752</v>
       </c>
       <c r="D348" t="s">
-        <v>3205</v>
+        <v>3195</v>
       </c>
       <c r="E348" t="s">
         <v>958</v>
@@ -18188,7 +18188,7 @@
         <v>2752</v>
       </c>
       <c r="D349" t="s">
-        <v>3206</v>
+        <v>3196</v>
       </c>
       <c r="E349" t="s">
         <v>987</v>
@@ -18205,7 +18205,7 @@
         <v>2752</v>
       </c>
       <c r="D350" t="s">
-        <v>3207</v>
+        <v>3197</v>
       </c>
       <c r="E350" t="s">
         <v>1483</v>
@@ -18222,7 +18222,7 @@
         <v>2752</v>
       </c>
       <c r="D351" t="s">
-        <v>3208</v>
+        <v>3198</v>
       </c>
       <c r="E351" t="s">
         <v>1695</v>
@@ -18239,7 +18239,7 @@
         <v>2752</v>
       </c>
       <c r="D352" t="s">
-        <v>3209</v>
+        <v>3199</v>
       </c>
       <c r="E352" t="s">
         <v>1698</v>
@@ -18256,7 +18256,7 @@
         <v>2752</v>
       </c>
       <c r="D353" t="s">
-        <v>3210</v>
+        <v>3200</v>
       </c>
       <c r="E353" t="s">
         <v>1701</v>
@@ -18273,7 +18273,7 @@
         <v>2752</v>
       </c>
       <c r="D354" t="s">
-        <v>3211</v>
+        <v>3201</v>
       </c>
       <c r="E354" t="s">
         <v>1703</v>
@@ -18290,7 +18290,7 @@
         <v>2752</v>
       </c>
       <c r="D355" t="s">
-        <v>3212</v>
+        <v>3202</v>
       </c>
       <c r="E355" t="s">
         <v>1706</v>
@@ -18307,7 +18307,7 @@
         <v>2752</v>
       </c>
       <c r="D356" t="s">
-        <v>3213</v>
+        <v>3203</v>
       </c>
       <c r="E356" t="s">
         <v>1712</v>
@@ -18324,7 +18324,7 @@
         <v>2752</v>
       </c>
       <c r="D357" t="s">
-        <v>3214</v>
+        <v>3204</v>
       </c>
       <c r="E357" t="s">
         <v>1715</v>
@@ -18341,7 +18341,7 @@
         <v>2752</v>
       </c>
       <c r="D358" t="s">
-        <v>3215</v>
+        <v>3205</v>
       </c>
       <c r="E358" t="s">
         <v>1718</v>
@@ -18358,7 +18358,7 @@
         <v>2752</v>
       </c>
       <c r="D359" t="s">
-        <v>3216</v>
+        <v>3206</v>
       </c>
       <c r="E359" t="s">
         <v>1721</v>
@@ -18375,7 +18375,7 @@
         <v>2752</v>
       </c>
       <c r="D360" t="s">
-        <v>3217</v>
+        <v>3207</v>
       </c>
       <c r="E360" t="s">
         <v>1724</v>
@@ -18392,7 +18392,7 @@
         <v>2752</v>
       </c>
       <c r="D361" t="s">
-        <v>3218</v>
+        <v>3208</v>
       </c>
       <c r="E361" t="s">
         <v>1727</v>
@@ -18409,7 +18409,7 @@
         <v>2752</v>
       </c>
       <c r="D362" t="s">
-        <v>3219</v>
+        <v>3209</v>
       </c>
       <c r="E362" t="s">
         <v>1730</v>
@@ -18426,7 +18426,7 @@
         <v>2752</v>
       </c>
       <c r="D363" t="s">
-        <v>3220</v>
+        <v>3210</v>
       </c>
       <c r="E363" t="s">
         <v>1733</v>
@@ -18443,7 +18443,7 @@
         <v>2752</v>
       </c>
       <c r="D364" t="s">
-        <v>3221</v>
+        <v>3211</v>
       </c>
       <c r="E364" t="s">
         <v>1739</v>
@@ -18463,7 +18463,7 @@
         <v>1742</v>
       </c>
       <c r="D365" t="s">
-        <v>3222</v>
+        <v>3212</v>
       </c>
       <c r="E365" t="s">
         <v>1749</v>
@@ -18483,7 +18483,7 @@
         <v>1742</v>
       </c>
       <c r="D366" t="s">
-        <v>3223</v>
+        <v>3213</v>
       </c>
       <c r="E366" t="s">
         <v>1746</v>
@@ -18503,7 +18503,7 @@
         <v>1742</v>
       </c>
       <c r="D367" t="s">
-        <v>3224</v>
+        <v>3214</v>
       </c>
       <c r="E367" t="s">
         <v>1753</v>
@@ -18523,7 +18523,7 @@
         <v>1742</v>
       </c>
       <c r="D368" t="s">
-        <v>3223</v>
+        <v>3213</v>
       </c>
       <c r="E368" t="s">
         <v>1746</v>
@@ -18540,7 +18540,7 @@
         <v>2752</v>
       </c>
       <c r="D369" t="s">
-        <v>3225</v>
+        <v>3215</v>
       </c>
       <c r="E369" t="s">
         <v>1760</v>
@@ -18557,7 +18557,7 @@
         <v>2752</v>
       </c>
       <c r="D370" t="s">
-        <v>3226</v>
+        <v>3216</v>
       </c>
       <c r="E370" t="s">
         <v>1763</v>
@@ -18574,7 +18574,7 @@
         <v>2752</v>
       </c>
       <c r="D371" t="s">
-        <v>3110</v>
+        <v>3102</v>
       </c>
       <c r="E371" t="s">
         <v>1766</v>
@@ -18591,7 +18591,7 @@
         <v>2752</v>
       </c>
       <c r="D372" t="s">
-        <v>3227</v>
+        <v>3217</v>
       </c>
       <c r="E372" t="s">
         <v>1769</v>
@@ -18608,7 +18608,7 @@
         <v>2752</v>
       </c>
       <c r="D373" t="s">
-        <v>3228</v>
+        <v>3218</v>
       </c>
       <c r="E373" t="s">
         <v>1781</v>
@@ -18625,7 +18625,7 @@
         <v>2792</v>
       </c>
       <c r="D374" t="s">
-        <v>3229</v>
+        <v>3219</v>
       </c>
       <c r="E374" t="s">
         <v>1275</v>
@@ -18645,7 +18645,7 @@
         <v>1742</v>
       </c>
       <c r="D375" t="s">
-        <v>3230</v>
+        <v>3220</v>
       </c>
       <c r="E375" t="s">
         <v>1757</v>
@@ -18662,7 +18662,7 @@
         <v>2792</v>
       </c>
       <c r="D376" t="s">
-        <v>3231</v>
+        <v>3221</v>
       </c>
       <c r="E376" t="s">
         <v>1784</v>
@@ -18679,7 +18679,7 @@
         <v>2792</v>
       </c>
       <c r="D377" t="s">
-        <v>3232</v>
+        <v>3222</v>
       </c>
       <c r="E377" t="s">
         <v>1787</v>
@@ -18696,7 +18696,7 @@
         <v>2772</v>
       </c>
       <c r="D378" t="s">
-        <v>3233</v>
+        <v>3223</v>
       </c>
       <c r="E378" t="s">
         <v>486</v>
@@ -18716,7 +18716,7 @@
         <v>375</v>
       </c>
       <c r="D379" t="s">
-        <v>3234</v>
+        <v>3224</v>
       </c>
       <c r="E379" t="s">
         <v>794</v>
@@ -18733,7 +18733,7 @@
         <v>2772</v>
       </c>
       <c r="D380" t="s">
-        <v>3235</v>
+        <v>3225</v>
       </c>
       <c r="E380" t="s">
         <v>1243</v>
@@ -18750,7 +18750,7 @@
         <v>2772</v>
       </c>
       <c r="D381" t="s">
-        <v>3236</v>
+        <v>3226</v>
       </c>
       <c r="E381" t="s">
         <v>1736</v>
@@ -18770,7 +18770,7 @@
         <v>1742</v>
       </c>
       <c r="D382" t="s">
-        <v>3237</v>
+        <v>3227</v>
       </c>
       <c r="E382" t="s">
         <v>1743</v>
@@ -18790,7 +18790,7 @@
         <v>1742</v>
       </c>
       <c r="D383" t="s">
-        <v>3223</v>
+        <v>3213</v>
       </c>
       <c r="E383" t="s">
         <v>1746</v>
@@ -18807,7 +18807,7 @@
         <v>2772</v>
       </c>
       <c r="D384" t="s">
-        <v>3238</v>
+        <v>3228</v>
       </c>
       <c r="E384" t="s">
         <v>1772</v>
@@ -18824,7 +18824,7 @@
         <v>2772</v>
       </c>
       <c r="D385" t="s">
-        <v>3239</v>
+        <v>3229</v>
       </c>
       <c r="E385" t="s">
         <v>1790</v>
@@ -18841,7 +18841,7 @@
         <v>2772</v>
       </c>
       <c r="D386" t="s">
-        <v>3240</v>
+        <v>3230</v>
       </c>
       <c r="E386" t="s">
         <v>1793</v>
@@ -18858,7 +18858,7 @@
         <v>2772</v>
       </c>
       <c r="D387" t="s">
-        <v>3241</v>
+        <v>3231</v>
       </c>
       <c r="E387" t="s">
         <v>1796</v>
@@ -18875,7 +18875,7 @@
         <v>2772</v>
       </c>
       <c r="D388" t="s">
-        <v>3242</v>
+        <v>3232</v>
       </c>
       <c r="E388" t="s">
         <v>1799</v>
@@ -18892,7 +18892,7 @@
         <v>2772</v>
       </c>
       <c r="D389" t="s">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="E389" t="s">
         <v>1802</v>
@@ -18909,7 +18909,7 @@
         <v>2772</v>
       </c>
       <c r="D390" t="s">
-        <v>3244</v>
+        <v>3234</v>
       </c>
       <c r="E390" t="s">
         <v>1805</v>
@@ -18926,7 +18926,7 @@
         <v>2770</v>
       </c>
       <c r="D391" t="s">
-        <v>3245</v>
+        <v>3235</v>
       </c>
       <c r="E391" t="s">
         <v>459</v>
@@ -18943,7 +18943,7 @@
         <v>2770</v>
       </c>
       <c r="D392" t="s">
-        <v>3246</v>
+        <v>3236</v>
       </c>
       <c r="E392" t="s">
         <v>462</v>
@@ -18960,7 +18960,7 @@
         <v>2770</v>
       </c>
       <c r="D393" t="s">
-        <v>3247</v>
+        <v>3237</v>
       </c>
       <c r="E393" t="s">
         <v>498</v>
@@ -18977,7 +18977,7 @@
         <v>2770</v>
       </c>
       <c r="D394" t="s">
-        <v>3248</v>
+        <v>3238</v>
       </c>
       <c r="E394" t="s">
         <v>812</v>
@@ -18994,7 +18994,7 @@
         <v>2770</v>
       </c>
       <c r="D395" t="s">
-        <v>3249</v>
+        <v>3239</v>
       </c>
       <c r="E395" t="s">
         <v>815</v>
@@ -19011,7 +19011,7 @@
         <v>2770</v>
       </c>
       <c r="D396" t="s">
-        <v>3250</v>
+        <v>3240</v>
       </c>
       <c r="E396" t="s">
         <v>818</v>
@@ -19028,7 +19028,7 @@
         <v>2770</v>
       </c>
       <c r="D397" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="E397" t="s">
         <v>824</v>
@@ -19045,7 +19045,7 @@
         <v>2770</v>
       </c>
       <c r="D398" t="s">
-        <v>3252</v>
+        <v>3242</v>
       </c>
       <c r="E398" t="s">
         <v>827</v>
@@ -19062,7 +19062,7 @@
         <v>2770</v>
       </c>
       <c r="D399" t="s">
-        <v>3253</v>
+        <v>3243</v>
       </c>
       <c r="E399" t="s">
         <v>833</v>
@@ -19079,7 +19079,7 @@
         <v>2770</v>
       </c>
       <c r="D400" t="s">
-        <v>3254</v>
+        <v>3244</v>
       </c>
       <c r="E400" t="s">
         <v>836</v>
@@ -19096,7 +19096,7 @@
         <v>2770</v>
       </c>
       <c r="D401" t="s">
-        <v>3255</v>
+        <v>3245</v>
       </c>
       <c r="E401" t="s">
         <v>839</v>
@@ -19113,7 +19113,7 @@
         <v>2770</v>
       </c>
       <c r="D402" t="s">
-        <v>3256</v>
+        <v>3246</v>
       </c>
       <c r="E402" t="s">
         <v>889</v>
@@ -19130,7 +19130,7 @@
         <v>2770</v>
       </c>
       <c r="D403" t="s">
-        <v>3257</v>
+        <v>3247</v>
       </c>
       <c r="E403" t="s">
         <v>1204</v>
@@ -19147,7 +19147,7 @@
         <v>2770</v>
       </c>
       <c r="D404" t="s">
-        <v>3258</v>
+        <v>3248</v>
       </c>
       <c r="E404" t="s">
         <v>1207</v>
@@ -19164,7 +19164,7 @@
         <v>2770</v>
       </c>
       <c r="D405" t="s">
-        <v>3259</v>
+        <v>3249</v>
       </c>
       <c r="E405" t="s">
         <v>1210</v>
@@ -19181,7 +19181,7 @@
         <v>2770</v>
       </c>
       <c r="D406" t="s">
-        <v>3260</v>
+        <v>3250</v>
       </c>
       <c r="E406" t="s">
         <v>1417</v>
@@ -19198,7 +19198,7 @@
         <v>2770</v>
       </c>
       <c r="D407" t="s">
-        <v>3261</v>
+        <v>3251</v>
       </c>
       <c r="E407" t="s">
         <v>1420</v>
@@ -19215,7 +19215,7 @@
         <v>2770</v>
       </c>
       <c r="D408" t="s">
-        <v>3262</v>
+        <v>3252</v>
       </c>
       <c r="E408" t="s">
         <v>1471</v>
@@ -19232,7 +19232,7 @@
         <v>2770</v>
       </c>
       <c r="D409" t="s">
-        <v>3263</v>
+        <v>3253</v>
       </c>
       <c r="E409" t="s">
         <v>1474</v>
@@ -19249,7 +19249,7 @@
         <v>2770</v>
       </c>
       <c r="D410" t="s">
-        <v>3264</v>
+        <v>3254</v>
       </c>
       <c r="E410" t="s">
         <v>1530</v>
@@ -19266,7 +19266,7 @@
         <v>2770</v>
       </c>
       <c r="D411" t="s">
-        <v>3265</v>
+        <v>3255</v>
       </c>
       <c r="E411" t="s">
         <v>1808</v>
@@ -19283,7 +19283,7 @@
         <v>2770</v>
       </c>
       <c r="D412" t="s">
-        <v>3266</v>
+        <v>3256</v>
       </c>
       <c r="E412" t="s">
         <v>1814</v>
@@ -19300,7 +19300,7 @@
         <v>2770</v>
       </c>
       <c r="D413" t="s">
-        <v>3267</v>
+        <v>3257</v>
       </c>
       <c r="E413" t="s">
         <v>1817</v>
@@ -19317,7 +19317,7 @@
         <v>2770</v>
       </c>
       <c r="D414" t="s">
-        <v>3268</v>
+        <v>3258</v>
       </c>
       <c r="E414" t="s">
         <v>1820</v>
@@ -19334,7 +19334,7 @@
         <v>2770</v>
       </c>
       <c r="D415" t="s">
-        <v>3269</v>
+        <v>3259</v>
       </c>
       <c r="E415" t="s">
         <v>1823</v>
@@ -19351,7 +19351,7 @@
         <v>2770</v>
       </c>
       <c r="D416" t="s">
-        <v>3270</v>
+        <v>3260</v>
       </c>
       <c r="E416" t="s">
         <v>1826</v>
@@ -19368,7 +19368,7 @@
         <v>2770</v>
       </c>
       <c r="D417" t="s">
-        <v>3271</v>
+        <v>3261</v>
       </c>
       <c r="E417" t="s">
         <v>1829</v>
@@ -19385,7 +19385,7 @@
         <v>2770</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>3272</v>
+        <v>3262</v>
       </c>
       <c r="E418" t="s">
         <v>1832</v>
@@ -19402,7 +19402,7 @@
         <v>2770</v>
       </c>
       <c r="D419" t="s">
-        <v>3273</v>
+        <v>3263</v>
       </c>
       <c r="E419" t="s">
         <v>1850</v>
@@ -19419,7 +19419,7 @@
         <v>2770</v>
       </c>
       <c r="D420" t="s">
-        <v>3274</v>
+        <v>3264</v>
       </c>
       <c r="E420" t="s">
         <v>1853</v>
@@ -19436,7 +19436,7 @@
         <v>2770</v>
       </c>
       <c r="D421" t="s">
-        <v>3275</v>
+        <v>3265</v>
       </c>
       <c r="E421" t="s">
         <v>1859</v>
@@ -19453,7 +19453,7 @@
         <v>2770</v>
       </c>
       <c r="D422" t="s">
-        <v>3276</v>
+        <v>3266</v>
       </c>
       <c r="E422" t="s">
         <v>1862</v>
@@ -19470,7 +19470,7 @@
         <v>2770</v>
       </c>
       <c r="D423" t="s">
-        <v>3277</v>
+        <v>3267</v>
       </c>
       <c r="E423" t="s">
         <v>1865</v>
@@ -19487,7 +19487,7 @@
         <v>2770</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>3278</v>
+        <v>3268</v>
       </c>
       <c r="E424" t="s">
         <v>1868</v>
@@ -19504,7 +19504,7 @@
         <v>2770</v>
       </c>
       <c r="D425" t="s">
-        <v>3279</v>
+        <v>3269</v>
       </c>
       <c r="E425" t="s">
         <v>1871</v>
@@ -19521,7 +19521,7 @@
         <v>2770</v>
       </c>
       <c r="D426" t="s">
-        <v>3280</v>
+        <v>3270</v>
       </c>
       <c r="E426" t="s">
         <v>1874</v>
@@ -19538,7 +19538,7 @@
         <v>2770</v>
       </c>
       <c r="D427" t="s">
-        <v>3281</v>
+        <v>3271</v>
       </c>
       <c r="E427" t="s">
         <v>1877</v>
@@ -19555,7 +19555,7 @@
         <v>2770</v>
       </c>
       <c r="D428" t="s">
-        <v>3282</v>
+        <v>3272</v>
       </c>
       <c r="E428" t="s">
         <v>1883</v>
@@ -19572,7 +19572,7 @@
         <v>2770</v>
       </c>
       <c r="D429" t="s">
-        <v>3283</v>
+        <v>3273</v>
       </c>
       <c r="E429" t="s">
         <v>1886</v>
@@ -19589,7 +19589,7 @@
         <v>2770</v>
       </c>
       <c r="D430" t="s">
-        <v>3284</v>
+        <v>3274</v>
       </c>
       <c r="E430" t="s">
         <v>1889</v>
@@ -19606,7 +19606,7 @@
         <v>2770</v>
       </c>
       <c r="D431" t="s">
-        <v>3285</v>
+        <v>3275</v>
       </c>
       <c r="E431" t="s">
         <v>1892</v>
@@ -19623,7 +19623,7 @@
         <v>2770</v>
       </c>
       <c r="D432" t="s">
-        <v>3286</v>
+        <v>3276</v>
       </c>
       <c r="E432" t="s">
         <v>1895</v>
@@ -19640,7 +19640,7 @@
         <v>2770</v>
       </c>
       <c r="D433" t="s">
-        <v>3287</v>
+        <v>3277</v>
       </c>
       <c r="E433" t="s">
         <v>1898</v>
@@ -19657,7 +19657,7 @@
         <v>2770</v>
       </c>
       <c r="D434" t="s">
-        <v>3288</v>
+        <v>3278</v>
       </c>
       <c r="E434" t="s">
         <v>1901</v>
@@ -19674,7 +19674,7 @@
         <v>2770</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>3289</v>
+        <v>3279</v>
       </c>
       <c r="E435" t="s">
         <v>1904</v>
@@ -19691,7 +19691,7 @@
         <v>2770</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>3290</v>
+        <v>3280</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>1907</v>
@@ -19708,7 +19708,7 @@
         <v>2770</v>
       </c>
       <c r="D437" t="s">
-        <v>3291</v>
+        <v>3281</v>
       </c>
       <c r="E437" t="s">
         <v>1913</v>
@@ -19725,7 +19725,7 @@
         <v>2770</v>
       </c>
       <c r="D438" t="s">
-        <v>3292</v>
+        <v>3282</v>
       </c>
       <c r="E438" t="s">
         <v>1919</v>
@@ -19742,7 +19742,7 @@
         <v>2770</v>
       </c>
       <c r="D439" t="s">
-        <v>3293</v>
+        <v>3283</v>
       </c>
       <c r="E439" t="s">
         <v>1922</v>
@@ -19759,7 +19759,7 @@
         <v>2770</v>
       </c>
       <c r="D440" t="s">
-        <v>3294</v>
+        <v>3284</v>
       </c>
       <c r="E440" t="s">
         <v>1925</v>
@@ -19776,7 +19776,7 @@
         <v>2770</v>
       </c>
       <c r="D441" t="s">
-        <v>3295</v>
+        <v>3285</v>
       </c>
       <c r="E441" t="s">
         <v>1928</v>
@@ -19793,7 +19793,7 @@
         <v>2764</v>
       </c>
       <c r="D442" t="s">
-        <v>3081</v>
+        <v>3073</v>
       </c>
       <c r="E442" t="s">
         <v>372</v>
@@ -19813,7 +19813,7 @@
         <v>375</v>
       </c>
       <c r="D443" t="s">
-        <v>3296</v>
+        <v>3286</v>
       </c>
       <c r="E443" t="s">
         <v>376</v>
@@ -19833,7 +19833,7 @@
         <v>375</v>
       </c>
       <c r="D444" t="s">
-        <v>3297</v>
+        <v>3287</v>
       </c>
       <c r="E444" t="s">
         <v>379</v>
@@ -19853,7 +19853,7 @@
         <v>375</v>
       </c>
       <c r="D445" t="s">
-        <v>3297</v>
+        <v>3287</v>
       </c>
       <c r="E445" t="s">
         <v>379</v>
@@ -19873,7 +19873,7 @@
         <v>375</v>
       </c>
       <c r="D446" t="s">
-        <v>3298</v>
+        <v>3288</v>
       </c>
       <c r="E446" t="s">
         <v>384</v>
@@ -19893,7 +19893,7 @@
         <v>375</v>
       </c>
       <c r="D447" t="s">
-        <v>3299</v>
+        <v>3289</v>
       </c>
       <c r="E447" t="s">
         <v>387</v>
@@ -19913,7 +19913,7 @@
         <v>375</v>
       </c>
       <c r="D448" t="s">
-        <v>3300</v>
+        <v>3290</v>
       </c>
       <c r="E448" t="s">
         <v>390</v>
@@ -19933,7 +19933,7 @@
         <v>375</v>
       </c>
       <c r="D449" t="s">
-        <v>3301</v>
+        <v>3291</v>
       </c>
       <c r="E449" t="s">
         <v>393</v>
@@ -19953,7 +19953,7 @@
         <v>375</v>
       </c>
       <c r="D450" t="s">
-        <v>3302</v>
+        <v>3292</v>
       </c>
       <c r="E450" t="s">
         <v>396</v>
@@ -19973,7 +19973,7 @@
         <v>375</v>
       </c>
       <c r="D451" t="s">
-        <v>3303</v>
+        <v>3293</v>
       </c>
       <c r="E451" t="s">
         <v>399</v>
@@ -19993,7 +19993,7 @@
         <v>375</v>
       </c>
       <c r="D452" t="s">
-        <v>3304</v>
+        <v>3294</v>
       </c>
       <c r="E452" t="s">
         <v>402</v>
@@ -20013,7 +20013,7 @@
         <v>375</v>
       </c>
       <c r="D453" t="s">
-        <v>3305</v>
+        <v>3295</v>
       </c>
       <c r="E453" t="s">
         <v>583</v>
@@ -20033,7 +20033,7 @@
         <v>375</v>
       </c>
       <c r="D454" t="s">
-        <v>3306</v>
+        <v>3296</v>
       </c>
       <c r="E454" t="s">
         <v>586</v>
@@ -20053,7 +20053,7 @@
         <v>375</v>
       </c>
       <c r="D455" t="s">
-        <v>3307</v>
+        <v>3297</v>
       </c>
       <c r="E455" t="s">
         <v>589</v>
@@ -20073,7 +20073,7 @@
         <v>375</v>
       </c>
       <c r="D456" t="s">
-        <v>3308</v>
+        <v>3298</v>
       </c>
       <c r="E456" t="s">
         <v>592</v>
@@ -20093,7 +20093,7 @@
         <v>375</v>
       </c>
       <c r="D457" t="s">
-        <v>3309</v>
+        <v>3299</v>
       </c>
       <c r="E457" t="s">
         <v>595</v>
@@ -20113,7 +20113,7 @@
         <v>375</v>
       </c>
       <c r="D458" t="s">
-        <v>3310</v>
+        <v>3300</v>
       </c>
       <c r="E458" t="s">
         <v>610</v>
@@ -20133,7 +20133,7 @@
         <v>375</v>
       </c>
       <c r="D459" t="s">
-        <v>3311</v>
+        <v>3301</v>
       </c>
       <c r="E459" t="s">
         <v>612</v>
@@ -20153,7 +20153,7 @@
         <v>375</v>
       </c>
       <c r="D460" t="s">
-        <v>3312</v>
+        <v>3302</v>
       </c>
       <c r="E460" t="s">
         <v>615</v>
@@ -20173,7 +20173,7 @@
         <v>375</v>
       </c>
       <c r="D461" t="s">
-        <v>3313</v>
+        <v>3303</v>
       </c>
       <c r="E461" t="s">
         <v>618</v>
@@ -20193,7 +20193,7 @@
         <v>375</v>
       </c>
       <c r="D462" t="s">
-        <v>3314</v>
+        <v>3304</v>
       </c>
       <c r="E462" t="s">
         <v>621</v>
@@ -20213,7 +20213,7 @@
         <v>375</v>
       </c>
       <c r="D463" t="s">
-        <v>3314</v>
+        <v>3304</v>
       </c>
       <c r="E463" t="s">
         <v>621</v>
@@ -20233,7 +20233,7 @@
         <v>375</v>
       </c>
       <c r="D464" t="s">
-        <v>3315</v>
+        <v>3305</v>
       </c>
       <c r="E464" t="s">
         <v>628</v>
@@ -20253,7 +20253,7 @@
         <v>375</v>
       </c>
       <c r="D465" t="s">
-        <v>3316</v>
+        <v>3306</v>
       </c>
       <c r="E465" t="s">
         <v>631</v>
@@ -20273,7 +20273,7 @@
         <v>375</v>
       </c>
       <c r="D466" t="s">
-        <v>3317</v>
+        <v>3307</v>
       </c>
       <c r="E466" t="s">
         <v>634</v>
@@ -20293,7 +20293,7 @@
         <v>375</v>
       </c>
       <c r="D467" t="s">
-        <v>3318</v>
+        <v>3308</v>
       </c>
       <c r="E467" t="s">
         <v>637</v>
@@ -20313,7 +20313,7 @@
         <v>375</v>
       </c>
       <c r="D468" t="s">
-        <v>3319</v>
+        <v>3309</v>
       </c>
       <c r="E468" t="s">
         <v>640</v>
@@ -20333,7 +20333,7 @@
         <v>375</v>
       </c>
       <c r="D469" t="s">
-        <v>3320</v>
+        <v>3310</v>
       </c>
       <c r="E469" t="s">
         <v>643</v>
@@ -20353,7 +20353,7 @@
         <v>375</v>
       </c>
       <c r="D470" t="s">
-        <v>3321</v>
+        <v>3311</v>
       </c>
       <c r="E470" t="s">
         <v>646</v>
@@ -20373,7 +20373,7 @@
         <v>375</v>
       </c>
       <c r="D471" t="s">
-        <v>3322</v>
+        <v>3312</v>
       </c>
       <c r="E471" t="s">
         <v>649</v>
@@ -20393,7 +20393,7 @@
         <v>375</v>
       </c>
       <c r="D472" t="s">
-        <v>3323</v>
+        <v>3313</v>
       </c>
       <c r="E472" t="s">
         <v>652</v>
@@ -20413,7 +20413,7 @@
         <v>375</v>
       </c>
       <c r="D473" t="s">
-        <v>3324</v>
+        <v>3314</v>
       </c>
       <c r="E473" t="s">
         <v>655</v>
@@ -20433,7 +20433,7 @@
         <v>375</v>
       </c>
       <c r="D474" t="s">
-        <v>3325</v>
+        <v>3315</v>
       </c>
       <c r="E474" t="s">
         <v>658</v>
@@ -20453,7 +20453,7 @@
         <v>375</v>
       </c>
       <c r="D475" t="s">
-        <v>3326</v>
+        <v>3316</v>
       </c>
       <c r="E475" t="s">
         <v>661</v>
@@ -20473,7 +20473,7 @@
         <v>375</v>
       </c>
       <c r="D476" t="s">
-        <v>3327</v>
+        <v>3317</v>
       </c>
       <c r="E476" t="s">
         <v>664</v>
@@ -20493,7 +20493,7 @@
         <v>375</v>
       </c>
       <c r="D477" t="s">
-        <v>3328</v>
+        <v>3318</v>
       </c>
       <c r="E477" t="s">
         <v>667</v>
@@ -20510,7 +20510,7 @@
         <v>2764</v>
       </c>
       <c r="D478" t="s">
-        <v>3110</v>
+        <v>3102</v>
       </c>
       <c r="E478" t="s">
         <v>1249</v>
@@ -20527,7 +20527,7 @@
         <v>2764</v>
       </c>
       <c r="D479" t="s">
-        <v>3329</v>
+        <v>3319</v>
       </c>
       <c r="E479" t="s">
         <v>1254</v>
@@ -20544,7 +20544,7 @@
         <v>2764</v>
       </c>
       <c r="D480" t="s">
-        <v>3330</v>
+        <v>3320</v>
       </c>
       <c r="E480" t="s">
         <v>1257</v>
@@ -20561,7 +20561,7 @@
         <v>2764</v>
       </c>
       <c r="D481" t="s">
-        <v>3331</v>
+        <v>3321</v>
       </c>
       <c r="E481" t="s">
         <v>1260</v>
@@ -20578,7 +20578,7 @@
         <v>2764</v>
       </c>
       <c r="D482" t="s">
-        <v>3332</v>
+        <v>3322</v>
       </c>
       <c r="E482" t="s">
         <v>1263</v>
@@ -20595,7 +20595,7 @@
         <v>2764</v>
       </c>
       <c r="D483" t="s">
-        <v>3118</v>
+        <v>3110</v>
       </c>
       <c r="E483" t="s">
         <v>1325</v>
@@ -20612,7 +20612,7 @@
         <v>2764</v>
       </c>
       <c r="D484" t="s">
-        <v>3333</v>
+        <v>3323</v>
       </c>
       <c r="E484" t="s">
         <v>1372</v>
@@ -20629,7 +20629,7 @@
         <v>2764</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>3334</v>
+        <v>3324</v>
       </c>
       <c r="E485" t="s">
         <v>1931</v>
@@ -20646,7 +20646,7 @@
         <v>2764</v>
       </c>
       <c r="D486" t="s">
-        <v>3335</v>
+        <v>3325</v>
       </c>
       <c r="E486" t="s">
         <v>1943</v>
@@ -20663,7 +20663,7 @@
         <v>2764</v>
       </c>
       <c r="D487" t="s">
-        <v>3336</v>
+        <v>3326</v>
       </c>
       <c r="E487" t="s">
         <v>1949</v>
@@ -20683,7 +20683,7 @@
         <v>110</v>
       </c>
       <c r="D488" t="s">
-        <v>3337</v>
+        <v>3327</v>
       </c>
       <c r="E488" t="s">
         <v>179</v>
@@ -20700,7 +20700,7 @@
         <v>2753</v>
       </c>
       <c r="D489" t="s">
-        <v>3338</v>
+        <v>3328</v>
       </c>
       <c r="E489" t="s">
         <v>363</v>
@@ -20720,7 +20720,7 @@
         <v>375</v>
       </c>
       <c r="D490" t="s">
-        <v>3339</v>
+        <v>3329</v>
       </c>
       <c r="E490" t="s">
         <v>551</v>
@@ -20740,7 +20740,7 @@
         <v>375</v>
       </c>
       <c r="D491" t="s">
-        <v>3340</v>
+        <v>3330</v>
       </c>
       <c r="E491" t="s">
         <v>554</v>
@@ -20760,7 +20760,7 @@
         <v>375</v>
       </c>
       <c r="D492" t="s">
-        <v>3341</v>
+        <v>3331</v>
       </c>
       <c r="E492" t="s">
         <v>562</v>
@@ -20780,7 +20780,7 @@
         <v>375</v>
       </c>
       <c r="D493" t="s">
-        <v>3341</v>
+        <v>3331</v>
       </c>
       <c r="E493" t="s">
         <v>562</v>
@@ -20800,7 +20800,7 @@
         <v>375</v>
       </c>
       <c r="D494" t="s">
-        <v>3342</v>
+        <v>3332</v>
       </c>
       <c r="E494" t="s">
         <v>580</v>
@@ -20820,7 +20820,7 @@
         <v>375</v>
       </c>
       <c r="D495" t="s">
-        <v>3343</v>
+        <v>3333</v>
       </c>
       <c r="E495" t="s">
         <v>797</v>
@@ -20840,7 +20840,7 @@
         <v>375</v>
       </c>
       <c r="D496" t="s">
-        <v>3344</v>
+        <v>3334</v>
       </c>
       <c r="E496" t="s">
         <v>800</v>
@@ -20857,7 +20857,7 @@
         <v>2753</v>
       </c>
       <c r="D497" t="s">
-        <v>3078</v>
+        <v>3070</v>
       </c>
       <c r="E497" t="s">
         <v>934</v>
@@ -20874,7 +20874,7 @@
         <v>2753</v>
       </c>
       <c r="D498" t="s">
-        <v>3345</v>
+        <v>3335</v>
       </c>
       <c r="E498" t="s">
         <v>943</v>
@@ -20891,7 +20891,7 @@
         <v>2753</v>
       </c>
       <c r="D499" t="s">
-        <v>3346</v>
+        <v>3336</v>
       </c>
       <c r="E499" t="s">
         <v>946</v>
@@ -20908,7 +20908,7 @@
         <v>2753</v>
       </c>
       <c r="D500" t="s">
-        <v>3347</v>
+        <v>3337</v>
       </c>
       <c r="E500" t="s">
         <v>1069</v>
@@ -20925,7 +20925,7 @@
         <v>2753</v>
       </c>
       <c r="D501" t="s">
-        <v>3348</v>
+        <v>3338</v>
       </c>
       <c r="E501" t="s">
         <v>1114</v>
@@ -20942,7 +20942,7 @@
         <v>2753</v>
       </c>
       <c r="D502" t="s">
-        <v>3349</v>
+        <v>3339</v>
       </c>
       <c r="E502" t="s">
         <v>1117</v>
@@ -20959,7 +20959,7 @@
         <v>2753</v>
       </c>
       <c r="D503" t="s">
-        <v>3350</v>
+        <v>3340</v>
       </c>
       <c r="E503" t="s">
         <v>1477</v>
@@ -20979,7 +20979,7 @@
         <v>1580</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>3351</v>
+        <v>3341</v>
       </c>
       <c r="E504" t="s">
         <v>1593</v>
@@ -20999,7 +20999,7 @@
         <v>1580</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>3352</v>
+        <v>3342</v>
       </c>
       <c r="E505" t="s">
         <v>1596</v>
@@ -21019,7 +21019,7 @@
         <v>1580</v>
       </c>
       <c r="D506" t="s">
-        <v>3353</v>
+        <v>3343</v>
       </c>
       <c r="E506" t="s">
         <v>1599</v>
@@ -21039,7 +21039,7 @@
         <v>1580</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>3354</v>
+        <v>3344</v>
       </c>
       <c r="E507" t="s">
         <v>1602</v>
@@ -21059,7 +21059,7 @@
         <v>1580</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>3355</v>
+        <v>3345</v>
       </c>
       <c r="E508" t="s">
         <v>1605</v>
@@ -21079,7 +21079,7 @@
         <v>1580</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>3356</v>
+        <v>3346</v>
       </c>
       <c r="E509" t="s">
         <v>1608</v>
@@ -21099,7 +21099,7 @@
         <v>1580</v>
       </c>
       <c r="D510" t="s">
-        <v>3357</v>
+        <v>3347</v>
       </c>
       <c r="E510" t="s">
         <v>1611</v>
@@ -21119,7 +21119,7 @@
         <v>1629</v>
       </c>
       <c r="D511" t="s">
-        <v>3358</v>
+        <v>3348</v>
       </c>
       <c r="E511" t="s">
         <v>1630</v>
@@ -21136,7 +21136,7 @@
         <v>2753</v>
       </c>
       <c r="D512" t="s">
-        <v>3359</v>
+        <v>3349</v>
       </c>
       <c r="E512" t="s">
         <v>1687</v>
@@ -21153,7 +21153,7 @@
         <v>2753</v>
       </c>
       <c r="D513" t="s">
-        <v>3360</v>
+        <v>3350</v>
       </c>
       <c r="E513" t="s">
         <v>1690</v>
@@ -21170,7 +21170,7 @@
         <v>2753</v>
       </c>
       <c r="D514" t="s">
-        <v>3361</v>
+        <v>3351</v>
       </c>
       <c r="E514" t="s">
         <v>1991</v>
@@ -21187,7 +21187,7 @@
         <v>2753</v>
       </c>
       <c r="D515" t="s">
-        <v>3362</v>
+        <v>3352</v>
       </c>
       <c r="E515" t="s">
         <v>1994</v>
@@ -21204,7 +21204,7 @@
         <v>2753</v>
       </c>
       <c r="D516" t="s">
-        <v>3363</v>
+        <v>3353</v>
       </c>
       <c r="E516" t="s">
         <v>1997</v>
@@ -21221,7 +21221,7 @@
         <v>2753</v>
       </c>
       <c r="D517" t="s">
-        <v>3364</v>
+        <v>3354</v>
       </c>
       <c r="E517" t="s">
         <v>2000</v>
@@ -21238,7 +21238,7 @@
         <v>2753</v>
       </c>
       <c r="D518" t="s">
-        <v>3365</v>
+        <v>3355</v>
       </c>
       <c r="E518" t="s">
         <v>2003</v>
@@ -21255,7 +21255,7 @@
         <v>2753</v>
       </c>
       <c r="D519" t="s">
-        <v>3366</v>
+        <v>3356</v>
       </c>
       <c r="E519" t="s">
         <v>2006</v>
@@ -21272,7 +21272,7 @@
         <v>2753</v>
       </c>
       <c r="D520" t="s">
-        <v>3367</v>
+        <v>3357</v>
       </c>
       <c r="E520" t="s">
         <v>2013</v>
@@ -21289,7 +21289,7 @@
         <v>2753</v>
       </c>
       <c r="D521" t="s">
-        <v>3368</v>
+        <v>3358</v>
       </c>
       <c r="E521" t="s">
         <v>2016</v>
@@ -21306,7 +21306,7 @@
         <v>2753</v>
       </c>
       <c r="D522" t="s">
-        <v>3369</v>
+        <v>3359</v>
       </c>
       <c r="E522" t="s">
         <v>2019</v>
@@ -21323,7 +21323,7 @@
         <v>2753</v>
       </c>
       <c r="D523" t="s">
-        <v>3370</v>
+        <v>3360</v>
       </c>
       <c r="E523" t="s">
         <v>2022</v>
@@ -21340,7 +21340,7 @@
         <v>2753</v>
       </c>
       <c r="D524" t="s">
-        <v>3371</v>
+        <v>3361</v>
       </c>
       <c r="E524" t="s">
         <v>2025</v>
@@ -21357,7 +21357,7 @@
         <v>2753</v>
       </c>
       <c r="D525" t="s">
-        <v>3372</v>
+        <v>3362</v>
       </c>
       <c r="E525" t="s">
         <v>2028</v>
@@ -21374,7 +21374,7 @@
         <v>2753</v>
       </c>
       <c r="D526" t="s">
-        <v>3373</v>
+        <v>3363</v>
       </c>
       <c r="E526" t="s">
         <v>2031</v>
@@ -21391,7 +21391,7 @@
         <v>2753</v>
       </c>
       <c r="D527" t="s">
-        <v>3374</v>
+        <v>3364</v>
       </c>
       <c r="E527" t="s">
         <v>2034</v>
@@ -21408,7 +21408,7 @@
         <v>2753</v>
       </c>
       <c r="D528" t="s">
-        <v>3375</v>
+        <v>3365</v>
       </c>
       <c r="E528" t="s">
         <v>2037</v>
@@ -21425,7 +21425,7 @@
         <v>2753</v>
       </c>
       <c r="D529" t="s">
-        <v>3376</v>
+        <v>3366</v>
       </c>
       <c r="E529" t="s">
         <v>2040</v>
@@ -21442,7 +21442,7 @@
         <v>2753</v>
       </c>
       <c r="D530" t="s">
-        <v>3377</v>
+        <v>3367</v>
       </c>
       <c r="E530" t="s">
         <v>2043</v>
@@ -21459,7 +21459,7 @@
         <v>2753</v>
       </c>
       <c r="D531" t="s">
-        <v>3378</v>
+        <v>3368</v>
       </c>
       <c r="E531" t="s">
         <v>2046</v>
@@ -21476,7 +21476,7 @@
         <v>2753</v>
       </c>
       <c r="D532" t="s">
-        <v>3379</v>
+        <v>3369</v>
       </c>
       <c r="E532" t="s">
         <v>2049</v>
@@ -21493,7 +21493,7 @@
         <v>2753</v>
       </c>
       <c r="D533" t="s">
-        <v>3380</v>
+        <v>3370</v>
       </c>
       <c r="E533" t="s">
         <v>2052</v>
@@ -21510,7 +21510,7 @@
         <v>2753</v>
       </c>
       <c r="D534" t="s">
-        <v>3381</v>
+        <v>3371</v>
       </c>
       <c r="E534" t="s">
         <v>2055</v>
@@ -21527,7 +21527,7 @@
         <v>2753</v>
       </c>
       <c r="D535" t="s">
-        <v>3382</v>
+        <v>3372</v>
       </c>
       <c r="E535" t="s">
         <v>2058</v>
@@ -21544,7 +21544,7 @@
         <v>2753</v>
       </c>
       <c r="D536" t="s">
-        <v>3383</v>
+        <v>3373</v>
       </c>
       <c r="E536" t="s">
         <v>2061</v>
@@ -21561,7 +21561,7 @@
         <v>2753</v>
       </c>
       <c r="D537" t="s">
-        <v>3384</v>
+        <v>3374</v>
       </c>
       <c r="E537" t="s">
         <v>2064</v>
@@ -21578,7 +21578,7 @@
         <v>2753</v>
       </c>
       <c r="D538" t="s">
-        <v>3385</v>
+        <v>3375</v>
       </c>
       <c r="E538" t="s">
         <v>2071</v>
@@ -21595,7 +21595,7 @@
         <v>2753</v>
       </c>
       <c r="D539" t="s">
-        <v>3386</v>
+        <v>3376</v>
       </c>
       <c r="E539" t="s">
         <v>2082</v>
@@ -21612,7 +21612,7 @@
         <v>2753</v>
       </c>
       <c r="D540" t="s">
-        <v>3387</v>
+        <v>3377</v>
       </c>
       <c r="E540" t="s">
         <v>2085</v>
@@ -21629,7 +21629,7 @@
         <v>2753</v>
       </c>
       <c r="D541" t="s">
-        <v>3388</v>
+        <v>3378</v>
       </c>
       <c r="E541" t="s">
         <v>2088</v>
@@ -21646,7 +21646,7 @@
         <v>2753</v>
       </c>
       <c r="D542" t="s">
-        <v>3389</v>
+        <v>3379</v>
       </c>
       <c r="E542" t="s">
         <v>2091</v>
@@ -21663,7 +21663,7 @@
         <v>2753</v>
       </c>
       <c r="D543" t="s">
-        <v>3390</v>
+        <v>3380</v>
       </c>
       <c r="E543" t="s">
         <v>2097</v>
@@ -21680,7 +21680,7 @@
         <v>2753</v>
       </c>
       <c r="D544" t="s">
-        <v>3391</v>
+        <v>3381</v>
       </c>
       <c r="E544" t="s">
         <v>2100</v>
@@ -21697,7 +21697,7 @@
         <v>2753</v>
       </c>
       <c r="D545" t="s">
-        <v>3392</v>
+        <v>3382</v>
       </c>
       <c r="E545" t="s">
         <v>2106</v>
@@ -21714,7 +21714,7 @@
         <v>2753</v>
       </c>
       <c r="D546" t="s">
-        <v>3393</v>
+        <v>3383</v>
       </c>
       <c r="E546" t="s">
         <v>2109</v>
@@ -21731,7 +21731,7 @@
         <v>2753</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>3394</v>
+        <v>3384</v>
       </c>
       <c r="E547" t="s">
         <v>2111</v>
@@ -21748,7 +21748,7 @@
         <v>2753</v>
       </c>
       <c r="D548" t="s">
-        <v>3395</v>
+        <v>3385</v>
       </c>
       <c r="E548" t="s">
         <v>2120</v>
@@ -21765,7 +21765,7 @@
         <v>2753</v>
       </c>
       <c r="D549" t="s">
-        <v>3396</v>
+        <v>3386</v>
       </c>
       <c r="E549" t="s">
         <v>2123</v>
@@ -21782,7 +21782,7 @@
         <v>2753</v>
       </c>
       <c r="D550" t="s">
-        <v>3397</v>
+        <v>3387</v>
       </c>
       <c r="E550" t="s">
         <v>2126</v>
@@ -21799,7 +21799,7 @@
         <v>2753</v>
       </c>
       <c r="D551" t="s">
-        <v>3398</v>
+        <v>3388</v>
       </c>
       <c r="E551" t="s">
         <v>2129</v>
@@ -21816,7 +21816,7 @@
         <v>2753</v>
       </c>
       <c r="D552" t="s">
-        <v>3399</v>
+        <v>3389</v>
       </c>
       <c r="E552" t="s">
         <v>2132</v>
@@ -21833,7 +21833,7 @@
         <v>2744</v>
       </c>
       <c r="D553" t="s">
-        <v>3400</v>
+        <v>3390</v>
       </c>
       <c r="E553" t="s">
         <v>47</v>
@@ -21853,7 +21853,7 @@
         <v>323</v>
       </c>
       <c r="D554" t="s">
-        <v>3401</v>
+        <v>3391</v>
       </c>
       <c r="E554" t="s">
         <v>333</v>
@@ -21870,7 +21870,7 @@
         <v>2744</v>
       </c>
       <c r="D555" t="s">
-        <v>3402</v>
+        <v>3392</v>
       </c>
       <c r="E555" t="s">
         <v>1225</v>
@@ -21887,7 +21887,7 @@
         <v>2744</v>
       </c>
       <c r="D556" t="s">
-        <v>3403</v>
+        <v>3393</v>
       </c>
       <c r="E556" t="s">
         <v>1228</v>
@@ -21904,7 +21904,7 @@
         <v>2744</v>
       </c>
       <c r="D557" t="s">
-        <v>3404</v>
+        <v>3394</v>
       </c>
       <c r="E557" t="s">
         <v>1231</v>
@@ -21921,7 +21921,7 @@
         <v>2744</v>
       </c>
       <c r="D558" t="s">
-        <v>3405</v>
+        <v>3395</v>
       </c>
       <c r="E558" t="s">
         <v>2135</v>
@@ -21938,7 +21938,7 @@
         <v>2744</v>
       </c>
       <c r="D559" t="s">
-        <v>3406</v>
+        <v>3396</v>
       </c>
       <c r="E559" t="s">
         <v>2138</v>
@@ -21955,7 +21955,7 @@
         <v>2744</v>
       </c>
       <c r="D560" t="s">
-        <v>3407</v>
+        <v>3397</v>
       </c>
       <c r="E560" t="s">
         <v>2141</v>
@@ -21972,7 +21972,7 @@
         <v>2744</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>3408</v>
+        <v>3398</v>
       </c>
       <c r="E561" t="s">
         <v>2144</v>
@@ -21989,7 +21989,7 @@
         <v>2744</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>3409</v>
+        <v>3399</v>
       </c>
       <c r="E562" t="s">
         <v>2147</v>
@@ -22006,7 +22006,7 @@
         <v>2744</v>
       </c>
       <c r="D563" t="s">
-        <v>3410</v>
+        <v>3400</v>
       </c>
       <c r="E563" t="s">
         <v>2150</v>
@@ -22023,7 +22023,7 @@
         <v>2744</v>
       </c>
       <c r="D564" t="s">
-        <v>3411</v>
+        <v>3401</v>
       </c>
       <c r="E564" t="s">
         <v>2156</v>
@@ -22040,7 +22040,7 @@
         <v>2744</v>
       </c>
       <c r="D565" t="s">
-        <v>3412</v>
+        <v>3402</v>
       </c>
       <c r="E565" t="s">
         <v>2159</v>
@@ -22057,7 +22057,7 @@
         <v>2744</v>
       </c>
       <c r="D566" t="s">
-        <v>3413</v>
+        <v>3403</v>
       </c>
       <c r="E566" t="s">
         <v>2162</v>
@@ -22074,7 +22074,7 @@
         <v>2744</v>
       </c>
       <c r="D567" t="s">
-        <v>3414</v>
+        <v>3404</v>
       </c>
       <c r="E567" t="s">
         <v>2165</v>
@@ -22091,7 +22091,7 @@
         <v>2744</v>
       </c>
       <c r="D568" t="s">
-        <v>3415</v>
+        <v>3405</v>
       </c>
       <c r="E568" t="s">
         <v>2168</v>
@@ -22108,7 +22108,7 @@
         <v>2744</v>
       </c>
       <c r="D569" t="s">
-        <v>3416</v>
+        <v>3406</v>
       </c>
       <c r="E569" t="s">
         <v>2174</v>
@@ -22125,7 +22125,7 @@
         <v>2744</v>
       </c>
       <c r="D570" t="s">
-        <v>3417</v>
+        <v>3407</v>
       </c>
       <c r="E570" t="s">
         <v>2177</v>
@@ -22142,7 +22142,7 @@
         <v>2744</v>
       </c>
       <c r="D571" t="s">
-        <v>3418</v>
+        <v>3408</v>
       </c>
       <c r="E571" t="s">
         <v>2180</v>
@@ -22159,7 +22159,7 @@
         <v>2744</v>
       </c>
       <c r="D572" t="s">
-        <v>3419</v>
+        <v>3409</v>
       </c>
       <c r="E572" t="s">
         <v>2183</v>
@@ -22176,7 +22176,7 @@
         <v>2744</v>
       </c>
       <c r="D573" t="s">
-        <v>3420</v>
+        <v>3410</v>
       </c>
       <c r="E573" t="s">
         <v>2186</v>
@@ -22193,7 +22193,7 @@
         <v>2744</v>
       </c>
       <c r="D574" t="s">
-        <v>3421</v>
+        <v>3411</v>
       </c>
       <c r="E574" t="s">
         <v>2189</v>
@@ -22210,7 +22210,7 @@
         <v>2744</v>
       </c>
       <c r="D575" t="s">
-        <v>3422</v>
+        <v>3412</v>
       </c>
       <c r="E575" t="s">
         <v>2192</v>
@@ -22227,7 +22227,7 @@
         <v>2744</v>
       </c>
       <c r="D576" t="s">
-        <v>3423</v>
+        <v>3413</v>
       </c>
       <c r="E576" t="s">
         <v>2195</v>
@@ -22244,7 +22244,7 @@
         <v>2744</v>
       </c>
       <c r="D577" t="s">
-        <v>3424</v>
+        <v>3414</v>
       </c>
       <c r="E577" t="s">
         <v>2198</v>
@@ -22261,7 +22261,7 @@
         <v>2744</v>
       </c>
       <c r="D578" t="s">
-        <v>3425</v>
+        <v>3415</v>
       </c>
       <c r="E578" t="s">
         <v>2201</v>
@@ -22278,7 +22278,7 @@
         <v>2754</v>
       </c>
       <c r="D579" t="s">
-        <v>3426</v>
+        <v>3416</v>
       </c>
       <c r="E579" t="s">
         <v>182</v>
@@ -22298,7 +22298,7 @@
         <v>375</v>
       </c>
       <c r="D580" t="s">
-        <v>3427</v>
+        <v>3417</v>
       </c>
       <c r="E580" t="s">
         <v>746</v>
@@ -22315,7 +22315,7 @@
         <v>2754</v>
       </c>
       <c r="D581" t="s">
-        <v>3428</v>
+        <v>3418</v>
       </c>
       <c r="E581" t="s">
         <v>821</v>
@@ -22332,7 +22332,7 @@
         <v>2754</v>
       </c>
       <c r="D582" t="s">
-        <v>3429</v>
+        <v>3419</v>
       </c>
       <c r="E582" t="s">
         <v>1126</v>
@@ -22349,7 +22349,7 @@
         <v>2754</v>
       </c>
       <c r="D583" t="s">
-        <v>3430</v>
+        <v>3420</v>
       </c>
       <c r="E583" t="s">
         <v>1159</v>
@@ -22366,7 +22366,7 @@
         <v>2754</v>
       </c>
       <c r="D584" t="s">
-        <v>3431</v>
+        <v>3421</v>
       </c>
       <c r="E584" t="s">
         <v>1162</v>
@@ -22383,7 +22383,7 @@
         <v>2754</v>
       </c>
       <c r="D585" t="s">
-        <v>3432</v>
+        <v>3422</v>
       </c>
       <c r="E585" t="s">
         <v>1174</v>
@@ -22400,7 +22400,7 @@
         <v>2754</v>
       </c>
       <c r="D586" t="s">
-        <v>3433</v>
+        <v>3423</v>
       </c>
       <c r="E586" t="s">
         <v>1550</v>
@@ -22417,7 +22417,7 @@
         <v>2754</v>
       </c>
       <c r="D587" t="s">
-        <v>3434</v>
+        <v>3424</v>
       </c>
       <c r="E587" t="s">
         <v>1568</v>
@@ -22434,7 +22434,7 @@
         <v>2754</v>
       </c>
       <c r="D588" t="s">
-        <v>3435</v>
+        <v>3425</v>
       </c>
       <c r="E588" t="s">
         <v>1775</v>
@@ -22451,7 +22451,7 @@
         <v>2754</v>
       </c>
       <c r="D589" t="s">
-        <v>3436</v>
+        <v>3426</v>
       </c>
       <c r="E589" t="s">
         <v>1778</v>
@@ -22468,7 +22468,7 @@
         <v>2754</v>
       </c>
       <c r="D590" t="s">
-        <v>3437</v>
+        <v>3427</v>
       </c>
       <c r="E590" t="s">
         <v>1952</v>
@@ -22485,7 +22485,7 @@
         <v>2754</v>
       </c>
       <c r="D591" t="s">
-        <v>3438</v>
+        <v>3428</v>
       </c>
       <c r="E591" t="s">
         <v>1955</v>
@@ -22502,7 +22502,7 @@
         <v>2754</v>
       </c>
       <c r="D592" t="s">
-        <v>3439</v>
+        <v>3429</v>
       </c>
       <c r="E592" t="s">
         <v>1958</v>
@@ -22519,7 +22519,7 @@
         <v>2754</v>
       </c>
       <c r="D593" t="s">
-        <v>3440</v>
+        <v>3430</v>
       </c>
       <c r="E593" t="s">
         <v>1961</v>
@@ -22536,7 +22536,7 @@
         <v>2754</v>
       </c>
       <c r="D594" t="s">
-        <v>3441</v>
+        <v>3431</v>
       </c>
       <c r="E594" t="s">
         <v>1964</v>
@@ -22553,7 +22553,7 @@
         <v>2754</v>
       </c>
       <c r="D595" t="s">
-        <v>3442</v>
+        <v>3432</v>
       </c>
       <c r="E595" t="s">
         <v>1967</v>
@@ -22570,7 +22570,7 @@
         <v>2754</v>
       </c>
       <c r="D596" t="s">
-        <v>3443</v>
+        <v>3433</v>
       </c>
       <c r="E596" t="s">
         <v>1970</v>
@@ -22587,7 +22587,7 @@
         <v>2754</v>
       </c>
       <c r="D597" t="s">
-        <v>3444</v>
+        <v>3434</v>
       </c>
       <c r="E597" t="s">
         <v>1973</v>
@@ -22604,7 +22604,7 @@
         <v>2754</v>
       </c>
       <c r="D598" t="s">
-        <v>3445</v>
+        <v>3435</v>
       </c>
       <c r="E598" t="s">
         <v>2094</v>
@@ -22621,7 +22621,7 @@
         <v>2754</v>
       </c>
       <c r="D599" t="s">
-        <v>3446</v>
+        <v>3436</v>
       </c>
       <c r="E599" t="s">
         <v>2103</v>
@@ -22638,7 +22638,7 @@
         <v>2754</v>
       </c>
       <c r="D600" t="s">
-        <v>3447</v>
+        <v>3437</v>
       </c>
       <c r="E600" t="s">
         <v>2204</v>
@@ -22655,7 +22655,7 @@
         <v>2754</v>
       </c>
       <c r="D601" t="s">
-        <v>3448</v>
+        <v>3438</v>
       </c>
       <c r="E601" t="s">
         <v>2207</v>
@@ -22672,7 +22672,7 @@
         <v>2754</v>
       </c>
       <c r="D602" t="s">
-        <v>3449</v>
+        <v>3439</v>
       </c>
       <c r="E602" t="s">
         <v>2210</v>
@@ -22689,7 +22689,7 @@
         <v>2754</v>
       </c>
       <c r="D603" t="s">
-        <v>3450</v>
+        <v>3440</v>
       </c>
       <c r="E603" t="s">
         <v>2216</v>
@@ -22706,7 +22706,7 @@
         <v>2754</v>
       </c>
       <c r="D604" t="s">
-        <v>3451</v>
+        <v>3441</v>
       </c>
       <c r="E604" t="s">
         <v>2222</v>
@@ -22723,7 +22723,7 @@
         <v>2754</v>
       </c>
       <c r="D605" t="s">
-        <v>3452</v>
+        <v>3442</v>
       </c>
       <c r="E605" t="s">
         <v>2225</v>
@@ -22740,7 +22740,7 @@
         <v>2754</v>
       </c>
       <c r="D606" t="s">
-        <v>3453</v>
+        <v>3443</v>
       </c>
       <c r="E606" t="s">
         <v>2228</v>
@@ -22757,7 +22757,7 @@
         <v>2754</v>
       </c>
       <c r="D607" t="s">
-        <v>3454</v>
+        <v>3444</v>
       </c>
       <c r="E607" t="s">
         <v>2231</v>
@@ -22774,7 +22774,7 @@
         <v>2754</v>
       </c>
       <c r="D608" t="s">
-        <v>3455</v>
+        <v>3445</v>
       </c>
       <c r="E608" t="s">
         <v>2234</v>
@@ -22791,7 +22791,7 @@
         <v>2754</v>
       </c>
       <c r="D609" t="s">
-        <v>3456</v>
+        <v>3446</v>
       </c>
       <c r="E609" t="s">
         <v>2237</v>
@@ -22808,7 +22808,7 @@
         <v>2754</v>
       </c>
       <c r="D610" t="s">
-        <v>3457</v>
+        <v>3447</v>
       </c>
       <c r="E610" t="s">
         <v>2240</v>
@@ -22825,7 +22825,7 @@
         <v>2754</v>
       </c>
       <c r="D611" t="s">
-        <v>3458</v>
+        <v>3448</v>
       </c>
       <c r="E611" t="s">
         <v>2243</v>
@@ -22842,7 +22842,7 @@
         <v>2754</v>
       </c>
       <c r="D612" t="s">
-        <v>3459</v>
+        <v>3449</v>
       </c>
       <c r="E612" t="s">
         <v>2246</v>
@@ -22859,7 +22859,7 @@
         <v>2754</v>
       </c>
       <c r="D613" t="s">
-        <v>3460</v>
+        <v>3450</v>
       </c>
       <c r="E613" t="s">
         <v>2249</v>
@@ -22876,7 +22876,7 @@
         <v>2754</v>
       </c>
       <c r="D614" t="s">
-        <v>3461</v>
+        <v>3451</v>
       </c>
       <c r="E614" t="s">
         <v>2252</v>
@@ -22893,7 +22893,7 @@
         <v>2754</v>
       </c>
       <c r="D615" t="s">
-        <v>3462</v>
+        <v>3452</v>
       </c>
       <c r="E615" t="s">
         <v>2255</v>
@@ -22910,7 +22910,7 @@
         <v>2754</v>
       </c>
       <c r="D616" t="s">
-        <v>3463</v>
+        <v>3453</v>
       </c>
       <c r="E616" t="s">
         <v>2258</v>
@@ -22927,7 +22927,7 @@
         <v>2754</v>
       </c>
       <c r="D617" t="s">
-        <v>3464</v>
+        <v>3454</v>
       </c>
       <c r="E617" t="s">
         <v>2261</v>
@@ -22944,7 +22944,7 @@
         <v>2754</v>
       </c>
       <c r="D618" t="s">
-        <v>3465</v>
+        <v>3455</v>
       </c>
       <c r="E618" t="s">
         <v>2264</v>
@@ -22961,7 +22961,7 @@
         <v>2754</v>
       </c>
       <c r="D619" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
       <c r="E619" t="s">
         <v>2276</v>
@@ -22978,7 +22978,7 @@
         <v>2754</v>
       </c>
       <c r="D620" t="s">
-        <v>3451</v>
+        <v>3441</v>
       </c>
       <c r="E620" t="s">
         <v>2222</v>
@@ -22998,7 +22998,7 @@
         <v>1017</v>
       </c>
       <c r="D621" t="s">
-        <v>3467</v>
+        <v>3457</v>
       </c>
       <c r="E621" t="s">
         <v>1024</v>
@@ -23015,7 +23015,7 @@
         <v>2784</v>
       </c>
       <c r="D622" t="s">
-        <v>3468</v>
+        <v>3458</v>
       </c>
       <c r="E622" t="s">
         <v>1087</v>
@@ -23032,7 +23032,7 @@
         <v>2777</v>
       </c>
       <c r="D623" t="s">
-        <v>3469</v>
+        <v>3459</v>
       </c>
       <c r="E623" t="s">
         <v>845</v>
@@ -23052,7 +23052,7 @@
         <v>110</v>
       </c>
       <c r="D624" t="s">
-        <v>3470</v>
+        <v>3460</v>
       </c>
       <c r="E624" t="s">
         <v>147</v>
@@ -23072,7 +23072,7 @@
         <v>110</v>
       </c>
       <c r="D625" t="s">
-        <v>3471</v>
+        <v>3461</v>
       </c>
       <c r="E625" t="s">
         <v>150</v>
@@ -23089,7 +23089,7 @@
         <v>2750</v>
       </c>
       <c r="D626" t="s">
-        <v>3472</v>
+        <v>3462</v>
       </c>
       <c r="E626" t="s">
         <v>2307</v>
@@ -23106,7 +23106,7 @@
         <v>2750</v>
       </c>
       <c r="D627" t="s">
-        <v>3473</v>
+        <v>3463</v>
       </c>
       <c r="E627" t="s">
         <v>2310</v>
@@ -23123,7 +23123,7 @@
         <v>2810</v>
       </c>
       <c r="D628" t="s">
-        <v>3474</v>
+        <v>3464</v>
       </c>
       <c r="E628" t="s">
         <v>2313</v>
@@ -23143,7 +23143,7 @@
         <v>375</v>
       </c>
       <c r="D629" t="s">
-        <v>3475</v>
+        <v>3465</v>
       </c>
       <c r="E629" t="s">
         <v>2316</v>
@@ -23160,7 +23160,7 @@
         <v>2746</v>
       </c>
       <c r="D630" t="s">
-        <v>3476</v>
+        <v>3466</v>
       </c>
       <c r="E630" t="s">
         <v>62</v>
@@ -23177,7 +23177,7 @@
         <v>2789</v>
       </c>
       <c r="D631" t="s">
-        <v>3477</v>
+        <v>3467</v>
       </c>
       <c r="E631" t="s">
         <v>1135</v>
@@ -23194,7 +23194,7 @@
         <v>2779</v>
       </c>
       <c r="D632" t="s">
-        <v>3478</v>
+        <v>3468</v>
       </c>
       <c r="E632" t="s">
         <v>861</v>
@@ -23214,7 +23214,7 @@
         <v>375</v>
       </c>
       <c r="D633" t="s">
-        <v>3479</v>
+        <v>3469</v>
       </c>
       <c r="E633" t="s">
         <v>2319</v>
@@ -23231,7 +23231,7 @@
         <v>2807</v>
       </c>
       <c r="D634" t="s">
-        <v>3480</v>
+        <v>3470</v>
       </c>
       <c r="E634" t="s">
         <v>2171</v>
@@ -23248,7 +23248,7 @@
         <v>2807</v>
       </c>
       <c r="D635" t="s">
-        <v>3481</v>
+        <v>3471</v>
       </c>
       <c r="E635" t="s">
         <v>2322</v>
@@ -23265,7 +23265,7 @@
         <v>2807</v>
       </c>
       <c r="D636" t="s">
-        <v>3482</v>
+        <v>3472</v>
       </c>
       <c r="E636" t="s">
         <v>2325</v>
@@ -23285,7 +23285,7 @@
         <v>110</v>
       </c>
       <c r="D637" t="s">
-        <v>3483</v>
+        <v>3473</v>
       </c>
       <c r="E637" t="s">
         <v>218</v>
@@ -23302,7 +23302,7 @@
         <v>2757</v>
       </c>
       <c r="D638" t="s">
-        <v>3484</v>
+        <v>3474</v>
       </c>
       <c r="E638" t="s">
         <v>305</v>
@@ -23319,7 +23319,7 @@
         <v>2757</v>
       </c>
       <c r="D639" t="s">
-        <v>3485</v>
+        <v>3475</v>
       </c>
       <c r="E639" t="s">
         <v>1045</v>
@@ -23336,7 +23336,7 @@
         <v>2757</v>
       </c>
       <c r="D640" t="s">
-        <v>3486</v>
+        <v>3476</v>
       </c>
       <c r="E640" t="s">
         <v>1102</v>
@@ -23353,7 +23353,7 @@
         <v>2757</v>
       </c>
       <c r="D641" t="s">
-        <v>3487</v>
+        <v>3477</v>
       </c>
       <c r="E641" t="s">
         <v>1198</v>
@@ -23370,7 +23370,7 @@
         <v>2757</v>
       </c>
       <c r="D642" t="s">
-        <v>3488</v>
+        <v>3478</v>
       </c>
       <c r="E642" t="s">
         <v>1313</v>
@@ -23387,7 +23387,7 @@
         <v>2757</v>
       </c>
       <c r="D643" t="s">
-        <v>3364</v>
+        <v>3354</v>
       </c>
       <c r="E643" t="s">
         <v>2000</v>
@@ -23404,7 +23404,7 @@
         <v>2757</v>
       </c>
       <c r="D644" t="s">
-        <v>3489</v>
+        <v>3479</v>
       </c>
       <c r="E644" t="s">
         <v>2213</v>
@@ -23421,7 +23421,7 @@
         <v>2757</v>
       </c>
       <c r="D645" t="s">
-        <v>3490</v>
+        <v>3480</v>
       </c>
       <c r="E645" t="s">
         <v>2219</v>
@@ -23438,7 +23438,7 @@
         <v>2757</v>
       </c>
       <c r="D646" t="s">
-        <v>3193</v>
+        <v>3183</v>
       </c>
       <c r="E646" t="s">
         <v>1648</v>
@@ -23455,7 +23455,7 @@
         <v>2757</v>
       </c>
       <c r="D647" t="s">
-        <v>3491</v>
+        <v>3481</v>
       </c>
       <c r="E647" t="s">
         <v>2330</v>
@@ -23472,7 +23472,7 @@
         <v>2812</v>
       </c>
       <c r="D648" t="s">
-        <v>3492</v>
+        <v>3482</v>
       </c>
       <c r="E648" t="s">
         <v>2333</v>
@@ -23492,7 +23492,7 @@
         <v>375</v>
       </c>
       <c r="D649" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="E649" t="s">
         <v>567</v>
@@ -23512,7 +23512,7 @@
         <v>375</v>
       </c>
       <c r="D650" t="s">
-        <v>3493</v>
+        <v>3483</v>
       </c>
       <c r="E650" t="s">
         <v>580</v>
@@ -23532,7 +23532,7 @@
         <v>375</v>
       </c>
       <c r="D651" t="s">
-        <v>3494</v>
+        <v>3484</v>
       </c>
       <c r="E651" t="s">
         <v>583</v>
@@ -23552,7 +23552,7 @@
         <v>375</v>
       </c>
       <c r="D652" t="s">
-        <v>3495</v>
+        <v>3485</v>
       </c>
       <c r="E652" t="s">
         <v>586</v>
@@ -23572,7 +23572,7 @@
         <v>375</v>
       </c>
       <c r="D653" t="s">
-        <v>3496</v>
+        <v>3486</v>
       </c>
       <c r="E653" t="s">
         <v>589</v>
@@ -23592,7 +23592,7 @@
         <v>375</v>
       </c>
       <c r="D654" t="s">
-        <v>3497</v>
+        <v>3487</v>
       </c>
       <c r="E654" t="s">
         <v>592</v>
@@ -23612,7 +23612,7 @@
         <v>375</v>
       </c>
       <c r="D655" t="s">
-        <v>3309</v>
+        <v>3299</v>
       </c>
       <c r="E655" t="s">
         <v>595</v>
@@ -23632,7 +23632,7 @@
         <v>375</v>
       </c>
       <c r="D656" t="s">
-        <v>3498</v>
+        <v>3488</v>
       </c>
       <c r="E656" t="s">
         <v>728</v>
@@ -23649,7 +23649,7 @@
         <v>2773</v>
       </c>
       <c r="D657" t="s">
-        <v>3499</v>
+        <v>3489</v>
       </c>
       <c r="E657" t="s">
         <v>2336</v>
@@ -23666,7 +23666,7 @@
         <v>2773</v>
       </c>
       <c r="D658" t="s">
-        <v>3500</v>
+        <v>3490</v>
       </c>
       <c r="E658" t="s">
         <v>2339</v>
@@ -23686,7 +23686,7 @@
         <v>854</v>
       </c>
       <c r="D659" t="s">
-        <v>3501</v>
+        <v>3491</v>
       </c>
       <c r="E659" t="s">
         <v>855</v>
@@ -23706,7 +23706,7 @@
         <v>854</v>
       </c>
       <c r="D660" t="s">
-        <v>3502</v>
+        <v>3492</v>
       </c>
       <c r="E660" t="s">
         <v>858</v>
@@ -23723,7 +23723,7 @@
         <v>2778</v>
       </c>
       <c r="D661" t="s">
-        <v>3503</v>
+        <v>3493</v>
       </c>
       <c r="E661" t="s">
         <v>1322</v>
@@ -23740,7 +23740,7 @@
         <v>2778</v>
       </c>
       <c r="D662" t="s">
-        <v>3504</v>
+        <v>3494</v>
       </c>
       <c r="E662" t="s">
         <v>1666</v>
@@ -23757,7 +23757,7 @@
         <v>2778</v>
       </c>
       <c r="D663" t="s">
-        <v>3505</v>
+        <v>3495</v>
       </c>
       <c r="E663" t="s">
         <v>1669</v>
@@ -23774,7 +23774,7 @@
         <v>2778</v>
       </c>
       <c r="D664" t="s">
-        <v>3506</v>
+        <v>3496</v>
       </c>
       <c r="E664" t="s">
         <v>2342</v>
@@ -23794,7 +23794,7 @@
         <v>375</v>
       </c>
       <c r="D665" t="s">
-        <v>3507</v>
+        <v>3497</v>
       </c>
       <c r="E665" t="s">
         <v>465</v>
@@ -23814,7 +23814,7 @@
         <v>375</v>
       </c>
       <c r="D666" t="s">
-        <v>3508</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -23825,7 +23825,7 @@
         <v>2771</v>
       </c>
       <c r="D667" t="s">
-        <v>3509</v>
+        <v>3499</v>
       </c>
       <c r="E667" t="s">
         <v>1946</v>
@@ -23845,7 +23845,7 @@
         <v>375</v>
       </c>
       <c r="D668" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E668" t="s">
         <v>405</v>
@@ -23862,7 +23862,7 @@
         <v>2765</v>
       </c>
       <c r="D669" t="s">
-        <v>3510</v>
+        <v>3500</v>
       </c>
       <c r="E669" t="s">
         <v>2345</v>
@@ -23879,7 +23879,7 @@
         <v>2765</v>
       </c>
       <c r="D670" t="s">
-        <v>3511</v>
+        <v>3501</v>
       </c>
       <c r="E670" t="s">
         <v>2348</v>
@@ -23896,7 +23896,7 @@
         <v>2813</v>
       </c>
       <c r="D671" t="s">
-        <v>3512</v>
+        <v>3502</v>
       </c>
       <c r="E671" t="s">
         <v>2351</v>
@@ -23913,7 +23913,7 @@
         <v>2804</v>
       </c>
       <c r="D672" t="s">
-        <v>3513</v>
+        <v>3503</v>
       </c>
       <c r="E672" t="s">
         <v>1937</v>
@@ -23930,7 +23930,7 @@
         <v>2803</v>
       </c>
       <c r="D673" t="s">
-        <v>3514</v>
+        <v>3504</v>
       </c>
       <c r="E673" t="s">
         <v>1934</v>
@@ -23947,7 +23947,7 @@
         <v>2803</v>
       </c>
       <c r="D674" t="s">
-        <v>3515</v>
+        <v>3505</v>
       </c>
       <c r="E674" t="s">
         <v>2357</v>
@@ -23964,7 +23964,7 @@
         <v>2803</v>
       </c>
       <c r="D675" t="s">
-        <v>3516</v>
+        <v>3506</v>
       </c>
       <c r="E675" t="s">
         <v>2360</v>
@@ -23981,7 +23981,7 @@
         <v>2803</v>
       </c>
       <c r="D676" t="s">
-        <v>3517</v>
+        <v>3507</v>
       </c>
       <c r="E676" t="s">
         <v>2363</v>
@@ -24001,7 +24001,7 @@
         <v>375</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>3518</v>
+        <v>3508</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>408</v>
@@ -24021,7 +24021,7 @@
         <v>375</v>
       </c>
       <c r="D678" t="s">
-        <v>3519</v>
+        <v>3509</v>
       </c>
       <c r="E678" t="s">
         <v>411</v>
@@ -24038,7 +24038,7 @@
         <v>2766</v>
       </c>
       <c r="D679" t="s">
-        <v>3520</v>
+        <v>3510</v>
       </c>
       <c r="E679" t="s">
         <v>1856</v>
@@ -24055,7 +24055,7 @@
         <v>2766</v>
       </c>
       <c r="D680" t="s">
-        <v>3521</v>
+        <v>3511</v>
       </c>
       <c r="E680" t="s">
         <v>1916</v>
@@ -24072,7 +24072,7 @@
         <v>2766</v>
       </c>
       <c r="D681" t="s">
-        <v>3522</v>
+        <v>3512</v>
       </c>
       <c r="E681" t="s">
         <v>2273</v>
@@ -24089,7 +24089,7 @@
         <v>2766</v>
       </c>
       <c r="D682" t="s">
-        <v>3523</v>
+        <v>3513</v>
       </c>
       <c r="E682" t="s">
         <v>2283</v>
@@ -24106,7 +24106,7 @@
         <v>2766</v>
       </c>
       <c r="D683" t="s">
-        <v>3524</v>
+        <v>3514</v>
       </c>
       <c r="E683" t="s">
         <v>2366</v>
@@ -24123,7 +24123,7 @@
         <v>2766</v>
       </c>
       <c r="D684" t="s">
-        <v>3525</v>
+        <v>3515</v>
       </c>
       <c r="E684" t="s">
         <v>2369</v>
@@ -24140,7 +24140,7 @@
         <v>2766</v>
       </c>
       <c r="D685" t="s">
-        <v>3526</v>
+        <v>3516</v>
       </c>
       <c r="E685" t="s">
         <v>2372</v>
@@ -24157,7 +24157,7 @@
         <v>2766</v>
       </c>
       <c r="D686" t="s">
-        <v>3527</v>
+        <v>3517</v>
       </c>
       <c r="E686" t="s">
         <v>2375</v>
@@ -24174,7 +24174,7 @@
         <v>2766</v>
       </c>
       <c r="D687" t="s">
-        <v>3528</v>
+        <v>3518</v>
       </c>
       <c r="E687" t="s">
         <v>2378</v>
@@ -24191,7 +24191,7 @@
         <v>2766</v>
       </c>
       <c r="D688" t="s">
-        <v>3529</v>
+        <v>3519</v>
       </c>
       <c r="E688" t="s">
         <v>2381</v>
@@ -24208,7 +24208,7 @@
         <v>2766</v>
       </c>
       <c r="D689" t="s">
-        <v>3530</v>
+        <v>3520</v>
       </c>
       <c r="E689" t="s">
         <v>2384</v>
@@ -24225,7 +24225,7 @@
         <v>2766</v>
       </c>
       <c r="D690" t="s">
-        <v>3531</v>
+        <v>3521</v>
       </c>
       <c r="E690" t="s">
         <v>2387</v>
@@ -24242,7 +24242,7 @@
         <v>2766</v>
       </c>
       <c r="D691" t="s">
-        <v>3532</v>
+        <v>3522</v>
       </c>
       <c r="E691" t="s">
         <v>2390</v>
@@ -24259,7 +24259,7 @@
         <v>2766</v>
       </c>
       <c r="D692" t="s">
-        <v>3533</v>
+        <v>3523</v>
       </c>
       <c r="E692" t="s">
         <v>2393</v>
@@ -24276,7 +24276,7 @@
         <v>2766</v>
       </c>
       <c r="D693" t="s">
-        <v>3534</v>
+        <v>3524</v>
       </c>
       <c r="E693" t="s">
         <v>2396</v>
@@ -24293,7 +24293,7 @@
         <v>2766</v>
       </c>
       <c r="D694" t="s">
-        <v>3535</v>
+        <v>3525</v>
       </c>
       <c r="E694" t="s">
         <v>2399</v>
@@ -24310,7 +24310,7 @@
         <v>2766</v>
       </c>
       <c r="D695" t="s">
-        <v>3536</v>
+        <v>3526</v>
       </c>
       <c r="E695" t="s">
         <v>2405</v>
@@ -24327,7 +24327,7 @@
         <v>2766</v>
       </c>
       <c r="D696" t="s">
-        <v>3537</v>
+        <v>3527</v>
       </c>
       <c r="E696" t="s">
         <v>2408</v>
@@ -24344,7 +24344,7 @@
         <v>2766</v>
       </c>
       <c r="D697" t="s">
-        <v>3538</v>
+        <v>3528</v>
       </c>
       <c r="E697" t="s">
         <v>2411</v>
@@ -24361,7 +24361,7 @@
         <v>2766</v>
       </c>
       <c r="D698" t="s">
-        <v>3539</v>
+        <v>3529</v>
       </c>
       <c r="E698" t="s">
         <v>2414</v>
@@ -24378,7 +24378,7 @@
         <v>2766</v>
       </c>
       <c r="D699" t="s">
-        <v>3540</v>
+        <v>3530</v>
       </c>
       <c r="E699" t="s">
         <v>2417</v>
@@ -24395,7 +24395,7 @@
         <v>2766</v>
       </c>
       <c r="D700" t="s">
-        <v>3541</v>
+        <v>3531</v>
       </c>
       <c r="E700" t="s">
         <v>2420</v>
@@ -24412,7 +24412,7 @@
         <v>2816</v>
       </c>
       <c r="D701" t="s">
-        <v>3542</v>
+        <v>3532</v>
       </c>
       <c r="E701" t="s">
         <v>2423</v>
@@ -24429,7 +24429,7 @@
         <v>2816</v>
       </c>
       <c r="D702" t="s">
-        <v>3543</v>
+        <v>3533</v>
       </c>
       <c r="E702" t="s">
         <v>2426</v>
@@ -24446,7 +24446,7 @@
         <v>2816</v>
       </c>
       <c r="D703" t="s">
-        <v>3544</v>
+        <v>3534</v>
       </c>
       <c r="E703" t="s">
         <v>2429</v>
@@ -24463,7 +24463,7 @@
         <v>2794</v>
       </c>
       <c r="D704" t="s">
-        <v>3545</v>
+        <v>3535</v>
       </c>
       <c r="E704" t="s">
         <v>1339</v>
@@ -24480,7 +24480,7 @@
         <v>2794</v>
       </c>
       <c r="D705" t="s">
-        <v>3546</v>
+        <v>3536</v>
       </c>
       <c r="E705" t="s">
         <v>2286</v>
@@ -24497,7 +24497,7 @@
         <v>2794</v>
       </c>
       <c r="D706" t="s">
-        <v>3547</v>
+        <v>3537</v>
       </c>
       <c r="E706" t="s">
         <v>2435</v>
@@ -24514,7 +24514,7 @@
         <v>2794</v>
       </c>
       <c r="D707" t="s">
-        <v>3548</v>
+        <v>3538</v>
       </c>
       <c r="E707" t="s">
         <v>2438</v>
@@ -24531,7 +24531,7 @@
         <v>2794</v>
       </c>
       <c r="D708" t="s">
-        <v>3549</v>
+        <v>3539</v>
       </c>
       <c r="E708" t="s">
         <v>2441</v>
@@ -24548,7 +24548,7 @@
         <v>2793</v>
       </c>
       <c r="D709" t="s">
-        <v>3550</v>
+        <v>3540</v>
       </c>
       <c r="E709" t="s">
         <v>1333</v>
@@ -24565,7 +24565,7 @@
         <v>2793</v>
       </c>
       <c r="D710" t="s">
-        <v>3551</v>
+        <v>3541</v>
       </c>
       <c r="E710" t="s">
         <v>1336</v>
@@ -24582,7 +24582,7 @@
         <v>2793</v>
       </c>
       <c r="D711" t="s">
-        <v>3552</v>
+        <v>3542</v>
       </c>
       <c r="E711" t="s">
         <v>1940</v>
@@ -24599,7 +24599,7 @@
         <v>2793</v>
       </c>
       <c r="D712" t="s">
-        <v>3553</v>
+        <v>3543</v>
       </c>
       <c r="E712" t="s">
         <v>2444</v>
@@ -24616,7 +24616,7 @@
         <v>2793</v>
       </c>
       <c r="D713" t="s">
-        <v>3554</v>
+        <v>3544</v>
       </c>
       <c r="E713" t="s">
         <v>2447</v>
@@ -24633,7 +24633,7 @@
         <v>2749</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>3555</v>
+        <v>3545</v>
       </c>
       <c r="E714" t="s">
         <v>129</v>
@@ -24653,7 +24653,7 @@
         <v>110</v>
       </c>
       <c r="D715" t="s">
-        <v>3556</v>
+        <v>3546</v>
       </c>
       <c r="E715" t="s">
         <v>212</v>
@@ -24673,7 +24673,7 @@
         <v>110</v>
       </c>
       <c r="D716" t="s">
-        <v>3557</v>
+        <v>3547</v>
       </c>
       <c r="E716" t="s">
         <v>224</v>
@@ -24690,7 +24690,7 @@
         <v>2749</v>
       </c>
       <c r="D717" t="s">
-        <v>3558</v>
+        <v>3548</v>
       </c>
       <c r="E717" t="s">
         <v>507</v>
@@ -24707,7 +24707,7 @@
         <v>2749</v>
       </c>
       <c r="D718" t="s">
-        <v>3559</v>
+        <v>3549</v>
       </c>
       <c r="E718" t="s">
         <v>510</v>
@@ -24727,7 +24727,7 @@
         <v>1017</v>
       </c>
       <c r="D719" t="s">
-        <v>3560</v>
+        <v>3550</v>
       </c>
       <c r="E719" t="s">
         <v>1027</v>
@@ -24747,7 +24747,7 @@
         <v>1017</v>
       </c>
       <c r="D720" t="s">
-        <v>3561</v>
+        <v>3551</v>
       </c>
       <c r="E720" t="s">
         <v>1036</v>
@@ -24767,7 +24767,7 @@
         <v>1017</v>
       </c>
       <c r="D721" t="s">
-        <v>3562</v>
+        <v>3552</v>
       </c>
       <c r="E721" t="s">
         <v>1039</v>
@@ -24784,7 +24784,7 @@
         <v>2749</v>
       </c>
       <c r="D722" t="s">
-        <v>3563</v>
+        <v>3553</v>
       </c>
       <c r="E722" t="s">
         <v>1048</v>
@@ -24801,7 +24801,7 @@
         <v>2749</v>
       </c>
       <c r="D723" t="s">
-        <v>3564</v>
+        <v>3554</v>
       </c>
       <c r="E723" t="s">
         <v>1051</v>
@@ -24818,7 +24818,7 @@
         <v>2749</v>
       </c>
       <c r="D724" t="s">
-        <v>3565</v>
+        <v>3555</v>
       </c>
       <c r="E724" t="s">
         <v>1054</v>
@@ -24835,7 +24835,7 @@
         <v>2749</v>
       </c>
       <c r="D725" t="s">
-        <v>3566</v>
+        <v>3556</v>
       </c>
       <c r="E725" t="s">
         <v>1171</v>
@@ -24855,7 +24855,7 @@
         <v>1580</v>
       </c>
       <c r="D726" t="s">
-        <v>3567</v>
+        <v>3557</v>
       </c>
       <c r="E726" t="s">
         <v>1617</v>
@@ -24875,7 +24875,7 @@
         <v>1580</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>3568</v>
+        <v>3558</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>1620</v>
@@ -24909,7 +24909,7 @@
         <v>2749</v>
       </c>
       <c r="D729" t="s">
-        <v>3569</v>
+        <v>3559</v>
       </c>
       <c r="E729" t="s">
         <v>2114</v>
@@ -24926,7 +24926,7 @@
         <v>2749</v>
       </c>
       <c r="D730" t="s">
-        <v>3570</v>
+        <v>3560</v>
       </c>
       <c r="E730" t="s">
         <v>2117</v>
@@ -24943,7 +24943,7 @@
         <v>2749</v>
       </c>
       <c r="D731" t="s">
-        <v>3571</v>
+        <v>3561</v>
       </c>
       <c r="E731" t="s">
         <v>2289</v>
@@ -24960,7 +24960,7 @@
         <v>2749</v>
       </c>
       <c r="D732" t="s">
-        <v>3572</v>
+        <v>3562</v>
       </c>
       <c r="E732" t="s">
         <v>2292</v>
@@ -24977,7 +24977,7 @@
         <v>2749</v>
       </c>
       <c r="D733" t="s">
-        <v>3573</v>
+        <v>3563</v>
       </c>
       <c r="E733" t="s">
         <v>2295</v>
@@ -24994,7 +24994,7 @@
         <v>2749</v>
       </c>
       <c r="D734" t="s">
-        <v>3574</v>
+        <v>3564</v>
       </c>
       <c r="E734" t="s">
         <v>2298</v>
@@ -25011,7 +25011,7 @@
         <v>2749</v>
       </c>
       <c r="D735" t="s">
-        <v>3575</v>
+        <v>3565</v>
       </c>
       <c r="E735" t="s">
         <v>2301</v>
@@ -25028,7 +25028,7 @@
         <v>2799</v>
       </c>
       <c r="D736" t="s">
-        <v>3576</v>
+        <v>3566</v>
       </c>
       <c r="E736" t="s">
         <v>1811</v>
@@ -25045,7 +25045,7 @@
         <v>2809</v>
       </c>
       <c r="D737" t="s">
-        <v>3577</v>
+        <v>3567</v>
       </c>
       <c r="E737" t="s">
         <v>2304</v>
@@ -25062,7 +25062,7 @@
         <v>2801</v>
       </c>
       <c r="D738" t="s">
-        <v>3578</v>
+        <v>3568</v>
       </c>
       <c r="E738" t="s">
         <v>1838</v>
@@ -25079,7 +25079,7 @@
         <v>2801</v>
       </c>
       <c r="D739" t="s">
-        <v>3579</v>
+        <v>3569</v>
       </c>
       <c r="E739" t="s">
         <v>1841</v>
@@ -25096,7 +25096,7 @@
         <v>2801</v>
       </c>
       <c r="D740" t="s">
-        <v>3580</v>
+        <v>3570</v>
       </c>
       <c r="E740" t="s">
         <v>1844</v>
@@ -25113,7 +25113,7 @@
         <v>2801</v>
       </c>
       <c r="D741" t="s">
-        <v>3581</v>
+        <v>3571</v>
       </c>
       <c r="E741" t="s">
         <v>1847</v>
@@ -25130,7 +25130,7 @@
         <v>2801</v>
       </c>
       <c r="D742" t="s">
-        <v>3466</v>
+        <v>3456</v>
       </c>
       <c r="E742" t="s">
         <v>2267</v>
@@ -25147,7 +25147,7 @@
         <v>2801</v>
       </c>
       <c r="D743" t="s">
-        <v>3582</v>
+        <v>3572</v>
       </c>
       <c r="E743" t="s">
         <v>2270</v>
@@ -25164,7 +25164,7 @@
         <v>2817</v>
       </c>
       <c r="D744" t="s">
-        <v>3583</v>
+        <v>3573</v>
       </c>
       <c r="E744" t="s">
         <v>2450</v>
@@ -25181,7 +25181,7 @@
         <v>2817</v>
       </c>
       <c r="D745" t="s">
-        <v>3584</v>
+        <v>3574</v>
       </c>
       <c r="E745" t="s">
         <v>2453</v>
@@ -25198,7 +25198,7 @@
         <v>2817</v>
       </c>
       <c r="D746" t="s">
-        <v>3585</v>
+        <v>3575</v>
       </c>
       <c r="E746" t="s">
         <v>2456</v>
@@ -25215,7 +25215,7 @@
         <v>2791</v>
       </c>
       <c r="D747" t="s">
-        <v>3586</v>
+        <v>3576</v>
       </c>
       <c r="E747" t="s">
         <v>1141</v>
@@ -25232,7 +25232,7 @@
         <v>2791</v>
       </c>
       <c r="D748" t="s">
-        <v>3587</v>
+        <v>3577</v>
       </c>
       <c r="E748" t="s">
         <v>1144</v>
@@ -25249,7 +25249,7 @@
         <v>2791</v>
       </c>
       <c r="D749" t="s">
-        <v>3588</v>
+        <v>3578</v>
       </c>
       <c r="E749" t="s">
         <v>1147</v>
@@ -25266,7 +25266,7 @@
         <v>2791</v>
       </c>
       <c r="D750" t="s">
-        <v>3589</v>
+        <v>3579</v>
       </c>
       <c r="E750" t="s">
         <v>1150</v>
@@ -25283,7 +25283,7 @@
         <v>2791</v>
       </c>
       <c r="D751" t="s">
-        <v>3590</v>
+        <v>3580</v>
       </c>
       <c r="E751" t="s">
         <v>1153</v>
@@ -25300,7 +25300,7 @@
         <v>2791</v>
       </c>
       <c r="D752" t="s">
-        <v>3591</v>
+        <v>3581</v>
       </c>
       <c r="E752" t="s">
         <v>1156</v>
@@ -25317,7 +25317,7 @@
         <v>2791</v>
       </c>
       <c r="D753" t="s">
-        <v>3592</v>
+        <v>3582</v>
       </c>
       <c r="E753" t="s">
         <v>2495</v>
@@ -25334,7 +25334,7 @@
         <v>2791</v>
       </c>
       <c r="D754" t="s">
-        <v>3593</v>
+        <v>3583</v>
       </c>
       <c r="E754" t="s">
         <v>2498</v>
@@ -25351,7 +25351,7 @@
         <v>2791</v>
       </c>
       <c r="D755" t="s">
-        <v>3594</v>
+        <v>3584</v>
       </c>
       <c r="E755" t="s">
         <v>2501</v>
@@ -25371,7 +25371,7 @@
         <v>110</v>
       </c>
       <c r="D756" t="s">
-        <v>3595</v>
+        <v>3585</v>
       </c>
       <c r="E756" t="s">
         <v>233</v>
@@ -25388,7 +25388,7 @@
         <v>2796</v>
       </c>
       <c r="D757" t="s">
-        <v>3596</v>
+        <v>3586</v>
       </c>
       <c r="E757" t="s">
         <v>1577</v>
@@ -25405,7 +25405,7 @@
         <v>2796</v>
       </c>
       <c r="D758" t="s">
-        <v>3597</v>
+        <v>3587</v>
       </c>
       <c r="E758" t="s">
         <v>2459</v>
@@ -25422,7 +25422,7 @@
         <v>2796</v>
       </c>
       <c r="D759" t="s">
-        <v>3598</v>
+        <v>3588</v>
       </c>
       <c r="E759" t="s">
         <v>2462</v>
@@ -25439,7 +25439,7 @@
         <v>2796</v>
       </c>
       <c r="D760" t="s">
-        <v>3599</v>
+        <v>3589</v>
       </c>
       <c r="E760" t="s">
         <v>2465</v>
@@ -25456,7 +25456,7 @@
         <v>2796</v>
       </c>
       <c r="D761" t="s">
-        <v>3600</v>
+        <v>3590</v>
       </c>
       <c r="E761" t="s">
         <v>2468</v>
@@ -25473,7 +25473,7 @@
         <v>2796</v>
       </c>
       <c r="D762" t="s">
-        <v>3601</v>
+        <v>3591</v>
       </c>
       <c r="E762" t="s">
         <v>2471</v>
@@ -25490,7 +25490,7 @@
         <v>2796</v>
       </c>
       <c r="D763" t="s">
-        <v>3602</v>
+        <v>3592</v>
       </c>
       <c r="E763" t="s">
         <v>2480</v>
@@ -25507,7 +25507,7 @@
         <v>2796</v>
       </c>
       <c r="D764" t="s">
-        <v>3603</v>
+        <v>3593</v>
       </c>
       <c r="E764" t="s">
         <v>2483</v>
@@ -25524,7 +25524,7 @@
         <v>2796</v>
       </c>
       <c r="D765" t="s">
-        <v>3604</v>
+        <v>3594</v>
       </c>
       <c r="E765" t="s">
         <v>2486</v>
@@ -25541,7 +25541,7 @@
         <v>2796</v>
       </c>
       <c r="D766" t="s">
-        <v>3605</v>
+        <v>3595</v>
       </c>
       <c r="E766" t="s">
         <v>2489</v>
@@ -25558,7 +25558,7 @@
         <v>2796</v>
       </c>
       <c r="D767" t="s">
-        <v>3606</v>
+        <v>3596</v>
       </c>
       <c r="E767" t="s">
         <v>2492</v>
@@ -25575,7 +25575,7 @@
         <v>2821</v>
       </c>
       <c r="D768" t="s">
-        <v>3607</v>
+        <v>3597</v>
       </c>
       <c r="E768" t="s">
         <v>2507</v>
@@ -25592,7 +25592,7 @@
         <v>2787</v>
       </c>
       <c r="D769" t="s">
-        <v>3608</v>
+        <v>3598</v>
       </c>
       <c r="E769" t="s">
         <v>1129</v>
@@ -25609,7 +25609,7 @@
         <v>2745</v>
       </c>
       <c r="D770" t="s">
-        <v>3609</v>
+        <v>3599</v>
       </c>
       <c r="E770" t="s">
         <v>50</v>
@@ -25626,7 +25626,7 @@
         <v>2745</v>
       </c>
       <c r="D771" t="s">
-        <v>3610</v>
+        <v>3600</v>
       </c>
       <c r="E771" t="s">
         <v>2510</v>
@@ -25643,7 +25643,7 @@
         <v>2822</v>
       </c>
       <c r="D772" t="s">
-        <v>3611</v>
+        <v>3601</v>
       </c>
       <c r="E772" t="s">
         <v>2516</v>
@@ -25660,7 +25660,7 @@
         <v>2823</v>
       </c>
       <c r="D773" t="s">
-        <v>3612</v>
+        <v>3602</v>
       </c>
       <c r="E773" t="s">
         <v>2519</v>
@@ -25677,7 +25677,7 @@
         <v>2824</v>
       </c>
       <c r="D774" t="s">
-        <v>3613</v>
+        <v>3603</v>
       </c>
       <c r="E774" t="s">
         <v>2522</v>
@@ -25694,7 +25694,7 @@
         <v>2790</v>
       </c>
       <c r="D775" t="s">
-        <v>3614</v>
+        <v>3604</v>
       </c>
       <c r="E775" t="s">
         <v>1138</v>
@@ -25711,7 +25711,7 @@
         <v>2790</v>
       </c>
       <c r="D776" t="s">
-        <v>3615</v>
+        <v>3605</v>
       </c>
       <c r="E776" t="s">
         <v>2531</v>
@@ -25728,7 +25728,7 @@
         <v>2790</v>
       </c>
       <c r="D777" t="s">
-        <v>3616</v>
+        <v>3606</v>
       </c>
       <c r="E777" t="s">
         <v>2534</v>
@@ -25745,7 +25745,7 @@
         <v>2827</v>
       </c>
       <c r="D778" t="s">
-        <v>3617</v>
+        <v>3607</v>
       </c>
       <c r="E778" t="s">
         <v>2537</v>
@@ -25762,7 +25762,7 @@
         <v>2827</v>
       </c>
       <c r="D779" t="s">
-        <v>3618</v>
+        <v>3608</v>
       </c>
       <c r="E779" t="s">
         <v>2540</v>
@@ -25779,7 +25779,7 @@
         <v>2786</v>
       </c>
       <c r="D780" t="s">
-        <v>3619</v>
+        <v>3609</v>
       </c>
       <c r="E780" t="s">
         <v>1096</v>
@@ -25796,7 +25796,7 @@
         <v>2828</v>
       </c>
       <c r="D781" t="s">
-        <v>3620</v>
+        <v>3610</v>
       </c>
       <c r="E781" t="s">
         <v>2543</v>
@@ -25813,7 +25813,7 @@
         <v>2829</v>
       </c>
       <c r="D782" t="s">
-        <v>3621</v>
+        <v>3611</v>
       </c>
       <c r="E782" t="s">
         <v>2549</v>
@@ -25830,7 +25830,7 @@
         <v>2829</v>
       </c>
       <c r="D783" t="s">
-        <v>3622</v>
+        <v>3612</v>
       </c>
       <c r="E783" t="s">
         <v>2552</v>
@@ -25847,7 +25847,7 @@
         <v>2829</v>
       </c>
       <c r="D784" t="s">
-        <v>3623</v>
+        <v>3613</v>
       </c>
       <c r="E784" t="s">
         <v>2555</v>
@@ -25864,7 +25864,7 @@
         <v>2829</v>
       </c>
       <c r="D785" t="s">
-        <v>3624</v>
+        <v>3614</v>
       </c>
       <c r="E785" t="s">
         <v>2558</v>
@@ -25881,7 +25881,7 @@
         <v>2829</v>
       </c>
       <c r="D786" t="s">
-        <v>3625</v>
+        <v>3615</v>
       </c>
       <c r="E786" t="s">
         <v>2561</v>
@@ -25898,7 +25898,7 @@
         <v>2797</v>
       </c>
       <c r="D787" t="s">
-        <v>3626</v>
+        <v>3616</v>
       </c>
       <c r="E787" t="s">
         <v>1657</v>
@@ -25915,7 +25915,7 @@
         <v>2797</v>
       </c>
       <c r="D788" t="s">
-        <v>3627</v>
+        <v>3617</v>
       </c>
       <c r="E788" t="s">
         <v>1660</v>
@@ -25932,7 +25932,7 @@
         <v>2785</v>
       </c>
       <c r="D789" t="s">
-        <v>3628</v>
+        <v>3618</v>
       </c>
       <c r="E789" t="s">
         <v>1042</v>
@@ -25949,7 +25949,7 @@
         <v>2808</v>
       </c>
       <c r="D790" t="s">
-        <v>3629</v>
+        <v>3619</v>
       </c>
       <c r="E790" t="s">
         <v>2280</v>
@@ -25966,7 +25966,7 @@
         <v>2808</v>
       </c>
       <c r="D791" t="s">
-        <v>3630</v>
+        <v>3620</v>
       </c>
       <c r="E791" t="s">
         <v>2567</v>
@@ -25983,7 +25983,7 @@
         <v>2808</v>
       </c>
       <c r="D792" t="s">
-        <v>3630</v>
+        <v>3620</v>
       </c>
       <c r="E792" t="s">
         <v>2567</v>
@@ -26000,7 +26000,7 @@
         <v>2831</v>
       </c>
       <c r="D793" t="s">
-        <v>3631</v>
+        <v>3621</v>
       </c>
       <c r="E793" t="s">
         <v>2572</v>
@@ -26020,7 +26020,7 @@
         <v>323</v>
       </c>
       <c r="D794" t="s">
-        <v>3632</v>
+        <v>3622</v>
       </c>
       <c r="E794" t="s">
         <v>342</v>
@@ -26037,7 +26037,7 @@
         <v>2763</v>
       </c>
       <c r="D795" t="s">
-        <v>3633</v>
+        <v>3623</v>
       </c>
       <c r="E795" t="s">
         <v>2546</v>
@@ -26054,7 +26054,7 @@
         <v>2802</v>
       </c>
       <c r="D796" t="s">
-        <v>3634</v>
+        <v>3624</v>
       </c>
       <c r="E796" t="s">
         <v>1910</v>
@@ -26071,7 +26071,7 @@
         <v>2802</v>
       </c>
       <c r="D797" t="s">
-        <v>3635</v>
+        <v>3625</v>
       </c>
       <c r="E797" t="s">
         <v>2575</v>
@@ -26088,7 +26088,7 @@
         <v>2762</v>
       </c>
       <c r="D798" t="s">
-        <v>3636</v>
+        <v>3626</v>
       </c>
       <c r="E798" t="s">
         <v>308</v>
@@ -26105,7 +26105,7 @@
         <v>2762</v>
       </c>
       <c r="D799" t="s">
-        <v>3637</v>
+        <v>3627</v>
       </c>
       <c r="E799" t="s">
         <v>480</v>
@@ -26122,7 +26122,7 @@
         <v>2762</v>
       </c>
       <c r="D800" t="s">
-        <v>3638</v>
+        <v>3628</v>
       </c>
       <c r="E800" t="s">
         <v>1480</v>
@@ -26139,7 +26139,7 @@
         <v>2798</v>
       </c>
       <c r="D801" t="s">
-        <v>3639</v>
+        <v>3629</v>
       </c>
       <c r="E801" t="s">
         <v>2863</v>
@@ -26156,7 +26156,7 @@
         <v>2798</v>
       </c>
       <c r="D802" t="s">
-        <v>3640</v>
+        <v>3630</v>
       </c>
       <c r="E802" t="s">
         <v>1709</v>
@@ -26173,7 +26173,7 @@
         <v>2818</v>
       </c>
       <c r="D803" t="s">
-        <v>3641</v>
+        <v>3631</v>
       </c>
       <c r="E803" t="s">
         <v>2474</v>
@@ -26193,7 +26193,7 @@
         <v>375</v>
       </c>
       <c r="D804" t="s">
-        <v>3642</v>
+        <v>3632</v>
       </c>
       <c r="E804" t="s">
         <v>453</v>
@@ -26213,7 +26213,7 @@
         <v>375</v>
       </c>
       <c r="D805" t="s">
-        <v>3643</v>
+        <v>3633</v>
       </c>
       <c r="E805" t="s">
         <v>456</v>
@@ -26230,7 +26230,7 @@
         <v>2769</v>
       </c>
       <c r="D806" t="s">
-        <v>3644</v>
+        <v>3634</v>
       </c>
       <c r="E806" t="s">
         <v>2153</v>
@@ -26247,7 +26247,7 @@
         <v>2769</v>
       </c>
       <c r="D807" t="s">
-        <v>3645</v>
+        <v>3635</v>
       </c>
       <c r="E807" t="s">
         <v>2432</v>
@@ -26264,7 +26264,7 @@
         <v>2769</v>
       </c>
       <c r="D808" t="s">
-        <v>3646</v>
+        <v>3636</v>
       </c>
       <c r="E808" t="s">
         <v>2578</v>
@@ -26281,7 +26281,7 @@
         <v>2769</v>
       </c>
       <c r="D809" t="s">
-        <v>3647</v>
+        <v>3637</v>
       </c>
       <c r="E809" t="s">
         <v>2581</v>
@@ -26298,7 +26298,7 @@
         <v>2819</v>
       </c>
       <c r="D810" t="s">
-        <v>3648</v>
+        <v>3638</v>
       </c>
       <c r="E810" t="s">
         <v>2477</v>
@@ -26318,7 +26318,7 @@
         <v>110</v>
       </c>
       <c r="D811" t="s">
-        <v>3649</v>
+        <v>3639</v>
       </c>
       <c r="E811" t="s">
         <v>245</v>
@@ -26338,7 +26338,7 @@
         <v>110</v>
       </c>
       <c r="D812" t="s">
-        <v>3650</v>
+        <v>3640</v>
       </c>
       <c r="E812" t="s">
         <v>242</v>
@@ -26355,7 +26355,7 @@
         <v>2830</v>
       </c>
       <c r="D813" t="s">
-        <v>3651</v>
+        <v>3641</v>
       </c>
       <c r="E813" t="s">
         <v>2564</v>
@@ -26372,7 +26372,7 @@
         <v>2820</v>
       </c>
       <c r="D814" t="s">
-        <v>3652</v>
+        <v>3642</v>
       </c>
       <c r="E814" t="s">
         <v>2504</v>
@@ -26389,7 +26389,7 @@
         <v>2815</v>
       </c>
       <c r="D815" t="s">
-        <v>3653</v>
+        <v>3643</v>
       </c>
       <c r="E815" t="s">
         <v>2402</v>
@@ -26406,7 +26406,7 @@
         <v>2825</v>
       </c>
       <c r="D816" t="s">
-        <v>3654</v>
+        <v>3644</v>
       </c>
       <c r="E816" t="s">
         <v>2525</v>
@@ -26423,7 +26423,7 @@
         <v>2826</v>
       </c>
       <c r="D817" t="s">
-        <v>3655</v>
+        <v>3645</v>
       </c>
       <c r="E817" t="s">
         <v>2528</v>
@@ -26440,7 +26440,7 @@
         <v>2776</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>3656</v>
+        <v>3646</v>
       </c>
       <c r="E818" t="s">
         <v>809</v>
@@ -26457,7 +26457,7 @@
         <v>2776</v>
       </c>
       <c r="D819" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="E819" t="s">
         <v>1281</v>
@@ -26474,7 +26474,7 @@
         <v>2776</v>
       </c>
       <c r="D820" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="E820" t="s">
         <v>1281</v>
@@ -26491,7 +26491,7 @@
         <v>2776</v>
       </c>
       <c r="D821" t="s">
-        <v>3657</v>
+        <v>3647</v>
       </c>
       <c r="E821" t="s">
         <v>1287</v>
@@ -26508,7 +26508,7 @@
         <v>2776</v>
       </c>
       <c r="D822" t="s">
-        <v>3658</v>
+        <v>3648</v>
       </c>
       <c r="E822" t="s">
         <v>1290</v>
@@ -26525,7 +26525,7 @@
         <v>2776</v>
       </c>
       <c r="D823" t="s">
-        <v>3659</v>
+        <v>3649</v>
       </c>
       <c r="E823" t="s">
         <v>1293</v>
@@ -26542,7 +26542,7 @@
         <v>2776</v>
       </c>
       <c r="D824" t="s">
-        <v>3660</v>
+        <v>3650</v>
       </c>
       <c r="E824" t="s">
         <v>1296</v>
@@ -26559,7 +26559,7 @@
         <v>2776</v>
       </c>
       <c r="D825" t="s">
-        <v>3661</v>
+        <v>3651</v>
       </c>
       <c r="E825" t="s">
         <v>1299</v>
@@ -26576,7 +26576,7 @@
         <v>2776</v>
       </c>
       <c r="D826" t="s">
-        <v>3662</v>
+        <v>3652</v>
       </c>
       <c r="E826" t="s">
         <v>1302</v>
@@ -26593,7 +26593,7 @@
         <v>2776</v>
       </c>
       <c r="D827" t="s">
-        <v>3657</v>
+        <v>3647</v>
       </c>
       <c r="E827" t="s">
         <v>1287</v>
@@ -26610,7 +26610,7 @@
         <v>2742</v>
       </c>
       <c r="D828" t="s">
-        <v>3663</v>
+        <v>3653</v>
       </c>
       <c r="E828" t="s">
         <v>31</v>
@@ -26627,7 +26627,7 @@
         <v>2742</v>
       </c>
       <c r="D829" t="s">
-        <v>3664</v>
+        <v>3654</v>
       </c>
       <c r="E829" t="s">
         <v>2584</v>
@@ -26644,7 +26644,7 @@
         <v>2742</v>
       </c>
       <c r="D830" t="s">
-        <v>3665</v>
+        <v>3655</v>
       </c>
       <c r="E830" t="s">
         <v>2587</v>
@@ -26661,7 +26661,7 @@
         <v>2742</v>
       </c>
       <c r="D831" t="s">
-        <v>3666</v>
+        <v>3656</v>
       </c>
       <c r="E831" t="s">
         <v>2590</v>
@@ -26678,7 +26678,7 @@
         <v>2832</v>
       </c>
       <c r="D832" t="s">
-        <v>3667</v>
+        <v>3657</v>
       </c>
       <c r="E832" t="s">
         <v>2593</v>
@@ -26695,7 +26695,7 @@
         <v>2761</v>
       </c>
       <c r="D833" t="s">
-        <v>3668</v>
+        <v>3658</v>
       </c>
       <c r="E833" t="s">
         <v>248</v>
@@ -26712,7 +26712,7 @@
         <v>2761</v>
       </c>
       <c r="D834" t="s">
-        <v>3669</v>
+        <v>3659</v>
       </c>
       <c r="E834" t="s">
         <v>2596</v>
@@ -26729,7 +26729,7 @@
         <v>2781</v>
       </c>
       <c r="D835" t="s">
-        <v>3670</v>
+        <v>3660</v>
       </c>
       <c r="E835" t="s">
         <v>904</v>
@@ -26746,7 +26746,7 @@
         <v>2833</v>
       </c>
       <c r="D836" t="s">
-        <v>3671</v>
+        <v>3661</v>
       </c>
       <c r="E836" t="s">
         <v>2599</v>
@@ -26763,7 +26763,7 @@
         <v>2833</v>
       </c>
       <c r="D837" t="s">
-        <v>3672</v>
+        <v>3662</v>
       </c>
       <c r="E837" t="s">
         <v>2602</v>
@@ -26780,7 +26780,7 @@
         <v>2833</v>
       </c>
       <c r="D838" t="s">
-        <v>3115</v>
+        <v>3107</v>
       </c>
       <c r="E838" t="s">
         <v>2605</v>
@@ -26797,7 +26797,7 @@
         <v>2747</v>
       </c>
       <c r="D839" t="s">
-        <v>3673</v>
+        <v>3663</v>
       </c>
       <c r="E839" t="s">
         <v>98</v>
@@ -26814,7 +26814,7 @@
         <v>2747</v>
       </c>
       <c r="D840" t="s">
-        <v>3674</v>
+        <v>3664</v>
       </c>
       <c r="E840" t="s">
         <v>101</v>
@@ -26831,7 +26831,7 @@
         <v>2747</v>
       </c>
       <c r="D841" t="s">
-        <v>3675</v>
+        <v>3665</v>
       </c>
       <c r="E841" t="s">
         <v>104</v>
@@ -26848,7 +26848,7 @@
         <v>2747</v>
       </c>
       <c r="D842" t="s">
-        <v>3676</v>
+        <v>3666</v>
       </c>
       <c r="E842" t="s">
         <v>107</v>
@@ -26865,7 +26865,7 @@
         <v>2747</v>
       </c>
       <c r="D843" t="s">
-        <v>3677</v>
+        <v>3667</v>
       </c>
       <c r="E843" t="s">
         <v>2607</v>
@@ -26882,7 +26882,7 @@
         <v>2747</v>
       </c>
       <c r="D844" t="s">
-        <v>3678</v>
+        <v>3668</v>
       </c>
       <c r="E844" t="s">
         <v>2610</v>
@@ -26899,7 +26899,7 @@
         <v>2780</v>
       </c>
       <c r="D845" t="s">
-        <v>3679</v>
+        <v>3669</v>
       </c>
       <c r="E845" t="s">
         <v>874</v>
@@ -26916,7 +26916,7 @@
         <v>2780</v>
       </c>
       <c r="D846" t="s">
-        <v>3680</v>
+        <v>3670</v>
       </c>
       <c r="E846" t="s">
         <v>961</v>
@@ -26933,7 +26933,7 @@
         <v>2780</v>
       </c>
       <c r="D847" t="s">
-        <v>3681</v>
+        <v>3671</v>
       </c>
       <c r="E847" t="s">
         <v>964</v>
@@ -26950,7 +26950,7 @@
         <v>2780</v>
       </c>
       <c r="D848" t="s">
-        <v>3682</v>
+        <v>3672</v>
       </c>
       <c r="E848" t="s">
         <v>2613</v>
@@ -26967,7 +26967,7 @@
         <v>2780</v>
       </c>
       <c r="D849" t="s">
-        <v>3683</v>
+        <v>3673</v>
       </c>
       <c r="E849" t="s">
         <v>2616</v>
@@ -26984,7 +26984,7 @@
         <v>2834</v>
       </c>
       <c r="D850" t="s">
-        <v>3684</v>
+        <v>3674</v>
       </c>
       <c r="E850" t="s">
         <v>2619</v>
@@ -27001,7 +27001,7 @@
         <v>2834</v>
       </c>
       <c r="D851" t="s">
-        <v>3685</v>
+        <v>3675</v>
       </c>
       <c r="E851" t="s">
         <v>2622</v>
@@ -27018,7 +27018,7 @@
         <v>2835</v>
       </c>
       <c r="D852" t="s">
-        <v>3126</v>
+        <v>3118</v>
       </c>
       <c r="E852" t="s">
         <v>2625</v>
@@ -27035,7 +27035,7 @@
         <v>2835</v>
       </c>
       <c r="D853" t="s">
-        <v>3686</v>
+        <v>3676</v>
       </c>
       <c r="E853" t="s">
         <v>2628</v>
@@ -27052,7 +27052,7 @@
         <v>2835</v>
       </c>
       <c r="D854" t="s">
-        <v>3687</v>
+        <v>3677</v>
       </c>
       <c r="E854" t="s">
         <v>2631</v>
@@ -27069,7 +27069,7 @@
         <v>2835</v>
       </c>
       <c r="D855" t="s">
-        <v>3688</v>
+        <v>3678</v>
       </c>
       <c r="E855" t="s">
         <v>2634</v>
@@ -27086,7 +27086,7 @@
         <v>2835</v>
       </c>
       <c r="D856" t="s">
-        <v>3689</v>
+        <v>3679</v>
       </c>
       <c r="E856" t="s">
         <v>2637</v>
@@ -27103,7 +27103,7 @@
         <v>2835</v>
       </c>
       <c r="D857" t="s">
-        <v>3690</v>
+        <v>3680</v>
       </c>
       <c r="E857" t="s">
         <v>2640</v>
@@ -27120,7 +27120,7 @@
         <v>2835</v>
       </c>
       <c r="D858" t="s">
-        <v>3691</v>
+        <v>3681</v>
       </c>
       <c r="E858" t="s">
         <v>2643</v>
@@ -27137,7 +27137,7 @@
         <v>2795</v>
       </c>
       <c r="D859" t="s">
-        <v>3692</v>
+        <v>3682</v>
       </c>
       <c r="E859" t="s">
         <v>1423</v>
@@ -27154,7 +27154,7 @@
         <v>2795</v>
       </c>
       <c r="D860" t="s">
-        <v>3693</v>
+        <v>3683</v>
       </c>
       <c r="E860" t="s">
         <v>1515</v>
@@ -27171,7 +27171,7 @@
         <v>2795</v>
       </c>
       <c r="D861" t="s">
-        <v>3694</v>
+        <v>3684</v>
       </c>
       <c r="E861" t="s">
         <v>1518</v>
@@ -27188,7 +27188,7 @@
         <v>2795</v>
       </c>
       <c r="D862" t="s">
-        <v>3695</v>
+        <v>3685</v>
       </c>
       <c r="E862" t="s">
         <v>1521</v>
@@ -27208,7 +27208,7 @@
         <v>375</v>
       </c>
       <c r="D863" t="s">
-        <v>3696</v>
+        <v>3686</v>
       </c>
       <c r="E863" t="s">
         <v>420</v>
@@ -27225,7 +27225,7 @@
         <v>2768</v>
       </c>
       <c r="D864" t="s">
-        <v>3697</v>
+        <v>3687</v>
       </c>
       <c r="E864" t="s">
         <v>2646</v>
@@ -27242,7 +27242,7 @@
         <v>2850</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>3698</v>
+        <v>3688</v>
       </c>
       <c r="E865" t="s">
         <v>2730</v>
@@ -27259,7 +27259,7 @@
         <v>2851</v>
       </c>
       <c r="D866" t="s">
-        <v>3699</v>
+        <v>3689</v>
       </c>
       <c r="E866" t="s">
         <v>2733</v>
@@ -27276,7 +27276,7 @@
         <v>2851</v>
       </c>
       <c r="D867" t="s">
-        <v>3700</v>
+        <v>3690</v>
       </c>
       <c r="E867" t="s">
         <v>2736</v>
@@ -27293,7 +27293,7 @@
         <v>2851</v>
       </c>
       <c r="D868" t="s">
-        <v>3701</v>
+        <v>3691</v>
       </c>
       <c r="E868" t="s">
         <v>2739</v>
@@ -27310,7 +27310,7 @@
         <v>2814</v>
       </c>
       <c r="D869" t="s">
-        <v>3702</v>
+        <v>3692</v>
       </c>
       <c r="E869" t="s">
         <v>2354</v>
@@ -27327,7 +27327,7 @@
         <v>2860</v>
       </c>
       <c r="D870" t="s">
-        <v>3703</v>
+        <v>3693</v>
       </c>
       <c r="E870" t="s">
         <v>2861</v>
@@ -27347,7 +27347,7 @@
         <v>375</v>
       </c>
       <c r="D871" t="s">
-        <v>3704</v>
+        <v>3694</v>
       </c>
       <c r="E871" t="s">
         <v>2854</v>
@@ -27364,7 +27364,7 @@
         <v>2856</v>
       </c>
       <c r="D872" t="s">
-        <v>3705</v>
+        <v>3695</v>
       </c>
       <c r="E872" t="s">
         <v>2857</v>
@@ -27381,7 +27381,7 @@
         <v>2783</v>
       </c>
       <c r="D873" t="s">
-        <v>3706</v>
+        <v>3696</v>
       </c>
       <c r="E873" t="s">
         <v>940</v>
@@ -27398,7 +27398,7 @@
         <v>2783</v>
       </c>
       <c r="D874" t="s">
-        <v>3707</v>
+        <v>3697</v>
       </c>
       <c r="E874" t="s">
         <v>1459</v>
@@ -27415,7 +27415,7 @@
         <v>2783</v>
       </c>
       <c r="D875" t="s">
-        <v>3708</v>
+        <v>3698</v>
       </c>
       <c r="E875" t="s">
         <v>2655</v>
@@ -27432,7 +27432,7 @@
         <v>2836</v>
       </c>
       <c r="D876" t="s">
-        <v>3709</v>
+        <v>3699</v>
       </c>
       <c r="E876" t="s">
         <v>2658</v>
@@ -27449,7 +27449,7 @@
         <v>2837</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>3710</v>
+        <v>3700</v>
       </c>
       <c r="E877" t="s">
         <v>2661</v>
@@ -27466,7 +27466,7 @@
         <v>2837</v>
       </c>
       <c r="D878" t="s">
-        <v>3711</v>
+        <v>3701</v>
       </c>
       <c r="E878" t="s">
         <v>2664</v>
@@ -27486,7 +27486,7 @@
         <v>375</v>
       </c>
       <c r="D879" t="s">
-        <v>3712</v>
+        <v>3702</v>
       </c>
       <c r="E879" t="s">
         <v>785</v>
@@ -27506,7 +27506,7 @@
         <v>375</v>
       </c>
       <c r="D880" t="s">
-        <v>3713</v>
+        <v>3757</v>
       </c>
       <c r="E880" t="s">
         <v>788</v>
@@ -27523,7 +27523,7 @@
         <v>2788</v>
       </c>
       <c r="D881" t="s">
-        <v>3714</v>
+        <v>3703</v>
       </c>
       <c r="E881" t="s">
         <v>1132</v>
@@ -27540,7 +27540,7 @@
         <v>2788</v>
       </c>
       <c r="D882" t="s">
-        <v>3715</v>
+        <v>3704</v>
       </c>
       <c r="E882" t="s">
         <v>2009</v>
@@ -27557,7 +27557,7 @@
         <v>2838</v>
       </c>
       <c r="D883" t="s">
-        <v>3716</v>
+        <v>3705</v>
       </c>
       <c r="E883" t="s">
         <v>2667</v>
@@ -27574,7 +27574,7 @@
         <v>2839</v>
       </c>
       <c r="D884" t="s">
-        <v>3717</v>
+        <v>3706</v>
       </c>
       <c r="E884" t="s">
         <v>2670</v>
@@ -27591,7 +27591,7 @@
         <v>2800</v>
       </c>
       <c r="D885" t="s">
-        <v>3718</v>
+        <v>3707</v>
       </c>
       <c r="E885" t="s">
         <v>1835</v>
@@ -27608,7 +27608,7 @@
         <v>2800</v>
       </c>
       <c r="D886" t="s">
-        <v>3719</v>
+        <v>3708</v>
       </c>
       <c r="E886" t="s">
         <v>2673</v>
@@ -27625,7 +27625,7 @@
         <v>2840</v>
       </c>
       <c r="D887" t="s">
-        <v>3720</v>
+        <v>3709</v>
       </c>
       <c r="E887" t="s">
         <v>2676</v>
@@ -27642,7 +27642,7 @@
         <v>2840</v>
       </c>
       <c r="D888" t="s">
-        <v>3721</v>
+        <v>3710</v>
       </c>
       <c r="E888" t="s">
         <v>2679</v>
@@ -27659,7 +27659,7 @@
         <v>2841</v>
       </c>
       <c r="D889" t="s">
-        <v>3722</v>
+        <v>3711</v>
       </c>
       <c r="E889" t="s">
         <v>2682</v>
@@ -27676,7 +27676,7 @@
         <v>2842</v>
       </c>
       <c r="D890" t="s">
-        <v>3723</v>
+        <v>3712</v>
       </c>
       <c r="E890" t="s">
         <v>2685</v>
@@ -27693,7 +27693,7 @@
         <v>2743</v>
       </c>
       <c r="D891" t="s">
-        <v>3724</v>
+        <v>3713</v>
       </c>
       <c r="E891" t="s">
         <v>33</v>
@@ -27710,7 +27710,7 @@
         <v>2843</v>
       </c>
       <c r="D892" t="s">
-        <v>3725</v>
+        <v>3714</v>
       </c>
       <c r="E892" t="s">
         <v>2688</v>
@@ -27727,7 +27727,7 @@
         <v>2844</v>
       </c>
       <c r="D893" t="s">
-        <v>3726</v>
+        <v>3715</v>
       </c>
       <c r="E893" t="s">
         <v>2691</v>
@@ -27744,7 +27744,7 @@
         <v>2845</v>
       </c>
       <c r="D894" t="s">
-        <v>3727</v>
+        <v>3716</v>
       </c>
       <c r="E894" t="s">
         <v>2694</v>
@@ -27764,7 +27764,7 @@
         <v>110</v>
       </c>
       <c r="D895" t="s">
-        <v>3728</v>
+        <v>3717</v>
       </c>
       <c r="E895" t="s">
         <v>153</v>
@@ -27781,7 +27781,7 @@
         <v>2751</v>
       </c>
       <c r="D896" t="s">
-        <v>3729</v>
+        <v>3718</v>
       </c>
       <c r="E896" t="s">
         <v>2697</v>
@@ -27798,7 +27798,7 @@
         <v>2751</v>
       </c>
       <c r="D897" t="s">
-        <v>3730</v>
+        <v>3719</v>
       </c>
       <c r="E897" t="s">
         <v>2700</v>
@@ -27815,7 +27815,7 @@
         <v>2846</v>
       </c>
       <c r="D898" t="s">
-        <v>3731</v>
+        <v>3720</v>
       </c>
       <c r="E898" t="s">
         <v>2703</v>
@@ -27832,7 +27832,7 @@
         <v>2846</v>
       </c>
       <c r="D899" t="s">
-        <v>3732</v>
+        <v>3721</v>
       </c>
       <c r="E899" t="s">
         <v>2706</v>
@@ -27852,7 +27852,7 @@
         <v>110</v>
       </c>
       <c r="D900" t="s">
-        <v>3733</v>
+        <v>3722</v>
       </c>
       <c r="E900" t="s">
         <v>188</v>
@@ -27872,7 +27872,7 @@
         <v>110</v>
       </c>
       <c r="D901" t="s">
-        <v>3734</v>
+        <v>3723</v>
       </c>
       <c r="E901" t="s">
         <v>194</v>
@@ -27889,7 +27889,7 @@
         <v>2755</v>
       </c>
       <c r="D902" t="s">
-        <v>3735</v>
+        <v>3724</v>
       </c>
       <c r="E902" t="s">
         <v>197</v>
@@ -27909,7 +27909,7 @@
         <v>110</v>
       </c>
       <c r="D903" t="s">
-        <v>3736</v>
+        <v>3725</v>
       </c>
       <c r="E903" t="s">
         <v>191</v>
@@ -27926,7 +27926,7 @@
         <v>2756</v>
       </c>
       <c r="D904" t="s">
-        <v>3737</v>
+        <v>3726</v>
       </c>
       <c r="E904" t="s">
         <v>2712</v>
@@ -27943,7 +27943,7 @@
         <v>2847</v>
       </c>
       <c r="D905" t="s">
-        <v>3738</v>
+        <v>3727</v>
       </c>
       <c r="E905" t="s">
         <v>2709</v>
@@ -27960,7 +27960,7 @@
         <v>2847</v>
       </c>
       <c r="D906" t="s">
-        <v>3739</v>
+        <v>3728</v>
       </c>
       <c r="E906" t="s">
         <v>2715</v>
@@ -27977,7 +27977,7 @@
         <v>2847</v>
       </c>
       <c r="D907" t="s">
-        <v>3740</v>
+        <v>3729</v>
       </c>
       <c r="E907" t="s">
         <v>2718</v>
@@ -27997,7 +27997,7 @@
         <v>110</v>
       </c>
       <c r="D908" t="s">
-        <v>3741</v>
+        <v>3730</v>
       </c>
       <c r="E908" t="s">
         <v>120</v>
@@ -28014,7 +28014,7 @@
         <v>2748</v>
       </c>
       <c r="D909" t="s">
-        <v>3742</v>
+        <v>3731</v>
       </c>
       <c r="E909" t="s">
         <v>1880</v>
@@ -28031,7 +28031,7 @@
         <v>2748</v>
       </c>
       <c r="D910" t="s">
-        <v>3743</v>
+        <v>3732</v>
       </c>
       <c r="E910" t="s">
         <v>2513</v>
@@ -28048,7 +28048,7 @@
         <v>2748</v>
       </c>
       <c r="D911" t="s">
-        <v>3744</v>
+        <v>3733</v>
       </c>
       <c r="E911" t="s">
         <v>2721</v>
@@ -28065,7 +28065,7 @@
         <v>2806</v>
       </c>
       <c r="D912" t="s">
-        <v>3745</v>
+        <v>3734</v>
       </c>
       <c r="E912" t="s">
         <v>2076</v>
@@ -28082,7 +28082,7 @@
         <v>2805</v>
       </c>
       <c r="D913" t="s">
-        <v>3746</v>
+        <v>3735</v>
       </c>
       <c r="E913" t="s">
         <v>2067</v>
@@ -28099,7 +28099,7 @@
         <v>2805</v>
       </c>
       <c r="D914" t="s">
-        <v>3746</v>
+        <v>3735</v>
       </c>
       <c r="E914" t="s">
         <v>2067</v>
@@ -28116,7 +28116,7 @@
         <v>2805</v>
       </c>
       <c r="D915" t="s">
-        <v>3385</v>
+        <v>3375</v>
       </c>
       <c r="E915" t="s">
         <v>2071</v>
@@ -28133,7 +28133,7 @@
         <v>2805</v>
       </c>
       <c r="D916" t="s">
-        <v>3747</v>
+        <v>3736</v>
       </c>
       <c r="E916" t="s">
         <v>2079</v>
@@ -28150,7 +28150,7 @@
         <v>2782</v>
       </c>
       <c r="D917" t="s">
-        <v>3748</v>
+        <v>3737</v>
       </c>
       <c r="E917" t="s">
         <v>937</v>
@@ -28167,7 +28167,7 @@
         <v>2782</v>
       </c>
       <c r="D918" t="s">
-        <v>3749</v>
+        <v>3738</v>
       </c>
       <c r="E918" t="s">
         <v>1307</v>
@@ -28184,7 +28184,7 @@
         <v>2782</v>
       </c>
       <c r="D919" t="s">
-        <v>3750</v>
+        <v>3739</v>
       </c>
       <c r="E919" t="s">
         <v>1310</v>
@@ -28201,7 +28201,7 @@
         <v>2782</v>
       </c>
       <c r="D920" t="s">
-        <v>3751</v>
+        <v>3740</v>
       </c>
       <c r="E920" t="s">
         <v>1976</v>
@@ -28218,7 +28218,7 @@
         <v>2782</v>
       </c>
       <c r="D921" t="s">
-        <v>3752</v>
+        <v>3741</v>
       </c>
       <c r="E921" t="s">
         <v>1979</v>
@@ -28235,7 +28235,7 @@
         <v>2782</v>
       </c>
       <c r="D922" t="s">
-        <v>3753</v>
+        <v>3742</v>
       </c>
       <c r="E922" t="s">
         <v>1982</v>
@@ -28252,7 +28252,7 @@
         <v>2782</v>
       </c>
       <c r="D923" t="s">
-        <v>3754</v>
+        <v>3743</v>
       </c>
       <c r="E923" t="s">
         <v>1985</v>
@@ -28269,7 +28269,7 @@
         <v>2782</v>
       </c>
       <c r="D924" t="s">
-        <v>3755</v>
+        <v>3744</v>
       </c>
       <c r="E924" t="s">
         <v>1988</v>
@@ -28286,7 +28286,7 @@
         <v>2782</v>
       </c>
       <c r="D925" t="s">
-        <v>3756</v>
+        <v>3745</v>
       </c>
       <c r="E925" t="s">
         <v>2649</v>
@@ -28303,7 +28303,7 @@
         <v>2782</v>
       </c>
       <c r="D926" t="s">
-        <v>3757</v>
+        <v>3746</v>
       </c>
       <c r="E926" t="s">
         <v>2652</v>
@@ -28320,7 +28320,7 @@
         <v>2848</v>
       </c>
       <c r="D927" t="s">
-        <v>3758</v>
+        <v>3747</v>
       </c>
       <c r="E927" t="s">
         <v>2724</v>
@@ -28340,7 +28340,7 @@
         <v>375</v>
       </c>
       <c r="D928" t="s">
-        <v>3759</v>
+        <v>3748</v>
       </c>
       <c r="E928" t="s">
         <v>414</v>
@@ -28360,7 +28360,7 @@
         <v>375</v>
       </c>
       <c r="D929" t="s">
-        <v>3760</v>
+        <v>3749</v>
       </c>
       <c r="E929" t="s">
         <v>417</v>
@@ -28377,7 +28377,7 @@
         <v>2767</v>
       </c>
       <c r="D930" t="s">
-        <v>3761</v>
+        <v>3750</v>
       </c>
       <c r="E930" t="s">
         <v>483</v>
@@ -28394,7 +28394,7 @@
         <v>2849</v>
       </c>
       <c r="D931" s="2" t="s">
-        <v>3762</v>
+        <v>3751</v>
       </c>
       <c r="E931" t="s">
         <v>2727</v>
